--- a/6_DrawFigure/Fig3_OutputTable/ImplicationResearch.xlsx
+++ b/6_DrawFigure/Fig3_OutputTable/ImplicationResearch.xlsx
@@ -8,25 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMIP6\Program\6_DrawFigure\Fig3_OutputTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B9B93F-1E14-4C89-A409-5B72A8BD1F24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76A5A7E-1F7B-4C93-84F4-502EDF6FA7EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quantity" sheetId="1" r:id="rId1"/>
     <sheet name="Percentage" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="62">
   <si>
     <t>Mekong</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,9 +186,6 @@
   </si>
   <si>
     <t>Maize</t>
-  </si>
-  <si>
-    <t>Oilpalm</t>
   </si>
   <si>
     <t>Rice</t>
@@ -297,7 +302,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -320,96 +325,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -426,17 +346,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -444,44 +377,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -765,9 +671,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q3" sqref="Q3:Q44"/>
+      <selection pane="bottomLeft" activeCell="Z3" sqref="Z3:Z44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -784,139 +690,133 @@
     <col min="15" max="15" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.875" style="1" customWidth="1"/>
     <col min="19" max="19" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.125" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7.125" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="7.625" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="19"/>
+      <c r="F1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="12"/>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="23"/>
-    </row>
-    <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="V2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="W2" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="X2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Y2" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Z2" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
@@ -926,8 +826,8 @@
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="6"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -937,7 +837,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="13">
+      <c r="N3" s="7">
         <v>1263132.375</v>
       </c>
       <c r="O3" s="4">
@@ -949,24 +849,41 @@
       <c r="Q3" s="4">
         <v>1471804.25</v>
       </c>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
+      <c r="R3" s="4">
+        <v>17.677070617675781</v>
+      </c>
+      <c r="S3" s="4">
+        <v>4006115.5</v>
+      </c>
+      <c r="T3" s="4">
+        <v>558.54827880859375</v>
+      </c>
+      <c r="U3" s="4">
+        <v>21704.87890625</v>
+      </c>
+      <c r="V3" s="4">
+        <v>29654.705078125</v>
+      </c>
+      <c r="W3" s="4">
+        <v>4.599797248840332</v>
+      </c>
+      <c r="X3" s="4">
+        <v>2.0025737583637238E-2</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>277483.09375</v>
+      </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="6"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -976,7 +893,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="13">
+      <c r="N4" s="7">
         <v>136985.8125</v>
       </c>
       <c r="O4" s="4">
@@ -988,24 +905,41 @@
       <c r="Q4" s="4">
         <v>39211.83984375</v>
       </c>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
+      <c r="R4" s="4">
+        <v>1066.2626953125</v>
+      </c>
+      <c r="S4" s="4">
+        <v>176972.4375</v>
+      </c>
+      <c r="T4" s="4">
+        <v>684.24530029296875</v>
+      </c>
+      <c r="U4" s="4">
+        <v>0</v>
+      </c>
+      <c r="V4" s="4">
+        <v>41200.2421875</v>
+      </c>
+      <c r="W4" s="4">
+        <v>14.571928024291992</v>
+      </c>
+      <c r="X4" s="4">
+        <v>24.809492111206055</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="6"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -1015,7 +949,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="13">
+      <c r="N5" s="7">
         <v>1229416.25</v>
       </c>
       <c r="O5" s="4">
@@ -1027,24 +961,41 @@
       <c r="Q5" s="4">
         <v>667146.6875</v>
       </c>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
+      <c r="R5" s="4">
+        <v>192.75987243652344</v>
+      </c>
+      <c r="S5" s="4">
+        <v>1614085.75</v>
+      </c>
+      <c r="T5" s="4">
+        <v>199533.828125</v>
+      </c>
+      <c r="U5" s="4">
+        <v>23464.73828125</v>
+      </c>
+      <c r="V5" s="4">
+        <v>25630.6484375</v>
+      </c>
+      <c r="W5" s="4">
+        <v>1640.356689453125</v>
+      </c>
+      <c r="X5" s="4">
+        <v>7.1368908882141113</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>224826.21875</v>
+      </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="20"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="6"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1054,7 +1005,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="13">
+      <c r="N6" s="7">
         <v>264005.78125</v>
       </c>
       <c r="O6" s="4">
@@ -1066,24 +1017,41 @@
       <c r="Q6" s="4">
         <v>585505.5</v>
       </c>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
+      <c r="R6" s="4">
+        <v>4815.94677734375</v>
+      </c>
+      <c r="S6" s="4">
+        <v>2789812.75</v>
+      </c>
+      <c r="T6" s="4">
+        <v>144850</v>
+      </c>
+      <c r="U6" s="4">
+        <v>1927.4013671875</v>
+      </c>
+      <c r="V6" s="4">
+        <v>7788.27001953125</v>
+      </c>
+      <c r="W6" s="4">
+        <v>231.429931640625</v>
+      </c>
+      <c r="X6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>261735.921875</v>
+      </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="6"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -1093,7 +1061,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="13">
+      <c r="N7" s="7">
         <v>3819839</v>
       </c>
       <c r="O7" s="4">
@@ -1105,16 +1073,33 @@
       <c r="Q7" s="4">
         <v>1529706</v>
       </c>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
+      <c r="R7" s="4">
+        <v>47141.94140625</v>
+      </c>
+      <c r="S7" s="4">
+        <v>7425799.5</v>
+      </c>
+      <c r="T7" s="4">
+        <v>1659030</v>
+      </c>
+      <c r="U7" s="4">
+        <v>71126.0625</v>
+      </c>
+      <c r="V7" s="4">
+        <v>137324.84375</v>
+      </c>
+      <c r="W7" s="4">
+        <v>3696.3212890625</v>
+      </c>
+      <c r="X7" s="4">
+        <v>0.11831200122833252</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>2043348.75</v>
+      </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
@@ -1123,8 +1108,8 @@
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="6"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -1134,7 +1119,7 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="13">
+      <c r="N8" s="7">
         <v>533586.25</v>
       </c>
       <c r="O8" s="4">
@@ -1146,24 +1131,41 @@
       <c r="Q8" s="4">
         <v>263635.71875</v>
       </c>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
+      <c r="R8" s="4">
+        <v>347633.5</v>
+      </c>
+      <c r="S8" s="4">
+        <v>7165990</v>
+      </c>
+      <c r="T8" s="4">
+        <v>5362.640625</v>
+      </c>
+      <c r="U8" s="4">
+        <v>371321.3125</v>
+      </c>
+      <c r="V8" s="4">
+        <v>21256.49609375</v>
+      </c>
+      <c r="W8" s="4">
+        <v>2132.75830078125</v>
+      </c>
+      <c r="X8" s="4">
+        <v>11600.431640625</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>378473.09375</v>
+      </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="20"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="6"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1173,7 +1175,7 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="13">
+      <c r="N9" s="7">
         <v>1534126.875</v>
       </c>
       <c r="O9" s="4">
@@ -1185,24 +1187,41 @@
       <c r="Q9" s="4">
         <v>821320.5625</v>
       </c>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
+      <c r="R9" s="4">
+        <v>269253.1875</v>
+      </c>
+      <c r="S9" s="4">
+        <v>4258582</v>
+      </c>
+      <c r="T9" s="4">
+        <v>14007.390625</v>
+      </c>
+      <c r="U9" s="4">
+        <v>123592.0234375</v>
+      </c>
+      <c r="V9" s="4">
+        <v>18559.228515625</v>
+      </c>
+      <c r="W9" s="4">
+        <v>321.23196411132813</v>
+      </c>
+      <c r="X9" s="4">
+        <v>601.707763671875</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>26857.35546875</v>
+      </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="20"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="6"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1212,7 +1231,7 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="13">
+      <c r="N10" s="7">
         <v>465.01300048828125</v>
       </c>
       <c r="O10" s="4">
@@ -1224,26 +1243,43 @@
       <c r="Q10" s="4">
         <v>314.28616333007813</v>
       </c>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
+      <c r="R10" s="4">
+        <v>39.408790588378906</v>
+      </c>
+      <c r="S10" s="4">
+        <v>931.531005859375</v>
+      </c>
+      <c r="T10" s="4">
+        <v>44.762035369873047</v>
+      </c>
+      <c r="U10" s="4">
+        <v>182.08000183105469</v>
+      </c>
+      <c r="V10" s="4">
+        <v>8.5617942810058594</v>
+      </c>
+      <c r="W10" s="4">
+        <v>5.4515981674194336</v>
+      </c>
+      <c r="X10" s="4">
+        <v>3.5482577979564667E-2</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>657.2659912109375</v>
+      </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="6"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -1253,7 +1289,7 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="13">
+      <c r="N11" s="7">
         <v>25605032</v>
       </c>
       <c r="O11" s="4">
@@ -1265,24 +1301,41 @@
       <c r="Q11" s="4">
         <v>50703636</v>
       </c>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
+      <c r="R11" s="4">
+        <v>136879.484375</v>
+      </c>
+      <c r="S11" s="4">
+        <v>1674462.875</v>
+      </c>
+      <c r="T11" s="4">
+        <v>28836.1796875</v>
+      </c>
+      <c r="U11" s="4">
+        <v>6479.931640625</v>
+      </c>
+      <c r="V11" s="4">
+        <v>30138116</v>
+      </c>
+      <c r="W11" s="4">
+        <v>3606.650634765625</v>
+      </c>
+      <c r="X11" s="4">
+        <v>75.018844604492188</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>6891267.5</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>1594704.875</v>
+      </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="20"/>
       <c r="B12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="6"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1292,7 +1345,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="13">
+      <c r="N12" s="7">
         <v>371008.375</v>
       </c>
       <c r="O12" s="4">
@@ -1304,24 +1357,41 @@
       <c r="Q12" s="4">
         <v>26491.927734375</v>
       </c>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
+      <c r="R12" s="4">
+        <v>31895.53515625</v>
+      </c>
+      <c r="S12" s="4">
+        <v>9188.7685546875</v>
+      </c>
+      <c r="T12" s="4">
+        <v>3.3806134015321732E-2</v>
+      </c>
+      <c r="U12" s="4">
+        <v>59281.203125</v>
+      </c>
+      <c r="V12" s="4">
+        <v>35503.6171875</v>
+      </c>
+      <c r="W12" s="4">
+        <v>0</v>
+      </c>
+      <c r="X12" s="4">
+        <v>641.0972900390625</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>9989.73828125</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>5111.10546875</v>
+      </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="6"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -1331,7 +1401,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="13">
+      <c r="N13" s="7">
         <v>439209.875</v>
       </c>
       <c r="O13" s="4">
@@ -1343,24 +1413,41 @@
       <c r="Q13" s="4">
         <v>220772.421875</v>
       </c>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
+      <c r="R13" s="4">
+        <v>313703.3125</v>
+      </c>
+      <c r="S13" s="4">
+        <v>10727.7021484375</v>
+      </c>
+      <c r="T13" s="4">
+        <v>19.908136367797852</v>
+      </c>
+      <c r="U13" s="4">
+        <v>18899.43359375</v>
+      </c>
+      <c r="V13" s="4">
+        <v>181524.375</v>
+      </c>
+      <c r="W13" s="4">
+        <v>15.296655654907227</v>
+      </c>
+      <c r="X13" s="4">
+        <v>1406.8076171875</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>21598.80859375</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>2875.200439453125</v>
+      </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="6"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -1370,7 +1457,7 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="13">
+      <c r="N14" s="7">
         <v>969.7984619140625</v>
       </c>
       <c r="O14" s="4">
@@ -1382,24 +1469,41 @@
       <c r="Q14" s="4">
         <v>481.13211059570313</v>
       </c>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
+      <c r="R14" s="4">
+        <v>3776.4033203125</v>
+      </c>
+      <c r="S14" s="4">
+        <v>8.143010139465332</v>
+      </c>
+      <c r="T14" s="4">
+        <v>17.832651138305664</v>
+      </c>
+      <c r="U14" s="4">
+        <v>234.90301513671875</v>
+      </c>
+      <c r="V14" s="4">
+        <v>462.60934448242188</v>
+      </c>
+      <c r="W14" s="4">
+        <v>4.2855982780456543</v>
+      </c>
+      <c r="X14" s="4">
+        <v>2.513124942779541</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>33.878284454345703</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>17.409379959106445</v>
+      </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="20"/>
       <c r="B15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="6"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -1409,7 +1513,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="13">
+      <c r="N15" s="7">
         <v>7978070</v>
       </c>
       <c r="O15" s="4">
@@ -1421,24 +1525,41 @@
       <c r="Q15" s="4">
         <v>8311559</v>
       </c>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
+      <c r="R15" s="4">
+        <v>1041363.4375</v>
+      </c>
+      <c r="S15" s="4">
+        <v>484361.125</v>
+      </c>
+      <c r="T15" s="4">
+        <v>681.85833740234375</v>
+      </c>
+      <c r="U15" s="4">
+        <v>1313499</v>
+      </c>
+      <c r="V15" s="4">
+        <v>3843364</v>
+      </c>
+      <c r="W15" s="4">
+        <v>0</v>
+      </c>
+      <c r="X15" s="4">
+        <v>15618.830078125</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>1912930.625</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>1068491</v>
+      </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="6"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1448,7 +1569,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
-      <c r="N16" s="13">
+      <c r="N16" s="7">
         <v>101825416</v>
       </c>
       <c r="O16" s="4">
@@ -1460,26 +1581,43 @@
       <c r="Q16" s="4">
         <v>72673752</v>
       </c>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R16" s="4">
+        <v>10049642</v>
+      </c>
+      <c r="S16" s="4">
+        <v>7929147</v>
+      </c>
+      <c r="T16" s="4">
+        <v>47262.03125</v>
+      </c>
+      <c r="U16" s="4">
+        <v>3271749.25</v>
+      </c>
+      <c r="V16" s="4">
+        <v>46558296</v>
+      </c>
+      <c r="W16" s="4">
+        <v>19363.580078125</v>
+      </c>
+      <c r="X16" s="4">
+        <v>2678384.25</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>135383392</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>42001028</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="6"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1489,7 +1627,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="13">
+      <c r="N17" s="7">
         <v>847289.4375</v>
       </c>
       <c r="O17" s="4">
@@ -1501,24 +1639,41 @@
       <c r="Q17" s="4">
         <v>1804450.75</v>
       </c>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R17" s="4">
+        <v>0</v>
+      </c>
+      <c r="S17" s="4">
+        <v>2283279.5</v>
+      </c>
+      <c r="T17" s="4">
+        <v>25.877792358398438</v>
+      </c>
+      <c r="U17" s="4">
+        <v>18227.619140625</v>
+      </c>
+      <c r="V17" s="4">
+        <v>26644.044921875</v>
+      </c>
+      <c r="W17" s="4">
+        <v>0</v>
+      </c>
+      <c r="X17" s="4">
+        <v>3.5281600952148438</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>87.914031982421875</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>242726.078125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="20"/>
       <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="6"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1528,7 +1683,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="13">
+      <c r="N18" s="7">
         <v>1412.9150390625</v>
       </c>
       <c r="O18" s="4">
@@ -1540,24 +1695,41 @@
       <c r="Q18" s="4">
         <v>5556.0986328125</v>
       </c>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R18" s="4">
+        <v>0</v>
+      </c>
+      <c r="S18" s="4">
+        <v>2410.8291015625</v>
+      </c>
+      <c r="T18" s="4">
+        <v>0</v>
+      </c>
+      <c r="U18" s="4">
+        <v>542.82452392578125</v>
+      </c>
+      <c r="V18" s="4">
+        <v>367.40182495117188</v>
+      </c>
+      <c r="W18" s="4">
+        <v>0</v>
+      </c>
+      <c r="X18" s="4">
+        <v>57.168739318847656</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>1299.74267578125</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>3013.127685546875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="20"/>
       <c r="B19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="6"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1567,7 +1739,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="13">
+      <c r="N19" s="7">
         <v>52214.90234375</v>
       </c>
       <c r="O19" s="4">
@@ -1579,26 +1751,43 @@
       <c r="Q19" s="4">
         <v>304397.21875</v>
       </c>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R19" s="4">
+        <v>0</v>
+      </c>
+      <c r="S19" s="4">
+        <v>339481.65625</v>
+      </c>
+      <c r="T19" s="4">
+        <v>215.31953430175781</v>
+      </c>
+      <c r="U19" s="4">
+        <v>19.475967407226563</v>
+      </c>
+      <c r="V19" s="4">
+        <v>4104.8515625</v>
+      </c>
+      <c r="W19" s="4">
+        <v>0</v>
+      </c>
+      <c r="X19" s="4">
+        <v>7.846714973449707</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>249.54277038574219</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>4594.5244140625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="6"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1608,7 +1797,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="13">
+      <c r="N20" s="7">
         <v>1657072.75</v>
       </c>
       <c r="O20" s="4">
@@ -1620,24 +1809,41 @@
       <c r="Q20" s="4">
         <v>1874539.5</v>
       </c>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R20" s="4">
+        <v>0</v>
+      </c>
+      <c r="S20" s="4">
+        <v>1195833</v>
+      </c>
+      <c r="T20" s="4">
+        <v>1.2265444993972778</v>
+      </c>
+      <c r="U20" s="4">
+        <v>8646.9482421875</v>
+      </c>
+      <c r="V20" s="4">
+        <v>10566.6484375</v>
+      </c>
+      <c r="W20" s="4">
+        <v>0</v>
+      </c>
+      <c r="X20" s="4">
+        <v>6.4782185554504395</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>7352.12109375</v>
+      </c>
+      <c r="Z20" s="4">
+        <v>97728.1796875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="20"/>
       <c r="B21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="6"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1647,7 +1853,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="13">
+      <c r="N21" s="7">
         <v>36037892</v>
       </c>
       <c r="O21" s="4">
@@ -1659,24 +1865,41 @@
       <c r="Q21" s="4">
         <v>58006052</v>
       </c>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R21" s="4">
+        <v>86160</v>
+      </c>
+      <c r="S21" s="4">
+        <v>25401344</v>
+      </c>
+      <c r="T21" s="4">
+        <v>4783125.5</v>
+      </c>
+      <c r="U21" s="4">
+        <v>1475560.25</v>
+      </c>
+      <c r="V21" s="4">
+        <v>6086299</v>
+      </c>
+      <c r="W21" s="4">
+        <v>0</v>
+      </c>
+      <c r="X21" s="4">
+        <v>8513.46484375</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>44368620</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>17237120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="20"/>
       <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="6"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1686,7 +1909,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
-      <c r="N22" s="13">
+      <c r="N22" s="7">
         <v>7428966.5</v>
       </c>
       <c r="O22" s="4">
@@ -1698,26 +1921,43 @@
       <c r="Q22" s="4">
         <v>4423577.5</v>
       </c>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R22" s="4">
+        <v>29116.421875</v>
+      </c>
+      <c r="S22" s="4">
+        <v>4781956.5</v>
+      </c>
+      <c r="T22" s="4">
+        <v>87444.640625</v>
+      </c>
+      <c r="U22" s="4">
+        <v>979287.5625</v>
+      </c>
+      <c r="V22" s="4">
+        <v>5986304</v>
+      </c>
+      <c r="W22" s="4">
+        <v>0</v>
+      </c>
+      <c r="X22" s="4">
+        <v>2333.31005859375</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>7731514</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>6790458.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="6"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1727,7 +1967,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
-      <c r="N23" s="13">
+      <c r="N23" s="7">
         <v>140756.71875</v>
       </c>
       <c r="O23" s="4">
@@ -1739,24 +1979,41 @@
       <c r="Q23" s="4">
         <v>74975.375</v>
       </c>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R23" s="4">
+        <v>794524.375</v>
+      </c>
+      <c r="S23" s="4">
+        <v>9493.216796875</v>
+      </c>
+      <c r="T23" s="4">
+        <v>92.15985107421875</v>
+      </c>
+      <c r="U23" s="4">
+        <v>54293.97265625</v>
+      </c>
+      <c r="V23" s="4">
+        <v>342636.375</v>
+      </c>
+      <c r="W23" s="4">
+        <v>722.5247802734375</v>
+      </c>
+      <c r="X23" s="4">
+        <v>10078.177734375</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>1946053.875</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>38540.79296875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="20"/>
       <c r="B24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="6"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -1766,7 +2023,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
-      <c r="N24" s="13">
+      <c r="N24" s="7">
         <v>9245358</v>
       </c>
       <c r="O24" s="4">
@@ -1778,24 +2035,41 @@
       <c r="Q24" s="4">
         <v>2058992.625</v>
       </c>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R24" s="4">
+        <v>4085895.5</v>
+      </c>
+      <c r="S24" s="4">
+        <v>707283.8125</v>
+      </c>
+      <c r="T24" s="4">
+        <v>73927.8203125</v>
+      </c>
+      <c r="U24" s="4">
+        <v>230976.8125</v>
+      </c>
+      <c r="V24" s="4">
+        <v>5592289</v>
+      </c>
+      <c r="W24" s="4">
+        <v>15222.97265625</v>
+      </c>
+      <c r="X24" s="4">
+        <v>36576.75</v>
+      </c>
+      <c r="Y24" s="4">
+        <v>2885604.75</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>62139.515625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="20"/>
       <c r="B25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="6"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -1805,7 +2079,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
-      <c r="N25" s="13">
+      <c r="N25" s="7">
         <v>493679.34375</v>
       </c>
       <c r="O25" s="4">
@@ -1817,26 +2091,43 @@
       <c r="Q25" s="4">
         <v>102381.53125</v>
       </c>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R25" s="4">
+        <v>534590.6875</v>
+      </c>
+      <c r="S25" s="4">
+        <v>10286.7080078125</v>
+      </c>
+      <c r="T25" s="4">
+        <v>1049.1474609375</v>
+      </c>
+      <c r="U25" s="4">
+        <v>27570.04296875</v>
+      </c>
+      <c r="V25" s="4">
+        <v>413623.8125</v>
+      </c>
+      <c r="W25" s="4">
+        <v>149.40562438964844</v>
+      </c>
+      <c r="X25" s="4">
+        <v>90.983123779296875</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>614.36932373046875</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>301.61395263671875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="6"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -1846,7 +2137,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
-      <c r="N26" s="13">
+      <c r="N26" s="7">
         <v>3196492.25</v>
       </c>
       <c r="O26" s="4">
@@ -1858,24 +2149,41 @@
       <c r="Q26" s="4">
         <v>1937.74365234375</v>
       </c>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R26" s="4">
+        <v>2478614.75</v>
+      </c>
+      <c r="S26" s="4">
+        <v>12788.5322265625</v>
+      </c>
+      <c r="T26" s="4">
+        <v>205.73060607910156</v>
+      </c>
+      <c r="U26" s="4">
+        <v>112696.9296875</v>
+      </c>
+      <c r="V26" s="4">
+        <v>2749890.25</v>
+      </c>
+      <c r="W26" s="4">
+        <v>30590.1484375</v>
+      </c>
+      <c r="X26" s="4">
+        <v>32545.9140625</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>90962.375</v>
+      </c>
+      <c r="Z26" s="4">
+        <v>4.6477016061544418E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="20"/>
       <c r="B27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="6"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -1885,7 +2193,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
-      <c r="N27" s="13">
+      <c r="N27" s="7">
         <v>1312595.125</v>
       </c>
       <c r="O27" s="4">
@@ -1897,24 +2205,41 @@
       <c r="Q27" s="4">
         <v>926160.4375</v>
       </c>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R27" s="4">
+        <v>3536952.5</v>
+      </c>
+      <c r="S27" s="4">
+        <v>37512.72265625</v>
+      </c>
+      <c r="T27" s="4">
+        <v>2159.72021484375</v>
+      </c>
+      <c r="U27" s="4">
+        <v>322782.8125</v>
+      </c>
+      <c r="V27" s="4">
+        <v>864971.75</v>
+      </c>
+      <c r="W27" s="4">
+        <v>2931.979248046875</v>
+      </c>
+      <c r="X27" s="4">
+        <v>41717.8125</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>4497380</v>
+      </c>
+      <c r="Z27" s="4">
+        <v>110896.0859375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="20"/>
       <c r="B28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="6"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -1924,7 +2249,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
-      <c r="N28" s="13">
+      <c r="N28" s="7">
         <v>1403286.125</v>
       </c>
       <c r="O28" s="4">
@@ -1936,24 +2261,41 @@
       <c r="Q28" s="4">
         <v>218790.46875</v>
       </c>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R28" s="4">
+        <v>2040000.25</v>
+      </c>
+      <c r="S28" s="4">
+        <v>21199.619140625</v>
+      </c>
+      <c r="T28" s="4">
+        <v>10453.373046875</v>
+      </c>
+      <c r="U28" s="4">
+        <v>86025.453125</v>
+      </c>
+      <c r="V28" s="4">
+        <v>1788046</v>
+      </c>
+      <c r="W28" s="4">
+        <v>2402.577392578125</v>
+      </c>
+      <c r="X28" s="4">
+        <v>2859.990234375</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>176141.65625</v>
+      </c>
+      <c r="Z28" s="4">
+        <v>3.5297584533691406</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="20"/>
       <c r="B29" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="6"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -1963,7 +2305,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
-      <c r="N29" s="13">
+      <c r="N29" s="7">
         <v>109226.578125</v>
       </c>
       <c r="O29" s="4">
@@ -1975,24 +2317,41 @@
       <c r="Q29" s="4">
         <v>8085.09423828125</v>
       </c>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="4"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R29" s="4">
+        <v>149928.46875</v>
+      </c>
+      <c r="S29" s="4">
+        <v>3.1375842094421387</v>
+      </c>
+      <c r="T29" s="4">
+        <v>4006.4296875</v>
+      </c>
+      <c r="U29" s="4">
+        <v>50537.59375</v>
+      </c>
+      <c r="V29" s="4">
+        <v>372659.96875</v>
+      </c>
+      <c r="W29" s="4">
+        <v>1454.933837890625</v>
+      </c>
+      <c r="X29" s="4">
+        <v>14709.4248046875</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>344134.9375</v>
+      </c>
+      <c r="Z29" s="4">
+        <v>3997.180908203125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="20"/>
       <c r="B30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="6"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -2002,7 +2361,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
-      <c r="N30" s="13">
+      <c r="N30" s="7">
         <v>3403513</v>
       </c>
       <c r="O30" s="4">
@@ -2014,24 +2373,41 @@
       <c r="Q30" s="4">
         <v>13096.81640625</v>
       </c>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
-      <c r="AA30" s="4"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R30" s="4">
+        <v>2183130</v>
+      </c>
+      <c r="S30" s="4">
+        <v>1798.2921142578125</v>
+      </c>
+      <c r="T30" s="4">
+        <v>10153.0048828125</v>
+      </c>
+      <c r="U30" s="4">
+        <v>1489056.5</v>
+      </c>
+      <c r="V30" s="4">
+        <v>10335140</v>
+      </c>
+      <c r="W30" s="4">
+        <v>1198036.75</v>
+      </c>
+      <c r="X30" s="4">
+        <v>80143.3671875</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>24603020</v>
+      </c>
+      <c r="Z30" s="4">
+        <v>378.07391357421875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="20"/>
       <c r="B31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="6"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -2041,7 +2417,7 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
-      <c r="N31" s="13">
+      <c r="N31" s="7">
         <v>756706.375</v>
       </c>
       <c r="O31" s="4">
@@ -2053,26 +2429,43 @@
       <c r="Q31" s="4">
         <v>261922.921875</v>
       </c>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
-      <c r="AA31" s="4"/>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R31" s="4">
+        <v>3550868.75</v>
+      </c>
+      <c r="S31" s="4">
+        <v>45195.23828125</v>
+      </c>
+      <c r="T31" s="4">
+        <v>5043.49267578125</v>
+      </c>
+      <c r="U31" s="4">
+        <v>151771.375</v>
+      </c>
+      <c r="V31" s="4">
+        <v>7230094</v>
+      </c>
+      <c r="W31" s="4">
+        <v>55309.1875</v>
+      </c>
+      <c r="X31" s="4">
+        <v>30739.37890625</v>
+      </c>
+      <c r="Y31" s="4">
+        <v>3585046</v>
+      </c>
+      <c r="Z31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="6"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="9"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -2082,7 +2475,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
-      <c r="N32" s="13">
+      <c r="N32" s="7">
         <v>361915.875</v>
       </c>
       <c r="O32" s="4">
@@ -2094,24 +2487,41 @@
       <c r="Q32" s="4">
         <v>1077462.125</v>
       </c>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
-      <c r="AA32" s="4"/>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R32" s="4">
+        <v>16.637516021728516</v>
+      </c>
+      <c r="S32" s="4">
+        <v>1999619.625</v>
+      </c>
+      <c r="T32" s="4">
+        <v>576.10205078125</v>
+      </c>
+      <c r="U32" s="4">
+        <v>16748.916015625</v>
+      </c>
+      <c r="V32" s="4">
+        <v>39934.6171875</v>
+      </c>
+      <c r="W32" s="4">
+        <v>1.0885379314422607</v>
+      </c>
+      <c r="X32" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="4">
+        <v>340449.28125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="20"/>
       <c r="B33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="6"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -2121,7 +2531,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
-      <c r="N33" s="13">
+      <c r="N33" s="7">
         <v>138895.4375</v>
       </c>
       <c r="O33" s="4">
@@ -2133,24 +2543,41 @@
       <c r="Q33" s="4">
         <v>844731.4375</v>
       </c>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="4"/>
-      <c r="AA33" s="4"/>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R33" s="4">
+        <v>48.344963073730469</v>
+      </c>
+      <c r="S33" s="4">
+        <v>2196844</v>
+      </c>
+      <c r="T33" s="4">
+        <v>42108.41796875</v>
+      </c>
+      <c r="U33" s="4">
+        <v>35797.375</v>
+      </c>
+      <c r="V33" s="4">
+        <v>1617.2742919921875</v>
+      </c>
+      <c r="W33" s="4">
+        <v>4.926483154296875</v>
+      </c>
+      <c r="X33" s="4">
+        <v>3949.634033203125</v>
+      </c>
+      <c r="Y33" s="4">
+        <v>89795.734375</v>
+      </c>
+      <c r="Z33" s="4">
+        <v>309935.4375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="20"/>
       <c r="B34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="6"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="9"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -2160,7 +2587,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
-      <c r="N34" s="13">
+      <c r="N34" s="7">
         <v>1072012</v>
       </c>
       <c r="O34" s="4">
@@ -2172,26 +2599,43 @@
       <c r="Q34" s="4">
         <v>1579972.5</v>
       </c>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-      <c r="Z34" s="4"/>
-      <c r="AA34" s="4"/>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R34" s="4">
+        <v>23348.984375</v>
+      </c>
+      <c r="S34" s="4">
+        <v>8740220</v>
+      </c>
+      <c r="T34" s="4">
+        <v>524563.375</v>
+      </c>
+      <c r="U34" s="4">
+        <v>6702.92333984375</v>
+      </c>
+      <c r="V34" s="4">
+        <v>28040.16015625</v>
+      </c>
+      <c r="W34" s="4">
+        <v>835.61322021484375</v>
+      </c>
+      <c r="X34" s="4">
+        <v>4.4213976860046387</v>
+      </c>
+      <c r="Y34" s="4">
+        <v>100.52137756347656</v>
+      </c>
+      <c r="Z34" s="4">
+        <v>949360.125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="6"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="9"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -2201,7 +2645,7 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
-      <c r="N35" s="13">
+      <c r="N35" s="7">
         <v>646953.5</v>
       </c>
       <c r="O35" s="4">
@@ -2213,24 +2657,41 @@
       <c r="Q35" s="4">
         <v>417885.1875</v>
       </c>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
-      <c r="Z35" s="4"/>
-      <c r="AA35" s="4"/>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R35" s="4">
+        <v>2561395.25</v>
+      </c>
+      <c r="S35" s="4">
+        <v>31397.4765625</v>
+      </c>
+      <c r="T35" s="4">
+        <v>116.05870056152344</v>
+      </c>
+      <c r="U35" s="4">
+        <v>189689.28125</v>
+      </c>
+      <c r="V35" s="4">
+        <v>389183.125</v>
+      </c>
+      <c r="W35" s="4">
+        <v>1241.994384765625</v>
+      </c>
+      <c r="X35" s="4">
+        <v>25010.5859375</v>
+      </c>
+      <c r="Y35" s="4">
+        <v>3193757.5</v>
+      </c>
+      <c r="Z35" s="4">
+        <v>99171.3984375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="20"/>
       <c r="B36" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="6"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="9"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -2240,7 +2701,7 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
-      <c r="N36" s="13">
+      <c r="N36" s="7">
         <v>1162734.875</v>
       </c>
       <c r="O36" s="4">
@@ -2252,24 +2713,41 @@
       <c r="Q36" s="4">
         <v>58705.1796875</v>
       </c>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
-      <c r="Z36" s="4"/>
-      <c r="AA36" s="4"/>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R36" s="4">
+        <v>867118.125</v>
+      </c>
+      <c r="S36" s="4">
+        <v>110.62289428710938</v>
+      </c>
+      <c r="T36" s="4">
+        <v>16861.5546875</v>
+      </c>
+      <c r="U36" s="4">
+        <v>79008.046875</v>
+      </c>
+      <c r="V36" s="4">
+        <v>1273598.875</v>
+      </c>
+      <c r="W36" s="4">
+        <v>2723.4306640625</v>
+      </c>
+      <c r="X36" s="4">
+        <v>24977.119140625</v>
+      </c>
+      <c r="Y36" s="4">
+        <v>589234</v>
+      </c>
+      <c r="Z36" s="4">
+        <v>7178.87109375</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="20"/>
       <c r="B37" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="6"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="9"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -2279,7 +2757,7 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
-      <c r="N37" s="13">
+      <c r="N37" s="7">
         <v>25351.376953125</v>
       </c>
       <c r="O37" s="4">
@@ -2291,26 +2769,43 @@
       <c r="Q37" s="4">
         <v>481.94705200195313</v>
       </c>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
-      <c r="Z37" s="4"/>
-      <c r="AA37" s="4"/>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R37" s="4">
+        <v>14917.8310546875</v>
+      </c>
+      <c r="S37" s="4">
+        <v>17.443382263183594</v>
+      </c>
+      <c r="T37" s="4">
+        <v>325.56768798828125</v>
+      </c>
+      <c r="U37" s="4">
+        <v>479.120361328125</v>
+      </c>
+      <c r="V37" s="4">
+        <v>27288.322265625</v>
+      </c>
+      <c r="W37" s="4">
+        <v>3261.501708984375</v>
+      </c>
+      <c r="X37" s="4">
+        <v>8556.611328125</v>
+      </c>
+      <c r="Y37" s="4">
+        <v>80127.3125</v>
+      </c>
+      <c r="Z37" s="4">
+        <v>1.1068873405456543</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="6"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="9"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -2320,7 +2815,7 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
-      <c r="N38" s="13">
+      <c r="N38" s="7">
         <v>1090481.75</v>
       </c>
       <c r="O38" s="4">
@@ -2332,24 +2827,41 @@
       <c r="Q38" s="4">
         <v>526968.8125</v>
       </c>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="4"/>
-      <c r="Z38" s="4"/>
-      <c r="AA38" s="4"/>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R38" s="4">
+        <v>32765.439453125</v>
+      </c>
+      <c r="S38" s="4">
+        <v>3020217.75</v>
+      </c>
+      <c r="T38" s="4">
+        <v>22106.673828125</v>
+      </c>
+      <c r="U38" s="4">
+        <v>73671.734375</v>
+      </c>
+      <c r="V38" s="4">
+        <v>148147.125</v>
+      </c>
+      <c r="W38" s="4">
+        <v>227.59861755371094</v>
+      </c>
+      <c r="X38" s="4">
+        <v>339.37869262695313</v>
+      </c>
+      <c r="Y38" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="4">
+        <v>6765.7197265625</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="20"/>
       <c r="B39" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="6"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="9"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -2359,7 +2871,7 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
-      <c r="N39" s="13">
+      <c r="N39" s="7">
         <v>667248.25</v>
       </c>
       <c r="O39" s="4">
@@ -2371,24 +2883,41 @@
       <c r="Q39" s="4">
         <v>436718.65625</v>
       </c>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
-      <c r="W39" s="4"/>
-      <c r="X39" s="4"/>
-      <c r="Y39" s="4"/>
-      <c r="Z39" s="4"/>
-      <c r="AA39" s="4"/>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R39" s="4">
+        <v>5618.6015625</v>
+      </c>
+      <c r="S39" s="4">
+        <v>1344846.5</v>
+      </c>
+      <c r="T39" s="4">
+        <v>28287.109375</v>
+      </c>
+      <c r="U39" s="4">
+        <v>78874.0390625</v>
+      </c>
+      <c r="V39" s="4">
+        <v>4434.3916015625</v>
+      </c>
+      <c r="W39" s="4">
+        <v>2369.968505859375</v>
+      </c>
+      <c r="X39" s="4">
+        <v>15.295541763305664</v>
+      </c>
+      <c r="Y39" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="4">
+        <v>294390.9375</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="20"/>
       <c r="B40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="6"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="9"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -2398,7 +2927,7 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
-      <c r="N40" s="13">
+      <c r="N40" s="7">
         <v>423496.96875</v>
       </c>
       <c r="O40" s="4">
@@ -2410,24 +2939,41 @@
       <c r="Q40" s="4">
         <v>251192.90625</v>
       </c>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
-      <c r="W40" s="4"/>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="4"/>
-      <c r="Z40" s="4"/>
-      <c r="AA40" s="4"/>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R40" s="4">
+        <v>2052.15185546875</v>
+      </c>
+      <c r="S40" s="4">
+        <v>534589.125</v>
+      </c>
+      <c r="T40" s="4">
+        <v>59753.8515625</v>
+      </c>
+      <c r="U40" s="4">
+        <v>8355.55859375</v>
+      </c>
+      <c r="V40" s="4">
+        <v>7332.1103515625</v>
+      </c>
+      <c r="W40" s="4">
+        <v>501.95111083984375</v>
+      </c>
+      <c r="X40" s="4">
+        <v>2.2398660182952881</v>
+      </c>
+      <c r="Y40" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="4">
+        <v>74274.1328125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="20"/>
       <c r="B41" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="6"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="9"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
@@ -2437,7 +2983,7 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
-      <c r="N41" s="13">
+      <c r="N41" s="7">
         <v>4479756</v>
       </c>
       <c r="O41" s="4">
@@ -2449,26 +2995,43 @@
       <c r="Q41" s="4">
         <v>560366.3125</v>
       </c>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
-      <c r="W41" s="4"/>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="4"/>
-      <c r="Z41" s="4"/>
-      <c r="AA41" s="4"/>
-    </row>
-    <row r="42" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
+      <c r="R41" s="4">
+        <v>60398.82421875</v>
+      </c>
+      <c r="S41" s="4">
+        <v>3336050.5</v>
+      </c>
+      <c r="T41" s="4">
+        <v>1182687.5</v>
+      </c>
+      <c r="U41" s="4">
+        <v>55668.3203125</v>
+      </c>
+      <c r="V41" s="4">
+        <v>98717.4375</v>
+      </c>
+      <c r="W41" s="4">
+        <v>2796.930419921875</v>
+      </c>
+      <c r="X41" s="4">
+        <v>2.5495421886444092</v>
+      </c>
+      <c r="Y41" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="4">
+        <v>1462008.625</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -2478,7 +3041,7 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
-      <c r="N42" s="13">
+      <c r="N42" s="7">
         <v>2194444.5</v>
       </c>
       <c r="O42" s="4">
@@ -2490,26 +3053,43 @@
       <c r="Q42" s="4">
         <v>2521366.5</v>
       </c>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
-      <c r="V42" s="4"/>
-      <c r="W42" s="4"/>
-      <c r="X42" s="4"/>
-      <c r="Y42" s="4"/>
-      <c r="Z42" s="4"/>
-      <c r="AA42" s="4"/>
-    </row>
-    <row r="43" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
+      <c r="R42" s="4">
+        <v>144104.3125</v>
+      </c>
+      <c r="S42" s="4">
+        <v>20782238</v>
+      </c>
+      <c r="T42" s="4">
+        <v>1316917.5</v>
+      </c>
+      <c r="U42" s="4">
+        <v>1089553.5</v>
+      </c>
+      <c r="V42" s="4">
+        <v>169924.734375</v>
+      </c>
+      <c r="W42" s="4">
+        <v>6435.99169921875</v>
+      </c>
+      <c r="X42" s="4">
+        <v>3968.70068359375</v>
+      </c>
+      <c r="Y42" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="4">
+        <v>1409343.75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -2519,7 +3099,7 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
-      <c r="N43" s="13">
+      <c r="N43" s="7">
         <v>38838128</v>
       </c>
       <c r="O43" s="4">
@@ -2531,26 +3111,43 @@
       <c r="Q43" s="4">
         <v>52471524</v>
       </c>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="4"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="4"/>
-      <c r="W43" s="4"/>
-      <c r="X43" s="4"/>
-      <c r="Y43" s="4"/>
-      <c r="Z43" s="4"/>
-      <c r="AA43" s="4"/>
-    </row>
-    <row r="44" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
+      <c r="R43" s="4">
+        <v>231545744</v>
+      </c>
+      <c r="S43" s="4">
+        <v>3018131.75</v>
+      </c>
+      <c r="T43" s="4">
+        <v>3837445.5</v>
+      </c>
+      <c r="U43" s="4">
+        <v>12196540</v>
+      </c>
+      <c r="V43" s="4">
+        <v>91696864</v>
+      </c>
+      <c r="W43" s="4">
+        <v>118132.9765625</v>
+      </c>
+      <c r="X43" s="4">
+        <v>2829874.75</v>
+      </c>
+      <c r="Y43" s="4">
+        <v>7791125</v>
+      </c>
+      <c r="Z43" s="4">
+        <v>16857196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -2560,7 +3157,7 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
-      <c r="N44" s="13">
+      <c r="N44" s="7">
         <v>17401244</v>
       </c>
       <c r="O44" s="4">
@@ -2572,18 +3169,35 @@
       <c r="Q44" s="4">
         <v>56686312</v>
       </c>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="4"/>
-      <c r="U44" s="4"/>
-      <c r="V44" s="4"/>
-      <c r="W44" s="4"/>
-      <c r="X44" s="4"/>
-      <c r="Y44" s="4"/>
-      <c r="Z44" s="4"/>
-      <c r="AA44" s="4"/>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R44" s="4">
+        <v>45694584</v>
+      </c>
+      <c r="S44" s="4">
+        <v>44446944</v>
+      </c>
+      <c r="T44" s="4">
+        <v>1797587.625</v>
+      </c>
+      <c r="U44" s="4">
+        <v>17716440</v>
+      </c>
+      <c r="V44" s="4">
+        <v>1339954.25</v>
+      </c>
+      <c r="W44" s="4">
+        <v>71575.359375</v>
+      </c>
+      <c r="X44" s="4">
+        <v>1755241.375</v>
+      </c>
+      <c r="Y44" s="4">
+        <v>13847.2021484375</v>
+      </c>
+      <c r="Z44" s="4">
+        <v>23041814</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="2"/>
       <c r="C45" s="3"/>
@@ -2591,18 +3205,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="T1:AA1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C16"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="C35:C37"/>
@@ -2619,6 +3221,18 @@
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="T1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2628,10 +3242,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3655EE2C-431F-40A3-AE36-CDE9CDC9267E}">
-  <dimension ref="A1:AA44"/>
+  <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N44" sqref="N3:N44"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3:Z44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2642,68 +3256,69 @@
     <col min="4" max="4" width="30.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.75" bestFit="1" customWidth="1"/>
     <col min="6" max="13" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="19"/>
+      <c r="F1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="14"/>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="23"/>
-    </row>
-    <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>58</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>34</v>
@@ -2767,9 +3382,6 @@
       </c>
       <c r="Z2" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="AA2" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
@@ -2779,8 +3391,8 @@
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="11"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -2790,36 +3402,53 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="14">
+      <c r="N3" s="8">
         <v>6.5201245248317719E-2</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="8">
         <v>8.2014640793204308E-3</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="8">
         <v>2.4880266282707453E-3</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="8">
         <v>0.12487100064754486</v>
       </c>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
+      <c r="R3" s="8">
+        <v>1.2933285233884817E-6</v>
+      </c>
+      <c r="S3" s="8">
+        <v>0.24500258266925812</v>
+      </c>
+      <c r="T3" s="4">
+        <v>1.0931824799627066E-3</v>
+      </c>
+      <c r="U3" s="4">
+        <v>3.6572287790477276E-3</v>
+      </c>
+      <c r="V3" s="4">
+        <v>5.1934295333921909E-3</v>
+      </c>
+      <c r="W3" s="4">
+        <v>6.4586507505737245E-5</v>
+      </c>
+      <c r="X3" s="4">
+        <v>1.2271110350070558E-8</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>4.9514062702655792E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="11"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -2829,36 +3458,53 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="14">
+      <c r="N4" s="8">
         <v>7.0710289292037487E-3</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="8">
         <v>4.0673799812793732E-3</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="8">
         <v>2.6337374001741409E-3</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="8">
         <v>3.32681555300951E-3</v>
       </c>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
+      <c r="R4" s="8">
+        <v>7.8012235462665558E-5</v>
+      </c>
+      <c r="S4" s="8">
+        <v>1.0823128744959831E-2</v>
+      </c>
+      <c r="T4" s="4">
+        <v>1.33919483050704E-3</v>
+      </c>
+      <c r="U4" s="4">
+        <v>0</v>
+      </c>
+      <c r="V4" s="4">
+        <v>7.2153997607529163E-3</v>
+      </c>
+      <c r="W4" s="4">
+        <v>2.0460684027057141E-4</v>
+      </c>
+      <c r="X4" s="4">
+        <v>1.5202436770778149E-5</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="11"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2868,36 +3514,53 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="14">
+      <c r="N5" s="8">
         <v>6.3460864126682281E-2</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="8">
         <v>7.7906567603349686E-3</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="8">
         <v>1.846401602961123E-3</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="8">
         <v>5.6602142751216888E-2</v>
       </c>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
+      <c r="R5" s="8">
+        <v>1.4103117791819386E-5</v>
+      </c>
+      <c r="S5" s="8">
+        <v>9.871288388967514E-2</v>
+      </c>
+      <c r="T5" s="4">
+        <v>0.39052468538284302</v>
+      </c>
+      <c r="U5" s="4">
+        <v>3.9537614211440086E-3</v>
+      </c>
+      <c r="V5" s="4">
+        <v>4.4886963441967964E-3</v>
+      </c>
+      <c r="W5" s="4">
+        <v>2.3032518103718758E-2</v>
+      </c>
+      <c r="X5" s="4">
+        <v>4.3732507037930191E-6</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>4.011797159910202E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="20"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="11"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -2907,36 +3570,53 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="14">
+      <c r="N6" s="8">
         <v>1.3627634383738041E-2</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="8">
         <v>7.572867616545409E-5</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="8">
         <v>1.463302643969655E-3</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="8">
         <v>4.9675527960062027E-2</v>
       </c>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
+      <c r="R6" s="8">
+        <v>3.5235480754636228E-4</v>
+      </c>
+      <c r="S6" s="8">
+        <v>0.17061698436737061</v>
+      </c>
+      <c r="T6" s="4">
+        <v>0.28349828720092773</v>
+      </c>
+      <c r="U6" s="4">
+        <v>3.2476327032782137E-4</v>
+      </c>
+      <c r="V6" s="4">
+        <v>1.3639599783346057E-3</v>
+      </c>
+      <c r="W6" s="4">
+        <v>3.249545581638813E-3</v>
+      </c>
+      <c r="X6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>4.6704135835170746E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="11"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -2946,28 +3626,45 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="14">
+      <c r="N7" s="8">
         <v>0.19717510044574738</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="8">
         <v>0.13939319550991058</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="8">
         <v>7.776760496199131E-3</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="8">
         <v>0.12978349626064301</v>
       </c>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
+      <c r="R7" s="8">
+        <v>3.4491014666855335E-3</v>
+      </c>
+      <c r="S7" s="8">
+        <v>0.45414069294929504</v>
+      </c>
+      <c r="T7" s="4">
+        <v>3.2470290660858154</v>
+      </c>
+      <c r="U7" s="4">
+        <v>1.1984599754214287E-2</v>
+      </c>
+      <c r="V7" s="4">
+        <v>2.4049704894423485E-2</v>
+      </c>
+      <c r="W7" s="4">
+        <v>5.1900658756494522E-2</v>
+      </c>
+      <c r="X7" s="4">
+        <v>7.2497684300287801E-8</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>0.36461496353149414</v>
+      </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
@@ -2976,8 +3673,8 @@
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="11"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -2987,36 +3684,53 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="14">
+      <c r="N8" s="8">
         <v>2.7543026953935623E-2</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="8">
         <v>1.4347759133670479E-4</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="8">
         <v>3.7104152143001556E-3</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="8">
         <v>2.2367412224411964E-2</v>
       </c>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
+      <c r="R8" s="8">
+        <v>2.5434320792555809E-2</v>
+      </c>
+      <c r="S8" s="8">
+        <v>0.43825149536132813</v>
+      </c>
+      <c r="T8" s="4">
+        <v>1.0495681315660477E-2</v>
+      </c>
+      <c r="U8" s="4">
+        <v>6.2566898763179779E-2</v>
+      </c>
+      <c r="V8" s="4">
+        <v>3.7226509302854538E-3</v>
+      </c>
+      <c r="W8" s="4">
+        <v>2.9946409165859222E-2</v>
+      </c>
+      <c r="X8" s="4">
+        <v>7.1083609946072102E-3</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>6.7534707486629486E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="20"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="11"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -3026,36 +3740,53 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="14">
+      <c r="N9" s="8">
         <v>7.918962836265564E-2</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="8">
         <v>4.3001458048820496E-2</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="8">
         <v>2.0326986908912659E-2</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="8">
         <v>6.9682583212852478E-2</v>
       </c>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
+      <c r="R9" s="8">
+        <v>1.9699690863490105E-2</v>
+      </c>
+      <c r="S9" s="8">
+        <v>0.26044273376464844</v>
+      </c>
+      <c r="T9" s="4">
+        <v>2.7415057644248009E-2</v>
+      </c>
+      <c r="U9" s="4">
+        <v>2.0825007930397987E-2</v>
+      </c>
+      <c r="V9" s="4">
+        <v>3.2502782996743917E-3</v>
+      </c>
+      <c r="W9" s="4">
+        <v>4.5104706659913063E-3</v>
+      </c>
+      <c r="X9" s="4">
+        <v>3.6870664916932583E-4</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>4.7924239188432693E-3</v>
+      </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="20"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="11"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -3065,38 +3796,55 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="14">
+      <c r="N10" s="8">
         <v>2.4003364160307683E-5</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="8">
         <v>1.3802275589114288E-6</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="8">
         <v>2.231757434856263E-6</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="8">
         <v>2.6664705728762783E-5</v>
       </c>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
+      <c r="R10" s="8">
+        <v>2.8833119358750992E-6</v>
+      </c>
+      <c r="S10" s="8">
+        <v>5.6969776778714731E-5</v>
+      </c>
+      <c r="T10" s="4">
+        <v>8.760759374126792E-5</v>
+      </c>
+      <c r="U10" s="4">
+        <v>3.0680115742143244E-5</v>
+      </c>
+      <c r="V10" s="4">
+        <v>1.4994272987678414E-6</v>
+      </c>
+      <c r="W10" s="4">
+        <v>7.6546784839592874E-5</v>
+      </c>
+      <c r="X10" s="4">
+        <v>2.1742552647197044E-8</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>1.1728249228326604E-4</v>
+      </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="11"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -3106,36 +3854,53 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="14">
+      <c r="N11" s="8">
         <v>1.3216983079910278</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="8">
         <v>0.7940707802772522</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="8">
         <v>2.4879546165466309</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="8">
         <v>4.3018040657043457</v>
       </c>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
+      <c r="R11" s="8">
+        <v>1.0014675557613373E-2</v>
+      </c>
+      <c r="S11" s="8">
+        <v>0.1024053692817688</v>
+      </c>
+      <c r="T11" s="4">
+        <v>5.6437745690345764E-2</v>
+      </c>
+      <c r="U11" s="4">
+        <v>1.0918555781245232E-3</v>
+      </c>
+      <c r="V11" s="4">
+        <v>5.2780890464782715</v>
+      </c>
+      <c r="W11" s="4">
+        <v>5.0641573965549469E-2</v>
+      </c>
+      <c r="X11" s="4">
+        <v>4.5969070924911648E-5</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>0.55761772394180298</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>0.28455901145935059</v>
+      </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="20"/>
       <c r="B12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="11"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -3145,36 +3910,53 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="14">
+      <c r="N12" s="8">
         <v>1.9150968641042709E-2</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="8">
         <v>1.1801340151578188E-3</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="8">
         <v>6.1439555138349533E-3</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="8">
         <v>2.2476313170045614E-3</v>
       </c>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
+      <c r="R12" s="8">
+        <v>2.3336107842624187E-3</v>
+      </c>
+      <c r="S12" s="8">
+        <v>5.6195887736976147E-4</v>
+      </c>
+      <c r="T12" s="4">
+        <v>6.6164865586415544E-8</v>
+      </c>
+      <c r="U12" s="4">
+        <v>9.988764300942421E-3</v>
+      </c>
+      <c r="V12" s="4">
+        <v>6.2177497893571854E-3</v>
+      </c>
+      <c r="W12" s="4">
+        <v>0</v>
+      </c>
+      <c r="X12" s="4">
+        <v>3.9284324157051742E-4</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>8.0833531683310866E-4</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>9.1202516341581941E-4</v>
+      </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="11"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -3184,36 +3966,53 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="14">
+      <c r="N13" s="8">
         <v>2.2671442478895187E-2</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="8">
         <v>4.3310285545885563E-3</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="8">
         <v>3.5534154158085585E-3</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="8">
         <v>1.8730800598859787E-2</v>
       </c>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
+      <c r="R13" s="8">
+        <v>2.2951846942305565E-2</v>
+      </c>
+      <c r="S13" s="8">
+        <v>6.5607565920799971E-4</v>
+      </c>
+      <c r="T13" s="4">
+        <v>3.8963909901212901E-5</v>
+      </c>
+      <c r="U13" s="4">
+        <v>3.1845166813582182E-3</v>
+      </c>
+      <c r="V13" s="4">
+        <v>3.1790368258953094E-2</v>
+      </c>
+      <c r="W13" s="4">
+        <v>2.1478286362253129E-4</v>
+      </c>
+      <c r="X13" s="4">
+        <v>8.6204527178779244E-4</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>1.7477014334872365E-3</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>5.1305053057149053E-4</v>
+      </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="11"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -3223,36 +4022,53 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="14">
+      <c r="N14" s="8">
         <v>5.0059730710927397E-5</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="8">
         <v>1.1430808081058785E-4</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="8">
         <v>2.6037096176878549E-5</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="8">
         <v>4.0820268623065203E-5</v>
       </c>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
+      <c r="R14" s="8">
+        <v>2.7629747637547553E-4</v>
+      </c>
+      <c r="S14" s="8">
+        <v>4.9800325996329775E-7</v>
+      </c>
+      <c r="T14" s="4">
+        <v>3.4901800972875208E-5</v>
+      </c>
+      <c r="U14" s="4">
+        <v>3.9580689190188423E-5</v>
+      </c>
+      <c r="V14" s="4">
+        <v>8.101678395178169E-5</v>
+      </c>
+      <c r="W14" s="4">
+        <v>6.0174788814038038E-5</v>
+      </c>
+      <c r="X14" s="4">
+        <v>1.5399599533338915E-6</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>2.7413143470766954E-6</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>3.1065283110365272E-6</v>
+      </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="20"/>
       <c r="B15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="11"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -3262,36 +4078,53 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="14">
+      <c r="N15" s="8">
         <v>0.41181758046150208</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="8">
         <v>0.10722029209136963</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="8">
         <v>2.7596600353717804E-2</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="8">
         <v>0.70517033338546753</v>
       </c>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
+      <c r="R15" s="8">
+        <v>7.619050145149231E-2</v>
+      </c>
+      <c r="S15" s="8">
+        <v>2.9622143134474754E-2</v>
+      </c>
+      <c r="T15" s="4">
+        <v>1.3345230836421251E-3</v>
+      </c>
+      <c r="U15" s="4">
+        <v>0.22132197022438049</v>
+      </c>
+      <c r="V15" s="4">
+        <v>0.67308849096298218</v>
+      </c>
+      <c r="W15" s="4">
+        <v>0</v>
+      </c>
+      <c r="X15" s="4">
+        <v>9.5707029104232788E-3</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>0.15478777885437012</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>0.19066144526004791</v>
+      </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="11"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -3301,38 +4134,55 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
-      <c r="N16" s="14">
+      <c r="N16" s="8">
         <v>5.2560949325561523</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="8">
         <v>0.58643215894699097</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="8">
         <v>1.2775862216949463</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="8">
         <v>6.165794849395752</v>
       </c>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R16" s="8">
+        <v>0.73527383804321289</v>
+      </c>
+      <c r="S16" s="8">
+        <v>0.48492401838302612</v>
+      </c>
+      <c r="T16" s="4">
+        <v>9.2500545084476471E-2</v>
+      </c>
+      <c r="U16" s="4">
+        <v>0.55128324031829834</v>
+      </c>
+      <c r="V16" s="4">
+        <v>8.1537561416625977</v>
+      </c>
+      <c r="W16" s="4">
+        <v>0.27188721299171448</v>
+      </c>
+      <c r="X16" s="4">
+        <v>1.6412254571914673</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>10.95475959777832</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>7.4946599006652832</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="11"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -3342,36 +4192,53 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="14">
+      <c r="N17" s="8">
         <v>4.373597726225853E-2</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="8">
         <v>1.3052796944975853E-2</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="8">
         <v>1.1325833387672901E-2</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17" s="8">
         <v>0.15309342741966248</v>
       </c>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R17" s="8">
+        <v>0</v>
+      </c>
+      <c r="S17" s="8">
+        <v>0.13963885605335236</v>
+      </c>
+      <c r="T17" s="4">
+        <v>5.0647635362111032E-5</v>
+      </c>
+      <c r="U17" s="4">
+        <v>3.0713174492120743E-3</v>
+      </c>
+      <c r="V17" s="4">
+        <v>4.6661724336445332E-3</v>
+      </c>
+      <c r="W17" s="4">
+        <v>0</v>
+      </c>
+      <c r="X17" s="4">
+        <v>2.1619398467009887E-6</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>7.1137014856503811E-6</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>4.3312020599842072E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="20"/>
       <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="11"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -3381,36 +4248,53 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="14">
+      <c r="N18" s="8">
         <v>7.2932831244543195E-5</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="8">
         <v>5.8515120144875254E-6</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="8">
         <v>1.7190039898196119E-6</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="8">
         <v>4.7139119124040008E-4</v>
       </c>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R18" s="8">
+        <v>0</v>
+      </c>
+      <c r="S18" s="8">
+        <v>1.4743942301720381E-4</v>
+      </c>
+      <c r="T18" s="4">
+        <v>0</v>
+      </c>
+      <c r="U18" s="4">
+        <v>9.1464848082978278E-5</v>
+      </c>
+      <c r="V18" s="4">
+        <v>6.4343097619712353E-5</v>
+      </c>
+      <c r="W18" s="4">
+        <v>0</v>
+      </c>
+      <c r="X18" s="4">
+        <v>3.503111656755209E-5</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>1.0517071495996788E-4</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>5.376622430048883E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="20"/>
       <c r="B19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="11"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -3420,38 +4304,55 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="14">
+      <c r="N19" s="8">
         <v>2.6952652260661125E-3</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="8">
         <v>4.0838220156729221E-3</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="8">
         <v>1.0635248618200421E-3</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="8">
         <v>2.5825705379247665E-2</v>
       </c>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R19" s="8">
+        <v>0</v>
+      </c>
+      <c r="S19" s="8">
+        <v>2.0761730149388313E-2</v>
+      </c>
+      <c r="T19" s="4">
+        <v>4.2142023448832333E-4</v>
+      </c>
+      <c r="U19" s="4">
+        <v>3.281661520304624E-6</v>
+      </c>
+      <c r="V19" s="4">
+        <v>7.1888277307152748E-4</v>
+      </c>
+      <c r="W19" s="4">
+        <v>0</v>
+      </c>
+      <c r="X19" s="4">
+        <v>4.8082079047162551E-6</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>2.0192142983432859E-5</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>8.1984652206301689E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="11"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -3461,36 +4362,53 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="14">
+      <c r="N20" s="8">
         <v>8.5535936057567596E-2</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20" s="8">
         <v>1.8938926979899406E-2</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="8">
         <v>1.3371088542044163E-2</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="Q20" s="8">
         <v>0.15903991460800171</v>
       </c>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R20" s="8">
+        <v>0</v>
+      </c>
+      <c r="S20" s="8">
+        <v>7.3133736848831177E-2</v>
+      </c>
+      <c r="T20" s="4">
+        <v>2.4005748855415732E-6</v>
+      </c>
+      <c r="U20" s="4">
+        <v>1.4569935156032443E-3</v>
+      </c>
+      <c r="V20" s="4">
+        <v>1.8505373736843467E-3</v>
+      </c>
+      <c r="W20" s="4">
+        <v>0</v>
+      </c>
+      <c r="X20" s="4">
+        <v>3.9696383282716852E-6</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>5.9490837156772614E-4</v>
+      </c>
+      <c r="Z20" s="4">
+        <v>1.7438607290387154E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="20"/>
       <c r="B21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="11"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -3500,36 +4418,53 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="14">
+      <c r="N21" s="8">
         <v>1.8602288961410522</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="8">
         <v>1.1299396753311157</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="8">
         <v>0.24755299091339111</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21" s="8">
         <v>4.9213566780090332</v>
       </c>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R21" s="8">
+        <v>6.3038254156708717E-3</v>
+      </c>
+      <c r="S21" s="8">
+        <v>1.5534737110137939</v>
+      </c>
+      <c r="T21" s="4">
+        <v>9.3614625930786133</v>
+      </c>
+      <c r="U21" s="4">
+        <v>0.24862894415855408</v>
+      </c>
+      <c r="V21" s="4">
+        <v>1.0658937692642212</v>
+      </c>
+      <c r="W21" s="4">
+        <v>0</v>
+      </c>
+      <c r="X21" s="4">
+        <v>5.2167698740959167E-3</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>3.590156078338623</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>3.0757901668548584</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="20"/>
       <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="11"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -3539,38 +4474,55 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
-      <c r="N22" s="14">
+      <c r="N22" s="8">
         <v>0.38347357511520386</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22" s="8">
         <v>6.5036565065383911E-2</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22" s="8">
         <v>6.7893238738179207E-3</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q22" s="8">
         <v>0.37530571222305298</v>
       </c>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R22" s="8">
+        <v>2.1302793174982071E-3</v>
+      </c>
+      <c r="S22" s="8">
+        <v>0.29245081543922424</v>
+      </c>
+      <c r="T22" s="4">
+        <v>0.17114534974098206</v>
+      </c>
+      <c r="U22" s="4">
+        <v>0.16500799357891083</v>
+      </c>
+      <c r="V22" s="4">
+        <v>1.0483815670013428</v>
+      </c>
+      <c r="W22" s="4">
+        <v>0</v>
+      </c>
+      <c r="X22" s="4">
+        <v>1.4297753805294633E-3</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>0.62560755014419556</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>1.2116888761520386</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="11"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -3580,36 +4532,53 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
-      <c r="N23" s="14">
+      <c r="N23" s="8">
         <v>7.2656781412661076E-3</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O23" s="8">
         <v>1.2513027526438236E-2</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P23" s="8">
         <v>1.1490863747894764E-2</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q23" s="8">
         <v>6.3610700890421867E-3</v>
       </c>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R23" s="8">
+        <v>5.8130726218223572E-2</v>
+      </c>
+      <c r="S23" s="8">
+        <v>5.8057805290445685E-4</v>
+      </c>
+      <c r="T23" s="4">
+        <v>1.803738996386528E-4</v>
+      </c>
+      <c r="U23" s="4">
+        <v>9.148426353931427E-3</v>
+      </c>
+      <c r="V23" s="4">
+        <v>6.0005921870470047E-2</v>
+      </c>
+      <c r="W23" s="4">
+        <v>1.0145088657736778E-2</v>
+      </c>
+      <c r="X23" s="4">
+        <v>6.1755743809044361E-3</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>0.15746799111366272</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>6.8772155791521072E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="20"/>
       <c r="B24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="11"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -3619,36 +4588,53 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
-      <c r="N24" s="14">
+      <c r="N24" s="8">
         <v>0.47723335027694702</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="8">
         <v>0.21688912808895111</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24" s="8">
         <v>0.11196752637624741</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24" s="8">
         <v>0.17468930780887604</v>
       </c>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R24" s="8">
+        <v>0.29894119501113892</v>
+      </c>
+      <c r="S24" s="8">
+        <v>4.3255459517240524E-2</v>
+      </c>
+      <c r="T24" s="4">
+        <v>0.14469043910503387</v>
+      </c>
+      <c r="U24" s="4">
+        <v>3.8919132202863693E-2</v>
+      </c>
+      <c r="V24" s="4">
+        <v>0.97937780618667603</v>
+      </c>
+      <c r="W24" s="4">
+        <v>0.2137482613325119</v>
+      </c>
+      <c r="X24" s="4">
+        <v>2.2413024678826332E-2</v>
+      </c>
+      <c r="Y24" s="4">
+        <v>0.23349323868751526</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>1.1088170111179352E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="20"/>
       <c r="B25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="11"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -3658,38 +4644,55 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
-      <c r="N25" s="14">
+      <c r="N25" s="8">
         <v>2.5483084842562675E-2</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25" s="8">
         <v>1.0763694532215595E-2</v>
       </c>
-      <c r="P25" s="4">
+      <c r="P25" s="8">
         <v>3.798111155629158E-2</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="Q25" s="8">
         <v>8.6862659081816673E-3</v>
       </c>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R25" s="8">
+        <v>3.9112892001867294E-2</v>
+      </c>
+      <c r="S25" s="8">
+        <v>6.2910572160035372E-4</v>
+      </c>
+      <c r="T25" s="4">
+        <v>2.0533760543912649E-3</v>
+      </c>
+      <c r="U25" s="4">
+        <v>4.6454970724880695E-3</v>
+      </c>
+      <c r="V25" s="4">
+        <v>7.2437949478626251E-2</v>
+      </c>
+      <c r="W25" s="4">
+        <v>2.0978287793695927E-3</v>
+      </c>
+      <c r="X25" s="4">
+        <v>5.575145041802898E-5</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>4.9712656618794426E-5</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>5.3819967433810234E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="11"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -3699,36 +4702,53 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
-      <c r="N26" s="14">
+      <c r="N26" s="8">
         <v>0.16499876976013184</v>
       </c>
-      <c r="O26" s="4">
+      <c r="O26" s="8">
         <v>5.6860111653804779E-2</v>
       </c>
-      <c r="P26" s="4">
+      <c r="P26" s="8">
         <v>0.36944970488548279</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="Q26" s="8">
         <v>1.6440227045677602E-4</v>
       </c>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R26" s="8">
+        <v>0.18134582042694092</v>
+      </c>
+      <c r="S26" s="8">
+        <v>7.8211014624685049E-4</v>
+      </c>
+      <c r="T26" s="4">
+        <v>4.0265289135277271E-4</v>
+      </c>
+      <c r="U26" s="4">
+        <v>1.8989207223057747E-2</v>
+      </c>
+      <c r="V26" s="4">
+        <v>0.48158839344978333</v>
+      </c>
+      <c r="W26" s="4">
+        <v>0.42952132225036621</v>
+      </c>
+      <c r="X26" s="4">
+        <v>1.9943060353398323E-2</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>7.3603629134595394E-3</v>
+      </c>
+      <c r="Z26" s="4">
+        <v>8.293355335808883E-9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="20"/>
       <c r="B27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="11"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -3738,36 +4758,53 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
-      <c r="N27" s="14">
+      <c r="N27" s="8">
         <v>6.7754447460174561E-2</v>
       </c>
-      <c r="O27" s="4">
+      <c r="O27" s="8">
         <v>5.1091600209474564E-2</v>
       </c>
-      <c r="P27" s="4">
+      <c r="P27" s="8">
         <v>4.6136695891618729E-2</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="Q27" s="8">
         <v>7.8577414155006409E-2</v>
       </c>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R27" s="8">
+        <v>0.25877824425697327</v>
+      </c>
+      <c r="S27" s="8">
+        <v>2.2941711358726025E-3</v>
+      </c>
+      <c r="T27" s="4">
+        <v>4.2269728146493435E-3</v>
+      </c>
+      <c r="U27" s="4">
+        <v>5.4388262331485748E-2</v>
+      </c>
+      <c r="V27" s="4">
+        <v>0.15148252248764038</v>
+      </c>
+      <c r="W27" s="4">
+        <v>4.1168402880430222E-2</v>
+      </c>
+      <c r="X27" s="4">
+        <v>2.5563297793269157E-2</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>0.36391255259513855</v>
+      </c>
+      <c r="Z27" s="4">
+        <v>1.9788287580013275E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="20"/>
       <c r="B28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="11"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -3777,36 +4814,53 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
-      <c r="N28" s="14">
+      <c r="N28" s="8">
         <v>7.2435803711414337E-2</v>
       </c>
-      <c r="O28" s="4">
+      <c r="O28" s="8">
         <v>9.0128839015960693E-2</v>
       </c>
-      <c r="P28" s="4">
+      <c r="P28" s="8">
         <v>0.19536146521568298</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="Q28" s="8">
         <v>1.8562646582722664E-2</v>
       </c>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R28" s="8">
+        <v>0.14925494790077209</v>
+      </c>
+      <c r="S28" s="8">
+        <v>1.2965081259608269E-3</v>
+      </c>
+      <c r="T28" s="4">
+        <v>2.0459188148379326E-2</v>
+      </c>
+      <c r="U28" s="4">
+        <v>1.4495117589831352E-2</v>
+      </c>
+      <c r="V28" s="4">
+        <v>0.31314054131507874</v>
+      </c>
+      <c r="W28" s="4">
+        <v>3.3734984695911407E-2</v>
+      </c>
+      <c r="X28" s="4">
+        <v>1.7525075236335397E-3</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>1.4252777211368084E-2</v>
+      </c>
+      <c r="Z28" s="4">
+        <v>6.298497510215384E-7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="20"/>
       <c r="B29" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="11"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -3816,36 +4870,53 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
-      <c r="N29" s="14">
+      <c r="N29" s="8">
         <v>5.6381337344646454E-3</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O29" s="8">
         <v>4.8254877328872681E-3</v>
       </c>
-      <c r="P29" s="4">
+      <c r="P29" s="8">
         <v>7.2918171063065529E-3</v>
       </c>
-      <c r="Q29" s="4">
+      <c r="Q29" s="8">
         <v>6.859565619379282E-4</v>
       </c>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="4"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R29" s="8">
+        <v>1.0969393886625767E-2</v>
+      </c>
+      <c r="S29" s="8">
+        <v>1.9188568955996743E-7</v>
+      </c>
+      <c r="T29" s="4">
+        <v>7.8413253650069237E-3</v>
+      </c>
+      <c r="U29" s="4">
+        <v>8.5154827684164047E-3</v>
+      </c>
+      <c r="V29" s="4">
+        <v>6.5263956785202026E-2</v>
+      </c>
+      <c r="W29" s="4">
+        <v>2.0428964868187904E-2</v>
+      </c>
+      <c r="X29" s="4">
+        <v>9.0134497731924057E-3</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>2.7846215292811394E-2</v>
+      </c>
+      <c r="Z29" s="4">
+        <v>7.1325659519061446E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="20"/>
       <c r="B30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="11"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -3855,36 +4926,53 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
-      <c r="N30" s="14">
+      <c r="N30" s="8">
         <v>0.17568489909172058</v>
       </c>
-      <c r="O30" s="4">
+      <c r="O30" s="8">
         <v>0.37476760149002075</v>
       </c>
-      <c r="P30" s="4">
+      <c r="P30" s="8">
         <v>0.25882646441459656</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="Q30" s="8">
         <v>1.1111616622656584E-3</v>
       </c>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
-      <c r="AA30" s="4"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R30" s="8">
+        <v>0.15972691774368286</v>
+      </c>
+      <c r="S30" s="8">
+        <v>1.0997840581694618E-4</v>
+      </c>
+      <c r="T30" s="4">
+        <v>1.9871311262249947E-2</v>
+      </c>
+      <c r="U30" s="4">
+        <v>0.25090304017066956</v>
+      </c>
+      <c r="V30" s="4">
+        <v>1.8099933862686157</v>
+      </c>
+      <c r="W30" s="4">
+        <v>16.821830749511719</v>
+      </c>
+      <c r="X30" s="4">
+        <v>4.9109209328889847E-2</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>1.9907917976379395</v>
+      </c>
+      <c r="Z30" s="4">
+        <v>6.7463472078088671E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="20"/>
       <c r="B31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="11"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -3894,38 +4982,55 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
-      <c r="N31" s="14">
+      <c r="N31" s="8">
         <v>3.9060194045305252E-2</v>
       </c>
-      <c r="O31" s="4">
+      <c r="O31" s="8">
         <v>6.8622574210166931E-2</v>
       </c>
-      <c r="P31" s="4">
+      <c r="P31" s="8">
         <v>1.1216624975204468</v>
       </c>
-      <c r="Q31" s="4">
+      <c r="Q31" s="8">
         <v>2.2222096100449562E-2</v>
       </c>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
-      <c r="AA31" s="4"/>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R31" s="8">
+        <v>0.25979641079902649</v>
+      </c>
+      <c r="S31" s="8">
+        <v>2.7640117332339287E-3</v>
+      </c>
+      <c r="T31" s="4">
+        <v>9.8710497841238976E-3</v>
+      </c>
+      <c r="U31" s="4">
+        <v>2.5573171675205231E-2</v>
+      </c>
+      <c r="V31" s="4">
+        <v>1.2662066221237183</v>
+      </c>
+      <c r="W31" s="4">
+        <v>0.77660542726516724</v>
+      </c>
+      <c r="X31" s="4">
+        <v>1.8836075440049171E-2</v>
+      </c>
+      <c r="Y31" s="4">
+        <v>0.29008960723876953</v>
+      </c>
+      <c r="Z31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="11"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="9"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -3935,36 +5040,53 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
-      <c r="N32" s="14">
+      <c r="N32" s="8">
         <v>1.868162490427494E-2</v>
       </c>
-      <c r="O32" s="4">
+      <c r="O32" s="8">
         <v>4.394944291561842E-3</v>
       </c>
-      <c r="P32" s="4">
+      <c r="P32" s="8">
         <v>5.3686276078224182E-4</v>
       </c>
-      <c r="Q32" s="4">
+      <c r="Q32" s="8">
         <v>9.1414168477058411E-2</v>
       </c>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
-      <c r="AA32" s="4"/>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R32" s="8">
+        <v>1.2172703236501548E-6</v>
+      </c>
+      <c r="S32" s="8">
+        <v>0.12229102104902267</v>
+      </c>
+      <c r="T32" s="4">
+        <v>1.1275383876636624E-3</v>
+      </c>
+      <c r="U32" s="4">
+        <v>2.8221588581800461E-3</v>
+      </c>
+      <c r="V32" s="4">
+        <v>6.9937510415911674E-3</v>
+      </c>
+      <c r="W32" s="4">
+        <v>1.5284340406651609E-5</v>
+      </c>
+      <c r="X32" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="4">
+        <v>6.0749739408493042E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="20"/>
       <c r="B33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="11"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -3974,36 +5096,53 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
-      <c r="N33" s="14">
+      <c r="N33" s="8">
         <v>7.1696015074849129E-3</v>
       </c>
-      <c r="O33" s="4">
+      <c r="O33" s="8">
         <v>1.07495894189924E-3</v>
       </c>
-      <c r="P33" s="4">
+      <c r="P33" s="8">
         <v>7.5168944022152573E-5</v>
       </c>
-      <c r="Q33" s="4">
+      <c r="Q33" s="8">
         <v>7.1668803691864014E-2</v>
       </c>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="4"/>
-      <c r="AA33" s="4"/>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R33" s="8">
+        <v>3.5371197100175777E-6</v>
+      </c>
+      <c r="S33" s="8">
+        <v>0.13435271382331848</v>
+      </c>
+      <c r="T33" s="4">
+        <v>8.2413971424102783E-2</v>
+      </c>
+      <c r="U33" s="4">
+        <v>6.0317860916256905E-3</v>
+      </c>
+      <c r="V33" s="4">
+        <v>2.832332975231111E-4</v>
+      </c>
+      <c r="W33" s="4">
+        <v>6.917355494806543E-5</v>
+      </c>
+      <c r="X33" s="4">
+        <v>2.4202051572501659E-3</v>
+      </c>
+      <c r="Y33" s="4">
+        <v>7.2659626603126526E-3</v>
+      </c>
+      <c r="Z33" s="4">
+        <v>5.530485138297081E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="20"/>
       <c r="B34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="11"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="9"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -4013,38 +5152,55 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
-      <c r="N34" s="14">
+      <c r="N34" s="8">
         <v>5.5335864424705505E-2</v>
       </c>
-      <c r="O34" s="4">
+      <c r="O34" s="8">
         <v>7.2417099727317691E-4</v>
       </c>
-      <c r="P34" s="4">
+      <c r="P34" s="8">
         <v>4.0597436018288136E-3</v>
       </c>
-      <c r="Q34" s="4">
+      <c r="Q34" s="8">
         <v>0.1340482085943222</v>
       </c>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-      <c r="Z34" s="4"/>
-      <c r="AA34" s="4"/>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R34" s="8">
+        <v>1.7083093989640474E-3</v>
+      </c>
+      <c r="S34" s="8">
+        <v>0.53452688455581665</v>
+      </c>
+      <c r="T34" s="4">
+        <v>1.026667594909668</v>
+      </c>
+      <c r="U34" s="4">
+        <v>1.1294292053207755E-3</v>
+      </c>
+      <c r="V34" s="4">
+        <v>4.9106739461421967E-3</v>
+      </c>
+      <c r="W34" s="4">
+        <v>1.1732982471585274E-2</v>
+      </c>
+      <c r="X34" s="4">
+        <v>2.7092864911537617E-6</v>
+      </c>
+      <c r="Y34" s="4">
+        <v>8.1338448580936529E-6</v>
+      </c>
+      <c r="Z34" s="4">
+        <v>0.16940373182296753</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="11"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="9"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -4054,36 +5210,53 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
-      <c r="N35" s="14">
+      <c r="N35" s="8">
         <v>3.3394895493984222E-2</v>
       </c>
-      <c r="O35" s="4">
+      <c r="O35" s="8">
         <v>1.786881685256958E-2</v>
       </c>
-      <c r="P35" s="4">
+      <c r="P35" s="8">
         <v>1.9655287265777588E-2</v>
       </c>
-      <c r="Q35" s="4">
+      <c r="Q35" s="8">
         <v>3.5454265773296356E-2</v>
       </c>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
-      <c r="Z35" s="4"/>
-      <c r="AA35" s="4"/>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R35" s="8">
+        <v>0.1874023973941803</v>
+      </c>
+      <c r="S35" s="8">
+        <v>1.9201799295842648E-3</v>
+      </c>
+      <c r="T35" s="4">
+        <v>2.2714836813975126E-4</v>
+      </c>
+      <c r="U35" s="4">
+        <v>3.1962264329195023E-2</v>
+      </c>
+      <c r="V35" s="4">
+        <v>6.8157657980918884E-2</v>
+      </c>
+      <c r="W35" s="4">
+        <v>1.7439046874642372E-2</v>
+      </c>
+      <c r="X35" s="4">
+        <v>1.5325660817325115E-2</v>
+      </c>
+      <c r="Y35" s="4">
+        <v>0.25842788815498352</v>
+      </c>
+      <c r="Z35" s="4">
+        <v>1.7696136608719826E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="20"/>
       <c r="B36" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="11"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="9"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -4093,36 +5266,53 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
-      <c r="N36" s="14">
+      <c r="N36" s="8">
         <v>6.0018856078386307E-2</v>
       </c>
-      <c r="O36" s="4">
+      <c r="O36" s="8">
         <v>4.0901828557252884E-2</v>
       </c>
-      <c r="P36" s="4">
+      <c r="P36" s="8">
         <v>2.6481762528419495E-2</v>
       </c>
-      <c r="Q36" s="4">
+      <c r="Q36" s="8">
         <v>4.980672150850296E-3</v>
       </c>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
-      <c r="Z36" s="4"/>
-      <c r="AA36" s="4"/>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R36" s="8">
+        <v>6.3441991806030273E-2</v>
+      </c>
+      <c r="S36" s="8">
+        <v>6.7653809310286306E-6</v>
+      </c>
+      <c r="T36" s="4">
+        <v>3.3001184463500977E-2</v>
+      </c>
+      <c r="U36" s="4">
+        <v>1.3312697410583496E-2</v>
+      </c>
+      <c r="V36" s="4">
+        <v>0.22304542362689972</v>
+      </c>
+      <c r="W36" s="4">
+        <v>3.8240138441324234E-2</v>
+      </c>
+      <c r="X36" s="4">
+        <v>1.5305153094232082E-2</v>
+      </c>
+      <c r="Y36" s="4">
+        <v>4.7678790986537933E-2</v>
+      </c>
+      <c r="Z36" s="4">
+        <v>1.2809970648959279E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="20"/>
       <c r="B37" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="11"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="9"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -4132,38 +5322,55 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
-      <c r="N37" s="14">
+      <c r="N37" s="8">
         <v>1.3086049584671855E-3</v>
       </c>
-      <c r="O37" s="4">
+      <c r="O37" s="8">
         <v>1.4712158590555191E-3</v>
       </c>
-      <c r="P37" s="4">
+      <c r="P37" s="8">
         <v>3.3916643587872386E-4</v>
       </c>
-      <c r="Q37" s="4">
+      <c r="Q37" s="8">
         <v>4.0889408410293981E-5</v>
       </c>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
-      <c r="Z37" s="4"/>
-      <c r="AA37" s="4"/>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R37" s="8">
+        <v>1.0914509184658527E-3</v>
+      </c>
+      <c r="S37" s="8">
+        <v>1.0667874903447228E-6</v>
+      </c>
+      <c r="T37" s="4">
+        <v>6.3719623722136021E-4</v>
+      </c>
+      <c r="U37" s="4">
+        <v>8.0730824265629053E-5</v>
+      </c>
+      <c r="V37" s="4">
+        <v>4.7790044918656349E-3</v>
+      </c>
+      <c r="W37" s="4">
+        <v>4.5795280486345291E-2</v>
+      </c>
+      <c r="X37" s="4">
+        <v>5.2432087250053883E-3</v>
+      </c>
+      <c r="Y37" s="4">
+        <v>6.4836270175874233E-3</v>
+      </c>
+      <c r="Z37" s="4">
+        <v>1.9751287538838369E-7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="11"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="9"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -4173,36 +5380,53 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
-      <c r="N38" s="14">
+      <c r="N38" s="8">
         <v>5.6289248168468475E-2</v>
       </c>
-      <c r="O38" s="4">
+      <c r="O38" s="8">
         <v>9.440956637263298E-3</v>
       </c>
-      <c r="P38" s="4">
+      <c r="P38" s="8">
         <v>6.5156817436218262E-3</v>
       </c>
-      <c r="Q38" s="4">
+      <c r="Q38" s="8">
         <v>4.4709149748086929E-2</v>
       </c>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="4"/>
-      <c r="Z38" s="4"/>
-      <c r="AA38" s="4"/>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R38" s="8">
+        <v>2.3972566705197096E-3</v>
+      </c>
+      <c r="S38" s="8">
+        <v>0.18470790982246399</v>
+      </c>
+      <c r="T38" s="4">
+        <v>4.3266855180263519E-2</v>
+      </c>
+      <c r="U38" s="4">
+        <v>1.2413540855050087E-2</v>
+      </c>
+      <c r="V38" s="4">
+        <v>2.5945011526346207E-2</v>
+      </c>
+      <c r="W38" s="4">
+        <v>3.1957498285919428E-3</v>
+      </c>
+      <c r="X38" s="4">
+        <v>2.0796005264855921E-4</v>
+      </c>
+      <c r="Y38" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="4">
+        <v>1.2072745012119412E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="20"/>
       <c r="B39" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="11"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="9"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -4212,36 +5436,53 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
-      <c r="N39" s="14">
+      <c r="N39" s="8">
         <v>3.4442484378814697E-2</v>
       </c>
-      <c r="O39" s="4">
+      <c r="O39" s="8">
         <v>5.9426161460578442E-3</v>
       </c>
-      <c r="P39" s="4">
+      <c r="P39" s="8">
         <v>3.2051238231360912E-3</v>
       </c>
-      <c r="Q39" s="4">
+      <c r="Q39" s="8">
         <v>3.7052135914564133E-2</v>
       </c>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
-      <c r="W39" s="4"/>
-      <c r="X39" s="4"/>
-      <c r="Y39" s="4"/>
-      <c r="Z39" s="4"/>
-      <c r="AA39" s="4"/>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R39" s="8">
+        <v>4.1108037112280726E-4</v>
+      </c>
+      <c r="S39" s="8">
+        <v>8.2246974110603333E-2</v>
+      </c>
+      <c r="T39" s="4">
+        <v>5.5363111197948456E-2</v>
+      </c>
+      <c r="U39" s="4">
+        <v>1.3290118426084518E-2</v>
+      </c>
+      <c r="V39" s="4">
+        <v>7.7659514499828219E-4</v>
+      </c>
+      <c r="W39" s="4">
+        <v>3.3277116715908051E-2</v>
+      </c>
+      <c r="X39" s="4">
+        <v>9.3726030172547325E-6</v>
+      </c>
+      <c r="Y39" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="4">
+        <v>5.253109335899353E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="20"/>
       <c r="B40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="11"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="9"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -4251,36 +5492,53 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
-      <c r="N40" s="14">
+      <c r="N40" s="8">
         <v>2.1860361099243164E-2</v>
       </c>
-      <c r="O40" s="4">
+      <c r="O40" s="8">
         <v>2.8185143601149321E-3</v>
       </c>
-      <c r="P40" s="4">
+      <c r="P40" s="8">
         <v>7.3366006836295128E-4</v>
       </c>
-      <c r="Q40" s="4">
+      <c r="Q40" s="8">
         <v>2.1311737596988678E-2</v>
       </c>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
-      <c r="W40" s="4"/>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="4"/>
-      <c r="Z40" s="4"/>
-      <c r="AA40" s="4"/>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="R40" s="8">
+        <v>1.5014401287771761E-4</v>
+      </c>
+      <c r="S40" s="8">
+        <v>3.2693944871425629E-2</v>
+      </c>
+      <c r="T40" s="4">
+        <v>0.11694935709238052</v>
+      </c>
+      <c r="U40" s="4">
+        <v>1.4078948879614472E-3</v>
+      </c>
+      <c r="V40" s="4">
+        <v>1.2840727576985955E-3</v>
+      </c>
+      <c r="W40" s="4">
+        <v>7.047977764159441E-3</v>
+      </c>
+      <c r="X40" s="4">
+        <v>1.3725158396482584E-6</v>
+      </c>
+      <c r="Y40" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="4">
+        <v>1.3253469951450825E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="20"/>
       <c r="B41" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="11"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="9"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
@@ -4290,38 +5548,55 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
-      <c r="N41" s="14">
+      <c r="N41" s="8">
         <v>0.23123915493488312</v>
       </c>
-      <c r="O41" s="4">
+      <c r="O41" s="8">
         <v>1.0495579801499844E-2</v>
       </c>
-      <c r="P41" s="4">
+      <c r="P41" s="8">
         <v>5.8256825432181358E-3</v>
       </c>
-      <c r="Q41" s="4">
+      <c r="Q41" s="8">
         <v>4.7542668879032135E-2</v>
       </c>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
-      <c r="W41" s="4"/>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="4"/>
-      <c r="Z41" s="4"/>
-      <c r="AA41" s="4"/>
-    </row>
-    <row r="42" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
+      <c r="R41" s="8">
+        <v>4.4190306216478348E-3</v>
+      </c>
+      <c r="S41" s="8">
+        <v>0.20402331650257111</v>
+      </c>
+      <c r="T41" s="4">
+        <v>2.3147385120391846</v>
+      </c>
+      <c r="U41" s="4">
+        <v>9.3800006434321404E-3</v>
+      </c>
+      <c r="V41" s="4">
+        <v>1.7288388684391975E-2</v>
+      </c>
+      <c r="W41" s="4">
+        <v>3.9272159337997437E-2</v>
+      </c>
+      <c r="X41" s="4">
+        <v>1.562275315336592E-6</v>
+      </c>
+      <c r="Y41" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="4">
+        <v>0.26088067889213562</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -4331,38 +5606,55 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
-      <c r="N42" s="14">
+      <c r="N42" s="8">
         <v>0.11327436566352844</v>
       </c>
-      <c r="O42" s="4">
+      <c r="O42" s="8">
         <v>9.8398908972740173E-2</v>
       </c>
-      <c r="P42" s="4">
+      <c r="P42" s="8">
         <v>4.7683708369731903E-2</v>
       </c>
-      <c r="Q42" s="4">
+      <c r="Q42" s="8">
         <v>0.21391808986663818</v>
       </c>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
-      <c r="V42" s="4"/>
-      <c r="W42" s="4"/>
-      <c r="X42" s="4"/>
-      <c r="Y42" s="4"/>
-      <c r="Z42" s="4"/>
-      <c r="AA42" s="4"/>
-    </row>
-    <row r="43" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
+      <c r="R42" s="8">
+        <v>1.0543274693191051E-2</v>
+      </c>
+      <c r="S42" s="8">
+        <v>1.2709823846817017</v>
+      </c>
+      <c r="T42" s="4">
+        <v>2.5774514675140381</v>
+      </c>
+      <c r="U42" s="4">
+        <v>0.18358759582042694</v>
+      </c>
+      <c r="V42" s="4">
+        <v>2.975892648100853E-2</v>
+      </c>
+      <c r="W42" s="4">
+        <v>9.036882221698761E-2</v>
+      </c>
+      <c r="X42" s="4">
+        <v>2.4318885989487171E-3</v>
+      </c>
+      <c r="Y42" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="4">
+        <v>0.25148317217826843</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -4372,38 +5664,55 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
-      <c r="N43" s="14">
+      <c r="N43" s="8">
         <v>2.0047736167907715</v>
       </c>
-      <c r="O43" s="4">
+      <c r="O43" s="8">
         <v>6.7523636817932129</v>
       </c>
-      <c r="P43" s="4">
+      <c r="P43" s="8">
         <v>29.299650192260742</v>
       </c>
-      <c r="Q43" s="4">
+      <c r="Q43" s="8">
         <v>4.4517951011657715</v>
       </c>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="4"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="4"/>
-      <c r="W43" s="4"/>
-      <c r="X43" s="4"/>
-      <c r="Y43" s="4"/>
-      <c r="Z43" s="4"/>
-      <c r="AA43" s="4"/>
-    </row>
-    <row r="44" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
+      <c r="R43" s="8">
+        <v>16.940855026245117</v>
+      </c>
+      <c r="S43" s="8">
+        <v>0.18458032608032227</v>
+      </c>
+      <c r="T43" s="4">
+        <v>7.510591983795166</v>
+      </c>
+      <c r="U43" s="4">
+        <v>2.0550925731658936</v>
+      </c>
+      <c r="V43" s="4">
+        <v>16.058874130249023</v>
+      </c>
+      <c r="W43" s="4">
+        <v>1.6587246656417847</v>
+      </c>
+      <c r="X43" s="4">
+        <v>1.7340537309646606</v>
+      </c>
+      <c r="Y43" s="4">
+        <v>0.63043105602264404</v>
+      </c>
+      <c r="Z43" s="4">
+        <v>3.0079965591430664</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -4413,31 +5722,120 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
-      <c r="N44" s="14">
+      <c r="N44" s="8">
         <v>0.89822953939437866</v>
       </c>
-      <c r="O44" s="4">
+      <c r="O44" s="8">
         <v>3.0496270656585693</v>
       </c>
-      <c r="P44" s="4">
+      <c r="P44" s="8">
         <v>3.2599232196807861</v>
       </c>
-      <c r="Q44" s="4">
+      <c r="Q44" s="8">
         <v>4.80938720703125</v>
       </c>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="4"/>
-      <c r="U44" s="4"/>
-      <c r="V44" s="4"/>
-      <c r="W44" s="4"/>
-      <c r="X44" s="4"/>
-      <c r="Y44" s="4"/>
-      <c r="Z44" s="4"/>
-      <c r="AA44" s="4"/>
+      <c r="R44" s="8">
+        <v>3.3432071208953857</v>
+      </c>
+      <c r="S44" s="8">
+        <v>2.7182481288909912</v>
+      </c>
+      <c r="T44" s="4">
+        <v>3.518211841583252</v>
+      </c>
+      <c r="U44" s="4">
+        <v>2.985184907913208</v>
+      </c>
+      <c r="V44" s="4">
+        <v>0.23466622829437256</v>
+      </c>
+      <c r="W44" s="4">
+        <v>1.0050013065338135</v>
+      </c>
+      <c r="X44" s="4">
+        <v>1.0755538940429688</v>
+      </c>
+      <c r="Y44" s="4">
+        <v>1.1204680195078254E-3</v>
+      </c>
+      <c r="Z44" s="4">
+        <v>4.111579418182373</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="N45" s="11">
+        <f>SUM(N3:N44)</f>
+        <v>14.432090985168543</v>
+      </c>
+      <c r="O45" s="11">
+        <f t="shared" ref="O45:U45" si="0">SUM(O3:O44)</f>
+        <v>13.809066404018949</v>
+      </c>
+      <c r="P45" s="11">
+        <f t="shared" si="0"/>
+        <v>38.95806659659695</v>
+      </c>
+      <c r="Q45" s="11">
+        <f t="shared" si="0"/>
+        <v>27.559600392252833</v>
+      </c>
+      <c r="R45" s="11">
+        <f t="shared" si="0"/>
+        <v>22.87619502057521</v>
+      </c>
+      <c r="S45" s="11">
+        <f t="shared" si="0"/>
+        <v>9.8981175550008373</v>
+      </c>
+      <c r="T45" s="11">
+        <f t="shared" si="0"/>
+        <v>31.135156371049597</v>
+      </c>
+      <c r="U45" s="11">
+        <f t="shared" si="0"/>
+        <v>7.049785898857408</v>
+      </c>
+      <c r="V45" s="11">
+        <f>SUM(V3:V44)</f>
+        <v>38.190143902536647</v>
+      </c>
+      <c r="W45" s="11">
+        <f>SUM(W3:W44)</f>
+        <v>21.735249821465914</v>
+      </c>
+      <c r="X45" s="11">
+        <f>SUM(X3:X44)</f>
+        <v>4.6697064925022822</v>
+      </c>
+      <c r="Y45" s="11">
+        <f>SUM(Y3:Y44)</f>
+        <v>19.922895074106691</v>
+      </c>
+      <c r="Z45" s="11">
+        <f>SUM(Z3:Z44)</f>
+        <v>20.936247438291929</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="T1:Z1"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="C20:C22"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="C35:C37"/>
     <mergeCell ref="A38:A41"/>
@@ -4448,24 +5846,6 @@
     <mergeCell ref="C26:C31"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="C32:C34"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="T1:AA1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/6_DrawFigure/Fig3_OutputTable/ImplicationResearch.xlsx
+++ b/6_DrawFigure/Fig3_OutputTable/ImplicationResearch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMIP6\Program\6_DrawFigure\Fig3_OutputTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76A5A7E-1F7B-4C93-84F4-502EDF6FA7EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFE902B-0371-4DAF-BFF4-CC5AAD6AAD49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4890" yWindow="1005" windowWidth="18000" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quantity" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="63">
   <si>
     <t>Mekong</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -246,6 +246,10 @@
     <t>Population (%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -294,15 +298,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -325,11 +335,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -371,14 +392,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -386,7 +404,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -671,9 +698,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z3" sqref="Z3:Z44"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3:I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -701,54 +728,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="15" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15" t="s">
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15" t="s">
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="17" t="s">
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
       <c r="AA1" s="12"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="13" t="s">
         <v>56</v>
       </c>
@@ -826,17 +853,33 @@
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="9"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
+      <c r="F3" s="4">
+        <v>-10.418503663226316</v>
+      </c>
+      <c r="G3" s="4">
+        <v>-5.6792750329856228</v>
+      </c>
+      <c r="H3" s="4">
+        <v>-7.0012172014317056</v>
+      </c>
+      <c r="I3" s="4">
+        <v>-3.1260737075316642</v>
+      </c>
+      <c r="J3" s="4">
+        <v>18189239</v>
+      </c>
+      <c r="K3" s="4">
+        <v>31363555</v>
+      </c>
+      <c r="L3" s="4">
+        <v>51099760</v>
+      </c>
+      <c r="M3" s="4">
+        <v>15996299</v>
+      </c>
       <c r="N3" s="7">
         <v>1263132.375</v>
       </c>
@@ -882,17 +925,33 @@
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="16"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="9"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
+      <c r="F4" s="4">
+        <v>-19.667098277578834</v>
+      </c>
+      <c r="G4" s="4">
+        <v>-22.204648251012451</v>
+      </c>
+      <c r="H4" s="4">
+        <v>-26.792364879922889</v>
+      </c>
+      <c r="I4" s="4">
+        <v>-24.422564774038843</v>
+      </c>
+      <c r="J4" s="4">
+        <v>124417</v>
+      </c>
+      <c r="K4" s="4">
+        <v>163503</v>
+      </c>
+      <c r="L4" s="4">
+        <v>220994</v>
+      </c>
+      <c r="M4" s="4">
+        <v>125965</v>
+      </c>
       <c r="N4" s="7">
         <v>136985.8125</v>
       </c>
@@ -938,17 +997,33 @@
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="16"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="9"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
+      <c r="F5" s="4">
+        <v>-3.1775918558516585</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1.4002387467174073</v>
+      </c>
+      <c r="H5" s="4">
+        <v>7.5190739233705299</v>
+      </c>
+      <c r="I5" s="4">
+        <v>8.9544270950658067</v>
+      </c>
+      <c r="J5" s="4">
+        <v>3033586</v>
+      </c>
+      <c r="K5" s="4">
+        <v>4425649</v>
+      </c>
+      <c r="L5" s="4">
+        <v>8903979</v>
+      </c>
+      <c r="M5" s="4">
+        <v>1529603</v>
+      </c>
       <c r="N5" s="7">
         <v>1229416.25</v>
       </c>
@@ -994,17 +1069,33 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="16"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="9"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
+      <c r="F6" s="4">
+        <v>3.0421057441373422</v>
+      </c>
+      <c r="G6" s="4">
+        <v>5.883440469846259</v>
+      </c>
+      <c r="H6" s="4">
+        <v>16.235093887862952</v>
+      </c>
+      <c r="I6" s="4">
+        <v>21.422204632541415</v>
+      </c>
+      <c r="J6" s="4">
+        <v>955550</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1263768</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1798529</v>
+      </c>
+      <c r="M6" s="4">
+        <v>874146</v>
+      </c>
       <c r="N6" s="7">
         <v>264005.78125</v>
       </c>
@@ -1050,17 +1141,33 @@
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="16"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="9"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
+      <c r="F7" s="4">
+        <v>-5.3488538840591282</v>
+      </c>
+      <c r="G7" s="4">
+        <v>-2.1851878748338183</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2.6741437797403118</v>
+      </c>
+      <c r="I7" s="4">
+        <v>4.6552841204316646</v>
+      </c>
+      <c r="J7" s="4">
+        <v>7167770</v>
+      </c>
+      <c r="K7" s="4">
+        <v>10110380</v>
+      </c>
+      <c r="L7" s="4">
+        <v>17072619</v>
+      </c>
+      <c r="M7" s="4">
+        <v>5959695</v>
+      </c>
       <c r="N7" s="7">
         <v>3819839</v>
       </c>
@@ -1108,17 +1215,33 @@
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="16"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="9"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
+      <c r="F8" s="4">
+        <v>7.8159524893949568</v>
+      </c>
+      <c r="G8" s="4">
+        <v>15.41531285150813</v>
+      </c>
+      <c r="H8" s="4">
+        <v>10.396549582168719</v>
+      </c>
+      <c r="I8" s="4">
+        <v>15.125955894133806</v>
+      </c>
+      <c r="J8" s="4">
+        <v>671187</v>
+      </c>
+      <c r="K8" s="4">
+        <v>849734</v>
+      </c>
+      <c r="L8" s="4">
+        <v>1238812</v>
+      </c>
+      <c r="M8" s="4">
+        <v>674061</v>
+      </c>
       <c r="N8" s="7">
         <v>533586.25</v>
       </c>
@@ -1164,17 +1287,33 @@
       <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="16"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="9"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
+      <c r="F9" s="4">
+        <v>9.9725288847126325</v>
+      </c>
+      <c r="G9" s="4">
+        <v>12.327081460056172</v>
+      </c>
+      <c r="H9" s="4">
+        <v>4.8402843023054514</v>
+      </c>
+      <c r="I9" s="4">
+        <v>7.6452081066840725</v>
+      </c>
+      <c r="J9" s="4">
+        <v>2929961</v>
+      </c>
+      <c r="K9" s="4">
+        <v>3664191</v>
+      </c>
+      <c r="L9" s="4">
+        <v>4688982</v>
+      </c>
+      <c r="M9" s="4">
+        <v>2944706</v>
+      </c>
       <c r="N9" s="7">
         <v>1534126.875</v>
       </c>
@@ -1220,17 +1359,25 @@
       <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="16"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="9"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
       <c r="N10" s="7">
         <v>465.01300048828125</v>
       </c>
@@ -1278,17 +1425,33 @@
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="16"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="9"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
+      <c r="F11" s="4">
+        <v>12.492308715468525</v>
+      </c>
+      <c r="G11" s="4">
+        <v>18.915871837225041</v>
+      </c>
+      <c r="H11" s="4">
+        <v>41.905363668819959</v>
+      </c>
+      <c r="I11" s="4">
+        <v>48.09081322495053</v>
+      </c>
+      <c r="J11" s="4">
+        <v>103965146</v>
+      </c>
+      <c r="K11" s="4">
+        <v>140276633</v>
+      </c>
+      <c r="L11" s="4">
+        <v>220923691</v>
+      </c>
+      <c r="M11" s="4">
+        <v>96881696</v>
+      </c>
       <c r="N11" s="7">
         <v>25605032</v>
       </c>
@@ -1334,17 +1497,33 @@
       <c r="B12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="16"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="9"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
+      <c r="F12" s="4">
+        <v>9.3013082648292826</v>
+      </c>
+      <c r="G12" s="4">
+        <v>10.366957884070477</v>
+      </c>
+      <c r="H12" s="4">
+        <v>23.104725397176452</v>
+      </c>
+      <c r="I12" s="4">
+        <v>29.746272417138233</v>
+      </c>
+      <c r="J12" s="4">
+        <v>674582</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1020326</v>
+      </c>
+      <c r="L12" s="4">
+        <v>1592585</v>
+      </c>
+      <c r="M12" s="4">
+        <v>725026</v>
+      </c>
       <c r="N12" s="7">
         <v>371008.375</v>
       </c>
@@ -1390,17 +1569,33 @@
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="16"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="9"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
+      <c r="F13" s="4">
+        <v>4.8783113549072494</v>
+      </c>
+      <c r="G13" s="4">
+        <v>4.5729835383395123</v>
+      </c>
+      <c r="H13" s="4">
+        <v>13.02646133278934</v>
+      </c>
+      <c r="I13" s="4">
+        <v>16.759472870322888</v>
+      </c>
+      <c r="J13" s="4">
+        <v>660033</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1088647</v>
+      </c>
+      <c r="L13" s="4">
+        <v>2016349</v>
+      </c>
+      <c r="M13" s="4">
+        <v>660729</v>
+      </c>
       <c r="N13" s="7">
         <v>439209.875</v>
       </c>
@@ -1446,17 +1641,25 @@
       <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="16"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="9"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
+      <c r="J14" s="4">
+        <v>2120</v>
+      </c>
+      <c r="K14" s="4">
+        <v>3288</v>
+      </c>
+      <c r="L14" s="4">
+        <v>5940</v>
+      </c>
+      <c r="M14" s="4">
+        <v>2056</v>
+      </c>
       <c r="N14" s="7">
         <v>969.7984619140625</v>
       </c>
@@ -1502,17 +1705,33 @@
       <c r="B15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="16"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="9"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
+      <c r="F15" s="4">
+        <v>21.047812652891867</v>
+      </c>
+      <c r="G15" s="4">
+        <v>24.454050082246862</v>
+      </c>
+      <c r="H15" s="4">
+        <v>34.59093608016066</v>
+      </c>
+      <c r="I15" s="4">
+        <v>47.567328917906835</v>
+      </c>
+      <c r="J15" s="4">
+        <v>35438618</v>
+      </c>
+      <c r="K15" s="4">
+        <v>49649412</v>
+      </c>
+      <c r="L15" s="4">
+        <v>90494391</v>
+      </c>
+      <c r="M15" s="4">
+        <v>34275638</v>
+      </c>
       <c r="N15" s="7">
         <v>7978070</v>
       </c>
@@ -1558,17 +1777,33 @@
       <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="16"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="9"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
+      <c r="F16" s="4">
+        <v>22.490469151275654</v>
+      </c>
+      <c r="G16" s="4">
+        <v>33.597891900001393</v>
+      </c>
+      <c r="H16" s="4">
+        <v>46.13070647712415</v>
+      </c>
+      <c r="I16" s="4">
+        <v>51.92108675328349</v>
+      </c>
+      <c r="J16" s="4">
+        <v>492131745</v>
+      </c>
+      <c r="K16" s="4">
+        <v>697452805</v>
+      </c>
+      <c r="L16" s="4">
+        <v>1151548823</v>
+      </c>
+      <c r="M16" s="4">
+        <v>489903898</v>
+      </c>
       <c r="N16" s="7">
         <v>101825416</v>
       </c>
@@ -1616,17 +1851,33 @@
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="16"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="9"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
+      <c r="F17" s="4">
+        <v>-14.105316442911185</v>
+      </c>
+      <c r="G17" s="4">
+        <v>-7.1307641051554711</v>
+      </c>
+      <c r="H17" s="4">
+        <v>4.2040448510036654</v>
+      </c>
+      <c r="I17" s="4">
+        <v>3.1755454724448349</v>
+      </c>
+      <c r="J17" s="4">
+        <v>14633950</v>
+      </c>
+      <c r="K17" s="4">
+        <v>25465587</v>
+      </c>
+      <c r="L17" s="4">
+        <v>41787136</v>
+      </c>
+      <c r="M17" s="4">
+        <v>12858787</v>
+      </c>
       <c r="N17" s="7">
         <v>847289.4375</v>
       </c>
@@ -1672,17 +1923,33 @@
       <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="16"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="9"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
+      <c r="F18" s="4">
+        <v>5.4365583332730214</v>
+      </c>
+      <c r="G18" s="4">
+        <v>13.657916569752762</v>
+      </c>
+      <c r="H18" s="4">
+        <v>28.291945279837623</v>
+      </c>
+      <c r="I18" s="4">
+        <v>34.030739947318963</v>
+      </c>
+      <c r="J18" s="4">
+        <v>26097</v>
+      </c>
+      <c r="K18" s="4">
+        <v>37228</v>
+      </c>
+      <c r="L18" s="4">
+        <v>59881</v>
+      </c>
+      <c r="M18" s="4">
+        <v>25019</v>
+      </c>
       <c r="N18" s="7">
         <v>1412.9150390625</v>
       </c>
@@ -1728,17 +1995,33 @@
       <c r="B19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="16"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="9"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
+      <c r="F19" s="4">
+        <v>-6.9733404431640587</v>
+      </c>
+      <c r="G19" s="4">
+        <v>-3.5435927005668288</v>
+      </c>
+      <c r="H19" s="4">
+        <v>-0.84456208617036499</v>
+      </c>
+      <c r="I19" s="4">
+        <v>14.703300966983262</v>
+      </c>
+      <c r="J19" s="4">
+        <v>553557</v>
+      </c>
+      <c r="K19" s="4">
+        <v>897933</v>
+      </c>
+      <c r="L19" s="4">
+        <v>1655295</v>
+      </c>
+      <c r="M19" s="4">
+        <v>525248</v>
+      </c>
       <c r="N19" s="7">
         <v>52214.90234375</v>
       </c>
@@ -1786,17 +2069,33 @@
       <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="16"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="9"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
+      <c r="F20" s="4">
+        <v>-8.8598933020737363</v>
+      </c>
+      <c r="G20" s="4">
+        <v>-7.4347502988293659</v>
+      </c>
+      <c r="H20" s="4">
+        <v>-2.0116709687954484</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0.67766345683553686</v>
+      </c>
+      <c r="J20" s="4">
+        <v>11048703</v>
+      </c>
+      <c r="K20" s="4">
+        <v>18577151</v>
+      </c>
+      <c r="L20" s="4">
+        <v>29053031</v>
+      </c>
+      <c r="M20" s="4">
+        <v>9769747</v>
+      </c>
       <c r="N20" s="7">
         <v>1657072.75</v>
       </c>
@@ -1842,17 +2141,33 @@
       <c r="B21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="16"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="9"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
+      <c r="F21" s="4">
+        <v>18.461130810575309</v>
+      </c>
+      <c r="G21" s="4">
+        <v>23.488636379179162</v>
+      </c>
+      <c r="H21" s="4">
+        <v>42.900936783232673</v>
+      </c>
+      <c r="I21" s="4">
+        <v>46.968906413634663</v>
+      </c>
+      <c r="J21" s="4">
+        <v>180930249</v>
+      </c>
+      <c r="K21" s="4">
+        <v>277612756</v>
+      </c>
+      <c r="L21" s="4">
+        <v>482508058</v>
+      </c>
+      <c r="M21" s="4">
+        <v>172332712</v>
+      </c>
       <c r="N21" s="7">
         <v>36037892</v>
       </c>
@@ -1898,17 +2213,33 @@
       <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="16"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="9"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
+      <c r="F22" s="4">
+        <v>14.895777093944455</v>
+      </c>
+      <c r="G22" s="4">
+        <v>23.888384185855131</v>
+      </c>
+      <c r="H22" s="4">
+        <v>39.56831846028404</v>
+      </c>
+      <c r="I22" s="4">
+        <v>47.675686583038669</v>
+      </c>
+      <c r="J22" s="4">
+        <v>26366858</v>
+      </c>
+      <c r="K22" s="4">
+        <v>38046287</v>
+      </c>
+      <c r="L22" s="4">
+        <v>63622260</v>
+      </c>
+      <c r="M22" s="4">
+        <v>26238681</v>
+      </c>
       <c r="N22" s="7">
         <v>7428966.5</v>
       </c>
@@ -1956,17 +2287,33 @@
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="16"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="9"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
+      <c r="F23" s="4">
+        <v>9.9649585261182843</v>
+      </c>
+      <c r="G23" s="4">
+        <v>8.6148862099149</v>
+      </c>
+      <c r="H23" s="4">
+        <v>21.282292488524369</v>
+      </c>
+      <c r="I23" s="4">
+        <v>28.145302222040893</v>
+      </c>
+      <c r="J23" s="4">
+        <v>494346</v>
+      </c>
+      <c r="K23" s="4">
+        <v>634340</v>
+      </c>
+      <c r="L23" s="4">
+        <v>939895</v>
+      </c>
+      <c r="M23" s="4">
+        <v>495465</v>
+      </c>
       <c r="N23" s="7">
         <v>140756.71875</v>
       </c>
@@ -2012,17 +2359,33 @@
       <c r="B24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="16"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="9"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
+      <c r="F24" s="4">
+        <v>11.382513749727359</v>
+      </c>
+      <c r="G24" s="4">
+        <v>16.763680531813883</v>
+      </c>
+      <c r="H24" s="4">
+        <v>28.252843870007542</v>
+      </c>
+      <c r="I24" s="4">
+        <v>40.95934862512609</v>
+      </c>
+      <c r="J24" s="4">
+        <v>10867467</v>
+      </c>
+      <c r="K24" s="4">
+        <v>15351041</v>
+      </c>
+      <c r="L24" s="4">
+        <v>24714663</v>
+      </c>
+      <c r="M24" s="4">
+        <v>9988096</v>
+      </c>
       <c r="N24" s="7">
         <v>9245358</v>
       </c>
@@ -2068,17 +2431,33 @@
       <c r="B25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="16"/>
+      <c r="C25" s="19"/>
       <c r="D25" s="9"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
+      <c r="F25" s="4">
+        <v>7.2890978846758312</v>
+      </c>
+      <c r="G25" s="4">
+        <v>11.22479237375263</v>
+      </c>
+      <c r="H25" s="4">
+        <v>28.298739687620866</v>
+      </c>
+      <c r="I25" s="4">
+        <v>37.708019147116275</v>
+      </c>
+      <c r="J25" s="4">
+        <v>2558587</v>
+      </c>
+      <c r="K25" s="4">
+        <v>3660975</v>
+      </c>
+      <c r="L25" s="4">
+        <v>5846314</v>
+      </c>
+      <c r="M25" s="4">
+        <v>2552226</v>
+      </c>
       <c r="N25" s="7">
         <v>493679.34375</v>
       </c>
@@ -2126,17 +2505,33 @@
       <c r="B26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="16"/>
+      <c r="C26" s="19"/>
       <c r="D26" s="9"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
+      <c r="F26" s="4">
+        <v>8.4726954352524579</v>
+      </c>
+      <c r="G26" s="4">
+        <v>18.09061128661838</v>
+      </c>
+      <c r="H26" s="4">
+        <v>12.462531793799918</v>
+      </c>
+      <c r="I26" s="4">
+        <v>20.033958667296996</v>
+      </c>
+      <c r="J26" s="4">
+        <v>8985105</v>
+      </c>
+      <c r="K26" s="4">
+        <v>12769164</v>
+      </c>
+      <c r="L26" s="4">
+        <v>20949190</v>
+      </c>
+      <c r="M26" s="4">
+        <v>7489961</v>
+      </c>
       <c r="N26" s="7">
         <v>3196492.25</v>
       </c>
@@ -2182,17 +2577,33 @@
       <c r="B27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="16"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="9"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
+      <c r="F27" s="4">
+        <v>8.6132214959434368</v>
+      </c>
+      <c r="G27" s="4">
+        <v>7.7673202133852879</v>
+      </c>
+      <c r="H27" s="4">
+        <v>12.457672333749613</v>
+      </c>
+      <c r="I27" s="4">
+        <v>21.939760256075004</v>
+      </c>
+      <c r="J27" s="4">
+        <v>1547559</v>
+      </c>
+      <c r="K27" s="4">
+        <v>2041772</v>
+      </c>
+      <c r="L27" s="4">
+        <v>3115456</v>
+      </c>
+      <c r="M27" s="4">
+        <v>1553639</v>
+      </c>
       <c r="N27" s="7">
         <v>1312595.125</v>
       </c>
@@ -2238,17 +2649,33 @@
       <c r="B28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="16"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="9"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
+      <c r="F28" s="4">
+        <v>13.290613935008903</v>
+      </c>
+      <c r="G28" s="4">
+        <v>12.438625286411868</v>
+      </c>
+      <c r="H28" s="4">
+        <v>10.32536215733772</v>
+      </c>
+      <c r="I28" s="4">
+        <v>20.507058268384721</v>
+      </c>
+      <c r="J28" s="4">
+        <v>4939521</v>
+      </c>
+      <c r="K28" s="4">
+        <v>7211099</v>
+      </c>
+      <c r="L28" s="4">
+        <v>11882996</v>
+      </c>
+      <c r="M28" s="4">
+        <v>4447809</v>
+      </c>
       <c r="N28" s="7">
         <v>1403286.125</v>
       </c>
@@ -2294,17 +2721,33 @@
       <c r="B29" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="16"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="9"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
+      <c r="F29" s="4">
+        <v>10.629336063390376</v>
+      </c>
+      <c r="G29" s="4">
+        <v>12.526427425681103</v>
+      </c>
+      <c r="H29" s="4">
+        <v>17.95466502525705</v>
+      </c>
+      <c r="I29" s="4">
+        <v>29.687723102911743</v>
+      </c>
+      <c r="J29" s="4">
+        <v>228964</v>
+      </c>
+      <c r="K29" s="4">
+        <v>332402</v>
+      </c>
+      <c r="L29" s="4">
+        <v>557093</v>
+      </c>
+      <c r="M29" s="4">
+        <v>213017</v>
+      </c>
       <c r="N29" s="7">
         <v>109226.578125</v>
       </c>
@@ -2350,17 +2793,33 @@
       <c r="B30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="16"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="9"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
+      <c r="F30" s="4">
+        <v>10.126095648907381</v>
+      </c>
+      <c r="G30" s="4">
+        <v>15.540423772742367</v>
+      </c>
+      <c r="H30" s="4">
+        <v>9.6145051191787712</v>
+      </c>
+      <c r="I30" s="4">
+        <v>19.139218939751849</v>
+      </c>
+      <c r="J30" s="4">
+        <v>13851860</v>
+      </c>
+      <c r="K30" s="4">
+        <v>18817404</v>
+      </c>
+      <c r="L30" s="4">
+        <v>29640244</v>
+      </c>
+      <c r="M30" s="4">
+        <v>14806289</v>
+      </c>
       <c r="N30" s="7">
         <v>3403513</v>
       </c>
@@ -2406,17 +2865,33 @@
       <c r="B31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="16"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="9"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
+      <c r="F31" s="4">
+        <v>8.4937842043872909</v>
+      </c>
+      <c r="G31" s="4">
+        <v>14.277373400430436</v>
+      </c>
+      <c r="H31" s="4">
+        <v>11.968784879410391</v>
+      </c>
+      <c r="I31" s="4">
+        <v>18.07158176903042</v>
+      </c>
+      <c r="J31" s="4">
+        <v>9461714</v>
+      </c>
+      <c r="K31" s="4">
+        <v>12406113</v>
+      </c>
+      <c r="L31" s="4">
+        <v>18242603</v>
+      </c>
+      <c r="M31" s="4">
+        <v>9158277</v>
+      </c>
       <c r="N31" s="7">
         <v>756706.375</v>
       </c>
@@ -2464,17 +2939,33 @@
       <c r="B32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="16"/>
+      <c r="C32" s="19"/>
       <c r="D32" s="9"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
+      <c r="F32" s="4">
+        <v>-16.785717470945727</v>
+      </c>
+      <c r="G32" s="4">
+        <v>-7.7598666640745169</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0.11367477306652272</v>
+      </c>
+      <c r="I32" s="4">
+        <v>-1.4363333575214521</v>
+      </c>
+      <c r="J32" s="4">
+        <v>4803778</v>
+      </c>
+      <c r="K32" s="4">
+        <v>8593713</v>
+      </c>
+      <c r="L32" s="4">
+        <v>14377888</v>
+      </c>
+      <c r="M32" s="4">
+        <v>4212158</v>
+      </c>
       <c r="N32" s="7">
         <v>361915.875</v>
       </c>
@@ -2520,17 +3011,33 @@
       <c r="B33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="16"/>
+      <c r="C33" s="19"/>
       <c r="D33" s="9"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
+      <c r="F33" s="4">
+        <v>10.945257265576995</v>
+      </c>
+      <c r="G33" s="4">
+        <v>5.3926657958250424</v>
+      </c>
+      <c r="H33" s="4">
+        <v>17.179212038157573</v>
+      </c>
+      <c r="I33" s="4">
+        <v>14.272104460151738</v>
+      </c>
+      <c r="J33" s="4">
+        <v>2695732</v>
+      </c>
+      <c r="K33" s="4">
+        <v>3568165</v>
+      </c>
+      <c r="L33" s="4">
+        <v>5590834</v>
+      </c>
+      <c r="M33" s="4">
+        <v>2660722</v>
+      </c>
       <c r="N33" s="7">
         <v>138895.4375</v>
       </c>
@@ -2576,17 +3083,33 @@
       <c r="B34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="16"/>
+      <c r="C34" s="19"/>
       <c r="D34" s="9"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
+      <c r="F34" s="4">
+        <v>3.4527186617095929</v>
+      </c>
+      <c r="G34" s="4">
+        <v>2.4438897375247843</v>
+      </c>
+      <c r="H34" s="4">
+        <v>8.7648566885148629</v>
+      </c>
+      <c r="I34" s="4">
+        <v>17.125954756327864</v>
+      </c>
+      <c r="J34" s="4">
+        <v>1600906</v>
+      </c>
+      <c r="K34" s="4">
+        <v>2153481</v>
+      </c>
+      <c r="L34" s="4">
+        <v>3131650</v>
+      </c>
+      <c r="M34" s="4">
+        <v>1469190</v>
+      </c>
       <c r="N34" s="7">
         <v>1072012</v>
       </c>
@@ -2634,17 +3157,33 @@
       <c r="B35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="16"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="9"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
+      <c r="F35" s="4">
+        <v>8.8483834870488955</v>
+      </c>
+      <c r="G35" s="4">
+        <v>8.0543548331571255</v>
+      </c>
+      <c r="H35" s="4">
+        <v>16.877719595078865</v>
+      </c>
+      <c r="I35" s="4">
+        <v>24.687196636498431</v>
+      </c>
+      <c r="J35" s="4">
+        <v>762531</v>
+      </c>
+      <c r="K35" s="4">
+        <v>1033218</v>
+      </c>
+      <c r="L35" s="4">
+        <v>1621259</v>
+      </c>
+      <c r="M35" s="4">
+        <v>765018</v>
+      </c>
       <c r="N35" s="7">
         <v>646953.5</v>
       </c>
@@ -2690,17 +3229,33 @@
       <c r="B36" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="16"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="9"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
+      <c r="F36" s="4">
+        <v>11.885885487306362</v>
+      </c>
+      <c r="G36" s="4">
+        <v>17.4132758634859</v>
+      </c>
+      <c r="H36" s="4">
+        <v>23.869743250493201</v>
+      </c>
+      <c r="I36" s="4">
+        <v>40.357922150672117</v>
+      </c>
+      <c r="J36" s="4">
+        <v>1617106</v>
+      </c>
+      <c r="K36" s="4">
+        <v>2352689</v>
+      </c>
+      <c r="L36" s="4">
+        <v>3961922</v>
+      </c>
+      <c r="M36" s="4">
+        <v>1486573</v>
+      </c>
       <c r="N36" s="7">
         <v>1162734.875</v>
       </c>
@@ -2746,17 +3301,33 @@
       <c r="B37" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="16"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="9"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
+      <c r="F37" s="4">
+        <v>12.302766782639107</v>
+      </c>
+      <c r="G37" s="4">
+        <v>20.418982472379632</v>
+      </c>
+      <c r="H37" s="4">
+        <v>23.597437514321719</v>
+      </c>
+      <c r="I37" s="4">
+        <v>42.454362717394794</v>
+      </c>
+      <c r="J37" s="4">
+        <v>44417</v>
+      </c>
+      <c r="K37" s="4">
+        <v>75590</v>
+      </c>
+      <c r="L37" s="4">
+        <v>148011</v>
+      </c>
+      <c r="M37" s="4">
+        <v>47237</v>
+      </c>
       <c r="N37" s="7">
         <v>25351.376953125</v>
       </c>
@@ -2804,17 +3375,33 @@
       <c r="B38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="16"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="9"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
+      <c r="F38" s="4">
+        <v>-2.5330662043810661</v>
+      </c>
+      <c r="G38" s="4">
+        <v>-1.3082055150238125</v>
+      </c>
+      <c r="H38" s="4">
+        <v>-3.3568845661522442</v>
+      </c>
+      <c r="I38" s="4">
+        <v>-1.6836811560918525</v>
+      </c>
+      <c r="J38" s="4">
+        <v>1803528</v>
+      </c>
+      <c r="K38" s="4">
+        <v>2372485</v>
+      </c>
+      <c r="L38" s="4">
+        <v>3249501</v>
+      </c>
+      <c r="M38" s="4">
+        <v>1793410</v>
+      </c>
       <c r="N38" s="7">
         <v>1090481.75</v>
       </c>
@@ -2860,17 +3447,33 @@
       <c r="B39" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="16"/>
+      <c r="C39" s="19"/>
       <c r="D39" s="9"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
+      <c r="F39" s="4">
+        <v>7.7666339042377928</v>
+      </c>
+      <c r="G39" s="4">
+        <v>15.432928775928465</v>
+      </c>
+      <c r="H39" s="4">
+        <v>18.651044283817814</v>
+      </c>
+      <c r="I39" s="4">
+        <v>21.756589800831481</v>
+      </c>
+      <c r="J39" s="4">
+        <v>1577523</v>
+      </c>
+      <c r="K39" s="4">
+        <v>2238983</v>
+      </c>
+      <c r="L39" s="4">
+        <v>3978318</v>
+      </c>
+      <c r="M39" s="4">
+        <v>1216485</v>
+      </c>
       <c r="N39" s="7">
         <v>667248.25</v>
       </c>
@@ -2916,17 +3519,33 @@
       <c r="B40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="16"/>
+      <c r="C40" s="19"/>
       <c r="D40" s="9"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
+      <c r="F40" s="4">
+        <v>4.2575844791712152</v>
+      </c>
+      <c r="G40" s="4">
+        <v>3.0472834884207658</v>
+      </c>
+      <c r="H40" s="4">
+        <v>14.928374487112784</v>
+      </c>
+      <c r="I40" s="4">
+        <v>17.324655058200477</v>
+      </c>
+      <c r="J40" s="4">
+        <v>1676525</v>
+      </c>
+      <c r="K40" s="4">
+        <v>2193796</v>
+      </c>
+      <c r="L40" s="4">
+        <v>3804632</v>
+      </c>
+      <c r="M40" s="4">
+        <v>955359</v>
+      </c>
       <c r="N40" s="7">
         <v>423496.96875</v>
       </c>
@@ -2972,17 +3591,33 @@
       <c r="B41" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="16"/>
+      <c r="C41" s="19"/>
       <c r="D41" s="9"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
+      <c r="F41" s="4">
+        <v>3.4581904901434823</v>
+      </c>
+      <c r="G41" s="4">
+        <v>8.9495924127747237</v>
+      </c>
+      <c r="H41" s="4">
+        <v>14.106314116306818</v>
+      </c>
+      <c r="I41" s="4">
+        <v>16.128497921175384</v>
+      </c>
+      <c r="J41" s="4">
+        <v>11939934</v>
+      </c>
+      <c r="K41" s="4">
+        <v>15284995</v>
+      </c>
+      <c r="L41" s="4">
+        <v>21910147</v>
+      </c>
+      <c r="M41" s="4">
+        <v>10162086</v>
+      </c>
       <c r="N41" s="7">
         <v>4479756</v>
       </c>
@@ -3033,14 +3668,30 @@
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
+      <c r="F42" s="4">
+        <v>14.956054394399761</v>
+      </c>
+      <c r="G42" s="4">
+        <v>25.270428231660997</v>
+      </c>
+      <c r="H42" s="4">
+        <v>34.551799861443683</v>
+      </c>
+      <c r="I42" s="4">
+        <v>35.196995267607178</v>
+      </c>
+      <c r="J42" s="4">
+        <v>2419335</v>
+      </c>
+      <c r="K42" s="4">
+        <v>3046870</v>
+      </c>
+      <c r="L42" s="4">
+        <v>4418920</v>
+      </c>
+      <c r="M42" s="4">
+        <v>2435237</v>
+      </c>
       <c r="N42" s="7">
         <v>2194444.5</v>
       </c>
@@ -3091,14 +3742,30 @@
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
+      <c r="F43" s="4">
+        <v>7.6704911576626751</v>
+      </c>
+      <c r="G43" s="4">
+        <v>4.9071973473937724</v>
+      </c>
+      <c r="H43" s="4">
+        <v>11.131691846169945</v>
+      </c>
+      <c r="I43" s="4">
+        <v>15.296503508649085</v>
+      </c>
+      <c r="J43" s="4">
+        <v>166602619</v>
+      </c>
+      <c r="K43" s="4">
+        <v>204444306</v>
+      </c>
+      <c r="L43" s="4">
+        <v>285940268</v>
+      </c>
+      <c r="M43" s="4">
+        <v>166773412</v>
+      </c>
       <c r="N43" s="7">
         <v>38838128</v>
       </c>
@@ -3149,14 +3816,30 @@
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
+      <c r="F44" s="4">
+        <v>24.898103762933694</v>
+      </c>
+      <c r="G44" s="4">
+        <v>28.574270765757692</v>
+      </c>
+      <c r="H44" s="4">
+        <v>43.863058428095748</v>
+      </c>
+      <c r="I44" s="4">
+        <v>54.081678139986387</v>
+      </c>
+      <c r="J44" s="4">
+        <v>82316714</v>
+      </c>
+      <c r="K44" s="4">
+        <v>96699726</v>
+      </c>
+      <c r="L44" s="4">
+        <v>126940222</v>
+      </c>
+      <c r="M44" s="4">
+        <v>82392835</v>
+      </c>
       <c r="N44" s="7">
         <v>17401244</v>
       </c>
@@ -3205,6 +3888,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="T1:Z1"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C16"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="C35:C37"/>
@@ -3221,18 +3916,6 @@
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="T1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3244,8 +3927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3655EE2C-431F-40A3-AE36-CDE9CDC9267E}">
   <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3:Z44"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3266,54 +3949,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="15" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15" t="s">
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15" t="s">
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="17" t="s">
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
       <c r="AA1" s="14"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="13" t="s">
         <v>56</v>
       </c>
@@ -3391,17 +4074,25 @@
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="9"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="4">
+        <v>0.26369400178367475</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.34783900590167588</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0.40378582106065958</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0.21644240737416465</v>
+      </c>
       <c r="N3" s="8">
         <v>6.5201245248317719E-2</v>
       </c>
@@ -3447,17 +4138,25 @@
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="16"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="9"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="4">
+        <v>1.803704741024045E-3</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1.8133378369238342E-3</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1.7462752024565164E-3</v>
+      </c>
+      <c r="M4" s="4">
+        <v>1.7044047404269353E-3</v>
+      </c>
       <c r="N4" s="8">
         <v>7.0710289292037487E-3</v>
       </c>
@@ -3503,17 +4202,25 @@
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="16"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="9"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="4">
+        <v>4.397866409336481E-2</v>
+      </c>
+      <c r="K5" s="4">
+        <v>4.9082871779992605E-2</v>
+      </c>
+      <c r="L5" s="4">
+        <v>7.0358461002984554E-2</v>
+      </c>
+      <c r="M5" s="4">
+        <v>2.0696722138461174E-2</v>
+      </c>
       <c r="N5" s="8">
         <v>6.3460864126682281E-2</v>
       </c>
@@ -3559,17 +4266,25 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="16"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="9"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="4">
+        <v>1.385285021569019E-2</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1.401587941195917E-2</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1.4211818391444636E-2</v>
+      </c>
+      <c r="M6" s="4">
+        <v>1.1827877475689627E-2</v>
+      </c>
       <c r="N6" s="8">
         <v>1.3627634383738041E-2</v>
       </c>
@@ -3615,17 +4330,25 @@
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="16"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="9"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="4">
+        <v>0.10391297597249509</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.11212965266495414</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0.13490633773173918</v>
+      </c>
+      <c r="M7" s="4">
+        <v>8.0639323697048432E-2</v>
+      </c>
       <c r="N7" s="8">
         <v>0.19717510044574738</v>
       </c>
@@ -3673,17 +4396,25 @@
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="16"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="9"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="4">
+        <v>9.7303678276578435E-3</v>
+      </c>
+      <c r="K8" s="4">
+        <v>9.4240155441835168E-3</v>
+      </c>
+      <c r="L8" s="4">
+        <v>9.7889837556927421E-3</v>
+      </c>
+      <c r="M8" s="4">
+        <v>9.1205712994635053E-3</v>
+      </c>
       <c r="N8" s="8">
         <v>2.7543026953935623E-2</v>
       </c>
@@ -3729,17 +4460,25 @@
       <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="16"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="9"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="4">
+        <v>4.2476386239143786E-2</v>
+      </c>
+      <c r="K9" s="4">
+        <v>4.0637885433391321E-2</v>
+      </c>
+      <c r="L9" s="4">
+        <v>3.7051924447564014E-2</v>
+      </c>
+      <c r="M9" s="4">
+        <v>3.9844169932629223E-2</v>
+      </c>
       <c r="N9" s="8">
         <v>7.918962836265564E-2</v>
       </c>
@@ -3785,17 +4524,25 @@
       <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="16"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="9"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
       <c r="N10" s="8">
         <v>2.4003364160307683E-5</v>
       </c>
@@ -3843,17 +4590,25 @@
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="16"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="9"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="4">
+        <v>1.5072090368796631</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1.5557447034927709</v>
+      </c>
+      <c r="L11" s="4">
+        <v>1.745719626906006</v>
+      </c>
+      <c r="M11" s="4">
+        <v>1.3108849436192695</v>
+      </c>
       <c r="N11" s="8">
         <v>1.3216983079910278</v>
       </c>
@@ -3899,17 +4654,25 @@
       <c r="B12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="16"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="9"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="4">
+        <v>9.7795860019891379E-3</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1.1315974274460702E-2</v>
+      </c>
+      <c r="L12" s="4">
+        <v>1.2584466968805537E-2</v>
+      </c>
+      <c r="M12" s="4">
+        <v>9.8101675174276943E-3</v>
+      </c>
       <c r="N12" s="8">
         <v>1.9150968641042709E-2</v>
       </c>
@@ -3955,17 +4718,25 @@
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="16"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="9"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="4">
+        <v>9.5686654663938511E-3</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1.2073691590696326E-2</v>
+      </c>
+      <c r="L13" s="4">
+        <v>1.5933012924323711E-2</v>
+      </c>
+      <c r="M13" s="4">
+        <v>8.9401789365105289E-3</v>
+      </c>
       <c r="N13" s="8">
         <v>2.2671442478895187E-2</v>
       </c>
@@ -4011,17 +4782,25 @@
       <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="16"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="9"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="4">
+        <v>3.0734176607465022E-5</v>
+      </c>
+      <c r="K14" s="4">
+        <v>3.6465721166006541E-5</v>
+      </c>
+      <c r="L14" s="4">
+        <v>4.6937358944549208E-5</v>
+      </c>
+      <c r="M14" s="4">
+        <v>2.7819284295778826E-5</v>
+      </c>
       <c r="N14" s="8">
         <v>5.0059730710927397E-5</v>
       </c>
@@ -4067,17 +4846,25 @@
       <c r="B15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="16"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="9"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="4">
+        <v>0.51376261525306077</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.55063917702195231</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0.71507873953457624</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0.46377612740330731</v>
+      </c>
       <c r="N15" s="8">
         <v>0.41181758046150208</v>
       </c>
@@ -4123,17 +4910,25 @@
       <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="16"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="9"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="4">
+        <v>7.134558474042425</v>
+      </c>
+      <c r="K16" s="4">
+        <v>7.7351336720131183</v>
+      </c>
+      <c r="L16" s="4">
+        <v>9.0994377857448079</v>
+      </c>
+      <c r="M16" s="4">
+        <v>6.6287820117082825</v>
+      </c>
       <c r="N16" s="8">
         <v>5.2560949325561523</v>
       </c>
@@ -4181,17 +4976,25 @@
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="16"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="9"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="4">
+        <v>0.21215207724755319</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0.28242730987551123</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0.33019828311392158</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0.17398942181510937</v>
+      </c>
       <c r="N17" s="8">
         <v>4.373597726225853E-2</v>
       </c>
@@ -4237,17 +5040,25 @@
       <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="16"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="9"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="4">
+        <v>3.7833481458727109E-4</v>
+      </c>
+      <c r="K18" s="4">
+        <v>4.1287891349394508E-4</v>
+      </c>
+      <c r="L18" s="4">
+        <v>4.7317440925228135E-4</v>
+      </c>
+      <c r="M18" s="4">
+        <v>3.3852659231327353E-4</v>
+      </c>
       <c r="N18" s="8">
         <v>7.2932831244543195E-5</v>
       </c>
@@ -4293,17 +5104,25 @@
       <c r="B19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="16"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="9"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="4">
+        <v>8.0250559435370364E-3</v>
+      </c>
+      <c r="K19" s="4">
+        <v>9.9585688575899479E-3</v>
+      </c>
+      <c r="L19" s="4">
+        <v>1.3079995887898583E-2</v>
+      </c>
+      <c r="M19" s="4">
+        <v>7.1070152907535197E-3</v>
+      </c>
       <c r="N19" s="8">
         <v>2.6952652260661125E-3</v>
       </c>
@@ -4351,17 +5170,25 @@
       <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="16"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="9"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="4">
+        <v>0.16017584400256066</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.20603078115109474</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0.22957450243671976</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0.13219230023873166</v>
+      </c>
       <c r="N20" s="8">
         <v>8.5535936057567596E-2</v>
       </c>
@@ -4407,17 +5234,25 @@
       <c r="B21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="16"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="9"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="4">
+        <v>2.6229916162257649</v>
+      </c>
+      <c r="K21" s="4">
+        <v>3.0788775402745161</v>
+      </c>
+      <c r="L21" s="4">
+        <v>3.8127363488187487</v>
+      </c>
+      <c r="M21" s="4">
+        <v>2.3317960644895792</v>
+      </c>
       <c r="N21" s="8">
         <v>1.8602288961410522</v>
       </c>
@@ -4463,17 +5298,25 @@
       <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="16"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="9"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="4">
+        <v>0.38224701431884528</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.42195416458146578</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0.5027375175898039</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0.35502982795975202</v>
+      </c>
       <c r="N22" s="8">
         <v>0.38347357511520386</v>
       </c>
@@ -4521,17 +5364,25 @@
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="16"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="9"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="4">
+        <v>7.1666590892424074E-3</v>
+      </c>
+      <c r="K23" s="4">
+        <v>7.0351780913760903E-3</v>
+      </c>
+      <c r="L23" s="4">
+        <v>7.4269678426240873E-3</v>
+      </c>
+      <c r="M23" s="4">
+        <v>6.7040280610934115E-3</v>
+      </c>
       <c r="N23" s="8">
         <v>7.2656781412661076E-3</v>
       </c>
@@ -4577,17 +5428,25 @@
       <c r="B24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="16"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="9"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="4">
+        <v>0.15754841983669721</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0.17025145398842281</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0.19529309906137529</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0.13514673258634791</v>
+      </c>
       <c r="N24" s="8">
         <v>0.47723335027694702</v>
       </c>
@@ -4633,17 +5492,25 @@
       <c r="B25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="16"/>
+      <c r="C25" s="19"/>
       <c r="D25" s="9"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="4">
+        <v>3.7092483360171749E-2</v>
+      </c>
+      <c r="K25" s="4">
+        <v>4.0602218231666903E-2</v>
+      </c>
+      <c r="L25" s="4">
+        <v>4.6197060390663847E-2</v>
+      </c>
+      <c r="M25" s="4">
+        <v>3.453360928068016E-2</v>
+      </c>
       <c r="N25" s="8">
         <v>2.5483084842562675E-2</v>
       </c>
@@ -4691,17 +5558,25 @@
       <c r="B26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="16"/>
+      <c r="C26" s="19"/>
       <c r="D26" s="9"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="4">
+        <v>0.1302593414653854</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0.14161702370651116</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0.16553866172181159</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0.10134501674284818</v>
+      </c>
       <c r="N26" s="8">
         <v>0.16499876976013184</v>
       </c>
@@ -4747,17 +5622,25 @@
       <c r="B27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="16"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="9"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="4">
+        <v>2.2435354536071681E-2</v>
+      </c>
+      <c r="K27" s="4">
+        <v>2.2644369962457271E-2</v>
+      </c>
+      <c r="L27" s="4">
+        <v>2.4618060024907323E-2</v>
+      </c>
+      <c r="M27" s="4">
+        <v>2.1021947973740036E-2</v>
+      </c>
       <c r="N27" s="8">
         <v>6.7754447460174561E-2</v>
       </c>
@@ -4803,17 +5686,25 @@
       <c r="B28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="16"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="9"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="4">
+        <v>7.160948621239728E-2</v>
+      </c>
+      <c r="K28" s="4">
+        <v>7.9975038149169286E-2</v>
+      </c>
+      <c r="L28" s="4">
+        <v>9.3898392018289978E-2</v>
+      </c>
+      <c r="M28" s="4">
+        <v>6.0182326393153553E-2</v>
+      </c>
       <c r="N28" s="8">
         <v>7.2435803711414337E-2</v>
       </c>
@@ -4859,17 +5750,25 @@
       <c r="B29" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="16"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="9"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="4">
+        <v>3.3193490626186894E-3</v>
+      </c>
+      <c r="K29" s="4">
+        <v>3.6865202697758228E-3</v>
+      </c>
+      <c r="L29" s="4">
+        <v>4.4021000179285778E-3</v>
+      </c>
+      <c r="M29" s="4">
+        <v>2.8822862270592984E-3</v>
+      </c>
       <c r="N29" s="8">
         <v>5.6381337344646454E-3</v>
       </c>
@@ -4915,17 +5814,25 @@
       <c r="B30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="16"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="9"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="4">
+        <v>0.20081392055749078</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0.2086953185316594</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0.23421460805252875</v>
+      </c>
+      <c r="M30" s="4">
+        <v>0.20034064350995268</v>
+      </c>
       <c r="N30" s="8">
         <v>0.17568489909172058</v>
       </c>
@@ -4971,17 +5878,25 @@
       <c r="B31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="16"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="9"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="4">
+        <v>0.13716886277609636</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0.13759058923721681</v>
+      </c>
+      <c r="L31" s="4">
+        <v>0.14415144866900845</v>
+      </c>
+      <c r="M31" s="4">
+        <v>0.12391863400899436</v>
+      </c>
       <c r="N31" s="8">
         <v>3.9060194045305252E-2</v>
       </c>
@@ -5029,17 +5944,25 @@
       <c r="B32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="16"/>
+      <c r="C32" s="19"/>
       <c r="D32" s="9"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="4">
+        <v>6.9641585582573176E-2</v>
+      </c>
+      <c r="K32" s="4">
+        <v>9.5308984804953034E-2</v>
+      </c>
+      <c r="L32" s="4">
+        <v>0.11361280975093041</v>
+      </c>
+      <c r="M32" s="4">
+        <v>5.6993784484795293E-2</v>
+      </c>
       <c r="N32" s="8">
         <v>1.868162490427494E-2</v>
       </c>
@@ -5085,17 +6008,25 @@
       <c r="B33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="16"/>
+      <c r="C33" s="19"/>
       <c r="D33" s="9"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="4">
+        <v>3.9080709138865515E-2</v>
+      </c>
+      <c r="K33" s="4">
+        <v>3.9572904490360016E-2</v>
+      </c>
+      <c r="L33" s="4">
+        <v>4.4178279841311417E-2</v>
+      </c>
+      <c r="M33" s="4">
+        <v>3.6001644820055065E-2</v>
+      </c>
       <c r="N33" s="8">
         <v>7.1696015074849129E-3</v>
       </c>
@@ -5141,17 +6072,25 @@
       <c r="B34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="16"/>
+      <c r="C34" s="19"/>
       <c r="D34" s="9"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="4">
+        <v>2.3208739498089812E-2</v>
+      </c>
+      <c r="K34" s="4">
+        <v>2.3883283966634104E-2</v>
+      </c>
+      <c r="L34" s="4">
+        <v>2.4746023592373319E-2</v>
+      </c>
+      <c r="M34" s="4">
+        <v>1.987928710822728E-2</v>
+      </c>
       <c r="N34" s="8">
         <v>5.5335864424705505E-2</v>
       </c>
@@ -5199,17 +6138,25 @@
       <c r="B35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="16"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="9"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="4">
+        <v>1.1054604916352316E-2</v>
+      </c>
+      <c r="K35" s="4">
+        <v>1.1458953616696759E-2</v>
+      </c>
+      <c r="L35" s="4">
+        <v>1.2811046401528772E-2</v>
+      </c>
+      <c r="M35" s="4">
+        <v>1.035129048316543E-2</v>
+      </c>
       <c r="N35" s="8">
         <v>3.3394895493984222E-2</v>
       </c>
@@ -5255,17 +6202,25 @@
       <c r="B36" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="16"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="9"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="4">
+        <v>2.344359499858082E-2</v>
+      </c>
+      <c r="K36" s="4">
+        <v>2.6092609812752663E-2</v>
+      </c>
+      <c r="L36" s="4">
+        <v>3.1306760105102069E-2</v>
+      </c>
+      <c r="M36" s="4">
+        <v>2.0114492662173546E-2</v>
+      </c>
       <c r="N36" s="8">
         <v>6.0018856078386307E-2</v>
       </c>
@@ -5311,17 +6266,25 @@
       <c r="B37" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="16"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="9"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="4">
+        <v>6.439244916857424E-4</v>
+      </c>
+      <c r="K37" s="4">
+        <v>8.3833450819295445E-4</v>
+      </c>
+      <c r="L37" s="4">
+        <v>1.1695699385086992E-3</v>
+      </c>
+      <c r="M37" s="4">
+        <v>6.3915346900763833E-4</v>
+      </c>
       <c r="N37" s="8">
         <v>1.3086049584671855E-3</v>
       </c>
@@ -5369,17 +6332,25 @@
       <c r="B38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="16"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="9"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="4">
+        <v>2.6146201919107631E-2</v>
+      </c>
+      <c r="K38" s="4">
+        <v>2.6312158296999098E-2</v>
+      </c>
+      <c r="L38" s="4">
+        <v>2.5677271856510368E-2</v>
+      </c>
+      <c r="M38" s="4">
+        <v>2.4266236696932245E-2</v>
+      </c>
       <c r="N38" s="8">
         <v>5.6289248168468475E-2</v>
       </c>
@@ -5425,17 +6396,25 @@
       <c r="B39" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="16"/>
+      <c r="C39" s="19"/>
       <c r="D39" s="9"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="4">
+        <v>2.2869750228461345E-2</v>
+      </c>
+      <c r="K39" s="4">
+        <v>2.4831547984619472E-2</v>
+      </c>
+      <c r="L39" s="4">
+        <v>3.143631985884867E-2</v>
+      </c>
+      <c r="M39" s="4">
+        <v>1.6459991272641295E-2</v>
+      </c>
       <c r="N39" s="8">
         <v>3.4442484378814697E-2</v>
       </c>
@@ -5481,17 +6460,25 @@
       <c r="B40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="16"/>
+      <c r="C40" s="19"/>
       <c r="D40" s="9"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="4">
+        <v>2.4305007281523728E-2</v>
+      </c>
+      <c r="K40" s="4">
+        <v>2.4330399401186278E-2</v>
+      </c>
+      <c r="L40" s="4">
+        <v>3.006386832254514E-2</v>
+      </c>
+      <c r="M40" s="4">
+        <v>1.292675273615319E-2</v>
+      </c>
       <c r="N40" s="8">
         <v>2.1860361099243164E-2</v>
       </c>
@@ -5537,17 +6524,25 @@
       <c r="B41" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="16"/>
+      <c r="C41" s="19"/>
       <c r="D41" s="9"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="4">
+        <v>0.17309624539503599</v>
+      </c>
+      <c r="K41" s="4">
+        <v>0.16951896766843191</v>
+      </c>
+      <c r="L41" s="4">
+        <v>0.17313205964088182</v>
+      </c>
+      <c r="M41" s="4">
+        <v>0.13750095305065849</v>
+      </c>
       <c r="N41" s="8">
         <v>0.23123915493488312</v>
       </c>
@@ -5598,14 +6593,22 @@
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="4">
+        <v>3.5073711869161035E-2</v>
+      </c>
+      <c r="K42" s="4">
+        <v>3.3791457375021393E-2</v>
+      </c>
+      <c r="L42" s="4">
+        <v>3.4917918213341309E-2</v>
+      </c>
+      <c r="M42" s="4">
+        <v>3.2950656824221561E-2</v>
+      </c>
       <c r="N42" s="8">
         <v>0.11327436566352844</v>
       </c>
@@ -5656,14 +6659,22 @@
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="4">
+        <v>2.4152803375529284</v>
+      </c>
+      <c r="K43" s="4">
+        <v>2.2673993481063621</v>
+      </c>
+      <c r="L43" s="4">
+        <v>2.2594749151206392</v>
+      </c>
+      <c r="M43" s="4">
+        <v>2.2565743975705503</v>
+      </c>
       <c r="N43" s="8">
         <v>2.0047736167907715</v>
       </c>
@@ -5714,14 +6725,22 @@
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="4">
+        <v>1.1933662385953721</v>
+      </c>
+      <c r="K44" s="4">
+        <v>1.072452933438331</v>
+      </c>
+      <c r="L44" s="4">
+        <v>1.0030704990765593</v>
+      </c>
+      <c r="M44" s="4">
+        <v>1.1148393486382275</v>
+      </c>
       <c r="N44" s="8">
         <v>0.89822953939437866</v>
       </c>
@@ -5762,37 +6781,56 @@
         <v>4.111579418182373</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="J45" s="11">
+        <f t="shared" ref="J45:M45" si="0">SUM(J3:J44)</f>
+        <v>17.864952533609944</v>
+      </c>
+      <c r="K45" s="11">
+        <f t="shared" si="0"/>
+        <v>19.067437169979716</v>
+      </c>
+      <c r="L45" s="11">
+        <f t="shared" si="0"/>
+        <v>21.850787752804557</v>
+      </c>
+      <c r="M45" s="11">
+        <f t="shared" si="0"/>
+        <v>16.228523096113896</v>
+      </c>
       <c r="N45" s="11">
         <f>SUM(N3:N44)</f>
         <v>14.432090985168543</v>
       </c>
       <c r="O45" s="11">
-        <f t="shared" ref="O45:U45" si="0">SUM(O3:O44)</f>
+        <f t="shared" ref="O45:U45" si="1">SUM(O3:O44)</f>
         <v>13.809066404018949</v>
       </c>
       <c r="P45" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38.95806659659695</v>
       </c>
       <c r="Q45" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27.559600392252833</v>
       </c>
       <c r="R45" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22.87619502057521</v>
       </c>
       <c r="S45" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.8981175550008373</v>
       </c>
       <c r="T45" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31.135156371049597</v>
       </c>
       <c r="U45" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.049785898857408</v>
       </c>
       <c r="V45" s="11">
@@ -5818,6 +6856,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="C32:C34"/>
     <mergeCell ref="T1:Z1"/>
     <mergeCell ref="A11:A16"/>
     <mergeCell ref="C11:C16"/>
@@ -5834,18 +6884,6 @@
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="C32:C34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/6_DrawFigure/Fig3_OutputTable/ImplicationResearch.xlsx
+++ b/6_DrawFigure/Fig3_OutputTable/ImplicationResearch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMIP6\Program\6_DrawFigure\Fig3_OutputTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFE902B-0371-4DAF-BFF4-CC5AAD6AAD49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE5F2A9-C3CA-4101-A769-ACDC46369267}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="1005" windowWidth="18000" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quantity" sheetId="1" r:id="rId1"/>
@@ -307,7 +307,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -393,6 +393,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -700,7 +703,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3:I44"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3:E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -709,7 +712,7 @@
     <col min="2" max="2" width="12.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="8.125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.125" style="1" customWidth="1"/>
     <col min="12" max="13" width="8.125" style="1" bestFit="1" customWidth="1"/>
@@ -728,54 +731,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="21" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21" t="s">
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="22" t="s">
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
       <c r="AA1" s="12"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
       <c r="D2" s="13" t="s">
         <v>56</v>
       </c>
@@ -847,15 +850,19 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="4"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="9">
+        <v>61.645161290322577</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3435445.4646323263</v>
+      </c>
       <c r="F3" s="4">
         <v>-10.418503663226316</v>
       </c>
@@ -921,13 +928,17 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="4"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="9">
+        <v>72.770161290322577</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2569725.9958012365</v>
+      </c>
       <c r="F4" s="4">
         <v>-19.667098277578834</v>
       </c>
@@ -993,13 +1004,17 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="4"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="9">
+        <v>37.611827956989245</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2904489.4440839048</v>
+      </c>
       <c r="F5" s="4">
         <v>-3.1775918558516585</v>
       </c>
@@ -1065,13 +1080,17 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="4"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="9">
+        <v>93.049923195084489</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3715394.5568234418</v>
+      </c>
       <c r="F6" s="4">
         <v>3.0421057441373422</v>
       </c>
@@ -1137,13 +1156,17 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="4"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="9">
+        <v>76.730527143981107</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3116748.9288601405</v>
+      </c>
       <c r="F7" s="4">
         <v>-5.3488538840591282</v>
       </c>
@@ -1209,15 +1232,19 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="4"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="9">
+        <v>23.904761904761898</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1282868.753943651</v>
+      </c>
       <c r="F8" s="4">
         <v>7.8159524893949568</v>
       </c>
@@ -1283,13 +1310,17 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="4"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="9">
+        <v>37.27235772357723</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1834030.7269411762</v>
+      </c>
       <c r="F9" s="4">
         <v>9.9725288847126325</v>
       </c>
@@ -1355,13 +1386,15 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="19"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4">
+        <v>-776534.93153937627</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1419,15 +1452,19 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="21" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="4"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="9">
+        <v>-29.707575757575768</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2636015.831185102</v>
+      </c>
       <c r="F11" s="4">
         <v>12.492308715468525</v>
       </c>
@@ -1493,13 +1530,17 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="4"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="9">
+        <v>-12.357575757575773</v>
+      </c>
+      <c r="E12" s="4">
+        <v>894658.11536206072</v>
+      </c>
       <c r="F12" s="4">
         <v>9.3013082648292826</v>
       </c>
@@ -1565,13 +1606,17 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" s="20"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="4"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="9">
+        <v>19.842424242424229</v>
+      </c>
+      <c r="E13" s="4">
+        <v>377909.52106887475</v>
+      </c>
       <c r="F13" s="4">
         <v>4.8783113549072494</v>
       </c>
@@ -1637,13 +1682,15 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="4"/>
+      <c r="E14" s="4">
+        <v>1777191.3042438547</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -1701,13 +1748,17 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="4"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="9">
+        <v>12.011174242424232</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2231931.2403311022</v>
+      </c>
       <c r="F15" s="4">
         <v>21.047812652891867</v>
       </c>
@@ -1773,13 +1824,17 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" s="20"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="4"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="9">
+        <v>52.297496706192348</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2719601.5378641691</v>
+      </c>
       <c r="F16" s="4">
         <v>22.490469151275654</v>
       </c>
@@ -1845,15 +1900,19 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="4"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="9">
+        <v>47.380122950819668</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2017049.0351240728</v>
+      </c>
       <c r="F17" s="4">
         <v>-14.105316442911185</v>
       </c>
@@ -1919,13 +1978,17 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="4"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="9">
+        <v>66.9375</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2395079.6793752555</v>
+      </c>
       <c r="F18" s="4">
         <v>5.4365583332730214</v>
       </c>
@@ -1991,13 +2054,17 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="4"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="9">
+        <v>24.9375</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1906165.8224581187</v>
+      </c>
       <c r="F19" s="4">
         <v>-6.9733404431640587</v>
       </c>
@@ -2063,15 +2130,19 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="4"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="9">
+        <v>36.740259740259745</v>
+      </c>
+      <c r="E20" s="4">
+        <v>2916762.7202158398</v>
+      </c>
       <c r="F20" s="4">
         <v>-8.8598933020737363</v>
       </c>
@@ -2137,13 +2208,17 @@
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="4"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="9">
+        <v>91.378737541528238</v>
+      </c>
+      <c r="E21" s="4">
+        <v>3717632.7956802966</v>
+      </c>
       <c r="F21" s="4">
         <v>18.461130810575309</v>
       </c>
@@ -2209,13 +2284,17 @@
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="4"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="9">
+        <v>73.462184873949582</v>
+      </c>
+      <c r="E22" s="4">
+        <v>3416878.0407058662</v>
+      </c>
       <c r="F22" s="4">
         <v>14.895777093944455</v>
       </c>
@@ -2281,15 +2360,19 @@
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="4"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="9">
+        <v>-23.75</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2541132.7137920894</v>
+      </c>
       <c r="F23" s="4">
         <v>9.9649585261182843</v>
       </c>
@@ -2355,13 +2438,17 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="4"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="9">
+        <v>-15.808333333333337</v>
+      </c>
+      <c r="E24" s="4">
+        <v>2496523.1622948931</v>
+      </c>
       <c r="F24" s="4">
         <v>11.382513749727359</v>
       </c>
@@ -2427,13 +2514,17 @@
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25" s="20"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="4"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="9">
+        <v>-11.25</v>
+      </c>
+      <c r="E25" s="4">
+        <v>2342970.8069663667</v>
+      </c>
       <c r="F25" s="4">
         <v>7.2890978846758312</v>
       </c>
@@ -2499,15 +2590,19 @@
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="4"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="9">
+        <v>52.212962962962948</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1146856.3549540676</v>
+      </c>
       <c r="F26" s="4">
         <v>8.4726954352524579</v>
       </c>
@@ -2573,13 +2668,17 @@
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" s="20"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="4"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="9">
+        <v>31.56481481481481</v>
+      </c>
+      <c r="E27" s="4">
+        <v>718444.69312702073</v>
+      </c>
       <c r="F27" s="4">
         <v>8.6132214959434368</v>
       </c>
@@ -2645,13 +2744,17 @@
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="4"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="9">
+        <v>30.226190476190453</v>
+      </c>
+      <c r="E28" s="4">
+        <v>902751.42743190471</v>
+      </c>
       <c r="F28" s="4">
         <v>13.290613935008903</v>
       </c>
@@ -2717,13 +2820,17 @@
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="4"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="9">
+        <v>46.291666666666657</v>
+      </c>
+      <c r="E29" s="4">
+        <v>869806.43912546337</v>
+      </c>
       <c r="F29" s="4">
         <v>10.629336063390376</v>
       </c>
@@ -2789,13 +2896,17 @@
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="4"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="9">
+        <v>79.825117370892016</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1289321.0115281092</v>
+      </c>
       <c r="F30" s="4">
         <v>10.126095648907381</v>
       </c>
@@ -2861,13 +2972,17 @@
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="4"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="9">
+        <v>30.541666666666657</v>
+      </c>
+      <c r="E31" s="4">
+        <v>745749.5382285933</v>
+      </c>
       <c r="F31" s="4">
         <v>8.4937842043872909</v>
       </c>
@@ -2933,15 +3048,19 @@
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="4"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="9">
+        <v>27.328282828282831</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1580651.7397524682</v>
+      </c>
       <c r="F32" s="4">
         <v>-16.785717470945727</v>
       </c>
@@ -3007,13 +3126,17 @@
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A33" s="20"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="4"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="9">
+        <v>25.732026143790854</v>
+      </c>
+      <c r="E33" s="4">
+        <v>2109911.282053832</v>
+      </c>
       <c r="F33" s="4">
         <v>10.945257265576995</v>
       </c>
@@ -3079,13 +3202,17 @@
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="4"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="9">
+        <v>56.352657004830917</v>
+      </c>
+      <c r="E34" s="4">
+        <v>2274879.5766107971</v>
+      </c>
       <c r="F34" s="4">
         <v>3.4527186617095929</v>
       </c>
@@ -3151,15 +3278,19 @@
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="4"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="9">
+        <v>17.11388888888888</v>
+      </c>
+      <c r="E35" s="4">
+        <v>910036.66176804481</v>
+      </c>
       <c r="F35" s="4">
         <v>8.8483834870488955</v>
       </c>
@@ -3225,13 +3356,17 @@
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A36" s="20"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="4"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="9">
+        <v>44.75</v>
+      </c>
+      <c r="E36" s="4">
+        <v>993612.65686702728</v>
+      </c>
       <c r="F36" s="4">
         <v>11.885885487306362</v>
       </c>
@@ -3297,13 +3432,17 @@
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A37" s="20"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="4"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="9">
+        <v>57.724999999999994</v>
+      </c>
+      <c r="E37" s="4">
+        <v>806796.27915121708</v>
+      </c>
       <c r="F37" s="4">
         <v>12.302766782639107</v>
       </c>
@@ -3369,15 +3508,19 @@
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="21" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="4"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="9">
+        <v>64.680097680097674</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1984886.3068559598</v>
+      </c>
       <c r="F38" s="4">
         <v>-2.5330662043810661</v>
       </c>
@@ -3443,13 +3586,17 @@
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A39" s="20"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="4"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="9">
+        <v>22.934065934065941</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1160262.6256086556</v>
+      </c>
       <c r="F39" s="4">
         <v>7.7666339042377928</v>
       </c>
@@ -3515,13 +3662,17 @@
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A40" s="20"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="4"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="9">
+        <v>43.82692307692308</v>
+      </c>
+      <c r="E40" s="4">
+        <v>2352533.0920640603</v>
+      </c>
       <c r="F40" s="4">
         <v>4.2575844791712152</v>
       </c>
@@ -3587,13 +3738,17 @@
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A41" s="20"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="4"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="9">
+        <v>54.031468531468533</v>
+      </c>
+      <c r="E41" s="4">
+        <v>2087449.276903946</v>
+      </c>
       <c r="F41" s="4">
         <v>3.4581904901434823</v>
       </c>
@@ -3666,8 +3821,12 @@
         <v>3</v>
       </c>
       <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="4"/>
+      <c r="D42" s="9">
+        <v>100.6728255404726</v>
+      </c>
+      <c r="E42" s="4">
+        <v>2897549.3668203987</v>
+      </c>
       <c r="F42" s="4">
         <v>14.956054394399761</v>
       </c>
@@ -3740,8 +3899,12 @@
         <v>3</v>
       </c>
       <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="4"/>
+      <c r="D43" s="9">
+        <v>47.871716101694915</v>
+      </c>
+      <c r="E43" s="4">
+        <v>840343.32714833133</v>
+      </c>
       <c r="F43" s="4">
         <v>7.6704911576626751</v>
       </c>
@@ -3814,8 +3977,12 @@
         <v>3</v>
       </c>
       <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="4"/>
+      <c r="D44" s="9">
+        <v>64.882465205045861</v>
+      </c>
+      <c r="E44" s="4">
+        <v>418594.46736620413</v>
+      </c>
       <c r="F44" s="4">
         <v>24.898103762933694</v>
       </c>
@@ -3927,8 +4094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3655EE2C-431F-40A3-AE36-CDE9CDC9267E}">
   <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3949,54 +4116,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="21" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21" t="s">
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="22" t="s">
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
       <c r="AA1" s="14"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
       <c r="D2" s="13" t="s">
         <v>56</v>
       </c>
@@ -4068,19 +4235,19 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
       <c r="J3" s="4">
         <v>0.26369400178367475</v>
       </c>
@@ -4134,17 +4301,17 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
       <c r="J4" s="4">
         <v>1.803704741024045E-3</v>
       </c>
@@ -4198,17 +4365,17 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
       <c r="J5" s="4">
         <v>4.397866409336481E-2</v>
       </c>
@@ -4262,17 +4429,17 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
       <c r="J6" s="4">
         <v>1.385285021569019E-2</v>
       </c>
@@ -4326,17 +4493,17 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
       <c r="J7" s="4">
         <v>0.10391297597249509</v>
       </c>
@@ -4390,19 +4557,19 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
       <c r="J8" s="4">
         <v>9.7303678276578435E-3</v>
       </c>
@@ -4456,17 +4623,17 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
       <c r="J9" s="4">
         <v>4.2476386239143786E-2</v>
       </c>
@@ -4520,17 +4687,17 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
       <c r="J10" s="4">
         <v>0</v>
       </c>
@@ -4584,19 +4751,19 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="21" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
       <c r="J11" s="4">
         <v>1.5072090368796631</v>
       </c>
@@ -4650,17 +4817,17 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
       <c r="J12" s="4">
         <v>9.7795860019891379E-3</v>
       </c>
@@ -4714,17 +4881,17 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" s="20"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
       <c r="J13" s="4">
         <v>9.5686654663938511E-3</v>
       </c>
@@ -4778,17 +4945,17 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
       <c r="J14" s="4">
         <v>3.0734176607465022E-5</v>
       </c>
@@ -4842,17 +5009,17 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
       <c r="J15" s="4">
         <v>0.51376261525306077</v>
       </c>
@@ -4906,17 +5073,17 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" s="20"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
       <c r="J16" s="4">
         <v>7.134558474042425</v>
       </c>
@@ -4970,19 +5137,19 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
       <c r="J17" s="4">
         <v>0.21215207724755319</v>
       </c>
@@ -5036,17 +5203,17 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
       <c r="J18" s="4">
         <v>3.7833481458727109E-4</v>
       </c>
@@ -5100,17 +5267,17 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
       <c r="J19" s="4">
         <v>8.0250559435370364E-3</v>
       </c>
@@ -5164,19 +5331,19 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
       <c r="J20" s="4">
         <v>0.16017584400256066</v>
       </c>
@@ -5230,17 +5397,17 @@
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
       <c r="J21" s="4">
         <v>2.6229916162257649</v>
       </c>
@@ -5294,17 +5461,17 @@
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
       <c r="J22" s="4">
         <v>0.38224701431884528</v>
       </c>
@@ -5358,19 +5525,19 @@
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
       <c r="J23" s="4">
         <v>7.1666590892424074E-3</v>
       </c>
@@ -5424,17 +5591,17 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
       <c r="J24" s="4">
         <v>0.15754841983669721</v>
       </c>
@@ -5488,17 +5655,17 @@
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25" s="20"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
       <c r="J25" s="4">
         <v>3.7092483360171749E-2</v>
       </c>
@@ -5552,19 +5719,19 @@
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
       <c r="J26" s="4">
         <v>0.1302593414653854</v>
       </c>
@@ -5618,17 +5785,17 @@
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" s="20"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
       <c r="J27" s="4">
         <v>2.2435354536071681E-2</v>
       </c>
@@ -5682,17 +5849,17 @@
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
       <c r="J28" s="4">
         <v>7.160948621239728E-2</v>
       </c>
@@ -5746,17 +5913,17 @@
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
       <c r="J29" s="4">
         <v>3.3193490626186894E-3</v>
       </c>
@@ -5810,17 +5977,17 @@
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
       <c r="J30" s="4">
         <v>0.20081392055749078</v>
       </c>
@@ -5874,17 +6041,17 @@
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
       <c r="J31" s="4">
         <v>0.13716886277609636</v>
       </c>
@@ -5938,19 +6105,19 @@
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
       <c r="J32" s="4">
         <v>6.9641585582573176E-2</v>
       </c>
@@ -6004,17 +6171,17 @@
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A33" s="20"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
       <c r="J33" s="4">
         <v>3.9080709138865515E-2</v>
       </c>
@@ -6068,17 +6235,17 @@
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
       <c r="J34" s="4">
         <v>2.3208739498089812E-2</v>
       </c>
@@ -6132,19 +6299,19 @@
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
       <c r="J35" s="4">
         <v>1.1054604916352316E-2</v>
       </c>
@@ -6198,17 +6365,17 @@
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A36" s="20"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
       <c r="J36" s="4">
         <v>2.344359499858082E-2</v>
       </c>
@@ -6262,17 +6429,17 @@
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A37" s="20"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
       <c r="J37" s="4">
         <v>6.439244916857424E-4</v>
       </c>
@@ -6326,19 +6493,19 @@
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="21" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
       <c r="J38" s="4">
         <v>2.6146201919107631E-2</v>
       </c>
@@ -6392,17 +6559,17 @@
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A39" s="20"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
       <c r="J39" s="4">
         <v>2.2869750228461345E-2</v>
       </c>
@@ -6456,17 +6623,17 @@
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A40" s="20"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
       <c r="J40" s="4">
         <v>2.4305007281523728E-2</v>
       </c>
@@ -6520,17 +6687,17 @@
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A41" s="20"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
       <c r="J41" s="4">
         <v>0.17309624539503599</v>
       </c>
@@ -6591,12 +6758,12 @@
         <v>3</v>
       </c>
       <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
       <c r="J42" s="4">
         <v>3.5073711869161035E-2</v>
       </c>
@@ -6657,12 +6824,12 @@
         <v>3</v>
       </c>
       <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
       <c r="J43" s="4">
         <v>2.4152803375529284</v>
       </c>
@@ -6723,12 +6890,12 @@
         <v>3</v>
       </c>
       <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
       <c r="J44" s="4">
         <v>1.1933662385953721</v>
       </c>

--- a/6_DrawFigure/Fig3_OutputTable/ImplicationResearch.xlsx
+++ b/6_DrawFigure/Fig3_OutputTable/ImplicationResearch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMIP6\Program\6_DrawFigure\Fig3_OutputTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE5F2A9-C3CA-4101-A769-ACDC46369267}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A9B233-8826-48FD-AFD1-F918EB67CE6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quantity" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="64">
   <si>
     <t>Mekong</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,6 +250,10 @@
     <t>Total</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Helmand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -402,21 +406,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -703,7 +707,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3:E44"/>
+      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -712,7 +716,7 @@
     <col min="2" max="2" width="12.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34" style="1" customWidth="1"/>
     <col min="6" max="10" width="8.125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.125" style="1" customWidth="1"/>
     <col min="12" max="13" width="8.125" style="1" bestFit="1" customWidth="1"/>
@@ -731,54 +735,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="22" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22" t="s">
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="23" t="s">
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
       <c r="AA1" s="12"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="13" t="s">
         <v>56</v>
       </c>
@@ -850,13 +854,13 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="9">
         <v>61.645161290322577</v>
       </c>
@@ -928,11 +932,11 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="9">
         <v>72.770161290322577</v>
       </c>
@@ -1004,11 +1008,11 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="21"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="9">
         <v>37.611827956989245</v>
       </c>
@@ -1080,11 +1084,11 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="20"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="9">
         <v>93.049923195084489</v>
       </c>
@@ -1156,11 +1160,11 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="9">
         <v>76.730527143981107</v>
       </c>
@@ -1232,13 +1236,13 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="23" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="20"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="9">
         <v>23.904761904761898</v>
       </c>
@@ -1310,11 +1314,11 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="9">
         <v>37.27235772357723</v>
       </c>
@@ -1386,11 +1390,11 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="20"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="9"/>
       <c r="E10" s="4">
         <v>-776534.93153937627</v>
@@ -1452,13 +1456,13 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="23" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="9">
         <v>-29.707575757575768</v>
       </c>
@@ -1530,11 +1534,11 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="20"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="9">
         <v>-12.357575757575773</v>
       </c>
@@ -1606,11 +1610,11 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="20"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="9">
         <v>19.842424242424229</v>
       </c>
@@ -1682,11 +1686,11 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="20"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="9"/>
       <c r="E14" s="4">
         <v>1777191.3042438547</v>
@@ -1748,11 +1752,11 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="9">
         <v>12.011174242424232</v>
       </c>
@@ -1824,11 +1828,11 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="9">
         <v>52.297496706192348</v>
       </c>
@@ -1900,13 +1904,13 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
-        <v>24</v>
+      <c r="A17" s="23" t="s">
+        <v>63</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="20"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="9">
         <v>47.380122950819668</v>
       </c>
@@ -1978,11 +1982,11 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="9">
         <v>66.9375</v>
       </c>
@@ -2054,11 +2058,11 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="20"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="9">
         <v>24.9375</v>
       </c>
@@ -2130,13 +2134,13 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="23" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="20"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="9">
         <v>36.740259740259745</v>
       </c>
@@ -2208,11 +2212,11 @@
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="20"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="9">
         <v>91.378737541528238</v>
       </c>
@@ -2284,11 +2288,11 @@
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="21"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="20"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="9">
         <v>73.462184873949582</v>
       </c>
@@ -2360,13 +2364,13 @@
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="23" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="20"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="9">
         <v>-23.75</v>
       </c>
@@ -2438,11 +2442,11 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="20"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="9">
         <v>-15.808333333333337</v>
       </c>
@@ -2514,11 +2518,11 @@
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="20"/>
+      <c r="C25" s="19"/>
       <c r="D25" s="9">
         <v>-11.25</v>
       </c>
@@ -2590,13 +2594,13 @@
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="20"/>
+      <c r="C26" s="19"/>
       <c r="D26" s="9">
         <v>52.212962962962948</v>
       </c>
@@ -2668,11 +2672,11 @@
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" s="21"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="20"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="9">
         <v>31.56481481481481</v>
       </c>
@@ -2744,11 +2748,11 @@
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="20"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="9">
         <v>30.226190476190453</v>
       </c>
@@ -2820,11 +2824,11 @@
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="20"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="9">
         <v>46.291666666666657</v>
       </c>
@@ -2896,11 +2900,11 @@
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
+      <c r="A30" s="23"/>
       <c r="B30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="20"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="9">
         <v>79.825117370892016</v>
       </c>
@@ -2972,11 +2976,11 @@
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="20"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="9">
         <v>30.541666666666657</v>
       </c>
@@ -3048,13 +3052,13 @@
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="23" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="20"/>
+      <c r="C32" s="19"/>
       <c r="D32" s="9">
         <v>27.328282828282831</v>
       </c>
@@ -3126,11 +3130,11 @@
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
+      <c r="A33" s="23"/>
       <c r="B33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="20"/>
+      <c r="C33" s="19"/>
       <c r="D33" s="9">
         <v>25.732026143790854</v>
       </c>
@@ -3202,11 +3206,11 @@
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="20"/>
+      <c r="C34" s="19"/>
       <c r="D34" s="9">
         <v>56.352657004830917</v>
       </c>
@@ -3278,13 +3282,13 @@
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="20"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="9">
         <v>17.11388888888888</v>
       </c>
@@ -3356,11 +3360,11 @@
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
+      <c r="A36" s="23"/>
       <c r="B36" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="20"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="9">
         <v>44.75</v>
       </c>
@@ -3432,11 +3436,11 @@
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
+      <c r="A37" s="23"/>
       <c r="B37" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="20"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="9">
         <v>57.724999999999994</v>
       </c>
@@ -3508,13 +3512,13 @@
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="23" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="20"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="9">
         <v>64.680097680097674</v>
       </c>
@@ -3586,11 +3590,11 @@
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
+      <c r="A39" s="23"/>
       <c r="B39" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="20"/>
+      <c r="C39" s="19"/>
       <c r="D39" s="9">
         <v>22.934065934065941</v>
       </c>
@@ -3662,11 +3666,11 @@
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
+      <c r="A40" s="23"/>
       <c r="B40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="20"/>
+      <c r="C40" s="19"/>
       <c r="D40" s="9">
         <v>43.82692307692308</v>
       </c>
@@ -3738,11 +3742,11 @@
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="20"/>
+      <c r="C41" s="19"/>
       <c r="D41" s="9">
         <v>54.031468531468533</v>
       </c>
@@ -4055,18 +4059,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="T1:Z1"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C16"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="C35:C37"/>
@@ -4083,6 +4075,18 @@
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="T1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4095,7 +4099,8 @@
   <dimension ref="A1:AA45"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4116,54 +4121,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="22" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22" t="s">
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="23" t="s">
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
       <c r="AA1" s="14"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="13" t="s">
         <v>56</v>
       </c>
@@ -4235,13 +4240,13 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="16"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
@@ -4301,11 +4306,11 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="16"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
@@ -4365,11 +4370,11 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="21"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="16"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
@@ -4429,11 +4434,11 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="20"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
@@ -4493,11 +4498,11 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="16"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
@@ -4557,13 +4562,13 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="23" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="20"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="16"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -4623,11 +4628,11 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -4687,11 +4692,11 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="20"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -4751,13 +4756,13 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="23" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
@@ -4817,11 +4822,11 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="20"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -4881,11 +4886,11 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="20"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="16"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -4945,11 +4950,11 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="20"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
@@ -5009,11 +5014,11 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="16"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
@@ -5073,11 +5078,11 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="16"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
@@ -5137,13 +5142,13 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="23" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="20"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="16"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
@@ -5203,11 +5208,11 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="16"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
@@ -5267,11 +5272,11 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="20"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="16"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
@@ -5331,13 +5336,13 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="23" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="20"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="16"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
@@ -5397,11 +5402,11 @@
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="20"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="16"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
@@ -5461,11 +5466,11 @@
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="21"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="20"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="16"/>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
@@ -5525,13 +5530,13 @@
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="23" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="20"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
@@ -5591,11 +5596,11 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="20"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="16"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
@@ -5655,11 +5660,11 @@
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="20"/>
+      <c r="C25" s="19"/>
       <c r="D25" s="16"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
@@ -5719,13 +5724,13 @@
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="20"/>
+      <c r="C26" s="19"/>
       <c r="D26" s="16"/>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
@@ -5785,11 +5790,11 @@
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" s="21"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="20"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="16"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
@@ -5849,11 +5854,11 @@
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="20"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="16"/>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
@@ -5913,11 +5918,11 @@
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="20"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="16"/>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
@@ -5977,11 +5982,11 @@
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
+      <c r="A30" s="23"/>
       <c r="B30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="20"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="16"/>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
@@ -6041,11 +6046,11 @@
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="20"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="16"/>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
@@ -6105,13 +6110,13 @@
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="23" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="20"/>
+      <c r="C32" s="19"/>
       <c r="D32" s="16"/>
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
@@ -6171,11 +6176,11 @@
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
+      <c r="A33" s="23"/>
       <c r="B33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="20"/>
+      <c r="C33" s="19"/>
       <c r="D33" s="16"/>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
@@ -6235,11 +6240,11 @@
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="20"/>
+      <c r="C34" s="19"/>
       <c r="D34" s="16"/>
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
@@ -6299,13 +6304,13 @@
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="20"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="16"/>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
@@ -6365,11 +6370,11 @@
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
+      <c r="A36" s="23"/>
       <c r="B36" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="20"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="16"/>
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
@@ -6429,11 +6434,11 @@
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
+      <c r="A37" s="23"/>
       <c r="B37" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="20"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="16"/>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
@@ -6493,13 +6498,13 @@
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="23" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="20"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="16"/>
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
@@ -6559,11 +6564,11 @@
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
+      <c r="A39" s="23"/>
       <c r="B39" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="20"/>
+      <c r="C39" s="19"/>
       <c r="D39" s="16"/>
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
@@ -6623,11 +6628,11 @@
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
+      <c r="A40" s="23"/>
       <c r="B40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="20"/>
+      <c r="C40" s="19"/>
       <c r="D40" s="16"/>
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
@@ -6687,11 +6692,11 @@
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="20"/>
+      <c r="C41" s="19"/>
       <c r="D41" s="16"/>
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
@@ -7023,18 +7028,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="C32:C34"/>
     <mergeCell ref="T1:Z1"/>
     <mergeCell ref="A11:A16"/>
     <mergeCell ref="C11:C16"/>
@@ -7051,6 +7044,18 @@
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="C32:C34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/6_DrawFigure/Fig3_OutputTable/ImplicationResearch.xlsx
+++ b/6_DrawFigure/Fig3_OutputTable/ImplicationResearch.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMIP6\Program\6_DrawFigure\Fig3_OutputTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A9B233-8826-48FD-AFD1-F918EB67CE6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B579ABEF-727F-4B38-927F-2B62FD892AE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -262,7 +262,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,6 +301,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -311,12 +318,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -350,11 +357,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -399,16 +435,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -423,8 +456,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -707,7 +756,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -735,54 +784,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="18" t="s">
+      <c r="E1" s="21"/>
+      <c r="F1" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18" t="s">
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18" t="s">
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="20" t="s">
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
       <c r="AA1" s="12"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="13" t="s">
         <v>56</v>
       </c>
@@ -854,13 +903,15 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="18">
+        <v>2.1708188753218723E-2</v>
+      </c>
       <c r="D3" s="9">
         <v>61.645161290322577</v>
       </c>
@@ -932,11 +983,11 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="9">
         <v>72.770161290322577</v>
       </c>
@@ -1008,11 +1059,11 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="9">
         <v>37.611827956989245</v>
       </c>
@@ -1084,11 +1135,11 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="9">
         <v>93.049923195084489</v>
       </c>
@@ -1160,11 +1211,11 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="19"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="9">
         <v>76.730527143981107</v>
       </c>
@@ -1236,13 +1287,15 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="22" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="18">
+        <v>2.919266469324755E-2</v>
+      </c>
       <c r="D8" s="9">
         <v>23.904761904761898</v>
       </c>
@@ -1314,11 +1367,11 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="19"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="9">
         <v>37.27235772357723</v>
       </c>
@@ -1390,11 +1443,11 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="19"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="9"/>
       <c r="E10" s="4">
         <v>-776534.93153937627</v>
@@ -1456,13 +1509,15 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="19"/>
+      <c r="C11" s="18">
+        <v>6.6967547963105806E-2</v>
+      </c>
       <c r="D11" s="9">
         <v>-29.707575757575768</v>
       </c>
@@ -1534,11 +1589,11 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" s="23"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="19"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="9">
         <v>-12.357575757575773</v>
       </c>
@@ -1610,11 +1665,11 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="19"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="9">
         <v>19.842424242424229</v>
       </c>
@@ -1686,11 +1741,11 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" s="23"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="9"/>
       <c r="E14" s="4">
         <v>1777191.3042438547</v>
@@ -1752,11 +1807,11 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="19"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="9">
         <v>12.011174242424232</v>
       </c>
@@ -1828,11 +1883,11 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" s="23"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="19"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="9">
         <v>52.297496706192348</v>
       </c>
@@ -1904,13 +1959,15 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>63</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="19"/>
+      <c r="C17" s="18">
+        <v>0</v>
+      </c>
       <c r="D17" s="9">
         <v>47.380122950819668</v>
       </c>
@@ -1982,11 +2039,11 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="23"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="19"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="9">
         <v>66.9375</v>
       </c>
@@ -2058,11 +2115,11 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="19"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="9">
         <v>24.9375</v>
       </c>
@@ -2134,13 +2191,15 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="19"/>
+      <c r="C20" s="18">
+        <v>6.2031753539343752E-2</v>
+      </c>
       <c r="D20" s="9">
         <v>36.740259740259745</v>
       </c>
@@ -2212,11 +2271,11 @@
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="23"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="19"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="9">
         <v>91.378737541528238</v>
       </c>
@@ -2288,11 +2347,11 @@
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="23"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="19"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="9">
         <v>73.462184873949582</v>
       </c>
@@ -2364,13 +2423,15 @@
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="22" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="19"/>
+      <c r="C23" s="18">
+        <v>3.6871244301232287E-2</v>
+      </c>
       <c r="D23" s="9">
         <v>-23.75</v>
       </c>
@@ -2442,11 +2503,11 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" s="23"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="19"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="9">
         <v>-15.808333333333337</v>
       </c>
@@ -2518,11 +2579,11 @@
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25" s="23"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="19"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="9">
         <v>-11.25</v>
       </c>
@@ -2594,13 +2655,15 @@
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="19"/>
+      <c r="C26" s="18">
+        <v>4.1287284178290182E-2</v>
+      </c>
       <c r="D26" s="9">
         <v>52.212962962962948</v>
       </c>
@@ -2672,11 +2735,11 @@
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" s="23"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="19"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="9">
         <v>31.56481481481481</v>
       </c>
@@ -2748,11 +2811,11 @@
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A28" s="23"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="19"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="9">
         <v>30.226190476190453</v>
       </c>
@@ -2824,11 +2887,11 @@
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A29" s="23"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="19"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="9">
         <v>46.291666666666657</v>
       </c>
@@ -2900,11 +2963,11 @@
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A30" s="23"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="19"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="9">
         <v>79.825117370892016</v>
       </c>
@@ -2976,11 +3039,11 @@
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A31" s="23"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="19"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="9">
         <v>30.541666666666657</v>
       </c>
@@ -3052,13 +3115,15 @@
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="19"/>
+      <c r="C32" s="18">
+        <v>0</v>
+      </c>
       <c r="D32" s="9">
         <v>27.328282828282831</v>
       </c>
@@ -3130,11 +3195,11 @@
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="19"/>
+      <c r="C33" s="18"/>
       <c r="D33" s="9">
         <v>25.732026143790854</v>
       </c>
@@ -3206,11 +3271,11 @@
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A34" s="23"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="19"/>
+      <c r="C34" s="18"/>
       <c r="D34" s="9">
         <v>56.352657004830917</v>
       </c>
@@ -3282,13 +3347,15 @@
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="19"/>
+      <c r="C35" s="18">
+        <v>4.4283041920943254E-2</v>
+      </c>
       <c r="D35" s="9">
         <v>17.11388888888888</v>
       </c>
@@ -3360,11 +3427,11 @@
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A36" s="23"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="19"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="9">
         <v>44.75</v>
       </c>
@@ -3436,11 +3503,11 @@
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A37" s="23"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="19"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="9">
         <v>57.724999999999994</v>
       </c>
@@ -3512,13 +3579,15 @@
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="22" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="19"/>
+      <c r="C38" s="18">
+        <v>2.4390627021864709E-2</v>
+      </c>
       <c r="D38" s="9">
         <v>64.680097680097674</v>
       </c>
@@ -3590,11 +3659,11 @@
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A39" s="23"/>
+      <c r="A39" s="22"/>
       <c r="B39" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="19"/>
+      <c r="C39" s="18"/>
       <c r="D39" s="9">
         <v>22.934065934065941</v>
       </c>
@@ -3666,11 +3735,11 @@
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
+      <c r="A40" s="22"/>
       <c r="B40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="19"/>
+      <c r="C40" s="18"/>
       <c r="D40" s="9">
         <v>43.82692307692308</v>
       </c>
@@ -3742,11 +3811,11 @@
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A41" s="23"/>
+      <c r="A41" s="22"/>
       <c r="B41" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="19"/>
+      <c r="C41" s="18"/>
       <c r="D41" s="9">
         <v>54.031468531468533</v>
       </c>
@@ -3824,7 +3893,9 @@
       <c r="B42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="9"/>
+      <c r="C42" s="16">
+        <v>4.8753449937456748E-2</v>
+      </c>
       <c r="D42" s="9">
         <v>100.6728255404726</v>
       </c>
@@ -3902,7 +3973,9 @@
       <c r="B43" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="9"/>
+      <c r="C43" s="16">
+        <v>3.8984883545230879E-2</v>
+      </c>
       <c r="D43" s="9">
         <v>47.871716101694915</v>
       </c>
@@ -3980,7 +4053,9 @@
       <c r="B44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="9"/>
+      <c r="C44" s="16">
+        <v>2.598986466093843E-2</v>
+      </c>
       <c r="D44" s="9">
         <v>64.882465205045861</v>
       </c>
@@ -4100,7 +4175,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A7"/>
+      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4121,54 +4196,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="18" t="s">
+      <c r="E1" s="21"/>
+      <c r="F1" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18" t="s">
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18" t="s">
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="20" t="s">
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
       <c r="AA1" s="14"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="13" t="s">
         <v>56</v>
       </c>
@@ -4240,19 +4315,19 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
       <c r="J3" s="4">
         <v>0.26369400178367475</v>
       </c>
@@ -4306,17 +4381,17 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
       <c r="J4" s="4">
         <v>1.803704741024045E-3</v>
       </c>
@@ -4370,17 +4445,17 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
       <c r="J5" s="4">
         <v>4.397866409336481E-2</v>
       </c>
@@ -4434,17 +4509,17 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="4">
         <v>1.385285021569019E-2</v>
       </c>
@@ -4498,17 +4573,17 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="4">
         <v>0.10391297597249509</v>
       </c>
@@ -4562,19 +4637,19 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="22" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
       <c r="J8" s="4">
         <v>9.7303678276578435E-3</v>
       </c>
@@ -4628,17 +4703,17 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
       <c r="J9" s="4">
         <v>4.2476386239143786E-2</v>
       </c>
@@ -4692,17 +4767,17 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
       <c r="J10" s="4">
         <v>0</v>
       </c>
@@ -4756,19 +4831,19 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
       <c r="J11" s="4">
         <v>1.5072090368796631</v>
       </c>
@@ -4822,17 +4897,17 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" s="23"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
       <c r="J12" s="4">
         <v>9.7795860019891379E-3</v>
       </c>
@@ -4886,17 +4961,17 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
       <c r="J13" s="4">
         <v>9.5686654663938511E-3</v>
       </c>
@@ -4950,17 +5025,17 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" s="23"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
       <c r="J14" s="4">
         <v>3.0734176607465022E-5</v>
       </c>
@@ -5014,17 +5089,17 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
       <c r="J15" s="4">
         <v>0.51376261525306077</v>
       </c>
@@ -5078,17 +5153,17 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" s="23"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
       <c r="J16" s="4">
         <v>7.134558474042425</v>
       </c>
@@ -5142,19 +5217,19 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
       <c r="J17" s="4">
         <v>0.21215207724755319</v>
       </c>
@@ -5208,17 +5283,17 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="23"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
       <c r="J18" s="4">
         <v>3.7833481458727109E-4</v>
       </c>
@@ -5272,17 +5347,17 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
       <c r="J19" s="4">
         <v>8.0250559435370364E-3</v>
       </c>
@@ -5336,19 +5411,19 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
       <c r="J20" s="4">
         <v>0.16017584400256066</v>
       </c>
@@ -5402,17 +5477,17 @@
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="23"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
       <c r="J21" s="4">
         <v>2.6229916162257649</v>
       </c>
@@ -5466,17 +5541,17 @@
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="23"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
       <c r="J22" s="4">
         <v>0.38224701431884528</v>
       </c>
@@ -5530,19 +5605,19 @@
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="22" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
       <c r="J23" s="4">
         <v>7.1666590892424074E-3</v>
       </c>
@@ -5596,17 +5671,17 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" s="23"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
       <c r="J24" s="4">
         <v>0.15754841983669721</v>
       </c>
@@ -5660,17 +5735,17 @@
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25" s="23"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
       <c r="J25" s="4">
         <v>3.7092483360171749E-2</v>
       </c>
@@ -5724,19 +5799,19 @@
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
       <c r="J26" s="4">
         <v>0.1302593414653854</v>
       </c>
@@ -5790,17 +5865,17 @@
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" s="23"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
       <c r="J27" s="4">
         <v>2.2435354536071681E-2</v>
       </c>
@@ -5854,17 +5929,17 @@
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A28" s="23"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
       <c r="J28" s="4">
         <v>7.160948621239728E-2</v>
       </c>
@@ -5918,17 +5993,17 @@
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A29" s="23"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
       <c r="J29" s="4">
         <v>3.3193490626186894E-3</v>
       </c>
@@ -5982,17 +6057,17 @@
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A30" s="23"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
       <c r="J30" s="4">
         <v>0.20081392055749078</v>
       </c>
@@ -6046,17 +6121,17 @@
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A31" s="23"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
       <c r="J31" s="4">
         <v>0.13716886277609636</v>
       </c>
@@ -6110,19 +6185,19 @@
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
       <c r="J32" s="4">
         <v>6.9641585582573176E-2</v>
       </c>
@@ -6176,17 +6251,17 @@
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
       <c r="J33" s="4">
         <v>3.9080709138865515E-2</v>
       </c>
@@ -6240,17 +6315,17 @@
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A34" s="23"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
       <c r="J34" s="4">
         <v>2.3208739498089812E-2</v>
       </c>
@@ -6304,19 +6379,19 @@
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
       <c r="J35" s="4">
         <v>1.1054604916352316E-2</v>
       </c>
@@ -6370,17 +6445,17 @@
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A36" s="23"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
       <c r="J36" s="4">
         <v>2.344359499858082E-2</v>
       </c>
@@ -6434,17 +6509,17 @@
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A37" s="23"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
       <c r="J37" s="4">
         <v>6.439244916857424E-4</v>
       </c>
@@ -6498,19 +6573,19 @@
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="22" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
       <c r="J38" s="4">
         <v>2.6146201919107631E-2</v>
       </c>
@@ -6564,17 +6639,17 @@
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A39" s="23"/>
+      <c r="A39" s="22"/>
       <c r="B39" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
       <c r="J39" s="4">
         <v>2.2869750228461345E-2</v>
       </c>
@@ -6628,17 +6703,17 @@
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
+      <c r="A40" s="22"/>
       <c r="B40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
       <c r="J40" s="4">
         <v>2.4305007281523728E-2</v>
       </c>
@@ -6692,17 +6767,17 @@
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A41" s="23"/>
+      <c r="A41" s="22"/>
       <c r="B41" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
       <c r="J41" s="4">
         <v>0.17309624539503599</v>
       </c>
@@ -6762,13 +6837,13 @@
       <c r="B42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
       <c r="J42" s="4">
         <v>3.5073711869161035E-2</v>
       </c>
@@ -6828,13 +6903,13 @@
       <c r="B43" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
       <c r="J43" s="4">
         <v>2.4152803375529284</v>
       </c>
@@ -6894,13 +6969,13 @@
       <c r="B44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
       <c r="J44" s="4">
         <v>1.1933662385953721</v>
       </c>

--- a/6_DrawFigure/Fig3_OutputTable/ImplicationResearch.xlsx
+++ b/6_DrawFigure/Fig3_OutputTable/ImplicationResearch.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMIP6\Program\6_DrawFigure\Fig3_OutputTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B579ABEF-727F-4B38-927F-2B62FD892AE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8243FF-832C-44E2-8548-0D9E938F9FC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="425" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quantity" sheetId="1" r:id="rId1"/>
     <sheet name="Percentage" sheetId="2" r:id="rId2"/>
+    <sheet name="Fig3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="78">
   <si>
     <t>Mekong</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,15 +255,65 @@
     <t>Helmand</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Amu Darya</t>
+  </si>
+  <si>
+    <t>Balkhash</t>
+  </si>
+  <si>
+    <t>Ganges-Brahmaputra</t>
+  </si>
+  <si>
+    <t>Mekong</t>
+  </si>
+  <si>
+    <t>Yangtze</t>
+  </si>
+  <si>
+    <t>WaterShed</t>
+  </si>
+  <si>
+    <t>Percentage Change of Runoff  (%)</t>
+  </si>
+  <si>
+    <t>Livestock Numbers (Million Heads or Birds)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crop Production (Million tons)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Population (Million People)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nematode Abundance (Million/m²)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Microbial Abundance (gC/m²)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Percentage of Global (%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mean Risk Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0000"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +357,15 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -390,7 +450,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -435,13 +495,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -465,11 +547,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -754,16 +833,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="34" style="1" customWidth="1"/>
     <col min="6" max="10" width="8.125" style="1" bestFit="1" customWidth="1"/>
@@ -784,54 +863,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="21" t="s">
+      <c r="C1" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="17" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17" t="s">
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="19" t="s">
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
       <c r="AA1" s="12"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="13" t="s">
         <v>56</v>
       </c>
@@ -903,14 +982,14 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="30" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="18">
-        <v>2.1708188753218723E-2</v>
+      <c r="C3" s="26">
+        <v>0.13884768139346668</v>
       </c>
       <c r="D3" s="9">
         <v>61.645161290322577</v>
@@ -983,11 +1062,11 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="9">
         <v>72.770161290322577</v>
       </c>
@@ -1059,11 +1138,11 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="9">
         <v>37.611827956989245</v>
       </c>
@@ -1135,11 +1214,11 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="18"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="9">
         <v>93.049923195084489</v>
       </c>
@@ -1211,11 +1290,11 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="18"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="9">
         <v>76.730527143981107</v>
       </c>
@@ -1287,14 +1366,14 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="30" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="18">
-        <v>2.919266469324755E-2</v>
+      <c r="C8" s="26">
+        <v>0.12387934226916501</v>
       </c>
       <c r="D8" s="9">
         <v>23.904761904761898</v>
@@ -1367,11 +1446,11 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="18"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="9">
         <v>37.27235772357723</v>
       </c>
@@ -1443,11 +1522,11 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="18"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="9"/>
       <c r="E10" s="4">
         <v>-776534.93153937627</v>
@@ -1509,14 +1588,14 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="30" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="18">
-        <v>6.6967547963105806E-2</v>
+      <c r="C11" s="26">
+        <v>0.215550126027579</v>
       </c>
       <c r="D11" s="9">
         <v>-29.707575757575768</v>
@@ -1589,11 +1668,11 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="18"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="9">
         <v>-12.357575757575773</v>
       </c>
@@ -1665,11 +1744,11 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="18"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="9">
         <v>19.842424242424229</v>
       </c>
@@ -1741,11 +1820,11 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="18"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="9"/>
       <c r="E14" s="4">
         <v>1777191.3042438547</v>
@@ -1807,11 +1886,11 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="18"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="9">
         <v>12.011174242424232</v>
       </c>
@@ -1883,11 +1962,11 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="18"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="9">
         <v>52.297496706192348</v>
       </c>
@@ -1959,14 +2038,14 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="30" t="s">
         <v>63</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="18">
-        <v>0</v>
+      <c r="C17" s="26">
+        <v>0.12259939115778577</v>
       </c>
       <c r="D17" s="9">
         <v>47.380122950819668</v>
@@ -2039,11 +2118,11 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="22"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="18"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="9">
         <v>66.9375</v>
       </c>
@@ -2115,11 +2194,11 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="18"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="9">
         <v>24.9375</v>
       </c>
@@ -2191,14 +2270,14 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="30" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="18">
-        <v>6.2031753539343752E-2</v>
+      <c r="C20" s="26">
+        <v>0.18275687352102682</v>
       </c>
       <c r="D20" s="9">
         <v>36.740259740259745</v>
@@ -2271,11 +2350,11 @@
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="18"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="9">
         <v>91.378737541528238</v>
       </c>
@@ -2347,11 +2426,11 @@
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="22"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="18"/>
+      <c r="C22" s="26"/>
       <c r="D22" s="9">
         <v>73.462184873949582</v>
       </c>
@@ -2423,14 +2502,14 @@
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="30" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="18">
-        <v>3.6871244301232287E-2</v>
+      <c r="C23" s="26">
+        <v>0.28794591788333912</v>
       </c>
       <c r="D23" s="9">
         <v>-23.75</v>
@@ -2503,11 +2582,11 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" s="22"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="18"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="9">
         <v>-15.808333333333337</v>
       </c>
@@ -2579,11 +2658,11 @@
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25" s="22"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="18"/>
+      <c r="C25" s="26"/>
       <c r="D25" s="9">
         <v>-11.25</v>
       </c>
@@ -2655,14 +2734,14 @@
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="18">
-        <v>4.1287284178290182E-2</v>
+      <c r="C26" s="26">
+        <v>0.2092336178225486</v>
       </c>
       <c r="D26" s="9">
         <v>52.212962962962948</v>
@@ -2735,11 +2814,11 @@
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" s="22"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="18"/>
+      <c r="C27" s="26"/>
       <c r="D27" s="9">
         <v>31.56481481481481</v>
       </c>
@@ -2811,11 +2890,11 @@
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A28" s="22"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="18"/>
+      <c r="C28" s="26"/>
       <c r="D28" s="9">
         <v>30.226190476190453</v>
       </c>
@@ -2887,11 +2966,11 @@
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A29" s="22"/>
+      <c r="A29" s="30"/>
       <c r="B29" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="18"/>
+      <c r="C29" s="26"/>
       <c r="D29" s="9">
         <v>46.291666666666657</v>
       </c>
@@ -2963,11 +3042,11 @@
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A30" s="22"/>
+      <c r="A30" s="30"/>
       <c r="B30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="18"/>
+      <c r="C30" s="26"/>
       <c r="D30" s="9">
         <v>79.825117370892016</v>
       </c>
@@ -3039,11 +3118,11 @@
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A31" s="22"/>
+      <c r="A31" s="30"/>
       <c r="B31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="18"/>
+      <c r="C31" s="26"/>
       <c r="D31" s="9">
         <v>30.541666666666657</v>
       </c>
@@ -3115,14 +3194,14 @@
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="30" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="18">
-        <v>0</v>
+      <c r="C32" s="26">
+        <v>6.165510180143649E-2</v>
       </c>
       <c r="D32" s="9">
         <v>27.328282828282831</v>
@@ -3195,11 +3274,11 @@
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A33" s="22"/>
+      <c r="A33" s="30"/>
       <c r="B33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="18"/>
+      <c r="C33" s="26"/>
       <c r="D33" s="9">
         <v>25.732026143790854</v>
       </c>
@@ -3271,11 +3350,11 @@
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A34" s="22"/>
+      <c r="A34" s="30"/>
       <c r="B34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="18"/>
+      <c r="C34" s="26"/>
       <c r="D34" s="9">
         <v>56.352657004830917</v>
       </c>
@@ -3347,14 +3426,14 @@
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="30" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="18">
-        <v>4.4283041920943254E-2</v>
+      <c r="C35" s="26">
+        <v>0.35777344242101972</v>
       </c>
       <c r="D35" s="9">
         <v>17.11388888888888</v>
@@ -3427,11 +3506,11 @@
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A36" s="22"/>
+      <c r="A36" s="30"/>
       <c r="B36" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="18"/>
+      <c r="C36" s="26"/>
       <c r="D36" s="9">
         <v>44.75</v>
       </c>
@@ -3503,11 +3582,11 @@
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A37" s="22"/>
+      <c r="A37" s="30"/>
       <c r="B37" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="18"/>
+      <c r="C37" s="26"/>
       <c r="D37" s="9">
         <v>57.724999999999994</v>
       </c>
@@ -3579,14 +3658,14 @@
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="18">
-        <v>2.4390627021864709E-2</v>
+      <c r="C38" s="26">
+        <v>0.12966787860924414</v>
       </c>
       <c r="D38" s="9">
         <v>64.680097680097674</v>
@@ -3659,11 +3738,11 @@
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A39" s="22"/>
+      <c r="A39" s="30"/>
       <c r="B39" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="18"/>
+      <c r="C39" s="26"/>
       <c r="D39" s="9">
         <v>22.934065934065941</v>
       </c>
@@ -3735,11 +3814,11 @@
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A40" s="22"/>
+      <c r="A40" s="30"/>
       <c r="B40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="18"/>
+      <c r="C40" s="26"/>
       <c r="D40" s="9">
         <v>43.82692307692308</v>
       </c>
@@ -3811,11 +3890,11 @@
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A41" s="22"/>
+      <c r="A41" s="30"/>
       <c r="B41" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="18"/>
+      <c r="C41" s="26"/>
       <c r="D41" s="9">
         <v>54.031468531468533</v>
       </c>
@@ -3893,8 +3972,8 @@
       <c r="B42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="16">
-        <v>4.8753449937456748E-2</v>
+      <c r="C42" s="23">
+        <v>0.27721108419227292</v>
       </c>
       <c r="D42" s="9">
         <v>100.6728255404726</v>
@@ -3973,8 +4052,8 @@
       <c r="B43" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="16">
-        <v>3.8984883545230879E-2</v>
+      <c r="C43" s="23">
+        <v>0.13269812032366152</v>
       </c>
       <c r="D43" s="9">
         <v>47.871716101694915</v>
@@ -4053,8 +4132,8 @@
       <c r="B44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="16">
-        <v>2.598986466093843E-2</v>
+      <c r="C44" s="23">
+        <v>0.22354054273317278</v>
       </c>
       <c r="D44" s="9">
         <v>64.882465205045861</v>
@@ -4175,7 +4254,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
+      <selection pane="bottomLeft" activeCell="T44" sqref="T44:Z44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4196,54 +4275,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="17" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17" t="s">
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="19" t="s">
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
       <c r="AA1" s="14"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="13" t="s">
         <v>56</v>
       </c>
@@ -4315,19 +4394,19 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="30" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
       <c r="J3" s="4">
         <v>0.26369400178367475</v>
       </c>
@@ -4381,17 +4460,17 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
       <c r="J4" s="4">
         <v>1.803704741024045E-3</v>
       </c>
@@ -4445,17 +4524,17 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
       <c r="J5" s="4">
         <v>4.397866409336481E-2</v>
       </c>
@@ -4509,17 +4588,17 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
       <c r="J6" s="4">
         <v>1.385285021569019E-2</v>
       </c>
@@ -4573,17 +4652,17 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
       <c r="J7" s="4">
         <v>0.10391297597249509</v>
       </c>
@@ -4637,19 +4716,19 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="30" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
       <c r="J8" s="4">
         <v>9.7303678276578435E-3</v>
       </c>
@@ -4703,17 +4782,17 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
       <c r="J9" s="4">
         <v>4.2476386239143786E-2</v>
       </c>
@@ -4767,17 +4846,17 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
       <c r="J10" s="4">
         <v>0</v>
       </c>
@@ -4831,19 +4910,19 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="30" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
       <c r="J11" s="4">
         <v>1.5072090368796631</v>
       </c>
@@ -4897,17 +4976,17 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
       <c r="J12" s="4">
         <v>9.7795860019891379E-3</v>
       </c>
@@ -4961,17 +5040,17 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
       <c r="J13" s="4">
         <v>9.5686654663938511E-3</v>
       </c>
@@ -5025,17 +5104,17 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
       <c r="J14" s="4">
         <v>3.0734176607465022E-5</v>
       </c>
@@ -5089,17 +5168,17 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
       <c r="J15" s="4">
         <v>0.51376261525306077</v>
       </c>
@@ -5153,17 +5232,17 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
       <c r="J16" s="4">
         <v>7.134558474042425</v>
       </c>
@@ -5217,19 +5296,19 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="30" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
       <c r="J17" s="4">
         <v>0.21215207724755319</v>
       </c>
@@ -5283,17 +5362,17 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="22"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
       <c r="J18" s="4">
         <v>3.7833481458727109E-4</v>
       </c>
@@ -5347,17 +5426,17 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
       <c r="J19" s="4">
         <v>8.0250559435370364E-3</v>
       </c>
@@ -5411,19 +5490,19 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="30" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
       <c r="J20" s="4">
         <v>0.16017584400256066</v>
       </c>
@@ -5477,17 +5556,17 @@
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
       <c r="J21" s="4">
         <v>2.6229916162257649</v>
       </c>
@@ -5541,17 +5620,17 @@
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="22"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
       <c r="J22" s="4">
         <v>0.38224701431884528</v>
       </c>
@@ -5605,19 +5684,19 @@
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="30" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
       <c r="J23" s="4">
         <v>7.1666590892424074E-3</v>
       </c>
@@ -5671,17 +5750,17 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" s="22"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
       <c r="J24" s="4">
         <v>0.15754841983669721</v>
       </c>
@@ -5735,17 +5814,17 @@
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25" s="22"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
       <c r="J25" s="4">
         <v>3.7092483360171749E-2</v>
       </c>
@@ -5799,19 +5878,19 @@
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
       <c r="J26" s="4">
         <v>0.1302593414653854</v>
       </c>
@@ -5865,17 +5944,17 @@
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" s="22"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
       <c r="J27" s="4">
         <v>2.2435354536071681E-2</v>
       </c>
@@ -5929,17 +6008,17 @@
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A28" s="22"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
       <c r="J28" s="4">
         <v>7.160948621239728E-2</v>
       </c>
@@ -5993,17 +6072,17 @@
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A29" s="22"/>
+      <c r="A29" s="30"/>
       <c r="B29" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
       <c r="J29" s="4">
         <v>3.3193490626186894E-3</v>
       </c>
@@ -6057,17 +6136,17 @@
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A30" s="22"/>
+      <c r="A30" s="30"/>
       <c r="B30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
       <c r="J30" s="4">
         <v>0.20081392055749078</v>
       </c>
@@ -6121,17 +6200,17 @@
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A31" s="22"/>
+      <c r="A31" s="30"/>
       <c r="B31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
       <c r="J31" s="4">
         <v>0.13716886277609636</v>
       </c>
@@ -6185,19 +6264,19 @@
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="30" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
       <c r="J32" s="4">
         <v>6.9641585582573176E-2</v>
       </c>
@@ -6251,17 +6330,17 @@
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A33" s="22"/>
+      <c r="A33" s="30"/>
       <c r="B33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
       <c r="J33" s="4">
         <v>3.9080709138865515E-2</v>
       </c>
@@ -6315,17 +6394,17 @@
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A34" s="22"/>
+      <c r="A34" s="30"/>
       <c r="B34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
       <c r="J34" s="4">
         <v>2.3208739498089812E-2</v>
       </c>
@@ -6379,19 +6458,19 @@
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="30" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
       <c r="J35" s="4">
         <v>1.1054604916352316E-2</v>
       </c>
@@ -6445,17 +6524,17 @@
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A36" s="22"/>
+      <c r="A36" s="30"/>
       <c r="B36" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
       <c r="J36" s="4">
         <v>2.344359499858082E-2</v>
       </c>
@@ -6509,17 +6588,17 @@
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A37" s="22"/>
+      <c r="A37" s="30"/>
       <c r="B37" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
       <c r="J37" s="4">
         <v>6.439244916857424E-4</v>
       </c>
@@ -6573,19 +6652,19 @@
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
       <c r="J38" s="4">
         <v>2.6146201919107631E-2</v>
       </c>
@@ -6639,17 +6718,17 @@
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A39" s="22"/>
+      <c r="A39" s="30"/>
       <c r="B39" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
       <c r="J39" s="4">
         <v>2.2869750228461345E-2</v>
       </c>
@@ -6703,17 +6782,17 @@
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A40" s="22"/>
+      <c r="A40" s="30"/>
       <c r="B40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
       <c r="J40" s="4">
         <v>2.4305007281523728E-2</v>
       </c>
@@ -6767,17 +6846,17 @@
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A41" s="22"/>
+      <c r="A41" s="30"/>
       <c r="B41" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
       <c r="J41" s="4">
         <v>0.17309624539503599</v>
       </c>
@@ -6837,13 +6916,13 @@
       <c r="B42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
       <c r="J42" s="4">
         <v>3.5073711869161035E-2</v>
       </c>
@@ -6903,13 +6982,13 @@
       <c r="B43" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
       <c r="J43" s="4">
         <v>2.4152803375529284</v>
       </c>
@@ -6969,13 +7048,13 @@
       <c r="B44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
       <c r="J44" s="4">
         <v>1.1933662385953721</v>
       </c>
@@ -7136,4 +7215,525 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB148ED4-95ED-4296-BCCD-A7D6B08365CF}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="A3:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="10.125" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="12.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+    </row>
+    <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="24">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="C3" s="19">
+        <f>AVERAGE(Quantity!D3:D7)</f>
+        <v>68.361520175340004</v>
+      </c>
+      <c r="D3" s="19">
+        <f>AVERAGE(Quantity!E3:E7)/1000000</f>
+        <v>3.1483608780402101</v>
+      </c>
+      <c r="E3" s="19">
+        <f>AVERAGE(Quantity!I3:I7)</f>
+        <v>1.4966554732936761</v>
+      </c>
+      <c r="F3" s="19">
+        <f>SUM(Quantity!M3:M7)/1000000</f>
+        <v>24.485707999999999</v>
+      </c>
+      <c r="G3" s="19">
+        <f>SUM(Quantity!N3:S7)/1000000</f>
+        <v>67.401862613212586</v>
+      </c>
+      <c r="H3" s="19">
+        <f>SUM(Quantity!T3:Z7)/1000000</f>
+        <v>5.1774917609626128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="24">
+        <v>0.124</v>
+      </c>
+      <c r="C4" s="19">
+        <f>AVERAGE(Quantity!D8:D10)</f>
+        <v>30.588559814169564</v>
+      </c>
+      <c r="D4" s="19">
+        <f>AVERAGE(Quantity!E8:E10)/1000000</f>
+        <v>0.78012151644848371</v>
+      </c>
+      <c r="E4" s="19">
+        <f>AVERAGE(Quantity!I8:I10)</f>
+        <v>11.38558200040894</v>
+      </c>
+      <c r="F4" s="19">
+        <f>SUM(Quantity!M8:M10)/1000000</f>
+        <v>3.6187670000000001</v>
+      </c>
+      <c r="G4" s="19">
+        <f>SUM(Quantity!N8:S10)/1000000</f>
+        <v>26.447857293746949</v>
+      </c>
+      <c r="H4" s="19">
+        <f>SUM(Quantity!T8:Z10)/1000000</f>
+        <v>0.97498382758825275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="24">
+        <v>0.216</v>
+      </c>
+      <c r="C5" s="19">
+        <f>AVERAGE(Quantity!D11:D16)</f>
+        <v>8.417188735177854</v>
+      </c>
+      <c r="D5" s="19">
+        <f>AVERAGE(Quantity!E11:E16)/1000000</f>
+        <v>1.7728845916758607</v>
+      </c>
+      <c r="E5" s="19">
+        <f>AVERAGE(Quantity!I11:I16)</f>
+        <v>38.81699483672039</v>
+      </c>
+      <c r="F5" s="19">
+        <f>SUM(Quantity!M11:M16)/1000000</f>
+        <v>622.44904299999996</v>
+      </c>
+      <c r="G5" s="19">
+        <f>SUM(Quantity!N11:S16)/1000000</f>
+        <v>731.35608099088006</v>
+      </c>
+      <c r="H5" s="19">
+        <f>SUM(Quantity!T11:Z16)/1000000</f>
+        <v>277.11478663714439</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="24">
+        <v>0.123</v>
+      </c>
+      <c r="C6" s="19">
+        <f>AVERAGE(Quantity!D17:D19)</f>
+        <v>46.418374316939889</v>
+      </c>
+      <c r="D6" s="19">
+        <f>AVERAGE(Quantity!E17:E19)/1000000</f>
+        <v>2.1060981789858153</v>
+      </c>
+      <c r="E6" s="19">
+        <f>AVERAGE(Quantity!I17:I19)</f>
+        <v>17.303195462249022</v>
+      </c>
+      <c r="F6" s="19">
+        <f>SUM(Quantity!M17:M19)/1000000</f>
+        <v>13.409053999999999</v>
+      </c>
+      <c r="G6" s="19">
+        <f>SUM(Quantity!N17:S19)/1000000</f>
+        <v>10.160793129564285</v>
+      </c>
+      <c r="H6" s="19">
+        <f>SUM(Quantity!T17:Z19)/1000000</f>
+        <v>0.30218688858509063</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="24">
+        <v>0.183</v>
+      </c>
+      <c r="C7" s="19">
+        <f>AVERAGE(Quantity!D20:D22)</f>
+        <v>67.19372738524585</v>
+      </c>
+      <c r="D7" s="19">
+        <f>AVERAGE(Quantity!E20:E22)/1000000</f>
+        <v>3.3504245188673338</v>
+      </c>
+      <c r="E7" s="19">
+        <f>AVERAGE(Quantity!I20:I22)</f>
+        <v>31.774085484502958</v>
+      </c>
+      <c r="F7" s="19">
+        <f>SUM(Quantity!M20:M22)/1000000</f>
+        <v>208.34114</v>
+      </c>
+      <c r="G7" s="19">
+        <f>SUM(Quantity!N20:S22)/1000000</f>
+        <v>450.33307696874999</v>
+      </c>
+      <c r="H7" s="19">
+        <f>SUM(Quantity!T20:Z22)/1000000</f>
+        <v>95.660881830251341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="24">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="C8" s="19">
+        <f>AVERAGE(Quantity!D23:D25)</f>
+        <v>-16.936111111111114</v>
+      </c>
+      <c r="D8" s="19">
+        <f>AVERAGE(Quantity!E23:E25)/1000000</f>
+        <v>2.460208894351116</v>
+      </c>
+      <c r="E8" s="19">
+        <f>AVERAGE(Quantity!I23:I25)</f>
+        <v>35.604223331427754</v>
+      </c>
+      <c r="F8" s="19">
+        <f>SUM(Quantity!M23:M25)/1000000</f>
+        <v>13.035786999999999</v>
+      </c>
+      <c r="G8" s="19">
+        <f>SUM(Quantity!N23:S25)/1000000</f>
+        <v>81.374459518554687</v>
+      </c>
+      <c r="H8" s="19">
+        <f>SUM(Quantity!T23:Z25)/1000000</f>
+        <v>11.732554874038696</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="24">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="C9" s="19">
+        <f>AVERAGE(Quantity!D26:D31)</f>
+        <v>45.110403159698933</v>
+      </c>
+      <c r="D9" s="19">
+        <f>AVERAGE(Quantity!E26:E31)/1000000</f>
+        <v>0.94548824406585996</v>
+      </c>
+      <c r="E9" s="19">
+        <f>AVERAGE(Quantity!I26:I31)</f>
+        <v>21.563216833908456</v>
+      </c>
+      <c r="F9" s="19">
+        <f>SUM(Quantity!M26:M31)/1000000</f>
+        <v>37.668992000000003</v>
+      </c>
+      <c r="G9" s="19">
+        <f>SUM(Quantity!N26:S31)/1000000</f>
+        <v>222.93536386036254</v>
+      </c>
+      <c r="H9" s="19">
+        <f>SUM(Quantity!T26:Z31)/1000000</f>
+        <v>60.491095733782473</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="24">
+        <v>6.2E-2</v>
+      </c>
+      <c r="C10" s="19">
+        <f>AVERAGE(Quantity!D32:D34)</f>
+        <v>36.470988658968203</v>
+      </c>
+      <c r="D10" s="19">
+        <f>AVERAGE(Quantity!E32:E34)/1000000</f>
+        <v>1.9884808661390327</v>
+      </c>
+      <c r="E10" s="19">
+        <f>AVERAGE(Quantity!I32:I34)</f>
+        <v>9.9872419529860501</v>
+      </c>
+      <c r="F10" s="19">
+        <f>SUM(Quantity!M32:M34)/1000000</f>
+        <v>8.3420699999999997</v>
+      </c>
+      <c r="G10" s="19">
+        <f>SUM(Quantity!N32:S34)/1000000</f>
+        <v>19.671812438533784</v>
+      </c>
+      <c r="H10" s="19">
+        <f>SUM(Quantity!T32:Z34)/1000000</f>
+        <v>2.3905259441854954</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="24">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="C11" s="19">
+        <f>AVERAGE(Quantity!D35:D37)</f>
+        <v>39.86296296296296</v>
+      </c>
+      <c r="D11" s="19">
+        <f>AVERAGE(Quantity!E35:E37)/1000000</f>
+        <v>0.90348186592876301</v>
+      </c>
+      <c r="E11" s="19">
+        <f>AVERAGE(Quantity!I35:I37)</f>
+        <v>35.833160501521782</v>
+      </c>
+      <c r="F11" s="19">
+        <f>SUM(Quantity!M35:M37)/1000000</f>
+        <v>2.2988279999999999</v>
+      </c>
+      <c r="G11" s="19">
+        <f>SUM(Quantity!N35:S37)/1000000</f>
+        <v>21.723634731101988</v>
+      </c>
+      <c r="H11" s="19">
+        <f>SUM(Quantity!T35:Z37)/1000000</f>
+        <v>6.0117913839106558</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="24">
+        <v>0.13</v>
+      </c>
+      <c r="C12" s="19">
+        <f>AVERAGE(Quantity!D38:D41)</f>
+        <v>46.368138805638807</v>
+      </c>
+      <c r="D12" s="19">
+        <f>AVERAGE(Quantity!E38:E41)/1000000</f>
+        <v>1.8962828253581554</v>
+      </c>
+      <c r="E12" s="19">
+        <f>AVERAGE(Quantity!I38:I41)</f>
+        <v>13.381515406028871</v>
+      </c>
+      <c r="F12" s="19">
+        <f>SUM(Quantity!M38:M41)/1000000</f>
+        <v>14.12734</v>
+      </c>
+      <c r="G12" s="19">
+        <f>SUM(Quantity!N38:S41)/1000000</f>
+        <v>24.26183066845703</v>
+      </c>
+      <c r="H12" s="19">
+        <f>SUM(Quantity!T38:Z41)/1000000</f>
+        <v>3.6117311788983346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="24">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="C13" s="19">
+        <f>AVERAGE(Quantity!D42)</f>
+        <v>100.6728255404726</v>
+      </c>
+      <c r="D13" s="19">
+        <f>AVERAGE(Quantity!E42)/1000000</f>
+        <v>2.8975493668203987</v>
+      </c>
+      <c r="E13" s="19">
+        <f>AVERAGE(Quantity!I42)</f>
+        <v>35.196995267607178</v>
+      </c>
+      <c r="F13" s="19">
+        <f>SUM(Quantity!M42)/1000000</f>
+        <v>2.4352369999999999</v>
+      </c>
+      <c r="G13" s="19">
+        <f>SUM(Quantity!N42:S42)/1000000</f>
+        <v>51.178107500000003</v>
+      </c>
+      <c r="H13" s="19">
+        <f>SUM(Quantity!T42:Z42)/1000000</f>
+        <v>3.9961441767578125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="24">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="C14" s="19">
+        <f>AVERAGE(Quantity!D43)</f>
+        <v>47.871716101694915</v>
+      </c>
+      <c r="D14" s="19">
+        <f>AVERAGE(Quantity!E43)/1000000</f>
+        <v>0.84034332714833138</v>
+      </c>
+      <c r="E14" s="19">
+        <f>AVERAGE(Quantity!I43)</f>
+        <v>15.296503508649085</v>
+      </c>
+      <c r="F14" s="19">
+        <f>SUM(Quantity!M43)/1000000</f>
+        <v>166.77341200000001</v>
+      </c>
+      <c r="G14" s="19">
+        <f>SUM(Quantity!N43:S43)/1000000</f>
+        <v>2534.3919277499999</v>
+      </c>
+      <c r="H14" s="19">
+        <f>SUM(Quantity!T43:Z43)/1000000</f>
+        <v>135.32717822656249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="24">
+        <v>0.224</v>
+      </c>
+      <c r="C15" s="19">
+        <f>AVERAGE(Quantity!D44)</f>
+        <v>64.882465205045861</v>
+      </c>
+      <c r="D15" s="19">
+        <f>AVERAGE(Quantity!E44)/1000000</f>
+        <v>0.41859446736620415</v>
+      </c>
+      <c r="E15" s="19">
+        <f>AVERAGE(Quantity!I44)</f>
+        <v>54.081678139986387</v>
+      </c>
+      <c r="F15" s="19">
+        <f>SUM(Quantity!M44)/1000000</f>
+        <v>82.392835000000005</v>
+      </c>
+      <c r="G15" s="19">
+        <f>SUM(Quantity!N44:S44)/1000000</f>
+        <v>986.88637200000005</v>
+      </c>
+      <c r="H15" s="19">
+        <f>SUM(Quantity!T44:Z44)/1000000</f>
+        <v>45.736459811523439</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22">
+        <f>Percentage!M45</f>
+        <v>16.228523096113896</v>
+      </c>
+      <c r="G17" s="22">
+        <f>AVERAGE(Percentage!N45:S45)</f>
+        <v>21.25552282560222</v>
+      </c>
+      <c r="H17" s="22">
+        <f>AVERAGE(Percentage!T45:Z45)</f>
+        <v>20.519883571258639</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/6_DrawFigure/Fig3_OutputTable/ImplicationResearch.xlsx
+++ b/6_DrawFigure/Fig3_OutputTable/ImplicationResearch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMIP6\Program\6_DrawFigure\Fig3_OutputTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8243FF-832C-44E2-8548-0D9E938F9FC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE238FB3-79FB-4479-B7C3-921BD020E643}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="425" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="81">
   <si>
     <t>Mekong</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -302,6 +302,18 @@
   </si>
   <si>
     <t>Mean Risk Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mean Hazard Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mean Exposure Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mean Vulnerability Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -313,7 +325,7 @@
     <numFmt numFmtId="176" formatCode="0.0000"/>
     <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,8 +380,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -379,6 +397,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED4C4A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2A1A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7DEDC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1E2E8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,7 +492,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -517,9 +559,6 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -550,6 +589,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -557,6 +617,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF2A1A0"/>
+      <color rgb="FFED4C4A"/>
+      <color rgb="FFBDC1DB"/>
+      <color rgb="FFE1E2E8"/>
+      <color rgb="FFF7DEDC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -835,7 +904,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -863,54 +932,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="25" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25" t="s">
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="27" t="s">
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
       <c r="AA1" s="12"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="13" t="s">
         <v>56</v>
       </c>
@@ -982,13 +1051,13 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="25">
         <v>0.13884768139346668</v>
       </c>
       <c r="D3" s="9">
@@ -1062,11 +1131,11 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="26"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="9">
         <v>72.770161290322577</v>
       </c>
@@ -1138,11 +1207,11 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="9">
         <v>37.611827956989245</v>
       </c>
@@ -1214,11 +1283,11 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="26"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="9">
         <v>93.049923195084489</v>
       </c>
@@ -1290,11 +1359,11 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="26"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="9">
         <v>76.730527143981107</v>
       </c>
@@ -1366,13 +1435,13 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="25">
         <v>0.12387934226916501</v>
       </c>
       <c r="D8" s="9">
@@ -1446,11 +1515,11 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="26"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="9">
         <v>37.27235772357723</v>
       </c>
@@ -1522,11 +1591,11 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="26"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="9"/>
       <c r="E10" s="4">
         <v>-776534.93153937627</v>
@@ -1588,13 +1657,13 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="29" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="25">
         <v>0.215550126027579</v>
       </c>
       <c r="D11" s="9">
@@ -1668,11 +1737,11 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" s="30"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="26"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="9">
         <v>-12.357575757575773</v>
       </c>
@@ -1744,11 +1813,11 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="26"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="9">
         <v>19.842424242424229</v>
       </c>
@@ -1820,11 +1889,11 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="26"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="9"/>
       <c r="E14" s="4">
         <v>1777191.3042438547</v>
@@ -1886,11 +1955,11 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="26"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="9">
         <v>12.011174242424232</v>
       </c>
@@ -1962,11 +2031,11 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="26"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="9">
         <v>52.297496706192348</v>
       </c>
@@ -2038,13 +2107,13 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="29" t="s">
         <v>63</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="25">
         <v>0.12259939115778577</v>
       </c>
       <c r="D17" s="9">
@@ -2118,11 +2187,11 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="30"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="26"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="9">
         <v>66.9375</v>
       </c>
@@ -2194,11 +2263,11 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="26"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="9">
         <v>24.9375</v>
       </c>
@@ -2270,13 +2339,13 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="29" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="25">
         <v>0.18275687352102682</v>
       </c>
       <c r="D20" s="9">
@@ -2350,11 +2419,11 @@
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="26"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="9">
         <v>91.378737541528238</v>
       </c>
@@ -2426,11 +2495,11 @@
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="26"/>
+      <c r="C22" s="25"/>
       <c r="D22" s="9">
         <v>73.462184873949582</v>
       </c>
@@ -2502,13 +2571,13 @@
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="25">
         <v>0.28794591788333912</v>
       </c>
       <c r="D23" s="9">
@@ -2582,11 +2651,11 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" s="30"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="26"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="9">
         <v>-15.808333333333337</v>
       </c>
@@ -2658,11 +2727,11 @@
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25" s="30"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="26"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="9">
         <v>-11.25</v>
       </c>
@@ -2734,13 +2803,13 @@
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="25">
         <v>0.2092336178225486</v>
       </c>
       <c r="D26" s="9">
@@ -2814,11 +2883,11 @@
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" s="30"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="26"/>
+      <c r="C27" s="25"/>
       <c r="D27" s="9">
         <v>31.56481481481481</v>
       </c>
@@ -2890,11 +2959,11 @@
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A28" s="30"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="26"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="9">
         <v>30.226190476190453</v>
       </c>
@@ -2966,11 +3035,11 @@
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A29" s="30"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="26"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="9">
         <v>46.291666666666657</v>
       </c>
@@ -3042,11 +3111,11 @@
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A30" s="30"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="26"/>
+      <c r="C30" s="25"/>
       <c r="D30" s="9">
         <v>79.825117370892016</v>
       </c>
@@ -3118,11 +3187,11 @@
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A31" s="30"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="26"/>
+      <c r="C31" s="25"/>
       <c r="D31" s="9">
         <v>30.541666666666657</v>
       </c>
@@ -3194,13 +3263,13 @@
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="26">
+      <c r="C32" s="25">
         <v>6.165510180143649E-2</v>
       </c>
       <c r="D32" s="9">
@@ -3274,11 +3343,11 @@
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A33" s="30"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="26"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="9">
         <v>25.732026143790854</v>
       </c>
@@ -3350,11 +3419,11 @@
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A34" s="30"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="26"/>
+      <c r="C34" s="25"/>
       <c r="D34" s="9">
         <v>56.352657004830917</v>
       </c>
@@ -3426,13 +3495,13 @@
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="26">
+      <c r="C35" s="25">
         <v>0.35777344242101972</v>
       </c>
       <c r="D35" s="9">
@@ -3506,11 +3575,11 @@
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A36" s="30"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="26"/>
+      <c r="C36" s="25"/>
       <c r="D36" s="9">
         <v>44.75</v>
       </c>
@@ -3582,11 +3651,11 @@
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A37" s="30"/>
+      <c r="A37" s="29"/>
       <c r="B37" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="26"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="9">
         <v>57.724999999999994</v>
       </c>
@@ -3658,13 +3727,13 @@
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="26">
+      <c r="C38" s="25">
         <v>0.12966787860924414</v>
       </c>
       <c r="D38" s="9">
@@ -3738,11 +3807,11 @@
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A39" s="30"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="26"/>
+      <c r="C39" s="25"/>
       <c r="D39" s="9">
         <v>22.934065934065941</v>
       </c>
@@ -3814,11 +3883,11 @@
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A40" s="30"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="26"/>
+      <c r="C40" s="25"/>
       <c r="D40" s="9">
         <v>43.82692307692308</v>
       </c>
@@ -3890,11 +3959,11 @@
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A41" s="30"/>
+      <c r="A41" s="29"/>
       <c r="B41" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="26"/>
+      <c r="C41" s="25"/>
       <c r="D41" s="9">
         <v>54.031468531468533</v>
       </c>
@@ -4275,54 +4344,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="25" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25" t="s">
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="27" t="s">
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
       <c r="AA1" s="14"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="13" t="s">
         <v>56</v>
       </c>
@@ -4394,13 +4463,13 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="31"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="16"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
@@ -4460,11 +4529,11 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="16"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
@@ -4524,11 +4593,11 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="32"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="16"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
@@ -4588,11 +4657,11 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="32"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
@@ -4652,11 +4721,11 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="33"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="16"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
@@ -4716,13 +4785,13 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="31"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="16"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -4782,11 +4851,11 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="32"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -4846,11 +4915,11 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="33"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -4910,13 +4979,13 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="29" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="31"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
@@ -4976,11 +5045,11 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" s="30"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="32"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -5040,11 +5109,11 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="32"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="16"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -5104,11 +5173,11 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="32"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
@@ -5168,11 +5237,11 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="32"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="16"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
@@ -5232,11 +5301,11 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="33"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="16"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
@@ -5296,13 +5365,13 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="31"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="16"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
@@ -5362,11 +5431,11 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="30"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="32"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="16"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
@@ -5426,11 +5495,11 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="33"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="16"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
@@ -5490,13 +5559,13 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="29" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="31"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="16"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
@@ -5556,11 +5625,11 @@
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="32"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="16"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
@@ -5620,11 +5689,11 @@
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="33"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="16"/>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
@@ -5684,13 +5753,13 @@
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="31"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
@@ -5750,11 +5819,11 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" s="30"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="32"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="16"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
@@ -5814,11 +5883,11 @@
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25" s="30"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="33"/>
+      <c r="C25" s="32"/>
       <c r="D25" s="16"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
@@ -5878,13 +5947,13 @@
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="31"/>
+      <c r="C26" s="30"/>
       <c r="D26" s="16"/>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
@@ -5944,11 +6013,11 @@
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" s="30"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="32"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="16"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
@@ -6008,11 +6077,11 @@
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A28" s="30"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="32"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="16"/>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
@@ -6072,11 +6141,11 @@
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A29" s="30"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="32"/>
+      <c r="C29" s="31"/>
       <c r="D29" s="16"/>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
@@ -6136,11 +6205,11 @@
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A30" s="30"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="32"/>
+      <c r="C30" s="31"/>
       <c r="D30" s="16"/>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
@@ -6200,11 +6269,11 @@
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A31" s="30"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="33"/>
+      <c r="C31" s="32"/>
       <c r="D31" s="16"/>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
@@ -6264,13 +6333,13 @@
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="31"/>
+      <c r="C32" s="30"/>
       <c r="D32" s="16"/>
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
@@ -6330,11 +6399,11 @@
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A33" s="30"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="32"/>
+      <c r="C33" s="31"/>
       <c r="D33" s="16"/>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
@@ -6394,11 +6463,11 @@
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A34" s="30"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="33"/>
+      <c r="C34" s="32"/>
       <c r="D34" s="16"/>
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
@@ -6458,13 +6527,13 @@
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="31"/>
+      <c r="C35" s="30"/>
       <c r="D35" s="16"/>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
@@ -6524,11 +6593,11 @@
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A36" s="30"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="32"/>
+      <c r="C36" s="31"/>
       <c r="D36" s="16"/>
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
@@ -6588,11 +6657,11 @@
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A37" s="30"/>
+      <c r="A37" s="29"/>
       <c r="B37" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="33"/>
+      <c r="C37" s="32"/>
       <c r="D37" s="16"/>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
@@ -6652,13 +6721,13 @@
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="31"/>
+      <c r="C38" s="30"/>
       <c r="D38" s="16"/>
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
@@ -6718,11 +6787,11 @@
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A39" s="30"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="32"/>
+      <c r="C39" s="31"/>
       <c r="D39" s="16"/>
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
@@ -6782,11 +6851,11 @@
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A40" s="30"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="32"/>
+      <c r="C40" s="31"/>
       <c r="D40" s="16"/>
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
@@ -6846,11 +6915,11 @@
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A41" s="30"/>
+      <c r="A41" s="29"/>
       <c r="B41" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="33"/>
+      <c r="C41" s="32"/>
       <c r="D41" s="16"/>
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
@@ -7219,479 +7288,624 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB148ED4-95ED-4296-BCCD-A7D6B08365CF}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="A3:B15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
-    <col min="6" max="6" width="10.125" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
-    <col min="8" max="8" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="6.25" customWidth="1"/>
+    <col min="3" max="3" width="9.75" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="11.25" customWidth="1"/>
+    <col min="8" max="8" width="10.75" customWidth="1"/>
+    <col min="9" max="9" width="10.125" customWidth="1"/>
+    <col min="10" max="10" width="13.75" customWidth="1"/>
+    <col min="11" max="11" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>77</v>
       </c>
       <c r="C1" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34" t="s">
+      <c r="G1" s="33"/>
+      <c r="H1" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="I1" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="J1" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="K1" s="33" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="18" t="s">
+    <row r="2" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="G2" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-    </row>
-    <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+    </row>
+    <row r="3" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="24">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="C3" s="19">
+      <c r="B3" s="38">
+        <f>C3*D3*E3</f>
+        <v>0.13745241243960449</v>
+      </c>
+      <c r="C3" s="38">
+        <v>0.39901621958593714</v>
+      </c>
+      <c r="D3" s="37">
+        <v>0.63901145392070502</v>
+      </c>
+      <c r="E3" s="38">
+        <v>0.53907994355174016</v>
+      </c>
+      <c r="F3" s="19">
         <f>AVERAGE(Quantity!D3:D7)</f>
         <v>68.361520175340004</v>
       </c>
-      <c r="D3" s="19">
+      <c r="G3" s="19">
         <f>AVERAGE(Quantity!E3:E7)/1000000</f>
         <v>3.1483608780402101</v>
       </c>
-      <c r="E3" s="19">
+      <c r="H3" s="19">
         <f>AVERAGE(Quantity!I3:I7)</f>
         <v>1.4966554732936761</v>
       </c>
-      <c r="F3" s="19">
+      <c r="I3" s="19">
         <f>SUM(Quantity!M3:M7)/1000000</f>
         <v>24.485707999999999</v>
       </c>
-      <c r="G3" s="19">
+      <c r="J3" s="19">
         <f>SUM(Quantity!N3:S7)/1000000</f>
         <v>67.401862613212586</v>
       </c>
-      <c r="H3" s="19">
+      <c r="K3" s="19">
         <f>SUM(Quantity!T3:Z7)/1000000</f>
         <v>5.1774917609626128</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="24">
-        <v>0.124</v>
-      </c>
-      <c r="C4" s="19">
+      <c r="B4" s="38">
+        <f>C4*D4*E4</f>
+        <v>0.14422965620196493</v>
+      </c>
+      <c r="C4" s="38">
+        <v>0.47328450723023274</v>
+      </c>
+      <c r="D4" s="38">
+        <v>0.53670031946319896</v>
+      </c>
+      <c r="E4" s="38">
+        <v>0.56780658683201501</v>
+      </c>
+      <c r="F4" s="19">
         <f>AVERAGE(Quantity!D8:D10)</f>
         <v>30.588559814169564</v>
       </c>
-      <c r="D4" s="19">
+      <c r="G4" s="19">
         <f>AVERAGE(Quantity!E8:E10)/1000000</f>
         <v>0.78012151644848371</v>
       </c>
-      <c r="E4" s="19">
+      <c r="H4" s="19">
         <f>AVERAGE(Quantity!I8:I10)</f>
         <v>11.38558200040894</v>
       </c>
-      <c r="F4" s="19">
+      <c r="I4" s="19">
         <f>SUM(Quantity!M8:M10)/1000000</f>
         <v>3.6187670000000001</v>
       </c>
-      <c r="G4" s="19">
+      <c r="J4" s="19">
         <f>SUM(Quantity!N8:S10)/1000000</f>
         <v>26.447857293746949</v>
       </c>
-      <c r="H4" s="19">
+      <c r="K4" s="19">
         <f>SUM(Quantity!T8:Z10)/1000000</f>
         <v>0.97498382758825275</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="24">
-        <v>0.216</v>
-      </c>
-      <c r="C5" s="19">
+      <c r="B5" s="37">
+        <f t="shared" ref="B4:B15" si="0">C5*D5*E5</f>
+        <v>0.25040505548748471</v>
+      </c>
+      <c r="C5" s="37">
+        <v>0.67101084172366277</v>
+      </c>
+      <c r="D5" s="36">
+        <v>0.80794678236758621</v>
+      </c>
+      <c r="E5" s="38">
+        <v>0.46188174692639866</v>
+      </c>
+      <c r="F5" s="19">
         <f>AVERAGE(Quantity!D11:D16)</f>
         <v>8.417188735177854</v>
       </c>
-      <c r="D5" s="19">
+      <c r="G5" s="19">
         <f>AVERAGE(Quantity!E11:E16)/1000000</f>
         <v>1.7728845916758607</v>
       </c>
-      <c r="E5" s="19">
+      <c r="H5" s="19">
         <f>AVERAGE(Quantity!I11:I16)</f>
         <v>38.81699483672039</v>
       </c>
-      <c r="F5" s="19">
+      <c r="I5" s="19">
         <f>SUM(Quantity!M11:M16)/1000000</f>
         <v>622.44904299999996</v>
       </c>
-      <c r="G5" s="19">
+      <c r="J5" s="19">
         <f>SUM(Quantity!N11:S16)/1000000</f>
         <v>731.35608099088006</v>
       </c>
-      <c r="H5" s="19">
+      <c r="K5" s="19">
         <f>SUM(Quantity!T11:Z16)/1000000</f>
         <v>277.11478663714439</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="24">
-        <v>0.123</v>
-      </c>
-      <c r="C6" s="19">
+      <c r="B6" s="38">
+        <f t="shared" si="0"/>
+        <v>0.1265674549171199</v>
+      </c>
+      <c r="C6" s="39">
+        <v>0.26087172144624921</v>
+      </c>
+      <c r="D6" s="37">
+        <v>0.67149171536178121</v>
+      </c>
+      <c r="E6" s="37">
+        <v>0.72252750487532846</v>
+      </c>
+      <c r="F6" s="19">
         <f>AVERAGE(Quantity!D17:D19)</f>
         <v>46.418374316939889</v>
       </c>
-      <c r="D6" s="19">
+      <c r="G6" s="19">
         <f>AVERAGE(Quantity!E17:E19)/1000000</f>
         <v>2.1060981789858153</v>
       </c>
-      <c r="E6" s="19">
+      <c r="H6" s="19">
         <f>AVERAGE(Quantity!I17:I19)</f>
         <v>17.303195462249022</v>
       </c>
-      <c r="F6" s="19">
+      <c r="I6" s="19">
         <f>SUM(Quantity!M17:M19)/1000000</f>
         <v>13.409053999999999</v>
       </c>
-      <c r="G6" s="19">
+      <c r="J6" s="19">
         <f>SUM(Quantity!N17:S19)/1000000</f>
         <v>10.160793129564285</v>
       </c>
-      <c r="H6" s="19">
+      <c r="K6" s="19">
         <f>SUM(Quantity!T17:Z19)/1000000</f>
         <v>0.30218688858509063</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="24">
-        <v>0.183</v>
-      </c>
-      <c r="C7" s="19">
+      <c r="B7" s="37">
+        <f t="shared" si="0"/>
+        <v>0.21646989887880277</v>
+      </c>
+      <c r="C7" s="38">
+        <v>0.54376349741833341</v>
+      </c>
+      <c r="D7" s="37">
+        <v>0.68412321501261741</v>
+      </c>
+      <c r="E7" s="38">
+        <v>0.58190640305108787</v>
+      </c>
+      <c r="F7" s="19">
         <f>AVERAGE(Quantity!D20:D22)</f>
         <v>67.19372738524585</v>
       </c>
-      <c r="D7" s="19">
+      <c r="G7" s="19">
         <f>AVERAGE(Quantity!E20:E22)/1000000</f>
         <v>3.3504245188673338</v>
       </c>
-      <c r="E7" s="19">
+      <c r="H7" s="19">
         <f>AVERAGE(Quantity!I20:I22)</f>
         <v>31.774085484502958</v>
       </c>
-      <c r="F7" s="19">
+      <c r="I7" s="19">
         <f>SUM(Quantity!M20:M22)/1000000</f>
         <v>208.34114</v>
       </c>
-      <c r="G7" s="19">
+      <c r="J7" s="19">
         <f>SUM(Quantity!N20:S22)/1000000</f>
         <v>450.33307696874999</v>
       </c>
-      <c r="H7" s="19">
+      <c r="K7" s="19">
         <f>SUM(Quantity!T20:Z22)/1000000</f>
         <v>95.660881830251341</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="24">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="C8" s="19">
+      <c r="B8" s="37">
+        <f t="shared" si="0"/>
+        <v>0.3148397225567906</v>
+      </c>
+      <c r="C8" s="37">
+        <v>0.71322484818020371</v>
+      </c>
+      <c r="D8" s="37">
+        <v>0.74195292903476306</v>
+      </c>
+      <c r="E8" s="38">
+        <v>0.59495853915786012</v>
+      </c>
+      <c r="F8" s="19">
         <f>AVERAGE(Quantity!D23:D25)</f>
         <v>-16.936111111111114</v>
       </c>
-      <c r="D8" s="19">
+      <c r="G8" s="19">
         <f>AVERAGE(Quantity!E23:E25)/1000000</f>
         <v>2.460208894351116</v>
       </c>
-      <c r="E8" s="19">
+      <c r="H8" s="19">
         <f>AVERAGE(Quantity!I23:I25)</f>
         <v>35.604223331427754</v>
       </c>
-      <c r="F8" s="19">
+      <c r="I8" s="19">
         <f>SUM(Quantity!M23:M25)/1000000</f>
         <v>13.035786999999999</v>
       </c>
-      <c r="G8" s="19">
+      <c r="J8" s="19">
         <f>SUM(Quantity!N23:S25)/1000000</f>
         <v>81.374459518554687</v>
       </c>
-      <c r="H8" s="19">
+      <c r="K8" s="19">
         <f>SUM(Quantity!T23:Z25)/1000000</f>
         <v>11.732554874038696</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="24">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="C9" s="19">
+      <c r="B9" s="37">
+        <f t="shared" si="0"/>
+        <v>0.21833794264183845</v>
+      </c>
+      <c r="C9" s="38">
+        <v>0.5735054409240995</v>
+      </c>
+      <c r="D9" s="37">
+        <v>0.73982669643921306</v>
+      </c>
+      <c r="E9" s="38">
+        <v>0.51459039131267337</v>
+      </c>
+      <c r="F9" s="19">
         <f>AVERAGE(Quantity!D26:D31)</f>
         <v>45.110403159698933</v>
       </c>
-      <c r="D9" s="19">
+      <c r="G9" s="19">
         <f>AVERAGE(Quantity!E26:E31)/1000000</f>
         <v>0.94548824406585996</v>
       </c>
-      <c r="E9" s="19">
+      <c r="H9" s="19">
         <f>AVERAGE(Quantity!I26:I31)</f>
         <v>21.563216833908456</v>
       </c>
-      <c r="F9" s="19">
+      <c r="I9" s="19">
         <f>SUM(Quantity!M26:M31)/1000000</f>
         <v>37.668992000000003</v>
       </c>
-      <c r="G9" s="19">
+      <c r="J9" s="19">
         <f>SUM(Quantity!N26:S31)/1000000</f>
         <v>222.93536386036254</v>
       </c>
-      <c r="H9" s="19">
+      <c r="K9" s="19">
         <f>SUM(Quantity!T26:Z31)/1000000</f>
         <v>60.491095733782473</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="24">
-        <v>6.2E-2</v>
-      </c>
-      <c r="C10" s="19">
+      <c r="B10" s="39">
+        <f t="shared" si="0"/>
+        <v>6.9139348087029068E-2</v>
+      </c>
+      <c r="C10" s="39">
+        <v>0.36737722463311523</v>
+      </c>
+      <c r="D10" s="37">
+        <v>0.65799773669839079</v>
+      </c>
+      <c r="E10" s="39">
+        <v>0.28601489551248732</v>
+      </c>
+      <c r="F10" s="19">
         <f>AVERAGE(Quantity!D32:D34)</f>
         <v>36.470988658968203</v>
       </c>
-      <c r="D10" s="19">
+      <c r="G10" s="19">
         <f>AVERAGE(Quantity!E32:E34)/1000000</f>
         <v>1.9884808661390327</v>
       </c>
-      <c r="E10" s="19">
+      <c r="H10" s="19">
         <f>AVERAGE(Quantity!I32:I34)</f>
         <v>9.9872419529860501</v>
       </c>
-      <c r="F10" s="19">
+      <c r="I10" s="19">
         <f>SUM(Quantity!M32:M34)/1000000</f>
         <v>8.3420699999999997</v>
       </c>
-      <c r="G10" s="19">
+      <c r="J10" s="19">
         <f>SUM(Quantity!N32:S34)/1000000</f>
         <v>19.671812438533784</v>
       </c>
-      <c r="H10" s="19">
+      <c r="K10" s="19">
         <f>SUM(Quantity!T32:Z34)/1000000</f>
         <v>2.3905259441854954</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="24">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="C11" s="19">
+      <c r="B11" s="40">
+        <f t="shared" si="0"/>
+        <v>0.36880416058184801</v>
+      </c>
+      <c r="C11" s="37">
+        <v>0.67998147015277699</v>
+      </c>
+      <c r="D11" s="37">
+        <v>0.61631435335990248</v>
+      </c>
+      <c r="E11" s="36">
+        <v>0.880027921283422</v>
+      </c>
+      <c r="F11" s="19">
         <f>AVERAGE(Quantity!D35:D37)</f>
         <v>39.86296296296296</v>
       </c>
-      <c r="D11" s="19">
+      <c r="G11" s="19">
         <f>AVERAGE(Quantity!E35:E37)/1000000</f>
         <v>0.90348186592876301</v>
       </c>
-      <c r="E11" s="19">
+      <c r="H11" s="19">
         <f>AVERAGE(Quantity!I35:I37)</f>
         <v>35.833160501521782</v>
       </c>
-      <c r="F11" s="19">
+      <c r="I11" s="19">
         <f>SUM(Quantity!M35:M37)/1000000</f>
         <v>2.2988279999999999</v>
       </c>
-      <c r="G11" s="19">
+      <c r="J11" s="19">
         <f>SUM(Quantity!N35:S37)/1000000</f>
         <v>21.723634731101988</v>
       </c>
-      <c r="H11" s="19">
+      <c r="K11" s="19">
         <f>SUM(Quantity!T35:Z37)/1000000</f>
         <v>6.0117913839106558</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="24">
-        <v>0.13</v>
-      </c>
-      <c r="C12" s="19">
+      <c r="B12" s="38">
+        <f t="shared" si="0"/>
+        <v>0.11945045327821523</v>
+      </c>
+      <c r="C12" s="38">
+        <v>0.48580883286633397</v>
+      </c>
+      <c r="D12" s="37">
+        <v>0.67830608669610637</v>
+      </c>
+      <c r="E12" s="39">
+        <v>0.36249054332076797</v>
+      </c>
+      <c r="F12" s="19">
         <f>AVERAGE(Quantity!D38:D41)</f>
         <v>46.368138805638807</v>
       </c>
-      <c r="D12" s="19">
+      <c r="G12" s="19">
         <f>AVERAGE(Quantity!E38:E41)/1000000</f>
         <v>1.8962828253581554</v>
       </c>
-      <c r="E12" s="19">
+      <c r="H12" s="19">
         <f>AVERAGE(Quantity!I38:I41)</f>
         <v>13.381515406028871</v>
       </c>
-      <c r="F12" s="19">
+      <c r="I12" s="19">
         <f>SUM(Quantity!M38:M41)/1000000</f>
         <v>14.12734</v>
       </c>
-      <c r="G12" s="19">
+      <c r="J12" s="19">
         <f>SUM(Quantity!N38:S41)/1000000</f>
         <v>24.26183066845703</v>
       </c>
-      <c r="H12" s="19">
+      <c r="K12" s="19">
         <f>SUM(Quantity!T38:Z41)/1000000</f>
         <v>3.6117311788983346</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="24">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="C13" s="19">
+      <c r="B13" s="37">
+        <f t="shared" si="0"/>
+        <v>0.28426513939063924</v>
+      </c>
+      <c r="C13" s="38">
+        <v>0.57657461336806315</v>
+      </c>
+      <c r="D13" s="38">
+        <v>0.5034990732663478</v>
+      </c>
+      <c r="E13" s="36">
+        <v>0.9791955060599643</v>
+      </c>
+      <c r="F13" s="19">
         <f>AVERAGE(Quantity!D42)</f>
         <v>100.6728255404726</v>
       </c>
-      <c r="D13" s="19">
+      <c r="G13" s="19">
         <f>AVERAGE(Quantity!E42)/1000000</f>
         <v>2.8975493668203987</v>
       </c>
-      <c r="E13" s="19">
+      <c r="H13" s="19">
         <f>AVERAGE(Quantity!I42)</f>
         <v>35.196995267607178</v>
       </c>
-      <c r="F13" s="19">
+      <c r="I13" s="19">
         <f>SUM(Quantity!M42)/1000000</f>
         <v>2.4352369999999999</v>
       </c>
-      <c r="G13" s="19">
+      <c r="J13" s="19">
         <f>SUM(Quantity!N42:S42)/1000000</f>
         <v>51.178107500000003</v>
       </c>
-      <c r="H13" s="19">
+      <c r="K13" s="19">
         <f>SUM(Quantity!T42:Z42)/1000000</f>
         <v>3.9961441767578125</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="24">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="C14" s="19">
+      <c r="B14" s="38">
+        <f t="shared" si="0"/>
+        <v>0.14726474171000126</v>
+      </c>
+      <c r="C14" s="38">
+        <v>0.53719689870567411</v>
+      </c>
+      <c r="D14" s="37">
+        <v>0.75102155862918296</v>
+      </c>
+      <c r="E14" s="39">
+        <v>0.36501682174367867</v>
+      </c>
+      <c r="F14" s="19">
         <f>AVERAGE(Quantity!D43)</f>
         <v>47.871716101694915</v>
       </c>
-      <c r="D14" s="19">
+      <c r="G14" s="19">
         <f>AVERAGE(Quantity!E43)/1000000</f>
         <v>0.84034332714833138</v>
       </c>
-      <c r="E14" s="19">
+      <c r="H14" s="19">
         <f>AVERAGE(Quantity!I43)</f>
         <v>15.296503508649085</v>
       </c>
-      <c r="F14" s="19">
+      <c r="I14" s="19">
         <f>SUM(Quantity!M43)/1000000</f>
         <v>166.77341200000001</v>
       </c>
-      <c r="G14" s="19">
+      <c r="J14" s="19">
         <f>SUM(Quantity!N43:S43)/1000000</f>
         <v>2534.3919277499999</v>
       </c>
-      <c r="H14" s="19">
+      <c r="K14" s="19">
         <f>SUM(Quantity!T43:Z43)/1000000</f>
         <v>135.32717822656249</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="24">
-        <v>0.224</v>
-      </c>
-      <c r="C15" s="19">
+      <c r="B15" s="37">
+        <f t="shared" si="0"/>
+        <v>0.27208293442337461</v>
+      </c>
+      <c r="C15" s="37">
+        <v>0.65816179901171123</v>
+      </c>
+      <c r="D15" s="37">
+        <v>0.75610005979057282</v>
+      </c>
+      <c r="E15" s="38">
+        <v>0.54675071422154953</v>
+      </c>
+      <c r="F15" s="19">
         <f>AVERAGE(Quantity!D44)</f>
         <v>64.882465205045861</v>
       </c>
-      <c r="D15" s="19">
+      <c r="G15" s="19">
         <f>AVERAGE(Quantity!E44)/1000000</f>
         <v>0.41859446736620415</v>
       </c>
-      <c r="E15" s="19">
+      <c r="H15" s="19">
         <f>AVERAGE(Quantity!I44)</f>
         <v>54.081678139986387</v>
       </c>
-      <c r="F15" s="19">
+      <c r="I15" s="19">
         <f>SUM(Quantity!M44)/1000000</f>
         <v>82.392835000000005</v>
       </c>
-      <c r="G15" s="19">
+      <c r="J15" s="19">
         <f>SUM(Quantity!N44:S44)/1000000</f>
         <v>986.88637200000005</v>
       </c>
-      <c r="H15" s="19">
+      <c r="K15" s="19">
         <f>SUM(Quantity!T44:Z44)/1000000</f>
         <v>45.736459811523439</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -7700,8 +7914,11 @@
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>76</v>
       </c>
@@ -7709,28 +7926,34 @@
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
-      <c r="F17" s="22">
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="22">
         <f>Percentage!M45</f>
         <v>16.228523096113896</v>
       </c>
-      <c r="G17" s="22">
+      <c r="J17" s="22">
         <f>AVERAGE(Percentage!N45:S45)</f>
         <v>21.25552282560222</v>
       </c>
-      <c r="H17" s="22">
+      <c r="K17" s="22">
         <f>AVERAGE(Percentage!T45:Z45)</f>
         <v>20.519883571258639</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="G1:G2"/>
+  <mergeCells count="10">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B1:B2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/6_DrawFigure/Fig3_OutputTable/ImplicationResearch.xlsx
+++ b/6_DrawFigure/Fig3_OutputTable/ImplicationResearch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMIP6\Program\6_DrawFigure\Fig3_OutputTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE238FB3-79FB-4479-B7C3-921BD020E643}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3872FCB-608E-4CBA-8CD7-0369F17EF753}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="425" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -492,7 +492,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -559,14 +559,23 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -574,7 +583,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -594,21 +612,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -903,8 +906,8 @@
   <dimension ref="A1:AA45"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N3" sqref="N3:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -932,54 +935,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="24" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24" t="s">
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24" t="s">
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="26" t="s">
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
       <c r="AA1" s="12"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="13" t="s">
         <v>56</v>
       </c>
@@ -1051,13 +1054,13 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="33" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="32">
         <v>0.13884768139346668</v>
       </c>
       <c r="D3" s="9">
@@ -1131,11 +1134,11 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="9">
         <v>72.770161290322577</v>
       </c>
@@ -1207,11 +1210,11 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="29"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="9">
         <v>37.611827956989245</v>
       </c>
@@ -1283,11 +1286,11 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="29"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="9">
         <v>93.049923195084489</v>
       </c>
@@ -1359,11 +1362,11 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="9">
         <v>76.730527143981107</v>
       </c>
@@ -1435,13 +1438,13 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="33" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="32">
         <v>0.12387934226916501</v>
       </c>
       <c r="D8" s="9">
@@ -1515,11 +1518,11 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="25"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="9">
         <v>37.27235772357723</v>
       </c>
@@ -1591,11 +1594,11 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="25"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="9"/>
       <c r="E10" s="4">
         <v>-776534.93153937627</v>
@@ -1657,13 +1660,13 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="33" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="32">
         <v>0.215550126027579</v>
       </c>
       <c r="D11" s="9">
@@ -1737,11 +1740,11 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="25"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="9">
         <v>-12.357575757575773</v>
       </c>
@@ -1813,11 +1816,11 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="9">
         <v>19.842424242424229</v>
       </c>
@@ -1889,11 +1892,11 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" s="29"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="9"/>
       <c r="E14" s="4">
         <v>1777191.3042438547</v>
@@ -1955,11 +1958,11 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15" s="29"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="9">
         <v>12.011174242424232</v>
       </c>
@@ -2031,11 +2034,11 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" s="29"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="25"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="9">
         <v>52.297496706192348</v>
       </c>
@@ -2107,13 +2110,13 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="33" t="s">
         <v>63</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="32">
         <v>0.12259939115778577</v>
       </c>
       <c r="D17" s="9">
@@ -2187,11 +2190,11 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="25"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="9">
         <v>66.9375</v>
       </c>
@@ -2263,11 +2266,11 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="25"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="9">
         <v>24.9375</v>
       </c>
@@ -2339,13 +2342,13 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="33" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="32">
         <v>0.18275687352102682</v>
       </c>
       <c r="D20" s="9">
@@ -2419,11 +2422,11 @@
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="29"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="25"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="9">
         <v>91.378737541528238</v>
       </c>
@@ -2495,11 +2498,11 @@
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="29"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="25"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="9">
         <v>73.462184873949582</v>
       </c>
@@ -2571,13 +2574,13 @@
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="33" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="32">
         <v>0.28794591788333912</v>
       </c>
       <c r="D23" s="9">
@@ -2651,11 +2654,11 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" s="29"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="25"/>
+      <c r="C24" s="32"/>
       <c r="D24" s="9">
         <v>-15.808333333333337</v>
       </c>
@@ -2727,11 +2730,11 @@
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25" s="29"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="25"/>
+      <c r="C25" s="32"/>
       <c r="D25" s="9">
         <v>-11.25</v>
       </c>
@@ -2803,13 +2806,13 @@
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C26" s="32">
         <v>0.2092336178225486</v>
       </c>
       <c r="D26" s="9">
@@ -2883,11 +2886,11 @@
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" s="29"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="25"/>
+      <c r="C27" s="32"/>
       <c r="D27" s="9">
         <v>31.56481481481481</v>
       </c>
@@ -2959,11 +2962,11 @@
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A28" s="29"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="25"/>
+      <c r="C28" s="32"/>
       <c r="D28" s="9">
         <v>30.226190476190453</v>
       </c>
@@ -3035,11 +3038,11 @@
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A29" s="29"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="25"/>
+      <c r="C29" s="32"/>
       <c r="D29" s="9">
         <v>46.291666666666657</v>
       </c>
@@ -3111,11 +3114,11 @@
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A30" s="29"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="25"/>
+      <c r="C30" s="32"/>
       <c r="D30" s="9">
         <v>79.825117370892016</v>
       </c>
@@ -3187,11 +3190,11 @@
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A31" s="29"/>
+      <c r="A31" s="33"/>
       <c r="B31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="25"/>
+      <c r="C31" s="32"/>
       <c r="D31" s="9">
         <v>30.541666666666657</v>
       </c>
@@ -3263,13 +3266,13 @@
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="33" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="25">
+      <c r="C32" s="32">
         <v>6.165510180143649E-2</v>
       </c>
       <c r="D32" s="9">
@@ -3343,11 +3346,11 @@
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A33" s="29"/>
+      <c r="A33" s="33"/>
       <c r="B33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="25"/>
+      <c r="C33" s="32"/>
       <c r="D33" s="9">
         <v>25.732026143790854</v>
       </c>
@@ -3419,11 +3422,11 @@
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A34" s="29"/>
+      <c r="A34" s="33"/>
       <c r="B34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="25"/>
+      <c r="C34" s="32"/>
       <c r="D34" s="9">
         <v>56.352657004830917</v>
       </c>
@@ -3495,13 +3498,13 @@
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="33" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="25">
+      <c r="C35" s="32">
         <v>0.35777344242101972</v>
       </c>
       <c r="D35" s="9">
@@ -3575,11 +3578,11 @@
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A36" s="29"/>
+      <c r="A36" s="33"/>
       <c r="B36" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="25"/>
+      <c r="C36" s="32"/>
       <c r="D36" s="9">
         <v>44.75</v>
       </c>
@@ -3651,11 +3654,11 @@
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A37" s="29"/>
+      <c r="A37" s="33"/>
       <c r="B37" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="25"/>
+      <c r="C37" s="32"/>
       <c r="D37" s="9">
         <v>57.724999999999994</v>
       </c>
@@ -3727,13 +3730,13 @@
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="33" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="25">
+      <c r="C38" s="32">
         <v>0.12966787860924414</v>
       </c>
       <c r="D38" s="9">
@@ -3807,11 +3810,11 @@
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A39" s="29"/>
+      <c r="A39" s="33"/>
       <c r="B39" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="25"/>
+      <c r="C39" s="32"/>
       <c r="D39" s="9">
         <v>22.934065934065941</v>
       </c>
@@ -3883,11 +3886,11 @@
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A40" s="29"/>
+      <c r="A40" s="33"/>
       <c r="B40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="25"/>
+      <c r="C40" s="32"/>
       <c r="D40" s="9">
         <v>43.82692307692308</v>
       </c>
@@ -3959,11 +3962,11 @@
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A41" s="29"/>
+      <c r="A41" s="33"/>
       <c r="B41" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="25"/>
+      <c r="C41" s="32"/>
       <c r="D41" s="9">
         <v>54.031468531468533</v>
       </c>
@@ -4282,6 +4285,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="T1:Z1"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C16"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="C35:C37"/>
@@ -4298,18 +4313,6 @@
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="T1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4344,54 +4347,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="24" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24" t="s">
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24" t="s">
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="26" t="s">
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
       <c r="AA1" s="14"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="13" t="s">
         <v>56</v>
       </c>
@@ -4463,13 +4466,13 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="33" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="16"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
@@ -4529,11 +4532,11 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="31"/>
+      <c r="C4" s="37"/>
       <c r="D4" s="16"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
@@ -4593,11 +4596,11 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="29"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="31"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="16"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
@@ -4657,11 +4660,11 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="29"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="31"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
@@ -4721,11 +4724,11 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="32"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="16"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
@@ -4785,13 +4788,13 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="33" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="30"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="16"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -4851,11 +4854,11 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="31"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -4915,11 +4918,11 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="32"/>
+      <c r="C10" s="38"/>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -4979,13 +4982,13 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="33" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="30"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
@@ -5045,11 +5048,11 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="31"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -5109,11 +5112,11 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="31"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="16"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -5173,11 +5176,11 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" s="29"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="31"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
@@ -5237,11 +5240,11 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15" s="29"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="31"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="16"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
@@ -5301,11 +5304,11 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" s="29"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="32"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="16"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
@@ -5365,13 +5368,13 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="33" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="30"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="16"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
@@ -5431,11 +5434,11 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="31"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="16"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
@@ -5495,11 +5498,11 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="32"/>
+      <c r="C19" s="38"/>
       <c r="D19" s="16"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
@@ -5559,13 +5562,13 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="33" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="30"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="16"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
@@ -5625,11 +5628,11 @@
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="29"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="31"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="16"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
@@ -5689,11 +5692,11 @@
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="29"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="32"/>
+      <c r="C22" s="38"/>
       <c r="D22" s="16"/>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
@@ -5753,13 +5756,13 @@
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="33" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="30"/>
+      <c r="C23" s="36"/>
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
@@ -5819,11 +5822,11 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" s="29"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="31"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="16"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
@@ -5883,11 +5886,11 @@
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25" s="29"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="32"/>
+      <c r="C25" s="38"/>
       <c r="D25" s="16"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
@@ -5947,13 +5950,13 @@
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="30"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="16"/>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
@@ -6013,11 +6016,11 @@
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" s="29"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="31"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="16"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
@@ -6077,11 +6080,11 @@
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A28" s="29"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="31"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="16"/>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
@@ -6141,11 +6144,11 @@
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A29" s="29"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="31"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="16"/>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
@@ -6205,11 +6208,11 @@
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A30" s="29"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="31"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="16"/>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
@@ -6269,11 +6272,11 @@
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A31" s="29"/>
+      <c r="A31" s="33"/>
       <c r="B31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="32"/>
+      <c r="C31" s="38"/>
       <c r="D31" s="16"/>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
@@ -6333,13 +6336,13 @@
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="33" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="30"/>
+      <c r="C32" s="36"/>
       <c r="D32" s="16"/>
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
@@ -6399,11 +6402,11 @@
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A33" s="29"/>
+      <c r="A33" s="33"/>
       <c r="B33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="31"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="16"/>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
@@ -6463,11 +6466,11 @@
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A34" s="29"/>
+      <c r="A34" s="33"/>
       <c r="B34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="32"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="16"/>
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
@@ -6527,13 +6530,13 @@
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="33" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="30"/>
+      <c r="C35" s="36"/>
       <c r="D35" s="16"/>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
@@ -6593,11 +6596,11 @@
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A36" s="29"/>
+      <c r="A36" s="33"/>
       <c r="B36" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="31"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="16"/>
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
@@ -6657,11 +6660,11 @@
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A37" s="29"/>
+      <c r="A37" s="33"/>
       <c r="B37" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="32"/>
+      <c r="C37" s="38"/>
       <c r="D37" s="16"/>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
@@ -6721,13 +6724,13 @@
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="33" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="30"/>
+      <c r="C38" s="36"/>
       <c r="D38" s="16"/>
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
@@ -6787,11 +6790,11 @@
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A39" s="29"/>
+      <c r="A39" s="33"/>
       <c r="B39" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="31"/>
+      <c r="C39" s="37"/>
       <c r="D39" s="16"/>
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
@@ -6851,11 +6854,11 @@
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A40" s="29"/>
+      <c r="A40" s="33"/>
       <c r="B40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="31"/>
+      <c r="C40" s="37"/>
       <c r="D40" s="16"/>
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
@@ -6915,11 +6918,11 @@
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A41" s="29"/>
+      <c r="A41" s="33"/>
       <c r="B41" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="32"/>
+      <c r="C41" s="38"/>
       <c r="D41" s="16"/>
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
@@ -7251,6 +7254,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="C32:C34"/>
     <mergeCell ref="T1:Z1"/>
     <mergeCell ref="A11:A16"/>
     <mergeCell ref="C11:C16"/>
@@ -7267,18 +7282,6 @@
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="C32:C34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7291,7 +7294,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="K1" sqref="K1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7310,70 +7313,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33" t="s">
+      <c r="G1" s="39"/>
+      <c r="H1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="39" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="18" t="s">
         <v>75</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
     </row>
     <row r="3" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="38">
+      <c r="B3" s="28">
         <f>C3*D3*E3</f>
         <v>0.13745241243960449</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="26">
         <v>0.39901621958593714</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="25">
         <v>0.63901145392070502</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="26">
         <v>0.53907994355174016</v>
       </c>
       <c r="F3" s="19">
@@ -7405,17 +7408,17 @@
       <c r="A4" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="28">
         <f>C4*D4*E4</f>
         <v>0.14422965620196493</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="26">
         <v>0.47328450723023274</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="26">
         <v>0.53670031946319896</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="26">
         <v>0.56780658683201501</v>
       </c>
       <c r="F4" s="19">
@@ -7447,17 +7450,17 @@
       <c r="A5" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="37">
-        <f t="shared" ref="B4:B15" si="0">C5*D5*E5</f>
+      <c r="B5" s="28">
+        <f t="shared" ref="B5:B15" si="0">C5*D5*E5</f>
         <v>0.25040505548748471</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="25">
         <v>0.67101084172366277</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="24">
         <v>0.80794678236758621</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="26">
         <v>0.46188174692639866</v>
       </c>
       <c r="F5" s="19">
@@ -7489,17 +7492,17 @@
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="28">
         <f t="shared" si="0"/>
         <v>0.1265674549171199</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="27">
         <v>0.26087172144624921</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="25">
         <v>0.67149171536178121</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="25">
         <v>0.72252750487532846</v>
       </c>
       <c r="F6" s="19">
@@ -7531,17 +7534,17 @@
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="28">
         <f t="shared" si="0"/>
         <v>0.21646989887880277</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="26">
         <v>0.54376349741833341</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="25">
         <v>0.68412321501261741</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="26">
         <v>0.58190640305108787</v>
       </c>
       <c r="F7" s="19">
@@ -7573,17 +7576,17 @@
       <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="28">
         <f t="shared" si="0"/>
         <v>0.3148397225567906</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="25">
         <v>0.71322484818020371</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="25">
         <v>0.74195292903476306</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="26">
         <v>0.59495853915786012</v>
       </c>
       <c r="F8" s="19">
@@ -7615,17 +7618,17 @@
       <c r="A9" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="28">
         <f t="shared" si="0"/>
         <v>0.21833794264183845</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="26">
         <v>0.5735054409240995</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="25">
         <v>0.73982669643921306</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="26">
         <v>0.51459039131267337</v>
       </c>
       <c r="F9" s="19">
@@ -7657,17 +7660,17 @@
       <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="28">
         <f t="shared" si="0"/>
         <v>6.9139348087029068E-2</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="27">
         <v>0.36737722463311523</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="25">
         <v>0.65799773669839079</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="27">
         <v>0.28601489551248732</v>
       </c>
       <c r="F10" s="19">
@@ -7699,17 +7702,17 @@
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="40">
+      <c r="B11" s="29">
         <f t="shared" si="0"/>
         <v>0.36880416058184801</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="25">
         <v>0.67998147015277699</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="25">
         <v>0.61631435335990248</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="24">
         <v>0.880027921283422</v>
       </c>
       <c r="F11" s="19">
@@ -7741,17 +7744,17 @@
       <c r="A12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="38">
+      <c r="B12" s="28">
         <f t="shared" si="0"/>
         <v>0.11945045327821523</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="26">
         <v>0.48580883286633397</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="25">
         <v>0.67830608669610637</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="27">
         <v>0.36249054332076797</v>
       </c>
       <c r="F12" s="19">
@@ -7783,17 +7786,17 @@
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="37">
+      <c r="B13" s="28">
         <f t="shared" si="0"/>
         <v>0.28426513939063924</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="26">
         <v>0.57657461336806315</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="26">
         <v>0.5034990732663478</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="24">
         <v>0.9791955060599643</v>
       </c>
       <c r="F13" s="19">
@@ -7825,17 +7828,17 @@
       <c r="A14" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="38">
+      <c r="B14" s="28">
         <f t="shared" si="0"/>
         <v>0.14726474171000126</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="26">
         <v>0.53719689870567411</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="25">
         <v>0.75102155862918296</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="27">
         <v>0.36501682174367867</v>
       </c>
       <c r="F14" s="19">
@@ -7867,17 +7870,17 @@
       <c r="A15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="37">
+      <c r="B15" s="28">
         <f t="shared" si="0"/>
         <v>0.27208293442337461</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="25">
         <v>0.65816179901171123</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="25">
         <v>0.75610005979057282</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="26">
         <v>0.54675071422154953</v>
       </c>
       <c r="F15" s="19">

--- a/6_DrawFigure/Fig3_OutputTable/ImplicationResearch.xlsx
+++ b/6_DrawFigure/Fig3_OutputTable/ImplicationResearch.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMIP6\Program\6_DrawFigure\Fig3_OutputTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3872FCB-608E-4CBA-8CD7-0369F17EF753}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EB7168-D83C-44BF-9346-379DB8696080}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="425" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1275" yWindow="-120" windowWidth="50445" windowHeight="21840" tabRatio="377" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quantity" sheetId="1" r:id="rId1"/>
     <sheet name="Percentage" sheetId="2" r:id="rId2"/>
     <sheet name="Fig3" sheetId="3" r:id="rId3"/>
+    <sheet name="Fig3_Supplement" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Fig3_Supplement!$A$3:$A$46</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="88">
   <si>
     <t>Mekong</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -289,14 +293,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Nematode Abundance (Million/m²)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Microbial Abundance (gC/m²)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Percentage of Global (%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -316,6 +312,149 @@
     <t>Mean Vulnerability Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MIC</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (gC/m²)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nem</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Million/m²)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MIC</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (gC/m²)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nem</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Million/m²)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssp585 Mean Risk Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssp585 Mean Hazard Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssp585 Mean Exposure Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssp585 Mean Vulnerability Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -325,7 +464,7 @@
     <numFmt numFmtId="176" formatCode="0.0000"/>
     <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,6 +523,26 @@
       <sz val="11"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -492,7 +651,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -543,9 +702,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -576,6 +732,32 @@
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -611,6 +793,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -905,84 +1090,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N3" sqref="N3:S7"/>
+      <selection pane="bottomLeft" activeCell="AA35" sqref="AA35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34" style="1" customWidth="1"/>
-    <col min="6" max="10" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.375" style="1" customWidth="1"/>
+    <col min="6" max="9" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.125" style="1" customWidth="1"/>
-    <col min="12" max="13" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="12.875" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="7.625" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="C1" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="34" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34" t="s">
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="35" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
       <c r="AA1" s="12"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
       <c r="D2" s="13" t="s">
         <v>56</v>
       </c>
@@ -1054,13 +1240,13 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="42" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="41">
         <v>0.13884768139346668</v>
       </c>
       <c r="D3" s="9">
@@ -1134,11 +1320,11 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="33"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="9">
         <v>72.770161290322577</v>
       </c>
@@ -1210,11 +1396,11 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="33"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="32"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="9">
         <v>37.611827956989245</v>
       </c>
@@ -1286,11 +1472,11 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="33"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="32"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="9">
         <v>93.049923195084489</v>
       </c>
@@ -1362,11 +1548,11 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" s="33"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="32"/>
+      <c r="C7" s="41"/>
       <c r="D7" s="9">
         <v>76.730527143981107</v>
       </c>
@@ -1438,13 +1624,13 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="42" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="41">
         <v>0.12387934226916501</v>
       </c>
       <c r="D8" s="9">
@@ -1518,11 +1704,11 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" s="33"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="32"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="9">
         <v>37.27235772357723</v>
       </c>
@@ -1594,11 +1780,11 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" s="33"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="32"/>
+      <c r="C10" s="41"/>
       <c r="D10" s="9"/>
       <c r="E10" s="4">
         <v>-776534.93153937627</v>
@@ -1660,13 +1846,13 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="42" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="41">
         <v>0.215550126027579</v>
       </c>
       <c r="D11" s="9">
@@ -1740,11 +1926,11 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" s="33"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="32"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="9">
         <v>-12.357575757575773</v>
       </c>
@@ -1816,11 +2002,11 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" s="33"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="32"/>
+      <c r="C13" s="41"/>
       <c r="D13" s="9">
         <v>19.842424242424229</v>
       </c>
@@ -1892,11 +2078,11 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" s="33"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="32"/>
+      <c r="C14" s="41"/>
       <c r="D14" s="9"/>
       <c r="E14" s="4">
         <v>1777191.3042438547</v>
@@ -1958,11 +2144,11 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15" s="33"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="32"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="9">
         <v>12.011174242424232</v>
       </c>
@@ -2034,11 +2220,11 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" s="33"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="32"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="9">
         <v>52.297496706192348</v>
       </c>
@@ -2110,13 +2296,13 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="42" t="s">
         <v>63</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="41">
         <v>0.12259939115778577</v>
       </c>
       <c r="D17" s="9">
@@ -2190,11 +2376,11 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="33"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="32"/>
+      <c r="C18" s="41"/>
       <c r="D18" s="9">
         <v>66.9375</v>
       </c>
@@ -2266,11 +2452,11 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="33"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="32"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="9">
         <v>24.9375</v>
       </c>
@@ -2342,13 +2528,13 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="42" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="41">
         <v>0.18275687352102682</v>
       </c>
       <c r="D20" s="9">
@@ -2422,11 +2608,11 @@
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="33"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="32"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="9">
         <v>91.378737541528238</v>
       </c>
@@ -2498,11 +2684,11 @@
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="33"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="32"/>
+      <c r="C22" s="41"/>
       <c r="D22" s="9">
         <v>73.462184873949582</v>
       </c>
@@ -2574,13 +2760,13 @@
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="42" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23" s="41">
         <v>0.28794591788333912</v>
       </c>
       <c r="D23" s="9">
@@ -2654,11 +2840,11 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" s="33"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="32"/>
+      <c r="C24" s="41"/>
       <c r="D24" s="9">
         <v>-15.808333333333337</v>
       </c>
@@ -2730,11 +2916,11 @@
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25" s="33"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="32"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="9">
         <v>-11.25</v>
       </c>
@@ -2806,13 +2992,13 @@
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="42" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="32">
+      <c r="C26" s="41">
         <v>0.2092336178225486</v>
       </c>
       <c r="D26" s="9">
@@ -2886,11 +3072,11 @@
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" s="33"/>
+      <c r="A27" s="42"/>
       <c r="B27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="32"/>
+      <c r="C27" s="41"/>
       <c r="D27" s="9">
         <v>31.56481481481481</v>
       </c>
@@ -2962,11 +3148,11 @@
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A28" s="33"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="32"/>
+      <c r="C28" s="41"/>
       <c r="D28" s="9">
         <v>30.226190476190453</v>
       </c>
@@ -3038,11 +3224,11 @@
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A29" s="33"/>
+      <c r="A29" s="42"/>
       <c r="B29" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="32"/>
+      <c r="C29" s="41"/>
       <c r="D29" s="9">
         <v>46.291666666666657</v>
       </c>
@@ -3114,11 +3300,11 @@
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A30" s="33"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="32"/>
+      <c r="C30" s="41"/>
       <c r="D30" s="9">
         <v>79.825117370892016</v>
       </c>
@@ -3190,11 +3376,11 @@
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A31" s="33"/>
+      <c r="A31" s="42"/>
       <c r="B31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="32"/>
+      <c r="C31" s="41"/>
       <c r="D31" s="9">
         <v>30.541666666666657</v>
       </c>
@@ -3266,13 +3452,13 @@
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="42" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="32">
+      <c r="C32" s="41">
         <v>6.165510180143649E-2</v>
       </c>
       <c r="D32" s="9">
@@ -3346,11 +3532,11 @@
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A33" s="33"/>
+      <c r="A33" s="42"/>
       <c r="B33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="32"/>
+      <c r="C33" s="41"/>
       <c r="D33" s="9">
         <v>25.732026143790854</v>
       </c>
@@ -3422,11 +3608,11 @@
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A34" s="33"/>
+      <c r="A34" s="42"/>
       <c r="B34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="32"/>
+      <c r="C34" s="41"/>
       <c r="D34" s="9">
         <v>56.352657004830917</v>
       </c>
@@ -3498,13 +3684,13 @@
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="42" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="32">
+      <c r="C35" s="41">
         <v>0.35777344242101972</v>
       </c>
       <c r="D35" s="9">
@@ -3578,11 +3764,11 @@
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A36" s="33"/>
+      <c r="A36" s="42"/>
       <c r="B36" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="32"/>
+      <c r="C36" s="41"/>
       <c r="D36" s="9">
         <v>44.75</v>
       </c>
@@ -3654,11 +3840,11 @@
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A37" s="33"/>
+      <c r="A37" s="42"/>
       <c r="B37" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="32"/>
+      <c r="C37" s="41"/>
       <c r="D37" s="9">
         <v>57.724999999999994</v>
       </c>
@@ -3730,13 +3916,13 @@
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="42" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="32">
+      <c r="C38" s="41">
         <v>0.12966787860924414</v>
       </c>
       <c r="D38" s="9">
@@ -3810,11 +3996,11 @@
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A39" s="33"/>
+      <c r="A39" s="42"/>
       <c r="B39" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="32"/>
+      <c r="C39" s="41"/>
       <c r="D39" s="9">
         <v>22.934065934065941</v>
       </c>
@@ -3886,11 +4072,11 @@
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A40" s="33"/>
+      <c r="A40" s="42"/>
       <c r="B40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="32"/>
+      <c r="C40" s="41"/>
       <c r="D40" s="9">
         <v>43.82692307692308</v>
       </c>
@@ -3962,11 +4148,11 @@
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A41" s="33"/>
+      <c r="A41" s="42"/>
       <c r="B41" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="32"/>
+      <c r="C41" s="41"/>
       <c r="D41" s="9">
         <v>54.031468531468533</v>
       </c>
@@ -4044,7 +4230,7 @@
       <c r="B42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="23">
+      <c r="C42" s="22">
         <v>0.27721108419227292</v>
       </c>
       <c r="D42" s="9">
@@ -4124,7 +4310,7 @@
       <c r="B43" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="23">
+      <c r="C43" s="22">
         <v>0.13269812032366152</v>
       </c>
       <c r="D43" s="9">
@@ -4204,7 +4390,7 @@
       <c r="B44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="23">
+      <c r="C44" s="22">
         <v>0.22354054273317278</v>
       </c>
       <c r="D44" s="9">
@@ -4324,9 +4510,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3655EE2C-431F-40A3-AE36-CDE9CDC9267E}">
   <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T44" sqref="T44:Z44"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4347,54 +4533,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="34" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34" t="s">
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="35" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
       <c r="AA1" s="14"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
       <c r="D2" s="13" t="s">
         <v>56</v>
       </c>
@@ -4466,13 +4652,13 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="42" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="36"/>
+      <c r="C3" s="45"/>
       <c r="D3" s="16"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
@@ -4532,11 +4718,11 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="33"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="37"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="16"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
@@ -4596,11 +4782,11 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="33"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="37"/>
+      <c r="C5" s="46"/>
       <c r="D5" s="16"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
@@ -4660,11 +4846,11 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="33"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
@@ -4724,11 +4910,11 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" s="33"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="38"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="16"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
@@ -4788,13 +4974,13 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="42" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="36"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="16"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -4854,11 +5040,11 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" s="33"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="46"/>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -4918,11 +5104,11 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" s="33"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="38"/>
+      <c r="C10" s="47"/>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -4982,13 +5168,13 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="42" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="36"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
@@ -5048,11 +5234,11 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" s="33"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="37"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -5112,11 +5298,11 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" s="33"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="37"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="16"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -5176,11 +5362,11 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" s="33"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="37"/>
+      <c r="C14" s="46"/>
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
@@ -5240,11 +5426,11 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15" s="33"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="37"/>
+      <c r="C15" s="46"/>
       <c r="D15" s="16"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
@@ -5304,11 +5490,11 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" s="33"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="38"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="16"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
@@ -5368,13 +5554,13 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="42" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="36"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="16"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
@@ -5434,11 +5620,11 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="33"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="37"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="16"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
@@ -5498,11 +5684,11 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="33"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="38"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="16"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
@@ -5562,13 +5748,13 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="42" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="36"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="16"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
@@ -5628,11 +5814,11 @@
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="33"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="37"/>
+      <c r="C21" s="46"/>
       <c r="D21" s="16"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
@@ -5692,11 +5878,11 @@
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="33"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="38"/>
+      <c r="C22" s="47"/>
       <c r="D22" s="16"/>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
@@ -5756,13 +5942,13 @@
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="42" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="36"/>
+      <c r="C23" s="45"/>
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
@@ -5822,11 +6008,11 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" s="33"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="37"/>
+      <c r="C24" s="46"/>
       <c r="D24" s="16"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
@@ -5886,11 +6072,11 @@
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25" s="33"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="38"/>
+      <c r="C25" s="47"/>
       <c r="D25" s="16"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
@@ -5950,13 +6136,13 @@
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="42" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="36"/>
+      <c r="C26" s="45"/>
       <c r="D26" s="16"/>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
@@ -6016,11 +6202,11 @@
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" s="33"/>
+      <c r="A27" s="42"/>
       <c r="B27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="37"/>
+      <c r="C27" s="46"/>
       <c r="D27" s="16"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
@@ -6080,11 +6266,11 @@
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A28" s="33"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="37"/>
+      <c r="C28" s="46"/>
       <c r="D28" s="16"/>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
@@ -6144,11 +6330,11 @@
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A29" s="33"/>
+      <c r="A29" s="42"/>
       <c r="B29" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="37"/>
+      <c r="C29" s="46"/>
       <c r="D29" s="16"/>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
@@ -6208,11 +6394,11 @@
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A30" s="33"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="37"/>
+      <c r="C30" s="46"/>
       <c r="D30" s="16"/>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
@@ -6272,11 +6458,11 @@
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A31" s="33"/>
+      <c r="A31" s="42"/>
       <c r="B31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="38"/>
+      <c r="C31" s="47"/>
       <c r="D31" s="16"/>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
@@ -6336,13 +6522,13 @@
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="42" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="36"/>
+      <c r="C32" s="45"/>
       <c r="D32" s="16"/>
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
@@ -6402,11 +6588,11 @@
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A33" s="33"/>
+      <c r="A33" s="42"/>
       <c r="B33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="37"/>
+      <c r="C33" s="46"/>
       <c r="D33" s="16"/>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
@@ -6466,11 +6652,11 @@
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A34" s="33"/>
+      <c r="A34" s="42"/>
       <c r="B34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="38"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="16"/>
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
@@ -6530,13 +6716,13 @@
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="42" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="36"/>
+      <c r="C35" s="45"/>
       <c r="D35" s="16"/>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
@@ -6596,11 +6782,11 @@
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A36" s="33"/>
+      <c r="A36" s="42"/>
       <c r="B36" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="37"/>
+      <c r="C36" s="46"/>
       <c r="D36" s="16"/>
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
@@ -6660,11 +6846,11 @@
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A37" s="33"/>
+      <c r="A37" s="42"/>
       <c r="B37" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="38"/>
+      <c r="C37" s="47"/>
       <c r="D37" s="16"/>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
@@ -6724,13 +6910,13 @@
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="42" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="36"/>
+      <c r="C38" s="45"/>
       <c r="D38" s="16"/>
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
@@ -6790,11 +6976,11 @@
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A39" s="33"/>
+      <c r="A39" s="42"/>
       <c r="B39" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="37"/>
+      <c r="C39" s="46"/>
       <c r="D39" s="16"/>
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
@@ -6854,11 +7040,11 @@
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A40" s="33"/>
+      <c r="A40" s="42"/>
       <c r="B40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="37"/>
+      <c r="C40" s="46"/>
       <c r="D40" s="16"/>
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
@@ -6918,11 +7104,11 @@
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A41" s="33"/>
+      <c r="A41" s="42"/>
       <c r="B41" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="38"/>
+      <c r="C41" s="47"/>
       <c r="D41" s="16"/>
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
@@ -7293,8 +7479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB148ED4-95ED-4296-BCCD-A7D6B08365CF}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K2"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7304,8 +7490,8 @@
     <col min="3" max="3" width="9.75" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="7.875" customWidth="1"/>
+    <col min="7" max="7" width="11.125" customWidth="1"/>
     <col min="8" max="8" width="10.75" customWidth="1"/>
     <col min="9" max="9" width="10.125" customWidth="1"/>
     <col min="10" max="10" width="13.75" customWidth="1"/>
@@ -7313,93 +7499,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="E1" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="F1" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="G2" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1" s="39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="27">
         <f>C3*D3*E3</f>
         <v>0.13745241243960449</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="25">
         <v>0.39901621958593714</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="24">
         <v>0.63901145392070502</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="25">
         <v>0.53907994355174016</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="18">
         <f>AVERAGE(Quantity!D3:D7)</f>
         <v>68.361520175340004</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="18">
         <f>AVERAGE(Quantity!E3:E7)/1000000</f>
         <v>3.1483608780402101</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="18">
         <f>AVERAGE(Quantity!I3:I7)</f>
         <v>1.4966554732936761</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="18">
         <f>SUM(Quantity!M3:M7)/1000000</f>
         <v>24.485707999999999</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="18">
         <f>SUM(Quantity!N3:S7)/1000000</f>
         <v>67.401862613212586</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="18">
         <f>SUM(Quantity!T3:Z7)/1000000</f>
         <v>5.1774917609626128</v>
       </c>
@@ -7408,40 +7594,40 @@
       <c r="A4" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="27">
         <f>C4*D4*E4</f>
         <v>0.14422965620196493</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="25">
         <v>0.47328450723023274</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="25">
         <v>0.53670031946319896</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="25">
         <v>0.56780658683201501</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="18">
         <f>AVERAGE(Quantity!D8:D10)</f>
         <v>30.588559814169564</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="18">
         <f>AVERAGE(Quantity!E8:E10)/1000000</f>
         <v>0.78012151644848371</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="18">
         <f>AVERAGE(Quantity!I8:I10)</f>
         <v>11.38558200040894</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="18">
         <f>SUM(Quantity!M8:M10)/1000000</f>
         <v>3.6187670000000001</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="18">
         <f>SUM(Quantity!N8:S10)/1000000</f>
         <v>26.447857293746949</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="18">
         <f>SUM(Quantity!T8:Z10)/1000000</f>
         <v>0.97498382758825275</v>
       </c>
@@ -7450,40 +7636,40 @@
       <c r="A5" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="27">
         <f t="shared" ref="B5:B15" si="0">C5*D5*E5</f>
         <v>0.25040505548748471</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="24">
         <v>0.67101084172366277</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="23">
         <v>0.80794678236758621</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="25">
         <v>0.46188174692639866</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="18">
         <f>AVERAGE(Quantity!D11:D16)</f>
         <v>8.417188735177854</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="18">
         <f>AVERAGE(Quantity!E11:E16)/1000000</f>
         <v>1.7728845916758607</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="18">
         <f>AVERAGE(Quantity!I11:I16)</f>
         <v>38.81699483672039</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="18">
         <f>SUM(Quantity!M11:M16)/1000000</f>
         <v>622.44904299999996</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="18">
         <f>SUM(Quantity!N11:S16)/1000000</f>
         <v>731.35608099088006</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="18">
         <f>SUM(Quantity!T11:Z16)/1000000</f>
         <v>277.11478663714439</v>
       </c>
@@ -7492,40 +7678,40 @@
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="27">
         <f t="shared" si="0"/>
         <v>0.1265674549171199</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="26">
         <v>0.26087172144624921</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="24">
         <v>0.67149171536178121</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="24">
         <v>0.72252750487532846</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="18">
         <f>AVERAGE(Quantity!D17:D19)</f>
         <v>46.418374316939889</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="18">
         <f>AVERAGE(Quantity!E17:E19)/1000000</f>
         <v>2.1060981789858153</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="18">
         <f>AVERAGE(Quantity!I17:I19)</f>
         <v>17.303195462249022</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="18">
         <f>SUM(Quantity!M17:M19)/1000000</f>
         <v>13.409053999999999</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="18">
         <f>SUM(Quantity!N17:S19)/1000000</f>
         <v>10.160793129564285</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="18">
         <f>SUM(Quantity!T17:Z19)/1000000</f>
         <v>0.30218688858509063</v>
       </c>
@@ -7534,40 +7720,40 @@
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="27">
         <f t="shared" si="0"/>
         <v>0.21646989887880277</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="25">
         <v>0.54376349741833341</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="24">
         <v>0.68412321501261741</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="25">
         <v>0.58190640305108787</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="18">
         <f>AVERAGE(Quantity!D20:D22)</f>
         <v>67.19372738524585</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="18">
         <f>AVERAGE(Quantity!E20:E22)/1000000</f>
         <v>3.3504245188673338</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="18">
         <f>AVERAGE(Quantity!I20:I22)</f>
         <v>31.774085484502958</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="18">
         <f>SUM(Quantity!M20:M22)/1000000</f>
         <v>208.34114</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="18">
         <f>SUM(Quantity!N20:S22)/1000000</f>
         <v>450.33307696874999</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="18">
         <f>SUM(Quantity!T20:Z22)/1000000</f>
         <v>95.660881830251341</v>
       </c>
@@ -7576,40 +7762,40 @@
       <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="27">
         <f t="shared" si="0"/>
         <v>0.3148397225567906</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="24">
         <v>0.71322484818020371</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="24">
         <v>0.74195292903476306</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="25">
         <v>0.59495853915786012</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="18">
         <f>AVERAGE(Quantity!D23:D25)</f>
         <v>-16.936111111111114</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="18">
         <f>AVERAGE(Quantity!E23:E25)/1000000</f>
         <v>2.460208894351116</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="18">
         <f>AVERAGE(Quantity!I23:I25)</f>
         <v>35.604223331427754</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="18">
         <f>SUM(Quantity!M23:M25)/1000000</f>
         <v>13.035786999999999</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="18">
         <f>SUM(Quantity!N23:S25)/1000000</f>
         <v>81.374459518554687</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="18">
         <f>SUM(Quantity!T23:Z25)/1000000</f>
         <v>11.732554874038696</v>
       </c>
@@ -7618,40 +7804,40 @@
       <c r="A9" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="27">
         <f t="shared" si="0"/>
         <v>0.21833794264183845</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="25">
         <v>0.5735054409240995</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="24">
         <v>0.73982669643921306</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="25">
         <v>0.51459039131267337</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <f>AVERAGE(Quantity!D26:D31)</f>
         <v>45.110403159698933</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="18">
         <f>AVERAGE(Quantity!E26:E31)/1000000</f>
         <v>0.94548824406585996</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="18">
         <f>AVERAGE(Quantity!I26:I31)</f>
         <v>21.563216833908456</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="18">
         <f>SUM(Quantity!M26:M31)/1000000</f>
         <v>37.668992000000003</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="18">
         <f>SUM(Quantity!N26:S31)/1000000</f>
         <v>222.93536386036254</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="18">
         <f>SUM(Quantity!T26:Z31)/1000000</f>
         <v>60.491095733782473</v>
       </c>
@@ -7660,40 +7846,40 @@
       <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="27">
         <f t="shared" si="0"/>
         <v>6.9139348087029068E-2</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="26">
         <v>0.36737722463311523</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="24">
         <v>0.65799773669839079</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="26">
         <v>0.28601489551248732</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="18">
         <f>AVERAGE(Quantity!D32:D34)</f>
         <v>36.470988658968203</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="18">
         <f>AVERAGE(Quantity!E32:E34)/1000000</f>
         <v>1.9884808661390327</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="18">
         <f>AVERAGE(Quantity!I32:I34)</f>
         <v>9.9872419529860501</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="18">
         <f>SUM(Quantity!M32:M34)/1000000</f>
         <v>8.3420699999999997</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="18">
         <f>SUM(Quantity!N32:S34)/1000000</f>
         <v>19.671812438533784</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="18">
         <f>SUM(Quantity!T32:Z34)/1000000</f>
         <v>2.3905259441854954</v>
       </c>
@@ -7702,40 +7888,40 @@
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="28">
         <f t="shared" si="0"/>
         <v>0.36880416058184801</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="24">
         <v>0.67998147015277699</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="24">
         <v>0.61631435335990248</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="23">
         <v>0.880027921283422</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="18">
         <f>AVERAGE(Quantity!D35:D37)</f>
         <v>39.86296296296296</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="18">
         <f>AVERAGE(Quantity!E35:E37)/1000000</f>
         <v>0.90348186592876301</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="18">
         <f>AVERAGE(Quantity!I35:I37)</f>
         <v>35.833160501521782</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="18">
         <f>SUM(Quantity!M35:M37)/1000000</f>
         <v>2.2988279999999999</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="18">
         <f>SUM(Quantity!N35:S37)/1000000</f>
         <v>21.723634731101988</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="18">
         <f>SUM(Quantity!T35:Z37)/1000000</f>
         <v>6.0117913839106558</v>
       </c>
@@ -7744,40 +7930,40 @@
       <c r="A12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="27">
         <f t="shared" si="0"/>
         <v>0.11945045327821523</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="25">
         <v>0.48580883286633397</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="24">
         <v>0.67830608669610637</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="26">
         <v>0.36249054332076797</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="18">
         <f>AVERAGE(Quantity!D38:D41)</f>
         <v>46.368138805638807</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="18">
         <f>AVERAGE(Quantity!E38:E41)/1000000</f>
         <v>1.8962828253581554</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="18">
         <f>AVERAGE(Quantity!I38:I41)</f>
         <v>13.381515406028871</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="18">
         <f>SUM(Quantity!M38:M41)/1000000</f>
         <v>14.12734</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="18">
         <f>SUM(Quantity!N38:S41)/1000000</f>
         <v>24.26183066845703</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="18">
         <f>SUM(Quantity!T38:Z41)/1000000</f>
         <v>3.6117311788983346</v>
       </c>
@@ -7786,40 +7972,40 @@
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="27">
         <f t="shared" si="0"/>
         <v>0.28426513939063924</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="25">
         <v>0.57657461336806315</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="25">
         <v>0.5034990732663478</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="23">
         <v>0.9791955060599643</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="18">
         <f>AVERAGE(Quantity!D42)</f>
         <v>100.6728255404726</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="18">
         <f>AVERAGE(Quantity!E42)/1000000</f>
         <v>2.8975493668203987</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="18">
         <f>AVERAGE(Quantity!I42)</f>
         <v>35.196995267607178</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="18">
         <f>SUM(Quantity!M42)/1000000</f>
         <v>2.4352369999999999</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="18">
         <f>SUM(Quantity!N42:S42)/1000000</f>
         <v>51.178107500000003</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="18">
         <f>SUM(Quantity!T42:Z42)/1000000</f>
         <v>3.9961441767578125</v>
       </c>
@@ -7828,40 +8014,40 @@
       <c r="A14" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="27">
         <f t="shared" si="0"/>
         <v>0.14726474171000126</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="25">
         <v>0.53719689870567411</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="24">
         <v>0.75102155862918296</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="26">
         <v>0.36501682174367867</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="18">
         <f>AVERAGE(Quantity!D43)</f>
         <v>47.871716101694915</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="18">
         <f>AVERAGE(Quantity!E43)/1000000</f>
         <v>0.84034332714833138</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="18">
         <f>AVERAGE(Quantity!I43)</f>
         <v>15.296503508649085</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="18">
         <f>SUM(Quantity!M43)/1000000</f>
         <v>166.77341200000001</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="18">
         <f>SUM(Quantity!N43:S43)/1000000</f>
         <v>2534.3919277499999</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="18">
         <f>SUM(Quantity!T43:Z43)/1000000</f>
         <v>135.32717822656249</v>
       </c>
@@ -7870,77 +8056,77 @@
       <c r="A15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="27">
         <f t="shared" si="0"/>
         <v>0.27208293442337461</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="24">
         <v>0.65816179901171123</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="24">
         <v>0.75610005979057282</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="25">
         <v>0.54675071422154953</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="18">
         <f>AVERAGE(Quantity!D44)</f>
         <v>64.882465205045861</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="18">
         <f>AVERAGE(Quantity!E44)/1000000</f>
         <v>0.41859446736620415</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="18">
         <f>AVERAGE(Quantity!I44)</f>
         <v>54.081678139986387</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="18">
         <f>SUM(Quantity!M44)/1000000</f>
         <v>82.392835000000005</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="18">
         <f>SUM(Quantity!N44:S44)/1000000</f>
         <v>986.88637200000005</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K15" s="18">
         <f>SUM(Quantity!T44:Z44)/1000000</f>
         <v>45.736459811523439</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="22">
+        <v>74</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="21">
         <f>Percentage!M45</f>
         <v>16.228523096113896</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J17" s="21">
         <f>AVERAGE(Percentage!N45:S45)</f>
         <v>21.25552282560222</v>
       </c>
-      <c r="K17" s="22">
+      <c r="K17" s="21">
         <f>AVERAGE(Percentage!T45:Z45)</f>
         <v>20.519883571258639</v>
       </c>
@@ -7962,4 +8148,2335 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8C50B2-6548-440C-80AC-E7E6613A7E8A}">
+  <dimension ref="A1:AB46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="31" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="31" customWidth="1"/>
+    <col min="4" max="5" width="11.625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="8.125" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="7.375" customWidth="1"/>
+    <col min="10" max="10" width="7.125" customWidth="1"/>
+    <col min="11" max="11" width="7.25" customWidth="1"/>
+    <col min="12" max="12" width="7.625" customWidth="1"/>
+    <col min="13" max="15" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5" customWidth="1"/>
+    <col min="17" max="17" width="9.5" customWidth="1"/>
+    <col min="18" max="18" width="6.25" customWidth="1"/>
+    <col min="19" max="19" width="6.375" customWidth="1"/>
+    <col min="20" max="20" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.625" customWidth="1"/>
+    <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" s="34" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+    </row>
+    <row r="2" spans="1:28" s="34" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y2" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z2" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA2" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB2" s="36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="37">
+        <f>C3*D3*E3</f>
+        <v>0.12911190688576837</v>
+      </c>
+      <c r="C3" s="37">
+        <v>0.29098846368882525</v>
+      </c>
+      <c r="D3" s="37">
+        <v>0.72963378441669924</v>
+      </c>
+      <c r="E3" s="37">
+        <v>0.60811482176281706</v>
+      </c>
+      <c r="F3" s="35">
+        <f>AVERAGE(Quantity!D3,Quantity!D17,Quantity!D20,Quantity!D32)</f>
+        <v>43.273456702421207</v>
+      </c>
+      <c r="G3" s="35">
+        <f>AVERAGE(Quantity!E3,Quantity!E17,Quantity!E20,Quantity!E32)/1000000</f>
+        <v>2.4874772399311769</v>
+      </c>
+      <c r="H3" s="35">
+        <f>AVERAGE(Quantity!F3,Quantity!F17,Quantity!F20,Quantity!F32)</f>
+        <v>-12.542357719789241</v>
+      </c>
+      <c r="I3" s="35">
+        <f>AVERAGE(Quantity!G3,Quantity!G17,Quantity!G20,Quantity!G32)</f>
+        <v>-7.001164025261243</v>
+      </c>
+      <c r="J3" s="35">
+        <f>AVERAGE(Quantity!H3,Quantity!H17,Quantity!H20,Quantity!H32)</f>
+        <v>-1.1737921365392414</v>
+      </c>
+      <c r="K3" s="35">
+        <f>AVERAGE(Quantity!I3,Quantity!I17,Quantity!I20,Quantity!I32)</f>
+        <v>-0.17729953394318615</v>
+      </c>
+      <c r="L3" s="35">
+        <f>SUM(Quantity!J3,Quantity!J17,Quantity!J20,Quantity!J32)/1000000</f>
+        <v>48.675669999999997</v>
+      </c>
+      <c r="M3" s="35">
+        <f>SUM(Quantity!K3,Quantity!K17,Quantity!K20,Quantity!K32)/1000000</f>
+        <v>84.000005999999999</v>
+      </c>
+      <c r="N3" s="35">
+        <f>SUM(Quantity!L3,Quantity!L17,Quantity!L20,Quantity!L32)/1000000</f>
+        <v>136.317815</v>
+      </c>
+      <c r="O3" s="35">
+        <f>SUM(Quantity!M3,Quantity!M17,Quantity!M20,Quantity!M32)/1000000</f>
+        <v>42.836990999999998</v>
+      </c>
+      <c r="P3" s="35">
+        <f>SUM(Quantity!N3,Quantity!N17,Quantity!N20,Quantity!N32)/1000000</f>
+        <v>4.1294104374999998</v>
+      </c>
+      <c r="Q3" s="35">
+        <f>SUM(Quantity!O3,Quantity!O17,Quantity!O20,Quantity!O32)/1000000</f>
+        <v>11.192564000000001</v>
+      </c>
+      <c r="R3" s="35">
+        <f>SUM(Quantity!P3,Quantity!P17,Quantity!P20,Quantity!P32)/1000000</f>
+        <v>0.48587778515625002</v>
+      </c>
+      <c r="S3" s="35">
+        <f>SUM(Quantity!Q3,Quantity!Q17,Quantity!Q20,Quantity!Q32)/1000000</f>
+        <v>6.2282566250000002</v>
+      </c>
+      <c r="T3" s="35">
+        <f>SUM(Quantity!R3,Quantity!R17,Quantity!R20,Quantity!R32)/1000000</f>
+        <v>3.4314586639404294E-5</v>
+      </c>
+      <c r="U3" s="35">
+        <f>SUM(Quantity!S3,Quantity!S17,Quantity!S20,Quantity!S32)/1000000</f>
+        <v>9.4848476250000004</v>
+      </c>
+      <c r="V3" s="35">
+        <f>SUM(Quantity!T3,Quantity!T17,Quantity!T20,Quantity!T32)</f>
+        <v>1161.7546664476395</v>
+      </c>
+      <c r="W3" s="35">
+        <f>SUM(Quantity!U3,Quantity!U17,Quantity!U20,Quantity!U32)</f>
+        <v>65328.3623046875</v>
+      </c>
+      <c r="X3" s="35">
+        <f>SUM(Quantity!V3,Quantity!V17,Quantity!V20,Quantity!V32)</f>
+        <v>106800.015625</v>
+      </c>
+      <c r="Y3" s="35">
+        <f>SUM(Quantity!W3,Quantity!W17,Quantity!W20,Quantity!W32)</f>
+        <v>5.6883351802825928</v>
+      </c>
+      <c r="Z3" s="35">
+        <f>SUM(Quantity!X3,Quantity!X17,Quantity!X20,Quantity!X32)</f>
+        <v>10.02640438824892</v>
+      </c>
+      <c r="AA3" s="35">
+        <f>SUM(Quantity!Y3,Quantity!Y17,Quantity!Y20,Quantity!Y32)</f>
+        <v>7440.0351257324219</v>
+      </c>
+      <c r="AB3" s="35">
+        <f>SUM(Quantity!Z3,Quantity!Z17,Quantity!Z20,Quantity!Z32)</f>
+        <v>958386.6328125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="37">
+        <f t="shared" ref="B4:B20" si="0">C4*D4*E4</f>
+        <v>0.13263874531049305</v>
+      </c>
+      <c r="C4" s="37">
+        <v>0.68590931292959822</v>
+      </c>
+      <c r="D4" s="37">
+        <v>0.96712549794801861</v>
+      </c>
+      <c r="E4" s="37">
+        <v>0.19994975302555906</v>
+      </c>
+      <c r="F4" s="35">
+        <f>AVERAGE(Quantity!D11)</f>
+        <v>-29.707575757575768</v>
+      </c>
+      <c r="G4" s="35">
+        <f>AVERAGE(Quantity!E11)/1000000</f>
+        <v>2.6360158311851021</v>
+      </c>
+      <c r="H4" s="35">
+        <f>AVERAGE(Quantity!F11)</f>
+        <v>12.492308715468525</v>
+      </c>
+      <c r="I4" s="35">
+        <f>AVERAGE(Quantity!G11)</f>
+        <v>18.915871837225041</v>
+      </c>
+      <c r="J4" s="35">
+        <f>AVERAGE(Quantity!H11)</f>
+        <v>41.905363668819959</v>
+      </c>
+      <c r="K4" s="35">
+        <f>AVERAGE(Quantity!I11)</f>
+        <v>48.09081322495053</v>
+      </c>
+      <c r="L4" s="35">
+        <f>SUM(Quantity!J11)/1000000</f>
+        <v>103.965146</v>
+      </c>
+      <c r="M4" s="35">
+        <f>SUM(Quantity!K11)/1000000</f>
+        <v>140.276633</v>
+      </c>
+      <c r="N4" s="35">
+        <f>SUM(Quantity!L11)/1000000</f>
+        <v>220.92369099999999</v>
+      </c>
+      <c r="O4" s="35">
+        <f>SUM(Quantity!M11)/1000000</f>
+        <v>96.881696000000005</v>
+      </c>
+      <c r="P4" s="35">
+        <f>SUM(Quantity!N11)/1000000</f>
+        <v>25.605032000000001</v>
+      </c>
+      <c r="Q4" s="35">
+        <f>SUM(Quantity!O11)/1000000</f>
+        <v>199.32856000000001</v>
+      </c>
+      <c r="R4" s="35">
+        <f>SUM(Quantity!P11)/1000000</f>
+        <v>43.606164</v>
+      </c>
+      <c r="S4" s="35">
+        <f>SUM(Quantity!Q11)/1000000</f>
+        <v>50.703636000000003</v>
+      </c>
+      <c r="T4" s="35">
+        <f>SUM(Quantity!R11)/1000000</f>
+        <v>0.136879484375</v>
+      </c>
+      <c r="U4" s="35">
+        <f>SUM(Quantity!S11)/1000000</f>
+        <v>1.6744628749999999</v>
+      </c>
+      <c r="V4" s="35">
+        <f>SUM(Quantity!T11)</f>
+        <v>28836.1796875</v>
+      </c>
+      <c r="W4" s="35">
+        <f>SUM(Quantity!U11)</f>
+        <v>6479.931640625</v>
+      </c>
+      <c r="X4" s="35">
+        <f>SUM(Quantity!V11)</f>
+        <v>30138116</v>
+      </c>
+      <c r="Y4" s="35">
+        <f>SUM(Quantity!W11)</f>
+        <v>3606.650634765625</v>
+      </c>
+      <c r="Z4" s="35">
+        <f>SUM(Quantity!X11)</f>
+        <v>75.018844604492188</v>
+      </c>
+      <c r="AA4" s="35">
+        <f>SUM(Quantity!Y11)</f>
+        <v>6891267.5</v>
+      </c>
+      <c r="AB4" s="35">
+        <f>SUM(Quantity!Z11)</f>
+        <v>1594704.875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="37">
+        <f t="shared" si="0"/>
+        <v>0.21253021901867664</v>
+      </c>
+      <c r="C5" s="37">
+        <v>0.74026561215746034</v>
+      </c>
+      <c r="D5" s="37">
+        <v>0.64960832084787812</v>
+      </c>
+      <c r="E5" s="37">
+        <v>0.44195854508038052</v>
+      </c>
+      <c r="F5" s="35">
+        <f>AVERAGE(Quantity!D12)</f>
+        <v>-12.357575757575773</v>
+      </c>
+      <c r="G5" s="35">
+        <f>AVERAGE(Quantity!E12)/1000000</f>
+        <v>0.89465811536206075</v>
+      </c>
+      <c r="H5" s="35">
+        <f>AVERAGE(Quantity!F12)</f>
+        <v>9.3013082648292826</v>
+      </c>
+      <c r="I5" s="35">
+        <f>AVERAGE(Quantity!G12)</f>
+        <v>10.366957884070477</v>
+      </c>
+      <c r="J5" s="35">
+        <f>AVERAGE(Quantity!H12)</f>
+        <v>23.104725397176452</v>
+      </c>
+      <c r="K5" s="35">
+        <f>AVERAGE(Quantity!I12)</f>
+        <v>29.746272417138233</v>
+      </c>
+      <c r="L5" s="35">
+        <f>SUM(Quantity!J12)/1000000</f>
+        <v>0.67458200000000001</v>
+      </c>
+      <c r="M5" s="35">
+        <f>SUM(Quantity!K12)/1000000</f>
+        <v>1.0203260000000001</v>
+      </c>
+      <c r="N5" s="35">
+        <f>SUM(Quantity!L12)/1000000</f>
+        <v>1.5925849999999999</v>
+      </c>
+      <c r="O5" s="35">
+        <f>SUM(Quantity!M12)/1000000</f>
+        <v>0.72502599999999995</v>
+      </c>
+      <c r="P5" s="35">
+        <f>SUM(Quantity!N12)/1000000</f>
+        <v>0.371008375</v>
+      </c>
+      <c r="Q5" s="35">
+        <f>SUM(Quantity!O12)/1000000</f>
+        <v>0.29623859375</v>
+      </c>
+      <c r="R5" s="35">
+        <f>SUM(Quantity!P12)/1000000</f>
+        <v>0.107684578125</v>
+      </c>
+      <c r="S5" s="35">
+        <f>SUM(Quantity!Q12)/1000000</f>
+        <v>2.6491927734375E-2</v>
+      </c>
+      <c r="T5" s="35">
+        <f>SUM(Quantity!R12)/1000000</f>
+        <v>3.1895535156250002E-2</v>
+      </c>
+      <c r="U5" s="35">
+        <f>SUM(Quantity!S12)/1000000</f>
+        <v>9.1887685546875007E-3</v>
+      </c>
+      <c r="V5" s="35">
+        <f>SUM(Quantity!T12)</f>
+        <v>3.3806134015321732E-2</v>
+      </c>
+      <c r="W5" s="35">
+        <f>SUM(Quantity!U12)</f>
+        <v>59281.203125</v>
+      </c>
+      <c r="X5" s="35">
+        <f>SUM(Quantity!V12)</f>
+        <v>35503.6171875</v>
+      </c>
+      <c r="Y5" s="35">
+        <f>SUM(Quantity!W12)</f>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="35">
+        <f>SUM(Quantity!X12)</f>
+        <v>641.0972900390625</v>
+      </c>
+      <c r="AA5" s="35">
+        <f>SUM(Quantity!Y12)</f>
+        <v>9989.73828125</v>
+      </c>
+      <c r="AB5" s="35">
+        <f>SUM(Quantity!Z12)</f>
+        <v>5111.10546875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="37">
+        <f t="shared" si="0"/>
+        <v>0.30126495554359806</v>
+      </c>
+      <c r="C6" s="38">
+        <v>0.56584245876425399</v>
+      </c>
+      <c r="D6" s="38">
+        <v>0.78746598021636893</v>
+      </c>
+      <c r="E6" s="38">
+        <v>0.67611610780362197</v>
+      </c>
+      <c r="F6" s="35">
+        <f>AVERAGE(Quantity!D26)</f>
+        <v>52.212962962962948</v>
+      </c>
+      <c r="G6" s="35">
+        <f>AVERAGE(Quantity!E26)/1000000</f>
+        <v>1.1468563549540676</v>
+      </c>
+      <c r="H6" s="35">
+        <f>AVERAGE(Quantity!F26)</f>
+        <v>8.4726954352524579</v>
+      </c>
+      <c r="I6" s="35">
+        <f>AVERAGE(Quantity!G26)</f>
+        <v>18.09061128661838</v>
+      </c>
+      <c r="J6" s="35">
+        <f>AVERAGE(Quantity!H26)</f>
+        <v>12.462531793799918</v>
+      </c>
+      <c r="K6" s="35">
+        <f>AVERAGE(Quantity!I26)</f>
+        <v>20.033958667296996</v>
+      </c>
+      <c r="L6" s="35">
+        <f>SUM(Quantity!J26)/1000000</f>
+        <v>8.9851050000000008</v>
+      </c>
+      <c r="M6" s="35">
+        <f>SUM(Quantity!K26)/1000000</f>
+        <v>12.769164</v>
+      </c>
+      <c r="N6" s="35">
+        <f>SUM(Quantity!L26)/1000000</f>
+        <v>20.949190000000002</v>
+      </c>
+      <c r="O6" s="35">
+        <f>SUM(Quantity!M26)/1000000</f>
+        <v>7.4899610000000001</v>
+      </c>
+      <c r="P6" s="35">
+        <f>SUM(Quantity!N26)/1000000</f>
+        <v>3.1964922499999999</v>
+      </c>
+      <c r="Q6" s="35">
+        <f>SUM(Quantity!O26)/1000000</f>
+        <v>14.273091000000001</v>
+      </c>
+      <c r="R6" s="35">
+        <f>SUM(Quantity!P26)/1000000</f>
+        <v>6.4753129999999999</v>
+      </c>
+      <c r="S6" s="35">
+        <f>SUM(Quantity!Q26)/1000000</f>
+        <v>1.93774365234375E-3</v>
+      </c>
+      <c r="T6" s="35">
+        <f>SUM(Quantity!R26)/1000000</f>
+        <v>2.4786147500000002</v>
+      </c>
+      <c r="U6" s="35">
+        <f>SUM(Quantity!S26)/1000000</f>
+        <v>1.27885322265625E-2</v>
+      </c>
+      <c r="V6" s="35">
+        <f>SUM(Quantity!T26)</f>
+        <v>205.73060607910156</v>
+      </c>
+      <c r="W6" s="35">
+        <f>SUM(Quantity!U26)</f>
+        <v>112696.9296875</v>
+      </c>
+      <c r="X6" s="35">
+        <f>SUM(Quantity!V26)</f>
+        <v>2749890.25</v>
+      </c>
+      <c r="Y6" s="35">
+        <f>SUM(Quantity!W26)</f>
+        <v>30590.1484375</v>
+      </c>
+      <c r="Z6" s="35">
+        <f>SUM(Quantity!X26)</f>
+        <v>32545.9140625</v>
+      </c>
+      <c r="AA6" s="35">
+        <f>SUM(Quantity!Y26)</f>
+        <v>90962.375</v>
+      </c>
+      <c r="AB6" s="35">
+        <f>SUM(Quantity!Z26)</f>
+        <v>4.6477016061544418E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="37">
+        <f t="shared" si="0"/>
+        <v>0.2526177389854608</v>
+      </c>
+      <c r="C7" s="37">
+        <v>0.60810024462798917</v>
+      </c>
+      <c r="D7" s="37">
+        <v>0.66077238963684859</v>
+      </c>
+      <c r="E7" s="37">
+        <v>0.62869032634076849</v>
+      </c>
+      <c r="F7" s="35">
+        <f>AVERAGE(Quantity!D8,Quantity!D23,Quantity!D35,Quantity!D42:D44,Quantity!D27,Quantity!D13)</f>
+        <v>35.262862087262896</v>
+      </c>
+      <c r="G7" s="35">
+        <f>AVERAGE(Quantity!E8,Quantity!E23,Quantity!E35,Quantity!E42:E44,Quantity!E27,Quantity!E13)/1000000</f>
+        <v>1.2483599381293269</v>
+      </c>
+      <c r="H7" s="35">
+        <f>AVERAGE(Quantity!F8,Quantity!F23,Quantity!F35,Quantity!F42:F44,Quantity!F27,Quantity!F13)</f>
+        <v>10.955684583551118</v>
+      </c>
+      <c r="I7" s="35">
+        <f>AVERAGE(Quantity!G8,Quantity!G23,Quantity!G35,Quantity!G42:G44,Quantity!G27,Quantity!G13)</f>
+        <v>12.897094248889678</v>
+      </c>
+      <c r="J7" s="35">
+        <f>AVERAGE(Quantity!H8,Quantity!H23,Quantity!H35,Quantity!H42:H44,Quantity!H27,Quantity!H13)</f>
+        <v>20.448405683502539</v>
+      </c>
+      <c r="K7" s="35">
+        <f>AVERAGE(Quantity!I8,Quantity!I23,Quantity!I35,Quantity!I42:I44,Quantity!I27,Quantity!I13)</f>
+        <v>26.404108099414209</v>
+      </c>
+      <c r="L7" s="35">
+        <f>SUM(Quantity!J8,Quantity!J23,Quantity!J35,Quantity!J42:J44,Quantity!J27,Quantity!J13)/1000000</f>
+        <v>255.474324</v>
+      </c>
+      <c r="M7" s="35">
+        <f>SUM(Quantity!K8,Quantity!K23,Quantity!K35,Quantity!K42:K44,Quantity!K27,Quantity!K13)/1000000</f>
+        <v>309.83861300000001</v>
+      </c>
+      <c r="N7" s="35">
+        <f>SUM(Quantity!L8,Quantity!L23,Quantity!L35,Quantity!L42:L44,Quantity!L27,Quantity!L13)/1000000</f>
+        <v>426.23118099999999</v>
+      </c>
+      <c r="O7" s="35">
+        <f>SUM(Quantity!M8,Quantity!M23,Quantity!M35,Quantity!M42:M44,Quantity!M27,Quantity!M13)/1000000</f>
+        <v>255.75039599999999</v>
+      </c>
+      <c r="P7" s="35">
+        <f>SUM(Quantity!N8,Quantity!N23,Quantity!N35,Quantity!N42:N44,Quantity!N27,Quantity!N13)/1000000</f>
+        <v>61.506917968750003</v>
+      </c>
+      <c r="Q7" s="35">
+        <f>SUM(Quantity!O8,Quantity!O23,Quantity!O35,Quantity!O42:O44,Quantity!O27,Quantity!O13)/1000000</f>
+        <v>2506.7818391601563</v>
+      </c>
+      <c r="R7" s="35">
+        <f>SUM(Quantity!P8,Quantity!P23,Quantity!P35,Quantity!P42:P44,Quantity!P27,Quantity!P13)/1000000</f>
+        <v>572.98639846875005</v>
+      </c>
+      <c r="S7" s="35">
+        <f>SUM(Quantity!Q8,Quantity!Q23,Quantity!Q35,Quantity!Q42:Q44,Quantity!Q27,Quantity!Q13)/1000000</f>
+        <v>113.582631640625</v>
+      </c>
+      <c r="T7" s="35">
+        <f>SUM(Quantity!R8,Quantity!R23,Quantity!R35,Quantity!R42:R44,Quantity!R27,Quantity!R13)/1000000</f>
+        <v>284.93864124999999</v>
+      </c>
+      <c r="U7" s="35">
+        <f>SUM(Quantity!S8,Quantity!S23,Quantity!S35,Quantity!S42:S44,Quantity!S27,Quantity!S13)/1000000</f>
+        <v>75.502434868164059</v>
+      </c>
+      <c r="V7" s="35">
+        <f>SUM(Quantity!T8,Quantity!T23,Quantity!T35,Quantity!T42:T44,Quantity!T27,Quantity!T13)</f>
+        <v>6959701.1125278473</v>
+      </c>
+      <c r="W7" s="35">
+        <f>SUM(Quantity!U8,Quantity!U23,Quantity!U35,Quantity!U42:U44,Quantity!U27,Quantity!U13)</f>
+        <v>31959520.3125</v>
+      </c>
+      <c r="X7" s="35">
+        <f>SUM(Quantity!V8,Quantity!V23,Quantity!V35,Quantity!V42:V44,Quantity!V27,Quantity!V13)</f>
+        <v>95006315.10546875</v>
+      </c>
+      <c r="Y7" s="35">
+        <f>SUM(Quantity!W8,Quantity!W23,Quantity!W35,Quantity!W42:W44,Quantity!W27,Quantity!W13)</f>
+        <v>203188.88100624084</v>
+      </c>
+      <c r="Z7" s="35">
+        <f>SUM(Quantity!X8,Quantity!X23,Quantity!X35,Quantity!X42:X44,Quantity!X27,Quantity!X13)</f>
+        <v>4678898.6411132813</v>
+      </c>
+      <c r="AA7" s="35">
+        <f>SUM(Quantity!Y8,Quantity!Y23,Quantity!Y35,Quantity!Y42:Y44,Quantity!Y27,Quantity!Y13)</f>
+        <v>17463762.385742188</v>
+      </c>
+      <c r="AB7" s="35">
+        <f>SUM(Quantity!Z8,Quantity!Z23,Quantity!Z35,Quantity!Z42:Z44,Quantity!Z27,Quantity!Z13)</f>
+        <v>41938310.321533203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="37">
+        <f t="shared" si="0"/>
+        <v>0.1995584072046111</v>
+      </c>
+      <c r="C8" s="37">
+        <v>0.63112579022023552</v>
+      </c>
+      <c r="D8" s="37">
+        <v>0.86502142499125656</v>
+      </c>
+      <c r="E8" s="37">
+        <v>0.36553354403619004</v>
+      </c>
+      <c r="F8" s="35">
+        <f>AVERAGE(Quantity!D16,Quantity!D25,Quantity!D22)</f>
+        <v>38.16989386004731</v>
+      </c>
+      <c r="G8" s="35">
+        <f>AVERAGE(Quantity!E16,Quantity!E25,Quantity!E22)/1000000</f>
+        <v>2.8264834618454673</v>
+      </c>
+      <c r="H8" s="35">
+        <f>AVERAGE(Quantity!F16,Quantity!F25,Quantity!F22)</f>
+        <v>14.891781376631981</v>
+      </c>
+      <c r="I8" s="35">
+        <f>AVERAGE(Quantity!G16,Quantity!G25,Quantity!G22)</f>
+        <v>22.903689486536383</v>
+      </c>
+      <c r="J8" s="35">
+        <f>AVERAGE(Quantity!H16,Quantity!H25,Quantity!H22)</f>
+        <v>37.999254875009683</v>
+      </c>
+      <c r="K8" s="35">
+        <f>AVERAGE(Quantity!I16,Quantity!I25,Quantity!I22)</f>
+        <v>45.768264161146142</v>
+      </c>
+      <c r="L8" s="35">
+        <f>SUM(Quantity!J16,Quantity!J25,Quantity!J22)/1000000</f>
+        <v>521.05718999999999</v>
+      </c>
+      <c r="M8" s="35">
+        <f>SUM(Quantity!K16,Quantity!K25,Quantity!K22)/1000000</f>
+        <v>739.16006700000003</v>
+      </c>
+      <c r="N8" s="35">
+        <f>SUM(Quantity!L16,Quantity!L25,Quantity!L22)/1000000</f>
+        <v>1221.0173970000001</v>
+      </c>
+      <c r="O8" s="35">
+        <f>SUM(Quantity!M16,Quantity!M25,Quantity!M22)/1000000</f>
+        <v>518.69480499999997</v>
+      </c>
+      <c r="P8" s="35">
+        <f>SUM(Quantity!N16,Quantity!N25,Quantity!N22)/1000000</f>
+        <v>109.74806184374999</v>
+      </c>
+      <c r="Q8" s="35">
+        <f>SUM(Quantity!O16,Quantity!O25,Quantity!O22)/1000000</f>
+        <v>166.23434900000001</v>
+      </c>
+      <c r="R8" s="35">
+        <f>SUM(Quantity!P16,Quantity!P25,Quantity!P22)/1000000</f>
+        <v>23.176831515625</v>
+      </c>
+      <c r="S8" s="35">
+        <f>SUM(Quantity!Q16,Quantity!Q25,Quantity!Q22)/1000000</f>
+        <v>77.199711031250004</v>
+      </c>
+      <c r="T8" s="35">
+        <f>SUM(Quantity!R16,Quantity!R25,Quantity!R22)/1000000</f>
+        <v>10.613349109374999</v>
+      </c>
+      <c r="U8" s="35">
+        <f>SUM(Quantity!S16,Quantity!S25,Quantity!S22)/1000000</f>
+        <v>12.721390208007813</v>
+      </c>
+      <c r="V8" s="35">
+        <f>SUM(Quantity!T16,Quantity!T25,Quantity!T22)</f>
+        <v>135755.8193359375</v>
+      </c>
+      <c r="W8" s="35">
+        <f>SUM(Quantity!U16,Quantity!U25,Quantity!U22)</f>
+        <v>4278606.85546875</v>
+      </c>
+      <c r="X8" s="35">
+        <f>SUM(Quantity!V16,Quantity!V25,Quantity!V22)</f>
+        <v>52958223.8125</v>
+      </c>
+      <c r="Y8" s="35">
+        <f>SUM(Quantity!W16,Quantity!W25,Quantity!W22)</f>
+        <v>19512.985702514648</v>
+      </c>
+      <c r="Z8" s="35">
+        <f>SUM(Quantity!X16,Quantity!X25,Quantity!X22)</f>
+        <v>2680808.543182373</v>
+      </c>
+      <c r="AA8" s="35">
+        <f>SUM(Quantity!Y16,Quantity!Y25,Quantity!Y22)</f>
+        <v>143115520.36932373</v>
+      </c>
+      <c r="AB8" s="35">
+        <f>SUM(Quantity!Z16,Quantity!Z25,Quantity!Z22)</f>
+        <v>48791788.113952637</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="37">
+        <f t="shared" si="0"/>
+        <v>6.8498688639290631E-3</v>
+      </c>
+      <c r="C9" s="37">
+        <v>0.43653047317439447</v>
+      </c>
+      <c r="D9" s="37">
+        <v>0.65199752118217646</v>
+      </c>
+      <c r="E9" s="37">
+        <v>2.4066988282187049E-2</v>
+      </c>
+      <c r="F9" s="35">
+        <f>AVERAGE(Quantity!D18,Quantity!D33)</f>
+        <v>46.334763071895424</v>
+      </c>
+      <c r="G9" s="35">
+        <f>AVERAGE(Quantity!E18,Quantity!E33)/1000000</f>
+        <v>2.2524954807145439</v>
+      </c>
+      <c r="H9" s="35">
+        <f>AVERAGE(Quantity!F18,Quantity!F33)</f>
+        <v>8.190907799425009</v>
+      </c>
+      <c r="I9" s="35">
+        <f>AVERAGE(Quantity!G18,Quantity!G33)</f>
+        <v>9.5252911827889015</v>
+      </c>
+      <c r="J9" s="35">
+        <f>AVERAGE(Quantity!H18,Quantity!H33)</f>
+        <v>22.735578658997596</v>
+      </c>
+      <c r="K9" s="35">
+        <f>AVERAGE(Quantity!I18,Quantity!I33)</f>
+        <v>24.151422203735351</v>
+      </c>
+      <c r="L9" s="35">
+        <f>SUM(Quantity!J18,Quantity!J33)/1000000</f>
+        <v>2.7218290000000001</v>
+      </c>
+      <c r="M9" s="35">
+        <f>SUM(Quantity!K18,Quantity!K33)/1000000</f>
+        <v>3.6053929999999998</v>
+      </c>
+      <c r="N9" s="35">
+        <f>SUM(Quantity!L18,Quantity!L33)/1000000</f>
+        <v>5.6507149999999999</v>
+      </c>
+      <c r="O9" s="35">
+        <f>SUM(Quantity!M18,Quantity!M33)/1000000</f>
+        <v>2.6857410000000002</v>
+      </c>
+      <c r="P9" s="35">
+        <f>SUM(Quantity!N18,Quantity!N33)/1000000</f>
+        <v>0.14030835253906249</v>
+      </c>
+      <c r="Q9" s="35">
+        <f>SUM(Quantity!O18,Quantity!O33)/1000000</f>
+        <v>0.27130629077148438</v>
+      </c>
+      <c r="R9" s="35">
+        <f>SUM(Quantity!P18,Quantity!P33)/1000000</f>
+        <v>1.3476083240509032E-3</v>
+      </c>
+      <c r="S9" s="35">
+        <f>SUM(Quantity!Q18,Quantity!Q33)/1000000</f>
+        <v>0.85028753613281249</v>
+      </c>
+      <c r="T9" s="35">
+        <f>SUM(Quantity!R18,Quantity!R33)/1000000</f>
+        <v>4.8344963073730468E-5</v>
+      </c>
+      <c r="U9" s="35">
+        <f>SUM(Quantity!S18,Quantity!S33)/1000000</f>
+        <v>2.1992548291015623</v>
+      </c>
+      <c r="V9" s="35">
+        <f>SUM(Quantity!T18,Quantity!T33)</f>
+        <v>42108.41796875</v>
+      </c>
+      <c r="W9" s="35">
+        <f>SUM(Quantity!U18,Quantity!U33)</f>
+        <v>36340.199523925781</v>
+      </c>
+      <c r="X9" s="35">
+        <f>SUM(Quantity!V18,Quantity!V33)</f>
+        <v>1984.6761169433594</v>
+      </c>
+      <c r="Y9" s="35">
+        <f>SUM(Quantity!W18,Quantity!W33)</f>
+        <v>4.926483154296875</v>
+      </c>
+      <c r="Z9" s="35">
+        <f>SUM(Quantity!X18,Quantity!X33)</f>
+        <v>4006.8027725219727</v>
+      </c>
+      <c r="AA9" s="35">
+        <f>SUM(Quantity!Y18,Quantity!Y33)</f>
+        <v>91095.47705078125</v>
+      </c>
+      <c r="AB9" s="35">
+        <f>SUM(Quantity!Z18,Quantity!Z33)</f>
+        <v>312948.56518554688</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="37">
+        <f t="shared" si="0"/>
+        <v>7.7017116323136722E-2</v>
+      </c>
+      <c r="C10" s="37">
+        <v>0.41645092505624942</v>
+      </c>
+      <c r="D10" s="37">
+        <v>0.52095598130578591</v>
+      </c>
+      <c r="E10" s="37">
+        <v>0.35499512892015656</v>
+      </c>
+      <c r="F10" s="35">
+        <f>AVERAGE(Quantity!D4,Quantity!D9,Quantity!D38)</f>
+        <v>58.240872231332496</v>
+      </c>
+      <c r="G10" s="35">
+        <f>AVERAGE(Quantity!E4,Quantity!E9,Quantity!E38)/1000000</f>
+        <v>2.1295476765327903</v>
+      </c>
+      <c r="H10" s="35">
+        <f>AVERAGE(Quantity!F4,Quantity!F9,Quantity!F38)</f>
+        <v>-4.0758785324157563</v>
+      </c>
+      <c r="I10" s="35">
+        <f>AVERAGE(Quantity!G4,Quantity!G9,Quantity!G38)</f>
+        <v>-3.7285907686600304</v>
+      </c>
+      <c r="J10" s="35">
+        <f>AVERAGE(Quantity!H4,Quantity!H9,Quantity!H38)</f>
+        <v>-8.4363217145898943</v>
+      </c>
+      <c r="K10" s="35">
+        <f>AVERAGE(Quantity!I4,Quantity!I9,Quantity!I38)</f>
+        <v>-6.153679274482208</v>
+      </c>
+      <c r="L10" s="35">
+        <f>SUM(Quantity!J4,Quantity!J9,Quantity!J38)/1000000</f>
+        <v>4.8579059999999998</v>
+      </c>
+      <c r="M10" s="35">
+        <f>SUM(Quantity!K4,Quantity!K9,Quantity!K38)/1000000</f>
+        <v>6.2001790000000003</v>
+      </c>
+      <c r="N10" s="35">
+        <f>SUM(Quantity!L4,Quantity!L9,Quantity!L38)/1000000</f>
+        <v>8.1594770000000008</v>
+      </c>
+      <c r="O10" s="35">
+        <f>SUM(Quantity!M4,Quantity!M9,Quantity!M38)/1000000</f>
+        <v>4.8640809999999997</v>
+      </c>
+      <c r="P10" s="35">
+        <f>SUM(Quantity!N4,Quantity!N9,Quantity!N38)/1000000</f>
+        <v>2.7615944374999999</v>
+      </c>
+      <c r="Q10" s="35">
+        <f>SUM(Quantity!O4,Quantity!O9,Quantity!O38)/1000000</f>
+        <v>14.185154125</v>
+      </c>
+      <c r="R10" s="35">
+        <f>SUM(Quantity!P4,Quantity!P9,Quantity!P38)/1000000</f>
+        <v>0.51663041796874998</v>
+      </c>
+      <c r="S10" s="35">
+        <f>SUM(Quantity!Q4,Quantity!Q9,Quantity!Q38)/1000000</f>
+        <v>1.38750121484375</v>
+      </c>
+      <c r="T10" s="35">
+        <f>SUM(Quantity!R4,Quantity!R9,Quantity!R38)/1000000</f>
+        <v>0.30308488964843749</v>
+      </c>
+      <c r="U10" s="35">
+        <f>SUM(Quantity!S4,Quantity!S9,Quantity!S38)/1000000</f>
+        <v>7.4557721875</v>
+      </c>
+      <c r="V10" s="35">
+        <f>SUM(Quantity!T4,Quantity!T9,Quantity!T38)</f>
+        <v>36798.309753417969</v>
+      </c>
+      <c r="W10" s="35">
+        <f>SUM(Quantity!U4,Quantity!U9,Quantity!U38)</f>
+        <v>197263.7578125</v>
+      </c>
+      <c r="X10" s="35">
+        <f>SUM(Quantity!V4,Quantity!V9,Quantity!V38)</f>
+        <v>207906.595703125</v>
+      </c>
+      <c r="Y10" s="35">
+        <f>SUM(Quantity!W4,Quantity!W9,Quantity!W38)</f>
+        <v>563.40250968933105</v>
+      </c>
+      <c r="Z10" s="35">
+        <f>SUM(Quantity!X4,Quantity!X9,Quantity!X38)</f>
+        <v>965.89594841003418</v>
+      </c>
+      <c r="AA10" s="35">
+        <f>SUM(Quantity!Y4,Quantity!Y9,Quantity!Y38)</f>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="35">
+        <f>SUM(Quantity!Z4,Quantity!Z9,Quantity!Z38)</f>
+        <v>33623.0751953125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="37">
+        <f t="shared" si="0"/>
+        <v>0.29016160172634747</v>
+      </c>
+      <c r="C11" s="37">
+        <v>0.59818216170945715</v>
+      </c>
+      <c r="D11" s="37">
+        <v>0.68291324022872602</v>
+      </c>
+      <c r="E11" s="37">
+        <v>0.7102985845460541</v>
+      </c>
+      <c r="F11" s="35">
+        <f>AVERAGE(Quantity!D39)</f>
+        <v>22.934065934065941</v>
+      </c>
+      <c r="G11" s="35">
+        <f>AVERAGE(Quantity!E39,Quantity!E10)/1000000</f>
+        <v>0.19186384703463968</v>
+      </c>
+      <c r="H11" s="35">
+        <f>AVERAGE(Quantity!F39,Quantity!F10)</f>
+        <v>7.7666339042377928</v>
+      </c>
+      <c r="I11" s="35">
+        <f>AVERAGE(Quantity!G39,Quantity!G10)</f>
+        <v>15.432928775928465</v>
+      </c>
+      <c r="J11" s="35">
+        <f>AVERAGE(Quantity!H39,Quantity!H10)</f>
+        <v>18.651044283817814</v>
+      </c>
+      <c r="K11" s="35">
+        <f>AVERAGE(Quantity!I39,Quantity!I10)</f>
+        <v>21.756589800831481</v>
+      </c>
+      <c r="L11" s="35">
+        <f>SUM(Quantity!J39,Quantity!J10)/1000000</f>
+        <v>1.577523</v>
+      </c>
+      <c r="M11" s="35">
+        <f>SUM(Quantity!K39,Quantity!K10)/1000000</f>
+        <v>2.2389830000000002</v>
+      </c>
+      <c r="N11" s="35">
+        <f>SUM(Quantity!L39,Quantity!L10)/1000000</f>
+        <v>3.9783179999999998</v>
+      </c>
+      <c r="O11" s="35">
+        <f>SUM(Quantity!M39,Quantity!M10)/1000000</f>
+        <v>1.216485</v>
+      </c>
+      <c r="P11" s="35">
+        <f>SUM(Quantity!N39,Quantity!N10)/1000000</f>
+        <v>0.66771326300048828</v>
+      </c>
+      <c r="Q11" s="35">
+        <f>SUM(Quantity!O39,Quantity!O10)/1000000</f>
+        <v>1.4920688413085939</v>
+      </c>
+      <c r="R11" s="35">
+        <f>SUM(Quantity!P39,Quantity!P10)/1000000</f>
+        <v>5.6215041603088378E-2</v>
+      </c>
+      <c r="S11" s="35">
+        <f>SUM(Quantity!Q39,Quantity!Q10)/1000000</f>
+        <v>0.43703294241333007</v>
+      </c>
+      <c r="T11" s="35">
+        <f>SUM(Quantity!R39,Quantity!R10)/1000000</f>
+        <v>5.6580103530883786E-3</v>
+      </c>
+      <c r="U11" s="35">
+        <f>SUM(Quantity!S39,Quantity!S10)/1000000</f>
+        <v>1.3457780310058594</v>
+      </c>
+      <c r="V11" s="35">
+        <f>SUM(Quantity!T39,Quantity!T10)</f>
+        <v>28331.871410369873</v>
+      </c>
+      <c r="W11" s="35">
+        <f>SUM(Quantity!U39,Quantity!U10)</f>
+        <v>79056.119064331055</v>
+      </c>
+      <c r="X11" s="35">
+        <f>SUM(Quantity!V39,Quantity!V10)</f>
+        <v>4442.9533958435059</v>
+      </c>
+      <c r="Y11" s="35">
+        <f>SUM(Quantity!W39,Quantity!W10)</f>
+        <v>2375.4201040267944</v>
+      </c>
+      <c r="Z11" s="35">
+        <f>SUM(Quantity!X39,Quantity!X10)</f>
+        <v>15.331024341285229</v>
+      </c>
+      <c r="AA11" s="35">
+        <f>SUM(Quantity!Y39,Quantity!Y10)</f>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="35">
+        <f>SUM(Quantity!Z39,Quantity!Z10)</f>
+        <v>295048.20349121094</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="37">
+        <f t="shared" si="0"/>
+        <v>7.2319015126030214E-2</v>
+      </c>
+      <c r="C12" s="38">
+        <v>0.57861151699492219</v>
+      </c>
+      <c r="D12" s="38">
+        <v>0.64734873573248486</v>
+      </c>
+      <c r="E12" s="38">
+        <v>0.19307548084016793</v>
+      </c>
+      <c r="F12" s="35">
+        <f>AVERAGE(Quantity!D28)</f>
+        <v>30.226190476190453</v>
+      </c>
+      <c r="G12" s="35">
+        <f>AVERAGE(Quantity!E28)/1000000</f>
+        <v>0.90275142743190473</v>
+      </c>
+      <c r="H12" s="35">
+        <f>AVERAGE(Quantity!F28)</f>
+        <v>13.290613935008903</v>
+      </c>
+      <c r="I12" s="35">
+        <f>AVERAGE(Quantity!G28)</f>
+        <v>12.438625286411868</v>
+      </c>
+      <c r="J12" s="35">
+        <f>AVERAGE(Quantity!H28)</f>
+        <v>10.32536215733772</v>
+      </c>
+      <c r="K12" s="35">
+        <f>AVERAGE(Quantity!I28)</f>
+        <v>20.507058268384721</v>
+      </c>
+      <c r="L12" s="35">
+        <f>SUM(Quantity!J28)/1000000</f>
+        <v>4.9395210000000001</v>
+      </c>
+      <c r="M12" s="35">
+        <f>SUM(Quantity!K28)/1000000</f>
+        <v>7.2110989999999999</v>
+      </c>
+      <c r="N12" s="35">
+        <f>SUM(Quantity!L28)/1000000</f>
+        <v>11.882996</v>
+      </c>
+      <c r="O12" s="35">
+        <f>SUM(Quantity!M28)/1000000</f>
+        <v>4.4478090000000003</v>
+      </c>
+      <c r="P12" s="35">
+        <f>SUM(Quantity!N28)/1000000</f>
+        <v>1.4032861249999999</v>
+      </c>
+      <c r="Q12" s="35">
+        <f>SUM(Quantity!O28)/1000000</f>
+        <v>22.624244000000001</v>
+      </c>
+      <c r="R12" s="35">
+        <f>SUM(Quantity!P28)/1000000</f>
+        <v>3.4240832499999998</v>
+      </c>
+      <c r="S12" s="35">
+        <f>SUM(Quantity!Q28)/1000000</f>
+        <v>0.21879046874999999</v>
+      </c>
+      <c r="T12" s="35">
+        <f>SUM(Quantity!R28)/1000000</f>
+        <v>2.0400002499999998</v>
+      </c>
+      <c r="U12" s="35">
+        <f>SUM(Quantity!S28)/1000000</f>
+        <v>2.1199619140625001E-2</v>
+      </c>
+      <c r="V12" s="35">
+        <f>SUM(Quantity!T28)</f>
+        <v>10453.373046875</v>
+      </c>
+      <c r="W12" s="35">
+        <f>SUM(Quantity!U28)</f>
+        <v>86025.453125</v>
+      </c>
+      <c r="X12" s="35">
+        <f>SUM(Quantity!V28)</f>
+        <v>1788046</v>
+      </c>
+      <c r="Y12" s="35">
+        <f>SUM(Quantity!W28)</f>
+        <v>2402.577392578125</v>
+      </c>
+      <c r="Z12" s="35">
+        <f>SUM(Quantity!X28)</f>
+        <v>2859.990234375</v>
+      </c>
+      <c r="AA12" s="35">
+        <f>SUM(Quantity!Y28)</f>
+        <v>176141.65625</v>
+      </c>
+      <c r="AB12" s="35">
+        <f>SUM(Quantity!Z28)</f>
+        <v>3.5297584533691406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="37">
+        <f t="shared" si="0"/>
+        <v>0.3395057163842799</v>
+      </c>
+      <c r="C13" s="37">
+        <v>0.70122733432300255</v>
+      </c>
+      <c r="D13" s="37">
+        <v>0.73338795979853622</v>
+      </c>
+      <c r="E13" s="37">
+        <v>0.66016801410235315</v>
+      </c>
+      <c r="F13" s="35">
+        <f>AVERAGE(Quantity!D24,Quantity!D29,Quantity!D36)</f>
+        <v>25.077777777777772</v>
+      </c>
+      <c r="G13" s="35">
+        <f>AVERAGE(Quantity!E24,Quantity!E29,Quantity!E36,Quantity!E14)/1000000</f>
+        <v>1.5342833906328095</v>
+      </c>
+      <c r="H13" s="35">
+        <f>AVERAGE(Quantity!F24,Quantity!F29,Quantity!F36,Quantity!F14)</f>
+        <v>11.299245100141365</v>
+      </c>
+      <c r="I13" s="35">
+        <f>AVERAGE(Quantity!G24,Quantity!G29,Quantity!G36,Quantity!G14)</f>
+        <v>15.56779460699363</v>
+      </c>
+      <c r="J13" s="35">
+        <f>AVERAGE(Quantity!H24,Quantity!H29,Quantity!H36,Quantity!H14)</f>
+        <v>23.359084048585931</v>
+      </c>
+      <c r="K13" s="35">
+        <f>AVERAGE(Quantity!I24,Quantity!I29,Quantity!I36,Quantity!I14)</f>
+        <v>37.001664626236646</v>
+      </c>
+      <c r="L13" s="35">
+        <f>SUM(Quantity!J24,Quantity!J29,Quantity!J36,Quantity!J14)/1000000</f>
+        <v>12.715657</v>
+      </c>
+      <c r="M13" s="35">
+        <f>SUM(Quantity!K24,Quantity!K29,Quantity!K36,Quantity!K14)/1000000</f>
+        <v>18.03942</v>
+      </c>
+      <c r="N13" s="35">
+        <f>SUM(Quantity!L24,Quantity!L29,Quantity!L36,Quantity!L14)/1000000</f>
+        <v>29.239618</v>
+      </c>
+      <c r="O13" s="35">
+        <f>SUM(Quantity!M24,Quantity!M29,Quantity!M36,Quantity!M14)/1000000</f>
+        <v>11.689742000000001</v>
+      </c>
+      <c r="P13" s="35">
+        <f>SUM(Quantity!N24,Quantity!N29,Quantity!N36,Quantity!N14)/1000000</f>
+        <v>10.518289251586914</v>
+      </c>
+      <c r="Q13" s="35">
+        <f>SUM(Quantity!O24,Quantity!O29,Quantity!O36,Quantity!O14)/1000000</f>
+        <v>65.950973246093753</v>
+      </c>
+      <c r="R13" s="35">
+        <f>SUM(Quantity!P24,Quantity!P29,Quantity!P36,Quantity!P14)/1000000</f>
+        <v>2.5548480764770507</v>
+      </c>
+      <c r="S13" s="35">
+        <f>SUM(Quantity!Q24,Quantity!Q29,Quantity!Q36,Quantity!Q14)/1000000</f>
+        <v>2.126264031036377</v>
+      </c>
+      <c r="T13" s="35">
+        <f>SUM(Quantity!R24,Quantity!R29,Quantity!R36,Quantity!R14)/1000000</f>
+        <v>5.1067184970703128</v>
+      </c>
+      <c r="U13" s="35">
+        <f>SUM(Quantity!S24,Quantity!S29,Quantity!S36,Quantity!S14)/1000000</f>
+        <v>0.707405715988636</v>
+      </c>
+      <c r="V13" s="35">
+        <f>SUM(Quantity!T24,Quantity!T29,Quantity!T36,Quantity!T14)</f>
+        <v>94813.637338638306</v>
+      </c>
+      <c r="W13" s="35">
+        <f>SUM(Quantity!U24,Quantity!U29,Quantity!U36,Quantity!U14)</f>
+        <v>360757.35614013672</v>
+      </c>
+      <c r="X13" s="35">
+        <f>SUM(Quantity!V24,Quantity!V29,Quantity!V36,Quantity!V14)</f>
+        <v>7239010.4530944824</v>
+      </c>
+      <c r="Y13" s="35">
+        <f>SUM(Quantity!W24,Quantity!W29,Quantity!W36,Quantity!W14)</f>
+        <v>19405.622756481171</v>
+      </c>
+      <c r="Z13" s="35">
+        <f>SUM(Quantity!X24,Quantity!X29,Quantity!X36,Quantity!X14)</f>
+        <v>76265.80707025528</v>
+      </c>
+      <c r="AA13" s="35">
+        <f>SUM(Quantity!Y24,Quantity!Y29,Quantity!Y36,Quantity!Y14)</f>
+        <v>3819007.5657844543</v>
+      </c>
+      <c r="AB13" s="35">
+        <f>SUM(Quantity!Z24,Quantity!Z29,Quantity!Z36,Quantity!Z14)</f>
+        <v>73332.977006912231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="37">
+        <f t="shared" si="0"/>
+        <v>0.3261770440849272</v>
+      </c>
+      <c r="C14" s="37">
+        <v>0.73046789355604136</v>
+      </c>
+      <c r="D14" s="37">
+        <v>0.74774074915582267</v>
+      </c>
+      <c r="E14" s="37">
+        <v>0.597174441287602</v>
+      </c>
+      <c r="F14" s="35">
+        <f>AVERAGE(Quantity!D15)</f>
+        <v>12.011174242424232</v>
+      </c>
+      <c r="G14" s="35">
+        <f>AVERAGE(Quantity!E15)/1000000</f>
+        <v>2.231931240331102</v>
+      </c>
+      <c r="H14" s="35">
+        <f>AVERAGE(Quantity!F15)</f>
+        <v>21.047812652891867</v>
+      </c>
+      <c r="I14" s="35">
+        <f>AVERAGE(Quantity!G15)</f>
+        <v>24.454050082246862</v>
+      </c>
+      <c r="J14" s="35">
+        <f>AVERAGE(Quantity!H15)</f>
+        <v>34.59093608016066</v>
+      </c>
+      <c r="K14" s="35">
+        <f>AVERAGE(Quantity!I15)</f>
+        <v>47.567328917906835</v>
+      </c>
+      <c r="L14" s="35">
+        <f>SUM(Quantity!J15)/1000000</f>
+        <v>35.438617999999998</v>
+      </c>
+      <c r="M14" s="35">
+        <f>SUM(Quantity!K15)/1000000</f>
+        <v>49.649411999999998</v>
+      </c>
+      <c r="N14" s="35">
+        <f>SUM(Quantity!L15)/1000000</f>
+        <v>90.494390999999993</v>
+      </c>
+      <c r="O14" s="35">
+        <f>SUM(Quantity!M15)/1000000</f>
+        <v>34.275638000000001</v>
+      </c>
+      <c r="P14" s="35">
+        <f>SUM(Quantity!N15)/1000000</f>
+        <v>7.9780699999999998</v>
+      </c>
+      <c r="Q14" s="35">
+        <f>SUM(Quantity!O15)/1000000</f>
+        <v>26.914562</v>
+      </c>
+      <c r="R14" s="35">
+        <f>SUM(Quantity!P15)/1000000</f>
+        <v>0.48368325000000001</v>
+      </c>
+      <c r="S14" s="35">
+        <f>SUM(Quantity!Q15)/1000000</f>
+        <v>8.3115590000000008</v>
+      </c>
+      <c r="T14" s="35">
+        <f>SUM(Quantity!R15)/1000000</f>
+        <v>1.0413634375</v>
+      </c>
+      <c r="U14" s="35">
+        <f>SUM(Quantity!S15)/1000000</f>
+        <v>0.484361125</v>
+      </c>
+      <c r="V14" s="35">
+        <f>SUM(Quantity!T15)</f>
+        <v>681.85833740234375</v>
+      </c>
+      <c r="W14" s="35">
+        <f>SUM(Quantity!U15)</f>
+        <v>1313499</v>
+      </c>
+      <c r="X14" s="35">
+        <f>SUM(Quantity!V15)</f>
+        <v>3843364</v>
+      </c>
+      <c r="Y14" s="35">
+        <f>SUM(Quantity!W15)</f>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="35">
+        <f>SUM(Quantity!X15)</f>
+        <v>15618.830078125</v>
+      </c>
+      <c r="AA14" s="35">
+        <f>SUM(Quantity!Y15)</f>
+        <v>1912930.625</v>
+      </c>
+      <c r="AB14" s="35">
+        <f>SUM(Quantity!Z15)</f>
+        <v>1068491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="37">
+        <f t="shared" si="0"/>
+        <v>0.18319779597957411</v>
+      </c>
+      <c r="C15" s="37">
+        <v>0.46351952791525969</v>
+      </c>
+      <c r="D15" s="37">
+        <v>0.8080493040408725</v>
+      </c>
+      <c r="E15" s="37">
+        <v>0.48911879151084048</v>
+      </c>
+      <c r="F15" s="35">
+        <f>AVERAGE(Quantity!D19,Quantity!D21)</f>
+        <v>58.158118770764119</v>
+      </c>
+      <c r="G15" s="35">
+        <f>AVERAGE(Quantity!E19,Quantity!E21)/1000000</f>
+        <v>2.8118993090692079</v>
+      </c>
+      <c r="H15" s="35">
+        <f>AVERAGE(Quantity!F19,Quantity!F21)</f>
+        <v>5.7438951837056251</v>
+      </c>
+      <c r="I15" s="35">
+        <f>AVERAGE(Quantity!G19,Quantity!G21)</f>
+        <v>9.9725218393061663</v>
+      </c>
+      <c r="J15" s="35">
+        <f>AVERAGE(Quantity!H19,Quantity!H21)</f>
+        <v>21.028187348531155</v>
+      </c>
+      <c r="K15" s="35">
+        <f>AVERAGE(Quantity!I19,Quantity!I21)</f>
+        <v>30.836103690308963</v>
+      </c>
+      <c r="L15" s="35">
+        <f>SUM(Quantity!J19,Quantity!J21)/1000000</f>
+        <v>181.48380599999999</v>
+      </c>
+      <c r="M15" s="35">
+        <f>SUM(Quantity!K19,Quantity!K21)/1000000</f>
+        <v>278.51068900000001</v>
+      </c>
+      <c r="N15" s="35">
+        <f>SUM(Quantity!L19,Quantity!L21)/1000000</f>
+        <v>484.16335299999997</v>
+      </c>
+      <c r="O15" s="35">
+        <f>SUM(Quantity!M19,Quantity!M21)/1000000</f>
+        <v>172.85795999999999</v>
+      </c>
+      <c r="P15" s="35">
+        <f>SUM(Quantity!N19,Quantity!N21)/1000000</f>
+        <v>36.090106902343749</v>
+      </c>
+      <c r="Q15" s="35">
+        <f>SUM(Quantity!O19,Quantity!O21)/1000000</f>
+        <v>284.663877625</v>
+      </c>
+      <c r="R15" s="35">
+        <f>SUM(Quantity!P19,Quantity!P21)/1000000</f>
+        <v>4.3574803085937504</v>
+      </c>
+      <c r="S15" s="35">
+        <f>SUM(Quantity!Q19,Quantity!Q21)/1000000</f>
+        <v>58.310449218750001</v>
+      </c>
+      <c r="T15" s="35">
+        <f>SUM(Quantity!R19,Quantity!R21)/1000000</f>
+        <v>8.616E-2</v>
+      </c>
+      <c r="U15" s="35">
+        <f>SUM(Quantity!S19,Quantity!S21)/1000000</f>
+        <v>25.740825656249999</v>
+      </c>
+      <c r="V15" s="35">
+        <f>SUM(Quantity!T19,Quantity!T21)</f>
+        <v>4783340.8195343018</v>
+      </c>
+      <c r="W15" s="35">
+        <f>SUM(Quantity!U19,Quantity!U21)</f>
+        <v>1475579.7259674072</v>
+      </c>
+      <c r="X15" s="35">
+        <f>SUM(Quantity!V19,Quantity!V21)</f>
+        <v>6090403.8515625</v>
+      </c>
+      <c r="Y15" s="35">
+        <f>SUM(Quantity!W19,Quantity!W21)</f>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="35">
+        <f>SUM(Quantity!X19,Quantity!X21)</f>
+        <v>8521.3115587234497</v>
+      </c>
+      <c r="AA15" s="35">
+        <f>SUM(Quantity!Y19,Quantity!Y21)</f>
+        <v>44368869.542770386</v>
+      </c>
+      <c r="AB15" s="35">
+        <f>SUM(Quantity!Z19,Quantity!Z21)</f>
+        <v>17241714.524414063</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="37">
+        <f t="shared" si="0"/>
+        <v>0.24915029220121401</v>
+      </c>
+      <c r="C16" s="37">
+        <v>0.5646654034614863</v>
+      </c>
+      <c r="D16" s="37">
+        <v>0.59568447148047843</v>
+      </c>
+      <c r="E16" s="37">
+        <v>0.74071978020823381</v>
+      </c>
+      <c r="F16" s="35">
+        <f>AVERAGE(Quantity!D5,Quantity!D40)</f>
+        <v>40.719375516956163</v>
+      </c>
+      <c r="G16" s="35">
+        <f>AVERAGE(Quantity!E5,Quantity!E40)/1000000</f>
+        <v>2.6285112680739826</v>
+      </c>
+      <c r="H16" s="35">
+        <f>AVERAGE(Quantity!F5,Quantity!F40)</f>
+        <v>0.53999631165977835</v>
+      </c>
+      <c r="I16" s="35">
+        <f>AVERAGE(Quantity!G5,Quantity!G40)</f>
+        <v>2.2237611175690866</v>
+      </c>
+      <c r="J16" s="35">
+        <f>AVERAGE(Quantity!H5,Quantity!H40)</f>
+        <v>11.223724205241657</v>
+      </c>
+      <c r="K16" s="35">
+        <f>AVERAGE(Quantity!I5,Quantity!I40)</f>
+        <v>13.139541076633142</v>
+      </c>
+      <c r="L16" s="35">
+        <f>SUM(Quantity!J5,Quantity!J40)/1000000</f>
+        <v>4.7101110000000004</v>
+      </c>
+      <c r="M16" s="35">
+        <f>SUM(Quantity!K5,Quantity!K40)/1000000</f>
+        <v>6.6194449999999998</v>
+      </c>
+      <c r="N16" s="35">
+        <f>SUM(Quantity!L5,Quantity!L40)/1000000</f>
+        <v>12.708610999999999</v>
+      </c>
+      <c r="O16" s="35">
+        <f>SUM(Quantity!M5,Quantity!M40)/1000000</f>
+        <v>2.4849619999999999</v>
+      </c>
+      <c r="P16" s="35">
+        <f>SUM(Quantity!N5,Quantity!N40)/1000000</f>
+        <v>1.65291321875</v>
+      </c>
+      <c r="Q16" s="35">
+        <f>SUM(Quantity!O5,Quantity!O40)/1000000</f>
+        <v>2.6631262499999999</v>
+      </c>
+      <c r="R16" s="35">
+        <f>SUM(Quantity!P5,Quantity!P40)/1000000</f>
+        <v>4.5220514648437501E-2</v>
+      </c>
+      <c r="S16" s="35">
+        <f>SUM(Quantity!Q5,Quantity!Q40)/1000000</f>
+        <v>0.91833959374999996</v>
+      </c>
+      <c r="T16" s="35">
+        <f>SUM(Quantity!R5,Quantity!R40)/1000000</f>
+        <v>2.2449117279052734E-3</v>
+      </c>
+      <c r="U16" s="35">
+        <f>SUM(Quantity!S5,Quantity!S40)/1000000</f>
+        <v>2.1486748750000002</v>
+      </c>
+      <c r="V16" s="35">
+        <f>SUM(Quantity!T5,Quantity!T40)</f>
+        <v>259287.6796875</v>
+      </c>
+      <c r="W16" s="35">
+        <f>SUM(Quantity!U5,Quantity!U40)</f>
+        <v>31820.296875</v>
+      </c>
+      <c r="X16" s="35">
+        <f>SUM(Quantity!V5,Quantity!V40)</f>
+        <v>32962.7587890625</v>
+      </c>
+      <c r="Y16" s="35">
+        <f>SUM(Quantity!W5,Quantity!W40)</f>
+        <v>2142.3078002929688</v>
+      </c>
+      <c r="Z16" s="35">
+        <f>SUM(Quantity!X5,Quantity!X40)</f>
+        <v>9.3767569065093994</v>
+      </c>
+      <c r="AA16" s="35">
+        <f>SUM(Quantity!Y5,Quantity!Y40)</f>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="35">
+        <f>SUM(Quantity!Z5,Quantity!Z40)</f>
+        <v>299100.3515625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="37">
+        <f t="shared" si="0"/>
+        <v>0.1438960291232389</v>
+      </c>
+      <c r="C17" s="38">
+        <v>0.51147496299316608</v>
+      </c>
+      <c r="D17" s="38">
+        <v>0.86291623772006587</v>
+      </c>
+      <c r="E17" s="38">
+        <v>0.3260286672465928</v>
+      </c>
+      <c r="F17" s="35">
+        <f>AVERAGE(Quantity!D30,Quantity!D37)</f>
+        <v>68.775058685445998</v>
+      </c>
+      <c r="G17" s="35">
+        <f>AVERAGE(Quantity!E30,Quantity!E37)/1000000</f>
+        <v>1.0480586453396632</v>
+      </c>
+      <c r="H17" s="35">
+        <f>AVERAGE(Quantity!F30,Quantity!F37)</f>
+        <v>11.214431215773244</v>
+      </c>
+      <c r="I17" s="35">
+        <f>AVERAGE(Quantity!G30,Quantity!G37)</f>
+        <v>17.979703122560998</v>
+      </c>
+      <c r="J17" s="35">
+        <f>AVERAGE(Quantity!H30,Quantity!H37)</f>
+        <v>16.605971316750246</v>
+      </c>
+      <c r="K17" s="35">
+        <f>AVERAGE(Quantity!I30,Quantity!I37)</f>
+        <v>30.796790828573322</v>
+      </c>
+      <c r="L17" s="35">
+        <f>SUM(Quantity!J30,Quantity!J37)/1000000</f>
+        <v>13.896277</v>
+      </c>
+      <c r="M17" s="35">
+        <f>SUM(Quantity!K30,Quantity!K37)/1000000</f>
+        <v>18.892994000000002</v>
+      </c>
+      <c r="N17" s="35">
+        <f>SUM(Quantity!L30,Quantity!L37)/1000000</f>
+        <v>29.788254999999999</v>
+      </c>
+      <c r="O17" s="35">
+        <f>SUM(Quantity!M30,Quantity!M37)/1000000</f>
+        <v>14.853526</v>
+      </c>
+      <c r="P17" s="35">
+        <f>SUM(Quantity!N30,Quantity!N37)/1000000</f>
+        <v>3.4288643769531251</v>
+      </c>
+      <c r="Q17" s="35">
+        <f>SUM(Quantity!O30,Quantity!O37)/1000000</f>
+        <v>94.443898312499996</v>
+      </c>
+      <c r="R17" s="35">
+        <f>SUM(Quantity!P30,Quantity!P37)/1000000</f>
+        <v>4.5423735410156247</v>
+      </c>
+      <c r="S17" s="35">
+        <f>SUM(Quantity!Q30,Quantity!Q37)/1000000</f>
+        <v>1.3578763458251953E-2</v>
+      </c>
+      <c r="T17" s="35">
+        <f>SUM(Quantity!R30,Quantity!R37)/1000000</f>
+        <v>2.1980478310546876</v>
+      </c>
+      <c r="U17" s="35">
+        <f>SUM(Quantity!S30,Quantity!S37)/1000000</f>
+        <v>1.8157354965209962E-3</v>
+      </c>
+      <c r="V17" s="35">
+        <f>SUM(Quantity!T30,Quantity!T37)</f>
+        <v>10478.572570800781</v>
+      </c>
+      <c r="W17" s="35">
+        <f>SUM(Quantity!U30,Quantity!U37)</f>
+        <v>1489535.6203613281</v>
+      </c>
+      <c r="X17" s="35">
+        <f>SUM(Quantity!V30,Quantity!V37)</f>
+        <v>10362428.322265625</v>
+      </c>
+      <c r="Y17" s="35">
+        <f>SUM(Quantity!W30,Quantity!W37)</f>
+        <v>1201298.2517089844</v>
+      </c>
+      <c r="Z17" s="35">
+        <f>SUM(Quantity!X30,Quantity!X37)</f>
+        <v>88699.978515625</v>
+      </c>
+      <c r="AA17" s="35">
+        <f>SUM(Quantity!Y30,Quantity!Y37)</f>
+        <v>24683147.3125</v>
+      </c>
+      <c r="AB17" s="35">
+        <f>SUM(Quantity!Z30,Quantity!Z37)</f>
+        <v>379.1808009147644</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="37">
+        <f t="shared" si="0"/>
+        <v>2.9963677601703709E-2</v>
+      </c>
+      <c r="C18" s="37">
+        <v>0.38903834483072847</v>
+      </c>
+      <c r="D18" s="37">
+        <v>0.58485774568162996</v>
+      </c>
+      <c r="E18" s="37">
+        <v>0.13168989784444488</v>
+      </c>
+      <c r="F18" s="35">
+        <f>AVERAGE(Quantity!D6,Quantity!D34)</f>
+        <v>74.701290099957703</v>
+      </c>
+      <c r="G18" s="35">
+        <f>AVERAGE(Quantity!E6,Quantity!E34)/1000000</f>
+        <v>2.9951370667171195</v>
+      </c>
+      <c r="H18" s="35">
+        <f>AVERAGE(Quantity!F6,Quantity!F34)</f>
+        <v>3.2474122029234676</v>
+      </c>
+      <c r="I18" s="35">
+        <f>AVERAGE(Quantity!G6,Quantity!G34)</f>
+        <v>4.1636651036855215</v>
+      </c>
+      <c r="J18" s="35">
+        <f>AVERAGE(Quantity!H6,Quantity!H34)</f>
+        <v>12.499975288188907</v>
+      </c>
+      <c r="K18" s="35">
+        <f>AVERAGE(Quantity!I6,Quantity!I34)</f>
+        <v>19.27407969443464</v>
+      </c>
+      <c r="L18" s="35">
+        <f>SUM(Quantity!J6,Quantity!J34)/1000000</f>
+        <v>2.5564559999999998</v>
+      </c>
+      <c r="M18" s="35">
+        <f>SUM(Quantity!K6,Quantity!K34)/1000000</f>
+        <v>3.417249</v>
+      </c>
+      <c r="N18" s="35">
+        <f>SUM(Quantity!L6,Quantity!L34)/1000000</f>
+        <v>4.9301789999999999</v>
+      </c>
+      <c r="O18" s="35">
+        <f>SUM(Quantity!M6,Quantity!M34)/1000000</f>
+        <v>2.3433359999999999</v>
+      </c>
+      <c r="P18" s="35">
+        <f>SUM(Quantity!N6,Quantity!N34)/1000000</f>
+        <v>1.33601778125</v>
+      </c>
+      <c r="Q18" s="35">
+        <f>SUM(Quantity!O6,Quantity!O34)/1000000</f>
+        <v>0.20079173242187501</v>
+      </c>
+      <c r="R18" s="35">
+        <f>SUM(Quantity!P6,Quantity!P34)/1000000</f>
+        <v>9.6801953125000006E-2</v>
+      </c>
+      <c r="S18" s="35">
+        <f>SUM(Quantity!Q6,Quantity!Q34)/1000000</f>
+        <v>2.1654779999999998</v>
+      </c>
+      <c r="T18" s="35">
+        <f>SUM(Quantity!R6,Quantity!R34)/1000000</f>
+        <v>2.8164931152343749E-2</v>
+      </c>
+      <c r="U18" s="35">
+        <f>SUM(Quantity!S6,Quantity!S34)/1000000</f>
+        <v>11.53003275</v>
+      </c>
+      <c r="V18" s="35">
+        <f>SUM(Quantity!T6,Quantity!T34)</f>
+        <v>669413.375</v>
+      </c>
+      <c r="W18" s="35">
+        <f>SUM(Quantity!U6,Quantity!U34)</f>
+        <v>8630.32470703125</v>
+      </c>
+      <c r="X18" s="35">
+        <f>SUM(Quantity!V6,Quantity!V34)</f>
+        <v>35828.43017578125</v>
+      </c>
+      <c r="Y18" s="35">
+        <f>SUM(Quantity!W6,Quantity!W34)</f>
+        <v>1067.0431518554688</v>
+      </c>
+      <c r="Z18" s="35">
+        <f>SUM(Quantity!X6,Quantity!X34)</f>
+        <v>4.4213976860046387</v>
+      </c>
+      <c r="AA18" s="35">
+        <f>SUM(Quantity!Y6,Quantity!Y34)</f>
+        <v>100.52137756347656</v>
+      </c>
+      <c r="AB18" s="35">
+        <f>SUM(Quantity!Z6,Quantity!Z34)</f>
+        <v>1211096.046875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="37">
+        <f t="shared" si="0"/>
+        <v>0.18398697822032414</v>
+      </c>
+      <c r="C19" s="37">
+        <v>0.42447865235117621</v>
+      </c>
+      <c r="D19" s="37">
+        <v>0.70772272042539663</v>
+      </c>
+      <c r="E19" s="37">
+        <v>0.61244641188989668</v>
+      </c>
+      <c r="F19" s="35">
+        <f>AVERAGE(Quantity!D7,Quantity!D41)</f>
+        <v>65.38099783772482</v>
+      </c>
+      <c r="G19" s="35">
+        <f>AVERAGE(Quantity!E7,Quantity!E41)/1000000</f>
+        <v>2.6020991028820433</v>
+      </c>
+      <c r="H19" s="35">
+        <f>AVERAGE(Quantity!F7,Quantity!F41)</f>
+        <v>-0.94533169695782293</v>
+      </c>
+      <c r="I19" s="35">
+        <f>AVERAGE(Quantity!G7,Quantity!G41)</f>
+        <v>3.3822022689704525</v>
+      </c>
+      <c r="J19" s="35">
+        <f>AVERAGE(Quantity!H7,Quantity!H41)</f>
+        <v>8.3902289480235641</v>
+      </c>
+      <c r="K19" s="35">
+        <f>AVERAGE(Quantity!I7,Quantity!I41)</f>
+        <v>10.391891020803524</v>
+      </c>
+      <c r="L19" s="35">
+        <f>SUM(Quantity!J7,Quantity!J41)/1000000</f>
+        <v>19.107703999999998</v>
+      </c>
+      <c r="M19" s="35">
+        <f>SUM(Quantity!K7,Quantity!K41)/1000000</f>
+        <v>25.395375000000001</v>
+      </c>
+      <c r="N19" s="35">
+        <f>SUM(Quantity!L7,Quantity!L41)/1000000</f>
+        <v>38.982765999999998</v>
+      </c>
+      <c r="O19" s="35">
+        <f>SUM(Quantity!M7,Quantity!M41)/1000000</f>
+        <v>16.121780999999999</v>
+      </c>
+      <c r="P19" s="35">
+        <f>SUM(Quantity!N7,Quantity!N41)/1000000</f>
+        <v>8.2995950000000001</v>
+      </c>
+      <c r="Q19" s="35">
+        <f>SUM(Quantity!O7,Quantity!O41)/1000000</f>
+        <v>37.625252500000002</v>
+      </c>
+      <c r="R19" s="35">
+        <f>SUM(Quantity!P7,Quantity!P41)/1000000</f>
+        <v>0.23840884374999999</v>
+      </c>
+      <c r="S19" s="35">
+        <f>SUM(Quantity!Q7,Quantity!Q41)/1000000</f>
+        <v>2.0900723124999998</v>
+      </c>
+      <c r="T19" s="35">
+        <f>SUM(Quantity!R7,Quantity!R41)/1000000</f>
+        <v>0.10754076562500001</v>
+      </c>
+      <c r="U19" s="35">
+        <f>SUM(Quantity!S7,Quantity!S41)/1000000</f>
+        <v>10.761850000000001</v>
+      </c>
+      <c r="V19" s="35">
+        <f>SUM(Quantity!T7,Quantity!T41)</f>
+        <v>2841717.5</v>
+      </c>
+      <c r="W19" s="35">
+        <f>SUM(Quantity!U7,Quantity!U41)</f>
+        <v>126794.3828125</v>
+      </c>
+      <c r="X19" s="35">
+        <f>SUM(Quantity!V7,Quantity!V41)</f>
+        <v>236042.28125</v>
+      </c>
+      <c r="Y19" s="35">
+        <f>SUM(Quantity!W7,Quantity!W41)</f>
+        <v>6493.251708984375</v>
+      </c>
+      <c r="Z19" s="35">
+        <f>SUM(Quantity!X7,Quantity!X41)</f>
+        <v>2.6678541898727417</v>
+      </c>
+      <c r="AA19" s="35">
+        <f>SUM(Quantity!Y7,Quantity!Y41)</f>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="35">
+        <f>SUM(Quantity!Z7,Quantity!Z41)</f>
+        <v>3505357.375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="37">
+        <f t="shared" si="0"/>
+        <v>0.19683529080669393</v>
+      </c>
+      <c r="C20" s="38">
+        <v>0.59910125871217701</v>
+      </c>
+      <c r="D20" s="38">
+        <v>0.8021963994350878</v>
+      </c>
+      <c r="E20" s="38">
+        <v>0.409564235670341</v>
+      </c>
+      <c r="F20" s="35">
+        <f>AVERAGE(Quantity!D31)</f>
+        <v>30.541666666666657</v>
+      </c>
+      <c r="G20" s="35">
+        <f>AVERAGE(Quantity!E31)/1000000</f>
+        <v>0.74574953822859336</v>
+      </c>
+      <c r="H20" s="35">
+        <f>AVERAGE(Quantity!F31)</f>
+        <v>8.4937842043872909</v>
+      </c>
+      <c r="I20" s="35">
+        <f>AVERAGE(Quantity!G31)</f>
+        <v>14.277373400430436</v>
+      </c>
+      <c r="J20" s="35">
+        <f>AVERAGE(Quantity!H31)</f>
+        <v>11.968784879410391</v>
+      </c>
+      <c r="K20" s="35">
+        <f>AVERAGE(Quantity!I31)</f>
+        <v>18.07158176903042</v>
+      </c>
+      <c r="L20" s="35">
+        <f>SUM(Quantity!J31)/1000000</f>
+        <v>9.4617140000000006</v>
+      </c>
+      <c r="M20" s="35">
+        <f>SUM(Quantity!K31)/1000000</f>
+        <v>12.406113</v>
+      </c>
+      <c r="N20" s="35">
+        <f>SUM(Quantity!L31)/1000000</f>
+        <v>18.242602999999999</v>
+      </c>
+      <c r="O20" s="35">
+        <f>SUM(Quantity!M31)/1000000</f>
+        <v>9.158277</v>
+      </c>
+      <c r="P20" s="35">
+        <f>SUM(Quantity!N31)/1000000</f>
+        <v>0.75670637500000004</v>
+      </c>
+      <c r="Q20" s="35">
+        <f>SUM(Quantity!O31)/1000000</f>
+        <v>17.225718000000001</v>
+      </c>
+      <c r="R20" s="35">
+        <f>SUM(Quantity!P31)/1000000</f>
+        <v>19.659279999999999</v>
+      </c>
+      <c r="S20" s="35">
+        <f>SUM(Quantity!Q31)/1000000</f>
+        <v>0.26192292187499999</v>
+      </c>
+      <c r="T20" s="35">
+        <f>SUM(Quantity!R31)/1000000</f>
+        <v>3.5508687499999998</v>
+      </c>
+      <c r="U20" s="35">
+        <f>SUM(Quantity!S31)/1000000</f>
+        <v>4.5195238281250001E-2</v>
+      </c>
+      <c r="V20" s="35">
+        <f>SUM(Quantity!T31)</f>
+        <v>5043.49267578125</v>
+      </c>
+      <c r="W20" s="35">
+        <f>SUM(Quantity!U31)</f>
+        <v>151771.375</v>
+      </c>
+      <c r="X20" s="35">
+        <f>SUM(Quantity!V31)</f>
+        <v>7230094</v>
+      </c>
+      <c r="Y20" s="35">
+        <f>SUM(Quantity!W31)</f>
+        <v>55309.1875</v>
+      </c>
+      <c r="Z20" s="35">
+        <f>SUM(Quantity!X31)</f>
+        <v>30739.37890625</v>
+      </c>
+      <c r="AA20" s="35">
+        <f>SUM(Quantity!Y31)</f>
+        <v>3585046</v>
+      </c>
+      <c r="AB20" s="35">
+        <f>SUM(Quantity!Z31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="32"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="32"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="32"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:A47">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <mergeCells count="10">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:U1"/>
+    <mergeCell ref="V1:AB1"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/6_DrawFigure/Fig3_OutputTable/ImplicationResearch.xlsx
+++ b/6_DrawFigure/Fig3_OutputTable/ImplicationResearch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMIP6\Program\6_DrawFigure\Fig3_OutputTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EB7168-D83C-44BF-9346-379DB8696080}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DD919C-8F16-4BC2-A511-DECA6F73CB9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="-120" windowWidth="50445" windowHeight="21840" tabRatio="377" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18825" yWindow="2340" windowWidth="30480" windowHeight="15885" tabRatio="377" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quantity" sheetId="1" r:id="rId1"/>
@@ -7480,7 +7480,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7553,14 +7553,13 @@
         <v>64</v>
       </c>
       <c r="B3" s="27">
-        <f>C3*D3*E3</f>
-        <v>0.13745241243960449</v>
+        <v>0.49153408070061622</v>
       </c>
       <c r="C3" s="25">
-        <v>0.39901621958593714</v>
+        <v>0.39976039917435935</v>
       </c>
       <c r="D3" s="24">
-        <v>0.63901145392070502</v>
+        <v>0.5042352422921963</v>
       </c>
       <c r="E3" s="25">
         <v>0.53907994355174016</v>
@@ -7595,14 +7594,13 @@
         <v>65</v>
       </c>
       <c r="B4" s="27">
-        <f>C4*D4*E4</f>
-        <v>0.14422965620196493</v>
+        <v>0.42420723173060221</v>
       </c>
       <c r="C4" s="25">
-        <v>0.47328450723023274</v>
+        <v>0.48702039965614902</v>
       </c>
       <c r="D4" s="25">
-        <v>0.53670031946319896</v>
+        <v>0.35564178992653828</v>
       </c>
       <c r="E4" s="25">
         <v>0.56780658683201501</v>
@@ -7637,14 +7635,13 @@
         <v>66</v>
       </c>
       <c r="B5" s="27">
-        <f t="shared" ref="B5:B15" si="0">C5*D5*E5</f>
-        <v>0.25040505548748471</v>
+        <v>0.54570296322825829</v>
       </c>
       <c r="C5" s="24">
-        <v>0.67101084172366277</v>
+        <v>0.44965944447180145</v>
       </c>
       <c r="D5" s="23">
-        <v>0.80794678236758621</v>
+        <v>0.75495750151409069</v>
       </c>
       <c r="E5" s="25">
         <v>0.46188174692639866</v>
@@ -7679,14 +7676,13 @@
         <v>24</v>
       </c>
       <c r="B6" s="27">
-        <f t="shared" si="0"/>
-        <v>0.1265674549171199</v>
+        <v>0.5644107804325833</v>
       </c>
       <c r="C6" s="26">
-        <v>0.26087172144624921</v>
+        <v>0.27053912625811494</v>
       </c>
       <c r="D6" s="24">
-        <v>0.67149171536178121</v>
+        <v>0.57956449835626211</v>
       </c>
       <c r="E6" s="24">
         <v>0.72252750487532846</v>
@@ -7721,14 +7717,13 @@
         <v>33</v>
       </c>
       <c r="B7" s="27">
-        <f t="shared" si="0"/>
-        <v>0.21646989887880277</v>
+        <v>0.5624048197354069</v>
       </c>
       <c r="C7" s="25">
-        <v>0.54376349741833341</v>
+        <v>0.63793231157890373</v>
       </c>
       <c r="D7" s="24">
-        <v>0.68412321501261741</v>
+        <v>0.6142473842189311</v>
       </c>
       <c r="E7" s="25">
         <v>0.58190640305108787</v>
@@ -7763,14 +7758,13 @@
         <v>26</v>
       </c>
       <c r="B8" s="27">
-        <f t="shared" si="0"/>
-        <v>0.3148397225567906</v>
+        <v>0.65421282135956815</v>
       </c>
       <c r="C8" s="24">
-        <v>0.71322484818020371</v>
+        <v>0.39025615844087302</v>
       </c>
       <c r="D8" s="24">
-        <v>0.74195292903476306</v>
+        <v>0.74290617040609241</v>
       </c>
       <c r="E8" s="25">
         <v>0.59495853915786012</v>
@@ -7805,14 +7799,13 @@
         <v>67</v>
       </c>
       <c r="B9" s="27">
-        <f t="shared" si="0"/>
-        <v>0.21833794264183845</v>
+        <v>0.63399742933471959</v>
       </c>
       <c r="C9" s="25">
-        <v>0.5735054409240995</v>
+        <v>0.37945963492803519</v>
       </c>
       <c r="D9" s="24">
-        <v>0.73982669643921306</v>
+        <v>0.74382516520430664</v>
       </c>
       <c r="E9" s="25">
         <v>0.51459039131267337</v>
@@ -7847,14 +7840,13 @@
         <v>28</v>
       </c>
       <c r="B10" s="27">
-        <f t="shared" si="0"/>
-        <v>6.9139348087029068E-2</v>
+        <v>0.31253742524311207</v>
       </c>
       <c r="C10" s="26">
-        <v>0.36737722463311523</v>
+        <v>0.56600672490582904</v>
       </c>
       <c r="D10" s="24">
-        <v>0.65799773669839079</v>
+        <v>0.52436166196889833</v>
       </c>
       <c r="E10" s="26">
         <v>0.28601489551248732</v>
@@ -7889,14 +7881,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="28">
-        <f t="shared" si="0"/>
-        <v>0.36880416058184801</v>
+        <v>0.78407162644690431</v>
       </c>
       <c r="C11" s="24">
-        <v>0.67998147015277699</v>
+        <v>0.45145225414882867</v>
       </c>
       <c r="D11" s="24">
-        <v>0.61631435335990248</v>
+        <v>0.54404209910135726</v>
       </c>
       <c r="E11" s="23">
         <v>0.880027921283422</v>
@@ -7931,14 +7922,13 @@
         <v>29</v>
       </c>
       <c r="B12" s="27">
-        <f t="shared" si="0"/>
-        <v>0.11945045327821523</v>
+        <v>0.42471340432342009</v>
       </c>
       <c r="C12" s="25">
-        <v>0.48580883286633397</v>
+        <v>0.42701172705720558</v>
       </c>
       <c r="D12" s="24">
-        <v>0.67830608669610637</v>
+        <v>0.6001846095416431</v>
       </c>
       <c r="E12" s="26">
         <v>0.36249054332076797</v>
@@ -7973,14 +7963,13 @@
         <v>16</v>
       </c>
       <c r="B13" s="27">
-        <f t="shared" si="0"/>
-        <v>0.28426513939063924</v>
+        <v>0.81960401460457422</v>
       </c>
       <c r="C13" s="25">
-        <v>0.57657461336806315</v>
+        <v>0.78250199727685188</v>
       </c>
       <c r="D13" s="25">
-        <v>0.5034990732663478</v>
+        <v>0.35864913290825018</v>
       </c>
       <c r="E13" s="23">
         <v>0.9791955060599643</v>
@@ -8015,14 +8004,13 @@
         <v>68</v>
       </c>
       <c r="B14" s="27">
-        <f t="shared" si="0"/>
-        <v>0.14726474171000126</v>
+        <v>0.45519367186315013</v>
       </c>
       <c r="C14" s="25">
-        <v>0.53719689870567411</v>
+        <v>0.38991013796974283</v>
       </c>
       <c r="D14" s="24">
-        <v>0.75102155862918296</v>
+        <v>0.81605148840658293</v>
       </c>
       <c r="E14" s="26">
         <v>0.36501682174367867</v>
@@ -8057,14 +8045,13 @@
         <v>30</v>
       </c>
       <c r="B15" s="27">
-        <f t="shared" si="0"/>
-        <v>0.27208293442337461</v>
+        <v>0.63650456145971834</v>
       </c>
       <c r="C15" s="24">
-        <v>0.65816179901171123</v>
+        <v>0.6678038592890233</v>
       </c>
       <c r="D15" s="24">
-        <v>0.75610005979057282</v>
+        <v>0.79422240396283217</v>
       </c>
       <c r="E15" s="25">
         <v>0.54675071422154953</v>
@@ -8155,7 +8142,7 @@
   <dimension ref="A1:AB46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8316,14 +8303,13 @@
         <v>12</v>
       </c>
       <c r="B3" s="37">
-        <f>C3*D3*E3</f>
-        <v>0.12911190688576837</v>
+        <v>0.51199518170252567</v>
       </c>
       <c r="C3" s="37">
-        <v>0.29098846368882525</v>
+        <v>0.20622345473840573</v>
       </c>
       <c r="D3" s="37">
-        <v>0.72963378441669924</v>
+        <v>0.67376542385346416</v>
       </c>
       <c r="E3" s="37">
         <v>0.60811482176281706</v>
@@ -8426,14 +8412,13 @@
         <v>10</v>
       </c>
       <c r="B4" s="37">
-        <f t="shared" ref="B4:B20" si="0">C4*D4*E4</f>
-        <v>0.13263874531049305</v>
+        <v>0.51352995582821015</v>
       </c>
       <c r="C4" s="37">
-        <v>0.68590931292959822</v>
+        <v>0.33866550230663195</v>
       </c>
       <c r="D4" s="37">
-        <v>0.96712549794801861</v>
+        <v>0.98338227050783777</v>
       </c>
       <c r="E4" s="37">
         <v>0.19994975302555906</v>
@@ -8536,14 +8521,13 @@
         <v>31</v>
       </c>
       <c r="B5" s="37">
-        <f t="shared" si="0"/>
-        <v>0.21253021901867664</v>
+        <v>0.69657522579976294</v>
       </c>
       <c r="C5" s="37">
-        <v>0.74026561215746034</v>
+        <v>0.36919825152140179</v>
       </c>
       <c r="D5" s="37">
-        <v>0.64960832084787812</v>
+        <v>0.51945701727484683</v>
       </c>
       <c r="E5" s="37">
         <v>0.44195854508038052</v>
@@ -8646,14 +8630,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="37">
-        <f t="shared" si="0"/>
-        <v>0.30126495554359806</v>
+        <v>0.76495753848655379</v>
       </c>
       <c r="C6" s="38">
-        <v>0.56584245876425399</v>
+        <v>0.34645334863134453</v>
       </c>
       <c r="D6" s="38">
-        <v>0.78746598021636893</v>
+        <v>0.75547131964046055</v>
       </c>
       <c r="E6" s="38">
         <v>0.67611610780362197</v>
@@ -8756,14 +8739,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="37">
-        <f t="shared" si="0"/>
-        <v>0.2526177389854608</v>
+        <v>0.6150186052118426</v>
       </c>
       <c r="C7" s="37">
-        <v>0.60810024462798917</v>
+        <v>0.54274201281366719</v>
       </c>
       <c r="D7" s="37">
-        <v>0.66077238963684859</v>
+        <v>0.6370904114146676</v>
       </c>
       <c r="E7" s="37">
         <v>0.62869032634076849</v>
@@ -8866,14 +8848,13 @@
         <v>27</v>
       </c>
       <c r="B8" s="37">
-        <f t="shared" si="0"/>
-        <v>0.1995584072046111</v>
+        <v>0.50060005230719695</v>
       </c>
       <c r="C8" s="37">
-        <v>0.63112579022023552</v>
+        <v>0.48825623956393005</v>
       </c>
       <c r="D8" s="37">
-        <v>0.86502142499125656</v>
+        <v>0.84800489010780078</v>
       </c>
       <c r="E8" s="37">
         <v>0.36553354403619004</v>
@@ -8976,14 +8957,13 @@
         <v>25</v>
       </c>
       <c r="B9" s="37">
-        <f t="shared" si="0"/>
-        <v>6.8498688639290631E-3</v>
+        <v>0.15616517568310082</v>
       </c>
       <c r="C9" s="37">
-        <v>0.43653047317439447</v>
+        <v>0.69293569478486017</v>
       </c>
       <c r="D9" s="37">
-        <v>0.65199752118217646</v>
+        <v>0.52440448731165523</v>
       </c>
       <c r="E9" s="37">
         <v>2.4066988282187049E-2</v>
@@ -9086,14 +9066,13 @@
         <v>19</v>
       </c>
       <c r="B10" s="37">
-        <f t="shared" si="0"/>
-        <v>7.7017116323136722E-2</v>
+        <v>0.24848823619808905</v>
       </c>
       <c r="C10" s="37">
-        <v>0.41645092505624942</v>
+        <v>0.36928511368724148</v>
       </c>
       <c r="D10" s="37">
-        <v>0.52095598130578591</v>
+        <v>0.32630688423702808</v>
       </c>
       <c r="E10" s="37">
         <v>0.35499512892015656</v>
@@ -9196,14 +9175,13 @@
         <v>21</v>
       </c>
       <c r="B11" s="37">
-        <f t="shared" si="0"/>
-        <v>0.29016160172634747</v>
+        <v>0.77384069443289072</v>
       </c>
       <c r="C11" s="37">
-        <v>0.59818216170945715</v>
+        <v>0.52776745230067845</v>
       </c>
       <c r="D11" s="37">
-        <v>0.68291324022872602</v>
+        <v>0.63069545021843376</v>
       </c>
       <c r="E11" s="37">
         <v>0.7102985845460541</v>
@@ -9306,14 +9284,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="37">
-        <f t="shared" si="0"/>
-        <v>7.2319015126030214E-2</v>
+        <v>0.48145885569751518</v>
       </c>
       <c r="C12" s="38">
-        <v>0.57861151699492219</v>
+        <v>0.35722215426043608</v>
       </c>
       <c r="D12" s="38">
-        <v>0.64734873573248486</v>
+        <v>0.74225001174220118</v>
       </c>
       <c r="E12" s="38">
         <v>0.19307548084016793</v>
@@ -9416,14 +9393,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="37">
-        <f t="shared" si="0"/>
-        <v>0.3395057163842799</v>
+        <v>0.70288075747179402</v>
       </c>
       <c r="C13" s="37">
-        <v>0.70122733432300255</v>
+        <v>0.40096195398784068</v>
       </c>
       <c r="D13" s="37">
-        <v>0.73338795979853622</v>
+        <v>0.73470024239503595</v>
       </c>
       <c r="E13" s="37">
         <v>0.66016801410235315</v>
@@ -9526,14 +9502,13 @@
         <v>32</v>
       </c>
       <c r="B14" s="37">
-        <f t="shared" si="0"/>
-        <v>0.3261770440849272</v>
+        <v>0.7104978797775916</v>
       </c>
       <c r="C14" s="37">
-        <v>0.73046789355604136</v>
+        <v>0.42475044113715393</v>
       </c>
       <c r="D14" s="37">
-        <v>0.74774074915582267</v>
+        <v>0.75452180101105493</v>
       </c>
       <c r="E14" s="37">
         <v>0.597174441287602</v>
@@ -9636,14 +9611,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="37">
-        <f t="shared" si="0"/>
-        <v>0.18319779597957411</v>
+        <v>0.53018888162130162</v>
       </c>
       <c r="C15" s="37">
-        <v>0.46351952791525969</v>
+        <v>0.70170349456328829</v>
       </c>
       <c r="D15" s="37">
-        <v>0.8080493040408725</v>
+        <v>0.78575647712811314</v>
       </c>
       <c r="E15" s="37">
         <v>0.48911879151084048</v>
@@ -9746,14 +9720,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="37">
-        <f t="shared" si="0"/>
-        <v>0.24915029220121401</v>
+        <v>0.63751941765145348</v>
       </c>
       <c r="C16" s="37">
-        <v>0.5646654034614863</v>
+        <v>0.48484040969534614</v>
       </c>
       <c r="D16" s="37">
-        <v>0.59568447148047843</v>
+        <v>0.4638898967883649</v>
       </c>
       <c r="E16" s="37">
         <v>0.74071978020823381</v>
@@ -9856,14 +9829,13 @@
         <v>6</v>
       </c>
       <c r="B17" s="37">
-        <f t="shared" si="0"/>
-        <v>0.1438960291232389</v>
+        <v>0.47431871569000483</v>
       </c>
       <c r="C17" s="38">
-        <v>0.51147496299316608</v>
+        <v>0.364255064817679</v>
       </c>
       <c r="D17" s="38">
-        <v>0.86291623772006587</v>
+        <v>0.81536309573232324</v>
       </c>
       <c r="E17" s="38">
         <v>0.3260286672465928</v>
@@ -9966,14 +9938,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="37">
-        <f t="shared" si="0"/>
-        <v>2.9963677601703709E-2</v>
+        <v>0.21476509763688306</v>
       </c>
       <c r="C18" s="37">
-        <v>0.38903834483072847</v>
+        <v>0.74108766311650787</v>
       </c>
       <c r="D18" s="37">
-        <v>0.58485774568162996</v>
+        <v>0.39275260385935684</v>
       </c>
       <c r="E18" s="37">
         <v>0.13168989784444488</v>
@@ -10076,14 +10047,13 @@
         <v>14</v>
       </c>
       <c r="B19" s="37">
-        <f t="shared" si="0"/>
-        <v>0.18398697822032414</v>
+        <v>0.61490341090982537</v>
       </c>
       <c r="C19" s="37">
-        <v>0.42447865235117621</v>
+        <v>0.5367303441709913</v>
       </c>
       <c r="D19" s="37">
-        <v>0.70772272042539663</v>
+        <v>0.58421032009259932</v>
       </c>
       <c r="E19" s="37">
         <v>0.61244641188989668</v>
@@ -10186,14 +10156,13 @@
         <v>7</v>
       </c>
       <c r="B20" s="37">
-        <f t="shared" si="0"/>
-        <v>0.19683529080669393</v>
+        <v>0.77785794149979559</v>
       </c>
       <c r="C20" s="38">
-        <v>0.59910125871217701</v>
+        <v>0.34894505998866238</v>
       </c>
       <c r="D20" s="38">
-        <v>0.8021963994350878</v>
+        <v>0.83474836601078073</v>
       </c>
       <c r="E20" s="38">
         <v>0.409564235670341</v>

--- a/6_DrawFigure/Fig3_OutputTable/ImplicationResearch.xlsx
+++ b/6_DrawFigure/Fig3_OutputTable/ImplicationResearch.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMIP6\Program\6_DrawFigure\Fig3_OutputTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DD919C-8F16-4BC2-A511-DECA6F73CB9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FF2DAC-C39D-4788-B415-A2D5B71DE40F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18825" yWindow="2340" windowWidth="30480" windowHeight="15885" tabRatio="377" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21960" yWindow="3165" windowWidth="29085" windowHeight="15885" tabRatio="377" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quantity" sheetId="1" r:id="rId1"/>
     <sheet name="Percentage" sheetId="2" r:id="rId2"/>
     <sheet name="Fig3" sheetId="3" r:id="rId3"/>
     <sheet name="Fig3_Supplement" sheetId="4" r:id="rId4"/>
+    <sheet name="Risk_Assessment" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Fig3_Supplement!$A$3:$A$46</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="93">
   <si>
     <t>Mekong</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -301,18 +302,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mean Hazard Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mean Exposure Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mean Vulnerability Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>C</t>
     </r>
@@ -440,19 +429,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ssp585 Mean Risk Index</t>
+    <t>SSP585 Mean Risk Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ssp585 Mean Hazard Index</t>
+    <t>SSP585 Mean Hazard Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ssp585 Mean Exposure Index</t>
+    <t>SSP585 Mean Exposure Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ssp585 Mean Vulnerability Index</t>
+    <t>SSP585 Mean Vulnerability Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mean Risk Index</t>
+  </si>
+  <si>
+    <t>Mean Hazard Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSP126</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSP245</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSP370</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSP585</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mean Exposure Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mean Vulnerability Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -584,7 +604,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -644,6 +664,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -651,7 +708,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -759,22 +816,25 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -797,6 +857,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1092,7 +1161,7 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA35" sqref="AA35"/>
+      <selection pane="bottomLeft" activeCell="N3" sqref="N3:N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1121,54 +1190,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="43" t="s">
+      <c r="E1" s="44"/>
+      <c r="F1" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43" t="s">
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43" t="s">
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="44" t="s">
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
       <c r="AA1" s="12"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
       <c r="D2" s="13" t="s">
         <v>56</v>
       </c>
@@ -1240,15 +1309,13 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="45" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="41">
-        <v>0.13884768139346668</v>
-      </c>
+      <c r="C3" s="41"/>
       <c r="D3" s="9">
         <v>61.645161290322577</v>
       </c>
@@ -1280,7 +1347,7 @@
         <v>15996299</v>
       </c>
       <c r="N3" s="7">
-        <v>1263132.375</v>
+        <v>1940842.625</v>
       </c>
       <c r="O3" s="4">
         <v>2058741</v>
@@ -1320,7 +1387,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="42"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
@@ -1396,7 +1463,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="42"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1432,7 +1499,7 @@
         <v>1529603</v>
       </c>
       <c r="N5" s="7">
-        <v>1229416.25</v>
+        <v>1614095</v>
       </c>
       <c r="O5" s="4">
         <v>1955619.5</v>
@@ -1472,7 +1539,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="42"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
@@ -1548,7 +1615,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" s="42"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
@@ -1584,7 +1651,7 @@
         <v>5959695</v>
       </c>
       <c r="N7" s="7">
-        <v>3819839</v>
+        <v>3916929</v>
       </c>
       <c r="O7" s="4">
         <v>34990640</v>
@@ -1624,15 +1691,13 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="45" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="41">
-        <v>0.12387934226916501</v>
-      </c>
+      <c r="C8" s="41"/>
       <c r="D8" s="9">
         <v>23.904761904761898</v>
       </c>
@@ -1664,7 +1729,7 @@
         <v>674061</v>
       </c>
       <c r="N8" s="7">
-        <v>533586.25</v>
+        <v>791721.0625</v>
       </c>
       <c r="O8" s="4">
         <v>36015.91015625</v>
@@ -1704,7 +1769,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" s="42"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
@@ -1740,7 +1805,7 @@
         <v>2944706</v>
       </c>
       <c r="N9" s="7">
-        <v>1534126.875</v>
+        <v>1570538.5</v>
       </c>
       <c r="O9" s="4">
         <v>10794276</v>
@@ -1780,7 +1845,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" s="42"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
@@ -1806,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>465.01300048828125</v>
+        <v>46674.984375</v>
       </c>
       <c r="O10" s="4">
         <v>346.46630859375</v>
@@ -1846,15 +1911,13 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="45" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="41">
-        <v>0.215550126027579</v>
-      </c>
+      <c r="C11" s="41"/>
       <c r="D11" s="9">
         <v>-29.707575757575768</v>
       </c>
@@ -1926,7 +1989,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" s="42"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="4" t="s">
         <v>31</v>
       </c>
@@ -1962,7 +2025,7 @@
         <v>725026</v>
       </c>
       <c r="N12" s="7">
-        <v>371008.375</v>
+        <v>503205.75</v>
       </c>
       <c r="O12" s="4">
         <v>296238.59375</v>
@@ -2002,7 +2065,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" s="42"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
@@ -2038,7 +2101,7 @@
         <v>660729</v>
       </c>
       <c r="N13" s="7">
-        <v>439209.875</v>
+        <v>5002844.5</v>
       </c>
       <c r="O13" s="4">
         <v>1087179.75</v>
@@ -2078,7 +2141,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" s="42"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
@@ -2104,7 +2167,7 @@
         <v>2056</v>
       </c>
       <c r="N14" s="7">
-        <v>969.7984619140625</v>
+        <v>1004.5001831054688</v>
       </c>
       <c r="O14" s="4">
         <v>28693.74609375</v>
@@ -2144,7 +2207,7 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15" s="42"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="4" t="s">
         <v>32</v>
       </c>
@@ -2180,7 +2243,7 @@
         <v>34275638</v>
       </c>
       <c r="N15" s="7">
-        <v>7978070</v>
+        <v>9278444</v>
       </c>
       <c r="O15" s="4">
         <v>26914562</v>
@@ -2220,7 +2283,7 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" s="42"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
@@ -2256,7 +2319,7 @@
         <v>489903898</v>
       </c>
       <c r="N16" s="7">
-        <v>101825416</v>
+        <v>102389360</v>
       </c>
       <c r="O16" s="4">
         <v>147206880</v>
@@ -2296,15 +2359,13 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="45" t="s">
         <v>63</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="41">
-        <v>0.12259939115778577</v>
-      </c>
+      <c r="C17" s="41"/>
       <c r="D17" s="9">
         <v>47.380122950819668</v>
       </c>
@@ -2336,7 +2397,7 @@
         <v>12858787</v>
       </c>
       <c r="N17" s="7">
-        <v>847289.4375</v>
+        <v>1089034.25</v>
       </c>
       <c r="O17" s="4">
         <v>3276528</v>
@@ -2376,7 +2437,7 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="42"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
@@ -2452,7 +2513,7 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="42"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="4" t="s">
         <v>11</v>
       </c>
@@ -2528,15 +2589,13 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="45" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="41">
-        <v>0.18275687352102682</v>
-      </c>
+      <c r="C20" s="41"/>
       <c r="D20" s="9">
         <v>36.740259740259745</v>
       </c>
@@ -2568,7 +2627,7 @@
         <v>9769747</v>
       </c>
       <c r="N20" s="7">
-        <v>1657072.75</v>
+        <v>2183906.25</v>
       </c>
       <c r="O20" s="4">
         <v>4754071</v>
@@ -2608,7 +2667,7 @@
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="42"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="4" t="s">
         <v>11</v>
       </c>
@@ -2644,7 +2703,7 @@
         <v>172332712</v>
       </c>
       <c r="N21" s="7">
-        <v>36037892</v>
+        <v>38854180</v>
       </c>
       <c r="O21" s="4">
         <v>283638752</v>
@@ -2684,7 +2743,7 @@
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="42"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
@@ -2720,7 +2779,7 @@
         <v>26238681</v>
       </c>
       <c r="N22" s="7">
-        <v>7428966.5</v>
+        <v>10161988</v>
       </c>
       <c r="O22" s="4">
         <v>16325554</v>
@@ -2760,15 +2819,13 @@
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="45" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="41">
-        <v>0.28794591788333912</v>
-      </c>
+      <c r="C23" s="41"/>
       <c r="D23" s="9">
         <v>-23.75</v>
       </c>
@@ -2800,7 +2857,7 @@
         <v>495465</v>
       </c>
       <c r="N23" s="7">
-        <v>140756.71875</v>
+        <v>168121.390625</v>
       </c>
       <c r="O23" s="4">
         <v>3141034.5</v>
@@ -2840,7 +2897,7 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" s="42"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="4" t="s">
         <v>4</v>
       </c>
@@ -2876,7 +2933,7 @@
         <v>9988096</v>
       </c>
       <c r="N24" s="7">
-        <v>9245358</v>
+        <v>9252218</v>
       </c>
       <c r="O24" s="4">
         <v>54443756</v>
@@ -2916,7 +2973,7 @@
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25" s="42"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="4" t="s">
         <v>27</v>
       </c>
@@ -2952,7 +3009,7 @@
         <v>2552226</v>
       </c>
       <c r="N25" s="7">
-        <v>493679.34375</v>
+        <v>493702.6875</v>
       </c>
       <c r="O25" s="4">
         <v>2701915</v>
@@ -2992,15 +3049,13 @@
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="45" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="41">
-        <v>0.2092336178225486</v>
-      </c>
+      <c r="C26" s="41"/>
       <c r="D26" s="9">
         <v>52.212962962962948</v>
       </c>
@@ -3072,7 +3127,7 @@
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" s="42"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="5" t="s">
         <v>3</v>
       </c>
@@ -3108,7 +3163,7 @@
         <v>1553639</v>
       </c>
       <c r="N27" s="7">
-        <v>1312595.125</v>
+        <v>2458245.5</v>
       </c>
       <c r="O27" s="4">
         <v>12825072</v>
@@ -3148,7 +3203,7 @@
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A28" s="42"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="5" t="s">
         <v>5</v>
       </c>
@@ -3224,7 +3279,7 @@
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A29" s="42"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="5" t="s">
         <v>4</v>
       </c>
@@ -3300,7 +3355,7 @@
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A30" s="42"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="5" t="s">
         <v>6</v>
       </c>
@@ -3376,7 +3431,7 @@
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A31" s="42"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="5" t="s">
         <v>7</v>
       </c>
@@ -3452,15 +3507,13 @@
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="45" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="41">
-        <v>6.165510180143649E-2</v>
-      </c>
+      <c r="C32" s="41"/>
       <c r="D32" s="9">
         <v>27.328282828282831</v>
       </c>
@@ -3492,7 +3545,7 @@
         <v>4212158</v>
       </c>
       <c r="N32" s="7">
-        <v>361915.875</v>
+        <v>458862.125</v>
       </c>
       <c r="O32" s="4">
         <v>1103224</v>
@@ -3532,7 +3585,7 @@
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A33" s="42"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="4" t="s">
         <v>25</v>
       </c>
@@ -3608,7 +3661,7 @@
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A34" s="42"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="4" t="s">
         <v>15</v>
       </c>
@@ -3684,15 +3737,13 @@
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="45" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="41">
-        <v>0.35777344242101972</v>
-      </c>
+      <c r="C35" s="41"/>
       <c r="D35" s="9">
         <v>17.11388888888888</v>
       </c>
@@ -3724,7 +3775,7 @@
         <v>765018</v>
       </c>
       <c r="N35" s="7">
-        <v>646953.5</v>
+        <v>1212885.625</v>
       </c>
       <c r="O35" s="4">
         <v>4485451</v>
@@ -3764,7 +3815,7 @@
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A36" s="42"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="5" t="s">
         <v>4</v>
       </c>
@@ -3800,7 +3851,7 @@
         <v>1486573</v>
       </c>
       <c r="N36" s="7">
-        <v>1162734.875</v>
+        <v>1167229</v>
       </c>
       <c r="O36" s="4">
         <v>10267224</v>
@@ -3840,7 +3891,7 @@
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A37" s="42"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="5" t="s">
         <v>6</v>
       </c>
@@ -3916,15 +3967,13 @@
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A38" s="42" t="s">
+      <c r="A38" s="45" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="41">
-        <v>0.12966787860924414</v>
-      </c>
+      <c r="C38" s="41"/>
       <c r="D38" s="9">
         <v>64.680097680097674</v>
       </c>
@@ -3956,7 +4005,7 @@
         <v>1793410</v>
       </c>
       <c r="N38" s="7">
-        <v>1090481.75</v>
+        <v>1113093.375</v>
       </c>
       <c r="O38" s="4">
         <v>2369879.75</v>
@@ -3996,7 +4045,7 @@
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A39" s="42"/>
+      <c r="A39" s="45"/>
       <c r="B39" s="4" t="s">
         <v>21</v>
       </c>
@@ -4032,7 +4081,7 @@
         <v>1216485</v>
       </c>
       <c r="N39" s="7">
-        <v>667248.25</v>
+        <v>1134308.25</v>
       </c>
       <c r="O39" s="4">
         <v>1491722.375</v>
@@ -4072,7 +4121,7 @@
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A40" s="42"/>
+      <c r="A40" s="45"/>
       <c r="B40" s="4" t="s">
         <v>13</v>
       </c>
@@ -4108,7 +4157,7 @@
         <v>955359</v>
       </c>
       <c r="N40" s="7">
-        <v>423496.96875</v>
+        <v>470622.75</v>
       </c>
       <c r="O40" s="4">
         <v>707506.75</v>
@@ -4148,7 +4197,7 @@
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A41" s="42"/>
+      <c r="A41" s="45"/>
       <c r="B41" s="4" t="s">
         <v>14</v>
       </c>
@@ -4184,7 +4233,7 @@
         <v>10162086</v>
       </c>
       <c r="N41" s="7">
-        <v>4479756</v>
+        <v>4555014</v>
       </c>
       <c r="O41" s="4">
         <v>2634612.5</v>
@@ -4230,9 +4279,7 @@
       <c r="B42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="22">
-        <v>0.27721108419227292</v>
-      </c>
+      <c r="C42" s="22"/>
       <c r="D42" s="9">
         <v>100.6728255404726</v>
       </c>
@@ -4264,7 +4311,7 @@
         <v>2435237</v>
       </c>
       <c r="N42" s="7">
-        <v>2194444.5</v>
+        <v>2707386.75</v>
       </c>
       <c r="O42" s="4">
         <v>24700206</v>
@@ -4310,9 +4357,7 @@
       <c r="B43" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="22">
-        <v>0.13269812032366152</v>
-      </c>
+      <c r="C43" s="22"/>
       <c r="D43" s="9">
         <v>47.871716101694915</v>
       </c>
@@ -4344,7 +4389,7 @@
         <v>166773412</v>
       </c>
       <c r="N43" s="7">
-        <v>38838128</v>
+        <v>41461040</v>
       </c>
       <c r="O43" s="4">
         <v>1694985984</v>
@@ -4390,9 +4435,7 @@
       <c r="B44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="22">
-        <v>0.22354054273317278</v>
-      </c>
+      <c r="C44" s="22"/>
       <c r="D44" s="9">
         <v>64.882465205045861</v>
       </c>
@@ -4424,7 +4467,7 @@
         <v>82392835</v>
       </c>
       <c r="N44" s="7">
-        <v>17401244</v>
+        <v>19066084</v>
       </c>
       <c r="O44" s="4">
         <v>765520896</v>
@@ -4471,18 +4514,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="T1:Z1"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C16"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="C35:C37"/>
@@ -4499,6 +4530,18 @@
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="T1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4510,9 +4553,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3655EE2C-431F-40A3-AE36-CDE9CDC9267E}">
   <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:E2"/>
+      <selection pane="bottomLeft" activeCell="N3" sqref="N3:N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4533,54 +4576,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="43" t="s">
+      <c r="E1" s="44"/>
+      <c r="F1" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43" t="s">
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43" t="s">
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="44" t="s">
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
       <c r="AA1" s="14"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
       <c r="D2" s="13" t="s">
         <v>56</v>
       </c>
@@ -4652,13 +4695,13 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="45" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="45"/>
+      <c r="C3" s="46"/>
       <c r="D3" s="16"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
@@ -4678,7 +4721,7 @@
         <v>0.21644240737416465</v>
       </c>
       <c r="N3" s="8">
-        <v>6.5201245248317719E-2</v>
+        <v>0.10018377006053925</v>
       </c>
       <c r="O3" s="8">
         <v>8.2014640793204308E-3</v>
@@ -4718,11 +4761,11 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="42"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="46"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="16"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
@@ -4782,11 +4825,11 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="42"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="46"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="16"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
@@ -4806,7 +4849,7 @@
         <v>2.0696722138461174E-2</v>
       </c>
       <c r="N5" s="8">
-        <v>6.3460864126682281E-2</v>
+        <v>8.3317480981349945E-2</v>
       </c>
       <c r="O5" s="8">
         <v>7.7906567603349686E-3</v>
@@ -4846,11 +4889,11 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="42"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="46"/>
+      <c r="C6" s="47"/>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
@@ -4910,11 +4953,11 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" s="42"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="47"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="16"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
@@ -4934,7 +4977,7 @@
         <v>8.0639323697048432E-2</v>
       </c>
       <c r="N7" s="8">
-        <v>0.19717510044574738</v>
+        <v>0.20218677818775177</v>
       </c>
       <c r="O7" s="8">
         <v>0.13939319550991058</v>
@@ -4974,13 +5017,13 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="45" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="45"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="16"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -5000,7 +5043,7 @@
         <v>9.1205712994635053E-3</v>
       </c>
       <c r="N8" s="8">
-        <v>2.7543026953935623E-2</v>
+        <v>4.0867611765861511E-2</v>
       </c>
       <c r="O8" s="8">
         <v>1.4347759133670479E-4</v>
@@ -5040,11 +5083,11 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" s="42"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="46"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -5064,7 +5107,7 @@
         <v>3.9844169932629223E-2</v>
       </c>
       <c r="N9" s="8">
-        <v>7.918962836265564E-2</v>
+        <v>8.1069149076938629E-2</v>
       </c>
       <c r="O9" s="8">
         <v>4.3001458048820496E-2</v>
@@ -5104,11 +5147,11 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" s="42"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="47"/>
+      <c r="C10" s="48"/>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -5128,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="8">
-        <v>2.4003364160307683E-5</v>
+        <v>2.4093019310384989E-3</v>
       </c>
       <c r="O10" s="8">
         <v>1.3802275589114288E-6</v>
@@ -5168,13 +5211,13 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="45" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="45"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
@@ -5234,11 +5277,11 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" s="42"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="46"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -5258,7 +5301,7 @@
         <v>9.8101675174276943E-3</v>
       </c>
       <c r="N12" s="8">
-        <v>1.9150968641042709E-2</v>
+        <v>2.5974825024604797E-2</v>
       </c>
       <c r="O12" s="8">
         <v>1.1801340151578188E-3</v>
@@ -5298,11 +5341,11 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" s="42"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="46"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="16"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -5322,7 +5365,7 @@
         <v>8.9401789365105289E-3</v>
       </c>
       <c r="N13" s="8">
-        <v>2.2671442478895187E-2</v>
+        <v>0.25824031233787537</v>
       </c>
       <c r="O13" s="8">
         <v>4.3310285545885563E-3</v>
@@ -5362,11 +5405,11 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" s="42"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="46"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
@@ -5386,7 +5429,7 @@
         <v>2.7819284295778826E-5</v>
       </c>
       <c r="N14" s="8">
-        <v>5.0059730710927397E-5</v>
+        <v>5.18509914400056E-5</v>
       </c>
       <c r="O14" s="8">
         <v>1.1430808081058785E-4</v>
@@ -5426,11 +5469,11 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15" s="42"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="46"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="16"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
@@ -5450,7 +5493,7 @@
         <v>0.46377612740330731</v>
       </c>
       <c r="N15" s="8">
-        <v>0.41181758046150208</v>
+        <v>0.47894120216369629</v>
       </c>
       <c r="O15" s="8">
         <v>0.10722029209136963</v>
@@ -5490,11 +5533,11 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" s="42"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="47"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="16"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
@@ -5514,7 +5557,7 @@
         <v>6.6287820117082825</v>
       </c>
       <c r="N16" s="8">
-        <v>5.2560949325561523</v>
+        <v>5.2852053642272949</v>
       </c>
       <c r="O16" s="8">
         <v>0.58643215894699097</v>
@@ -5554,13 +5597,13 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="45" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="45"/>
+      <c r="C17" s="46"/>
       <c r="D17" s="16"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
@@ -5580,7 +5623,7 @@
         <v>0.17398942181510937</v>
       </c>
       <c r="N17" s="8">
-        <v>4.373597726225853E-2</v>
+        <v>5.6214526295661926E-2</v>
       </c>
       <c r="O17" s="8">
         <v>1.3052796944975853E-2</v>
@@ -5620,11 +5663,11 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="42"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="46"/>
+      <c r="C18" s="47"/>
       <c r="D18" s="16"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
@@ -5684,11 +5727,11 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="42"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="47"/>
+      <c r="C19" s="48"/>
       <c r="D19" s="16"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
@@ -5748,13 +5791,13 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="45" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="45"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="16"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
@@ -5774,7 +5817,7 @@
         <v>0.13219230023873166</v>
       </c>
       <c r="N20" s="8">
-        <v>8.5535936057567596E-2</v>
+        <v>0.11273039132356644</v>
       </c>
       <c r="O20" s="8">
         <v>1.8938926979899406E-2</v>
@@ -5814,11 +5857,11 @@
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="42"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="46"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="16"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
@@ -5838,7 +5881,7 @@
         <v>2.3317960644895792</v>
       </c>
       <c r="N21" s="8">
-        <v>1.8602288961410522</v>
+        <v>2.0056021213531494</v>
       </c>
       <c r="O21" s="8">
         <v>1.1299396753311157</v>
@@ -5878,11 +5921,11 @@
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="42"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="47"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="16"/>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
@@ -5902,7 +5945,7 @@
         <v>0.35502982795975202</v>
       </c>
       <c r="N22" s="8">
-        <v>0.38347357511520386</v>
+        <v>0.52454859018325806</v>
       </c>
       <c r="O22" s="8">
         <v>6.5036565065383911E-2</v>
@@ -5942,13 +5985,13 @@
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="45" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="45"/>
+      <c r="C23" s="46"/>
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
@@ -5968,7 +6011,7 @@
         <v>6.7040280610934115E-3</v>
       </c>
       <c r="N23" s="8">
-        <v>7.2656781412661076E-3</v>
+        <v>8.6782071739435196E-3</v>
       </c>
       <c r="O23" s="8">
         <v>1.2513027526438236E-2</v>
@@ -6008,11 +6051,11 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" s="42"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="46"/>
+      <c r="C24" s="47"/>
       <c r="D24" s="16"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
@@ -6032,7 +6075,7 @@
         <v>0.13514673258634791</v>
       </c>
       <c r="N24" s="8">
-        <v>0.47723335027694702</v>
+        <v>0.47758743166923523</v>
       </c>
       <c r="O24" s="8">
         <v>0.21688912808895111</v>
@@ -6072,11 +6115,11 @@
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25" s="42"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="47"/>
+      <c r="C25" s="48"/>
       <c r="D25" s="16"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
@@ -6096,7 +6139,7 @@
         <v>3.453360928068016E-2</v>
       </c>
       <c r="N25" s="8">
-        <v>2.5483084842562675E-2</v>
+        <v>2.5484288111329079E-2</v>
       </c>
       <c r="O25" s="8">
         <v>1.0763694532215595E-2</v>
@@ -6136,13 +6179,13 @@
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="45" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="45"/>
+      <c r="C26" s="46"/>
       <c r="D26" s="16"/>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
@@ -6202,11 +6245,11 @@
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" s="42"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="46"/>
+      <c r="C27" s="47"/>
       <c r="D27" s="16"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
@@ -6226,7 +6269,7 @@
         <v>2.1021947973740036E-2</v>
       </c>
       <c r="N27" s="8">
-        <v>6.7754447460174561E-2</v>
+        <v>0.12689143419265747</v>
       </c>
       <c r="O27" s="8">
         <v>5.1091600209474564E-2</v>
@@ -6266,11 +6309,11 @@
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A28" s="42"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="46"/>
+      <c r="C28" s="47"/>
       <c r="D28" s="16"/>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
@@ -6330,11 +6373,11 @@
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A29" s="42"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="46"/>
+      <c r="C29" s="47"/>
       <c r="D29" s="16"/>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
@@ -6394,11 +6437,11 @@
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A30" s="42"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="46"/>
+      <c r="C30" s="47"/>
       <c r="D30" s="16"/>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
@@ -6458,11 +6501,11 @@
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A31" s="42"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="47"/>
+      <c r="C31" s="48"/>
       <c r="D31" s="16"/>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
@@ -6522,13 +6565,13 @@
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="45" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="45"/>
+      <c r="C32" s="46"/>
       <c r="D32" s="16"/>
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
@@ -6548,7 +6591,7 @@
         <v>5.6993784484795293E-2</v>
       </c>
       <c r="N32" s="8">
-        <v>1.868162490427494E-2</v>
+        <v>2.3685865104198456E-2</v>
       </c>
       <c r="O32" s="8">
         <v>4.394944291561842E-3</v>
@@ -6588,11 +6631,11 @@
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A33" s="42"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="46"/>
+      <c r="C33" s="47"/>
       <c r="D33" s="16"/>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
@@ -6652,11 +6695,11 @@
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A34" s="42"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="47"/>
+      <c r="C34" s="48"/>
       <c r="D34" s="16"/>
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
@@ -6716,13 +6759,13 @@
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="45" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="45"/>
+      <c r="C35" s="46"/>
       <c r="D35" s="16"/>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
@@ -6742,7 +6785,7 @@
         <v>1.035129048316543E-2</v>
       </c>
       <c r="N35" s="8">
-        <v>3.3394895493984222E-2</v>
+        <v>6.2607571482658386E-2</v>
       </c>
       <c r="O35" s="8">
         <v>1.786881685256958E-2</v>
@@ -6782,11 +6825,11 @@
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A36" s="42"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="46"/>
+      <c r="C36" s="47"/>
       <c r="D36" s="16"/>
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
@@ -6806,7 +6849,7 @@
         <v>2.0114492662173546E-2</v>
       </c>
       <c r="N36" s="8">
-        <v>6.0018856078386307E-2</v>
+        <v>6.0250837355852127E-2</v>
       </c>
       <c r="O36" s="8">
         <v>4.0901828557252884E-2</v>
@@ -6846,11 +6889,11 @@
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A37" s="42"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="47"/>
+      <c r="C37" s="48"/>
       <c r="D37" s="16"/>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
@@ -6910,13 +6953,13 @@
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A38" s="42" t="s">
+      <c r="A38" s="45" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="45"/>
+      <c r="C38" s="46"/>
       <c r="D38" s="16"/>
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
@@ -6936,7 +6979,7 @@
         <v>2.4266236696932245E-2</v>
       </c>
       <c r="N38" s="8">
-        <v>5.6289248168468475E-2</v>
+        <v>5.7456426322460175E-2</v>
       </c>
       <c r="O38" s="8">
         <v>9.440956637263298E-3</v>
@@ -6976,11 +7019,11 @@
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A39" s="42"/>
+      <c r="A39" s="45"/>
       <c r="B39" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="46"/>
+      <c r="C39" s="47"/>
       <c r="D39" s="16"/>
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
@@ -7000,7 +7043,7 @@
         <v>1.6459991272641295E-2</v>
       </c>
       <c r="N39" s="8">
-        <v>3.4442484378814697E-2</v>
+        <v>5.8551512658596039E-2</v>
       </c>
       <c r="O39" s="8">
         <v>5.9426161460578442E-3</v>
@@ -7040,11 +7083,11 @@
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A40" s="42"/>
+      <c r="A40" s="45"/>
       <c r="B40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="46"/>
+      <c r="C40" s="47"/>
       <c r="D40" s="16"/>
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
@@ -7064,7 +7107,7 @@
         <v>1.292675273615319E-2</v>
       </c>
       <c r="N40" s="8">
-        <v>2.1860361099243164E-2</v>
+        <v>2.4292932823300362E-2</v>
       </c>
       <c r="O40" s="8">
         <v>2.8185143601149321E-3</v>
@@ -7104,11 +7147,11 @@
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A41" s="42"/>
+      <c r="A41" s="45"/>
       <c r="B41" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="47"/>
+      <c r="C41" s="48"/>
       <c r="D41" s="16"/>
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
@@ -7128,7 +7171,7 @@
         <v>0.13750095305065849</v>
       </c>
       <c r="N41" s="8">
-        <v>0.23123915493488312</v>
+        <v>0.2351238876581192</v>
       </c>
       <c r="O41" s="8">
         <v>1.0495579801499844E-2</v>
@@ -7194,7 +7237,7 @@
         <v>3.2950656824221561E-2</v>
       </c>
       <c r="N42" s="8">
-        <v>0.11327436566352844</v>
+        <v>0.13975177705287933</v>
       </c>
       <c r="O42" s="8">
         <v>9.8398908972740173E-2</v>
@@ -7260,7 +7303,7 @@
         <v>2.2565743975705503</v>
       </c>
       <c r="N43" s="8">
-        <v>2.0047736167907715</v>
+        <v>2.140164852142334</v>
       </c>
       <c r="O43" s="8">
         <v>6.7523636817932129</v>
@@ -7326,7 +7369,7 @@
         <v>1.1148393486382275</v>
       </c>
       <c r="N44" s="8">
-        <v>0.89822953939437866</v>
+        <v>0.98416638374328613</v>
       </c>
       <c r="O44" s="8">
         <v>3.0496270656585693</v>
@@ -7387,7 +7430,7 @@
       </c>
       <c r="N45" s="11">
         <f>SUM(N3:N44)</f>
-        <v>14.432090985168543</v>
+        <v>15.549033723989851</v>
       </c>
       <c r="O45" s="11">
         <f t="shared" ref="O45:U45" si="1">SUM(O3:O44)</f>
@@ -7440,18 +7483,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="C32:C34"/>
     <mergeCell ref="T1:Z1"/>
     <mergeCell ref="A11:A16"/>
     <mergeCell ref="C11:C16"/>
@@ -7468,6 +7499,18 @@
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="C32:C34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7479,17 +7522,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB148ED4-95ED-4296-BCCD-A7D6B08365CF}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="6.25" customWidth="1"/>
-    <col min="3" max="3" width="9.75" customWidth="1"/>
+    <col min="2" max="2" width="9.625" customWidth="1"/>
+    <col min="3" max="3" width="8.375" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="11.75" customWidth="1"/>
     <col min="6" max="6" width="7.875" customWidth="1"/>
     <col min="7" max="7" width="11.125" customWidth="1"/>
     <col min="8" max="8" width="10.75" customWidth="1"/>
@@ -7499,54 +7542,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="49" t="s">
+      <c r="B1" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="G2" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1" s="48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
     </row>
     <row r="3" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -7582,7 +7625,7 @@
       </c>
       <c r="J3" s="18">
         <f>SUM(Quantity!N3:S7)/1000000</f>
-        <v>67.401862613212586</v>
+        <v>68.561341613212591</v>
       </c>
       <c r="K3" s="18">
         <f>SUM(Quantity!T3:Z7)/1000000</f>
@@ -7623,7 +7666,7 @@
       </c>
       <c r="J4" s="18">
         <f>SUM(Quantity!N8:S10)/1000000</f>
-        <v>26.447857293746949</v>
+        <v>26.788613702621461</v>
       </c>
       <c r="K4" s="18">
         <f>SUM(Quantity!T8:Z10)/1000000</f>
@@ -7664,7 +7707,7 @@
       </c>
       <c r="J5" s="18">
         <f>SUM(Quantity!N11:S16)/1000000</f>
-        <v>731.35608099088006</v>
+        <v>737.9162656926012</v>
       </c>
       <c r="K5" s="18">
         <f>SUM(Quantity!T11:Z16)/1000000</f>
@@ -7705,7 +7748,7 @@
       </c>
       <c r="J6" s="18">
         <f>SUM(Quantity!N17:S19)/1000000</f>
-        <v>10.160793129564285</v>
+        <v>10.402537942064285</v>
       </c>
       <c r="K6" s="18">
         <f>SUM(Quantity!T17:Z19)/1000000</f>
@@ -7746,7 +7789,7 @@
       </c>
       <c r="J7" s="18">
         <f>SUM(Quantity!N20:S22)/1000000</f>
-        <v>450.33307696874999</v>
+        <v>456.40921996874999</v>
       </c>
       <c r="K7" s="18">
         <f>SUM(Quantity!T20:Z22)/1000000</f>
@@ -7787,7 +7830,7 @@
       </c>
       <c r="J8" s="18">
         <f>SUM(Quantity!N23:S25)/1000000</f>
-        <v>81.374459518554687</v>
+        <v>81.408707534179683</v>
       </c>
       <c r="K8" s="18">
         <f>SUM(Quantity!T23:Z25)/1000000</f>
@@ -7828,7 +7871,7 @@
       </c>
       <c r="J9" s="18">
         <f>SUM(Quantity!N26:S31)/1000000</f>
-        <v>222.93536386036254</v>
+        <v>224.08101423536252</v>
       </c>
       <c r="K9" s="18">
         <f>SUM(Quantity!T26:Z31)/1000000</f>
@@ -7869,7 +7912,7 @@
       </c>
       <c r="J10" s="18">
         <f>SUM(Quantity!N32:S34)/1000000</f>
-        <v>19.671812438533784</v>
+        <v>19.768758688533783</v>
       </c>
       <c r="K10" s="18">
         <f>SUM(Quantity!T32:Z34)/1000000</f>
@@ -7910,7 +7953,7 @@
       </c>
       <c r="J11" s="18">
         <f>SUM(Quantity!N35:S37)/1000000</f>
-        <v>21.723634731101988</v>
+        <v>22.294060981101989</v>
       </c>
       <c r="K11" s="18">
         <f>SUM(Quantity!T35:Z37)/1000000</f>
@@ -7951,7 +7994,7 @@
       </c>
       <c r="J12" s="18">
         <f>SUM(Quantity!N38:S41)/1000000</f>
-        <v>24.26183066845703</v>
+        <v>24.873886074707031</v>
       </c>
       <c r="K12" s="18">
         <f>SUM(Quantity!T38:Z41)/1000000</f>
@@ -7992,7 +8035,7 @@
       </c>
       <c r="J13" s="18">
         <f>SUM(Quantity!N42:S42)/1000000</f>
-        <v>51.178107500000003</v>
+        <v>51.691049749999998</v>
       </c>
       <c r="K13" s="18">
         <f>SUM(Quantity!T42:Z42)/1000000</f>
@@ -8033,7 +8076,7 @@
       </c>
       <c r="J14" s="18">
         <f>SUM(Quantity!N43:S43)/1000000</f>
-        <v>2534.3919277499999</v>
+        <v>2537.0148397500002</v>
       </c>
       <c r="K14" s="18">
         <f>SUM(Quantity!T43:Z43)/1000000</f>
@@ -8074,7 +8117,7 @@
       </c>
       <c r="J15" s="18">
         <f>SUM(Quantity!N44:S44)/1000000</f>
-        <v>986.88637200000005</v>
+        <v>988.55121199999996</v>
       </c>
       <c r="K15" s="18">
         <f>SUM(Quantity!T44:Z44)/1000000</f>
@@ -8111,7 +8154,7 @@
       </c>
       <c r="J17" s="21">
         <f>AVERAGE(Percentage!N45:S45)</f>
-        <v>21.25552282560222</v>
+        <v>21.441679948739107</v>
       </c>
       <c r="K17" s="21">
         <f>AVERAGE(Percentage!T45:Z45)</f>
@@ -8141,8 +8184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8C50B2-6548-440C-80AC-E7E6613A7E8A}">
   <dimension ref="A1:AB46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8150,10 +8193,11 @@
     <col min="1" max="1" width="12.625" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="31" customWidth="1"/>
     <col min="3" max="3" width="11.75" style="31" customWidth="1"/>
-    <col min="4" max="5" width="11.625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="31" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="31" customWidth="1"/>
     <col min="6" max="6" width="8.125" customWidth="1"/>
     <col min="7" max="7" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="8" max="8" width="7.875" customWidth="1"/>
     <col min="9" max="9" width="7.375" customWidth="1"/>
     <col min="10" max="10" width="7.125" customWidth="1"/>
     <col min="11" max="11" width="7.25" customWidth="1"/>
@@ -8173,66 +8217,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="34" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="C1" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51" t="s">
+      <c r="G1" s="52"/>
+      <c r="H1" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51" t="s">
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51" t="s">
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51" t="s">
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
     </row>
     <row r="2" spans="1:28" s="34" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
       <c r="F2" s="36" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H2" s="36" t="s">
         <v>34</v>
@@ -8356,7 +8400,7 @@
       </c>
       <c r="P3" s="35">
         <f>SUM(Quantity!N3,Quantity!N17,Quantity!N20,Quantity!N32)/1000000</f>
-        <v>4.1294104374999998</v>
+        <v>5.6726452500000004</v>
       </c>
       <c r="Q3" s="35">
         <f>SUM(Quantity!O3,Quantity!O17,Quantity!O20,Quantity!O32)/1000000</f>
@@ -8574,7 +8618,7 @@
       </c>
       <c r="P5" s="35">
         <f>SUM(Quantity!N12)/1000000</f>
-        <v>0.371008375</v>
+        <v>0.50320575000000001</v>
       </c>
       <c r="Q5" s="35">
         <f>SUM(Quantity!O12)/1000000</f>
@@ -8792,7 +8836,7 @@
       </c>
       <c r="P7" s="35">
         <f>SUM(Quantity!N8,Quantity!N23,Quantity!N35,Quantity!N42:N44,Quantity!N27,Quantity!N13)/1000000</f>
-        <v>61.506917968750003</v>
+        <v>72.868328828125001</v>
       </c>
       <c r="Q7" s="35">
         <f>SUM(Quantity!O8,Quantity!O23,Quantity!O35,Quantity!O42:O44,Quantity!O27,Quantity!O13)/1000000</f>
@@ -8901,7 +8945,7 @@
       </c>
       <c r="P8" s="35">
         <f>SUM(Quantity!N16,Quantity!N25,Quantity!N22)/1000000</f>
-        <v>109.74806184374999</v>
+        <v>113.04505068749999</v>
       </c>
       <c r="Q8" s="35">
         <f>SUM(Quantity!O16,Quantity!O25,Quantity!O22)/1000000</f>
@@ -9119,7 +9163,7 @@
       </c>
       <c r="P10" s="35">
         <f>SUM(Quantity!N4,Quantity!N9,Quantity!N38)/1000000</f>
-        <v>2.7615944374999999</v>
+        <v>2.8206176875</v>
       </c>
       <c r="Q10" s="35">
         <f>SUM(Quantity!O4,Quantity!O9,Quantity!O38)/1000000</f>
@@ -9228,7 +9272,7 @@
       </c>
       <c r="P11" s="35">
         <f>SUM(Quantity!N39,Quantity!N10)/1000000</f>
-        <v>0.66771326300048828</v>
+        <v>1.180983234375</v>
       </c>
       <c r="Q11" s="35">
         <f>SUM(Quantity!O39,Quantity!O10)/1000000</f>
@@ -9446,7 +9490,7 @@
       </c>
       <c r="P13" s="35">
         <f>SUM(Quantity!N24,Quantity!N29,Quantity!N36,Quantity!N14)/1000000</f>
-        <v>10.518289251586914</v>
+        <v>10.529678078308105</v>
       </c>
       <c r="Q13" s="35">
         <f>SUM(Quantity!O24,Quantity!O29,Quantity!O36,Quantity!O14)/1000000</f>
@@ -9555,7 +9599,7 @@
       </c>
       <c r="P14" s="35">
         <f>SUM(Quantity!N15)/1000000</f>
-        <v>7.9780699999999998</v>
+        <v>9.2784440000000004</v>
       </c>
       <c r="Q14" s="35">
         <f>SUM(Quantity!O15)/1000000</f>
@@ -9664,7 +9708,7 @@
       </c>
       <c r="P15" s="35">
         <f>SUM(Quantity!N19,Quantity!N21)/1000000</f>
-        <v>36.090106902343749</v>
+        <v>38.906394902343749</v>
       </c>
       <c r="Q15" s="35">
         <f>SUM(Quantity!O19,Quantity!O21)/1000000</f>
@@ -9773,7 +9817,7 @@
       </c>
       <c r="P16" s="35">
         <f>SUM(Quantity!N5,Quantity!N40)/1000000</f>
-        <v>1.65291321875</v>
+        <v>2.0847177499999998</v>
       </c>
       <c r="Q16" s="35">
         <f>SUM(Quantity!O5,Quantity!O40)/1000000</f>
@@ -10100,7 +10144,7 @@
       </c>
       <c r="P19" s="35">
         <f>SUM(Quantity!N7,Quantity!N41)/1000000</f>
-        <v>8.2995950000000001</v>
+        <v>8.4719429999999996</v>
       </c>
       <c r="Q19" s="35">
         <f>SUM(Quantity!O7,Quantity!O41)/1000000</f>
@@ -10433,16 +10477,683 @@
     <sortCondition ref="A1"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="V1:AB1"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="P1:U1"/>
-    <mergeCell ref="V1:AB1"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="E1:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E942ED7D-3D70-4062-B69E-2AC81A6A5983}">
+  <dimension ref="A1:Q15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="17" width="7.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="55"/>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="51"/>
+      <c r="B2" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="O2" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="P2" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q2" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="27">
+        <v>0.41535592673323474</v>
+      </c>
+      <c r="C3" s="27">
+        <v>0.51552301029812631</v>
+      </c>
+      <c r="D3" s="27">
+        <v>0.57922804805553962</v>
+      </c>
+      <c r="E3" s="27">
+        <v>0.49153408070061622</v>
+      </c>
+      <c r="F3" s="27">
+        <v>0.20050861590352695</v>
+      </c>
+      <c r="G3" s="27">
+        <v>0.31883665616110751</v>
+      </c>
+      <c r="H3" s="27">
+        <v>0.39022297074004375</v>
+      </c>
+      <c r="I3" s="27">
+        <v>0.39976039917435935</v>
+      </c>
+      <c r="J3" s="27">
+        <v>0.51191554147127982</v>
+      </c>
+      <c r="K3" s="27">
+        <v>0.51756195137916161</v>
+      </c>
+      <c r="L3" s="27">
+        <v>0.52442617785578693</v>
+      </c>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="27">
+        <v>0.50893653004738382</v>
+      </c>
+      <c r="C4" s="27">
+        <v>0.52950687709886191</v>
+      </c>
+      <c r="D4" s="27">
+        <v>0.46892844683609242</v>
+      </c>
+      <c r="E4" s="27">
+        <v>0.42420723173060221</v>
+      </c>
+      <c r="F4" s="27">
+        <v>0.7049410369077419</v>
+      </c>
+      <c r="G4" s="27">
+        <v>0.62701556616322962</v>
+      </c>
+      <c r="H4" s="27">
+        <v>0.44263676415516851</v>
+      </c>
+      <c r="I4" s="27">
+        <v>0.48702039965614902</v>
+      </c>
+      <c r="J4" s="27">
+        <v>0.35722499761718524</v>
+      </c>
+      <c r="K4" s="27">
+        <v>0.35938021058639913</v>
+      </c>
+      <c r="L4" s="27">
+        <v>0.36311592737126658</v>
+      </c>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="27">
+        <v>0.55374233440541232</v>
+      </c>
+      <c r="C5" s="27">
+        <v>0.59497720529262932</v>
+      </c>
+      <c r="D5" s="27">
+        <v>0.69610679625884908</v>
+      </c>
+      <c r="E5" s="27">
+        <v>0.54570296322825829</v>
+      </c>
+      <c r="F5" s="27">
+        <v>0.5126500898701023</v>
+      </c>
+      <c r="G5" s="27">
+        <v>0.45445378291399352</v>
+      </c>
+      <c r="H5" s="27">
+        <v>0.45817770427631355</v>
+      </c>
+      <c r="I5" s="27">
+        <v>0.44965944447180145</v>
+      </c>
+      <c r="J5" s="27">
+        <v>0.75642181950414888</v>
+      </c>
+      <c r="K5" s="27">
+        <v>0.75975316954282512</v>
+      </c>
+      <c r="L5" s="27">
+        <v>0.76426180148348366</v>
+      </c>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="27">
+        <v>0.47606918457835318</v>
+      </c>
+      <c r="C6" s="27">
+        <v>0.49830780979559514</v>
+      </c>
+      <c r="D6" s="27">
+        <v>0.6134538089964342</v>
+      </c>
+      <c r="E6" s="27">
+        <v>0.5644107804325833</v>
+      </c>
+      <c r="F6" s="27">
+        <v>5.2627030552700606E-2</v>
+      </c>
+      <c r="G6" s="27">
+        <v>0.11590601122644678</v>
+      </c>
+      <c r="H6" s="27">
+        <v>0.32111444610482304</v>
+      </c>
+      <c r="I6" s="27">
+        <v>0.27053912625811494</v>
+      </c>
+      <c r="J6" s="27">
+        <v>0.58514123757849645</v>
+      </c>
+      <c r="K6" s="27">
+        <v>0.59228350008645492</v>
+      </c>
+      <c r="L6" s="27">
+        <v>0.59761923860634536</v>
+      </c>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="27">
+        <v>0.52362686306233985</v>
+      </c>
+      <c r="C7" s="27">
+        <v>0.61959907714489326</v>
+      </c>
+      <c r="D7" s="27">
+        <v>0.70153104421652301</v>
+      </c>
+      <c r="E7" s="27">
+        <v>0.5624048197354069</v>
+      </c>
+      <c r="F7" s="27">
+        <v>0.56197274210945269</v>
+      </c>
+      <c r="G7" s="27">
+        <v>0.58548121559416821</v>
+      </c>
+      <c r="H7" s="27">
+        <v>0.62901423114469002</v>
+      </c>
+      <c r="I7" s="27">
+        <v>0.63793231157890373</v>
+      </c>
+      <c r="J7" s="27">
+        <v>0.61609279223500257</v>
+      </c>
+      <c r="K7" s="27">
+        <v>0.62192501541050849</v>
+      </c>
+      <c r="L7" s="27">
+        <v>0.62638387546013974</v>
+      </c>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="27">
+        <v>0.65924623301268048</v>
+      </c>
+      <c r="C8" s="27">
+        <v>0.7132340751723274</v>
+      </c>
+      <c r="D8" s="27">
+        <v>0.75698889319932272</v>
+      </c>
+      <c r="E8" s="27">
+        <v>0.65421282135956815</v>
+      </c>
+      <c r="F8" s="27">
+        <v>0.42713656638532205</v>
+      </c>
+      <c r="G8" s="27">
+        <v>0.37011131505043082</v>
+      </c>
+      <c r="H8" s="27">
+        <v>0.39181177089450869</v>
+      </c>
+      <c r="I8" s="27">
+        <v>0.39025615844087302</v>
+      </c>
+      <c r="J8" s="27">
+        <v>0.74850774151480082</v>
+      </c>
+      <c r="K8" s="27">
+        <v>0.75212744336269155</v>
+      </c>
+      <c r="L8" s="27">
+        <v>0.76056738359934184</v>
+      </c>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="27">
+        <v>0.64389464607257718</v>
+      </c>
+      <c r="C9" s="27">
+        <v>0.71564412440896696</v>
+      </c>
+      <c r="D9" s="27">
+        <v>0.74141933363213097</v>
+      </c>
+      <c r="E9" s="27">
+        <v>0.63399742933471959</v>
+      </c>
+      <c r="F9" s="27">
+        <v>0.4454144929948694</v>
+      </c>
+      <c r="G9" s="27">
+        <v>0.38898491442186023</v>
+      </c>
+      <c r="H9" s="27">
+        <v>0.36392648986973336</v>
+      </c>
+      <c r="I9" s="27">
+        <v>0.37945963492803519</v>
+      </c>
+      <c r="J9" s="27">
+        <v>0.74813899106692539</v>
+      </c>
+      <c r="K9" s="27">
+        <v>0.75136633945647613</v>
+      </c>
+      <c r="L9" s="27">
+        <v>0.75869345232506225</v>
+      </c>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="27">
+        <v>0.28927431534356618</v>
+      </c>
+      <c r="C10" s="27">
+        <v>0.3850043503661828</v>
+      </c>
+      <c r="D10" s="27">
+        <v>0.51697107474477133</v>
+      </c>
+      <c r="E10" s="27">
+        <v>0.31253742524311207</v>
+      </c>
+      <c r="F10" s="27">
+        <v>0.40317064451384482</v>
+      </c>
+      <c r="G10" s="27">
+        <v>0.35464922181792424</v>
+      </c>
+      <c r="H10" s="27">
+        <v>0.49094445164853856</v>
+      </c>
+      <c r="I10" s="27">
+        <v>0.56600672490582904</v>
+      </c>
+      <c r="J10" s="27">
+        <v>0.5289025254151436</v>
+      </c>
+      <c r="K10" s="27">
+        <v>0.53233317370117184</v>
+      </c>
+      <c r="L10" s="27">
+        <v>0.53724327554169771</v>
+      </c>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="28">
+        <v>0.79329460830381304</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0.72945923375184241</v>
+      </c>
+      <c r="D11" s="28">
+        <v>0.69897653966635642</v>
+      </c>
+      <c r="E11" s="28">
+        <v>0.78407162644690431</v>
+      </c>
+      <c r="F11" s="28">
+        <v>0.48569806810934402</v>
+      </c>
+      <c r="G11" s="28">
+        <v>0.41478800433425445</v>
+      </c>
+      <c r="H11" s="28">
+        <v>0.43242779984142615</v>
+      </c>
+      <c r="I11" s="28">
+        <v>0.45145225414882867</v>
+      </c>
+      <c r="J11" s="28">
+        <v>0.54755119066443503</v>
+      </c>
+      <c r="K11" s="28">
+        <v>0.55115571628796822</v>
+      </c>
+      <c r="L11" s="28">
+        <v>0.55889879530404984</v>
+      </c>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="27">
+        <v>0.39448479943754317</v>
+      </c>
+      <c r="C12" s="27">
+        <v>0.55458248722981507</v>
+      </c>
+      <c r="D12" s="27">
+        <v>0.58020954181801809</v>
+      </c>
+      <c r="E12" s="27">
+        <v>0.42471340432342009</v>
+      </c>
+      <c r="F12" s="27">
+        <v>0.39525642731490396</v>
+      </c>
+      <c r="G12" s="27">
+        <v>0.4209641347641</v>
+      </c>
+      <c r="H12" s="27">
+        <v>0.43301147461125267</v>
+      </c>
+      <c r="I12" s="27">
+        <v>0.42701172705720558</v>
+      </c>
+      <c r="J12" s="27">
+        <v>0.60757431277672513</v>
+      </c>
+      <c r="K12" s="27">
+        <v>0.61242196985988651</v>
+      </c>
+      <c r="L12" s="27">
+        <v>0.62219066797663003</v>
+      </c>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="27">
+        <v>0.81461414487546968</v>
+      </c>
+      <c r="C13" s="27">
+        <v>0.7661836393846857</v>
+      </c>
+      <c r="D13" s="27">
+        <v>0.74559627964340702</v>
+      </c>
+      <c r="E13" s="27">
+        <v>0.81960401460457422</v>
+      </c>
+      <c r="F13" s="27">
+        <v>0.76456936968302158</v>
+      </c>
+      <c r="G13" s="27">
+        <v>0.77040539428981791</v>
+      </c>
+      <c r="H13" s="27">
+        <v>0.79270138890761954</v>
+      </c>
+      <c r="I13" s="27">
+        <v>0.78250199727685188</v>
+      </c>
+      <c r="J13" s="27">
+        <v>0.3600377486132747</v>
+      </c>
+      <c r="K13" s="27">
+        <v>0.36081737092965976</v>
+      </c>
+      <c r="L13" s="27">
+        <v>0.36381121694475743</v>
+      </c>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="27">
+        <v>0.46465253313512095</v>
+      </c>
+      <c r="C14" s="27">
+        <v>0.58634418238553421</v>
+      </c>
+      <c r="D14" s="27">
+        <v>0.69969232400935488</v>
+      </c>
+      <c r="E14" s="27">
+        <v>0.45519367186315013</v>
+      </c>
+      <c r="F14" s="27">
+        <v>0.46054123570954741</v>
+      </c>
+      <c r="G14" s="27">
+        <v>0.3416960314285411</v>
+      </c>
+      <c r="H14" s="27">
+        <v>0.35918209746077162</v>
+      </c>
+      <c r="I14" s="27">
+        <v>0.38991013796974283</v>
+      </c>
+      <c r="J14" s="27">
+        <v>0.81792421431505657</v>
+      </c>
+      <c r="K14" s="27">
+        <v>0.81921741314287433</v>
+      </c>
+      <c r="L14" s="27">
+        <v>0.82321575639998668</v>
+      </c>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="27">
+        <v>0.64147019812824879</v>
+      </c>
+      <c r="C15" s="27">
+        <v>0.75169738299912214</v>
+      </c>
+      <c r="D15" s="27">
+        <v>0.80249238495712416</v>
+      </c>
+      <c r="E15" s="27">
+        <v>0.63650456145971834</v>
+      </c>
+      <c r="F15" s="27">
+        <v>0.71465605902259943</v>
+      </c>
+      <c r="G15" s="27">
+        <v>0.66032264243037009</v>
+      </c>
+      <c r="H15" s="27">
+        <v>0.66489606915180899</v>
+      </c>
+      <c r="I15" s="27">
+        <v>0.6678038592890233</v>
+      </c>
+      <c r="J15" s="27">
+        <v>0.7964421017664558</v>
+      </c>
+      <c r="K15" s="27">
+        <v>0.79556847349237958</v>
+      </c>
+      <c r="L15" s="27">
+        <v>0.79812981184093157</v>
+      </c>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/6_DrawFigure/Fig3_OutputTable/ImplicationResearch.xlsx
+++ b/6_DrawFigure/Fig3_OutputTable/ImplicationResearch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMIP6\Program\6_DrawFigure\Fig3_OutputTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7100E920-6779-465A-B27B-EB6849DCFF3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A862D2-5885-40B9-9FFD-00058451B934}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="-120" windowWidth="50445" windowHeight="21840" tabRatio="498" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="3945" windowWidth="38700" windowHeight="15435" tabRatio="498" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quantity" sheetId="1" r:id="rId1"/>
@@ -1068,7 +1068,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D82" sqref="D82"/>
+      <selection pane="bottomLeft" activeCell="O3" sqref="O3:O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1254,10 +1254,10 @@
         <v>17620406</v>
       </c>
       <c r="N3" s="7">
-        <v>1940842.625</v>
+        <v>1941842.25</v>
       </c>
       <c r="O3" s="4">
-        <v>2669378</v>
+        <v>2678542</v>
       </c>
       <c r="P3" s="4">
         <v>57694.40234375</v>
@@ -1330,10 +1330,10 @@
         <v>125965</v>
       </c>
       <c r="N4" s="7">
-        <v>136985.8125</v>
+        <v>123528.015625</v>
       </c>
       <c r="O4" s="4">
-        <v>1020998.375</v>
+        <v>706688.375</v>
       </c>
       <c r="P4" s="4">
         <v>46161.28515625</v>
@@ -1406,10 +1406,10 @@
         <v>1691241</v>
       </c>
       <c r="N5" s="7">
-        <v>1614095</v>
+        <v>1615719.5</v>
       </c>
       <c r="O5" s="4">
-        <v>2806447.5</v>
+        <v>2827528.75</v>
       </c>
       <c r="P5" s="4">
         <v>48454.95703125</v>
@@ -1482,10 +1482,10 @@
         <v>874146</v>
       </c>
       <c r="N6" s="7">
-        <v>264005.78125</v>
+        <v>270006.25</v>
       </c>
       <c r="O6" s="4">
-        <v>19009.498046875</v>
+        <v>19103.3125</v>
       </c>
       <c r="P6" s="4">
         <v>25647.1796875</v>
@@ -1558,10 +1558,10 @@
         <v>6004321</v>
       </c>
       <c r="N7" s="7">
-        <v>3916929</v>
+        <v>3989140</v>
       </c>
       <c r="O7" s="4">
-        <v>35035004</v>
+        <v>35065276</v>
       </c>
       <c r="P7" s="4">
         <v>137875.421875</v>
@@ -1636,10 +1636,10 @@
         <v>760430</v>
       </c>
       <c r="N8" s="7">
-        <v>791721.0625</v>
+        <v>790220.625</v>
       </c>
       <c r="O8" s="4">
-        <v>49030.78125</v>
+        <v>48995.3515625</v>
       </c>
       <c r="P8" s="4">
         <v>83345.3515625</v>
@@ -1712,10 +1712,10 @@
         <v>2959199</v>
       </c>
       <c r="N9" s="7">
-        <v>1570538.5</v>
+        <v>1581408</v>
       </c>
       <c r="O9" s="4">
-        <v>10798922</v>
+        <v>10808058</v>
       </c>
       <c r="P9" s="4">
         <v>359411.4375</v>
@@ -1786,10 +1786,10 @@
         <v>20256</v>
       </c>
       <c r="N10" s="7">
-        <v>46674.984375</v>
+        <v>160996.421875</v>
       </c>
       <c r="O10" s="4">
-        <v>35299.984375</v>
+        <v>1038210.4375</v>
       </c>
       <c r="P10" s="4">
         <v>8214.216796875</v>
@@ -1864,10 +1864,10 @@
         <v>96881696</v>
       </c>
       <c r="N11" s="7">
-        <v>25605032</v>
+        <v>9705424</v>
       </c>
       <c r="O11" s="4">
-        <v>199328560</v>
+        <v>70973056</v>
       </c>
       <c r="P11" s="4">
         <v>43606164</v>
@@ -2016,10 +2016,10 @@
         <v>945042</v>
       </c>
       <c r="N13" s="7">
-        <v>5002844.5</v>
+        <v>5027021</v>
       </c>
       <c r="O13" s="4">
-        <v>1524716.75</v>
+        <v>1527467.875</v>
       </c>
       <c r="P13" s="4">
         <v>76944.78125</v>
@@ -2082,10 +2082,10 @@
         <v>2056</v>
       </c>
       <c r="N14" s="7">
-        <v>1004.5001831054688</v>
+        <v>862.728515625</v>
       </c>
       <c r="O14" s="4">
-        <v>28704.462890625</v>
+        <v>2595.541015625</v>
       </c>
       <c r="P14" s="4">
         <v>456.70721435546875</v>
@@ -2158,10 +2158,10 @@
         <v>35243045</v>
       </c>
       <c r="N15" s="7">
-        <v>9278444</v>
+        <v>9278446</v>
       </c>
       <c r="O15" s="4">
-        <v>30817266</v>
+        <v>30817268</v>
       </c>
       <c r="P15" s="4">
         <v>511547.90625</v>
@@ -2234,10 +2234,10 @@
         <v>490084693</v>
       </c>
       <c r="N16" s="7">
-        <v>102389360</v>
+        <v>54599424</v>
       </c>
       <c r="O16" s="4">
-        <v>147328704</v>
+        <v>88553024</v>
       </c>
       <c r="P16" s="4">
         <v>22402506</v>
@@ -2312,10 +2312,10 @@
         <v>14771479</v>
       </c>
       <c r="N17" s="7">
-        <v>1089034.25</v>
+        <v>1093171.5</v>
       </c>
       <c r="O17" s="4">
-        <v>3820974.25</v>
+        <v>3831664.5</v>
       </c>
       <c r="P17" s="4">
         <v>202160.40625</v>
@@ -2388,10 +2388,10 @@
         <v>25019</v>
       </c>
       <c r="N18" s="7">
-        <v>1412.9150390625</v>
+        <v>1518.7835693359375</v>
       </c>
       <c r="O18" s="4">
-        <v>1468.853271484375</v>
+        <v>1554.9019775390625</v>
       </c>
       <c r="P18" s="4">
         <v>30.12883186340332</v>
@@ -2464,10 +2464,10 @@
         <v>501655</v>
       </c>
       <c r="N19" s="7">
-        <v>52214.90234375</v>
+        <v>50746.34375</v>
       </c>
       <c r="O19" s="4">
-        <v>1025125.625</v>
+        <v>1013384.375</v>
       </c>
       <c r="P19" s="4">
         <v>18640.30859375</v>
@@ -2542,10 +2542,10 @@
         <v>17846323</v>
       </c>
       <c r="N20" s="7">
-        <v>2183906.25</v>
+        <v>2195810.25</v>
       </c>
       <c r="O20" s="4">
-        <v>6712527</v>
+        <v>6830165</v>
       </c>
       <c r="P20" s="4">
         <v>253694.984375</v>
@@ -2618,10 +2618,10 @@
         <v>174152798</v>
       </c>
       <c r="N21" s="7">
-        <v>38854180</v>
+        <v>29371656</v>
       </c>
       <c r="O21" s="4">
-        <v>293199904</v>
+        <v>235946304</v>
       </c>
       <c r="P21" s="4">
         <v>4478308</v>
@@ -2694,10 +2694,10 @@
         <v>28026553</v>
       </c>
       <c r="N22" s="7">
-        <v>10161988</v>
+        <v>10064223</v>
       </c>
       <c r="O22" s="4">
-        <v>19968996</v>
+        <v>22105102</v>
       </c>
       <c r="P22" s="4">
         <v>275547.40625</v>
@@ -2772,10 +2772,10 @@
         <v>497048</v>
       </c>
       <c r="N23" s="7">
-        <v>168121.390625</v>
+        <v>34521.8125</v>
       </c>
       <c r="O23" s="4">
-        <v>3217390.75</v>
+        <v>202780.359375</v>
       </c>
       <c r="P23" s="4">
         <v>210155.96875</v>
@@ -2848,10 +2848,10 @@
         <v>9990023</v>
       </c>
       <c r="N24" s="7">
-        <v>9252218</v>
+        <v>5882517</v>
       </c>
       <c r="O24" s="4">
-        <v>54633704</v>
+        <v>33886932</v>
       </c>
       <c r="P24" s="4">
         <v>1973489.5</v>
@@ -2924,10 +2924,10 @@
         <v>2552226</v>
       </c>
       <c r="N25" s="7">
-        <v>493702.6875</v>
+        <v>123964.3359375</v>
       </c>
       <c r="O25" s="4">
-        <v>2701928</v>
+        <v>904069.25</v>
       </c>
       <c r="P25" s="4">
         <v>665692.375</v>
@@ -3002,10 +3002,10 @@
         <v>7489961</v>
       </c>
       <c r="N26" s="7">
-        <v>3196492.25</v>
+        <v>1470366.25</v>
       </c>
       <c r="O26" s="4">
-        <v>14273091</v>
+        <v>6229074.5</v>
       </c>
       <c r="P26" s="4">
         <v>6475313</v>
@@ -3078,10 +3078,10 @@
         <v>1722709</v>
       </c>
       <c r="N27" s="7">
-        <v>2458245.5</v>
+        <v>2363831</v>
       </c>
       <c r="O27" s="4">
-        <v>14869001</v>
+        <v>14768558</v>
       </c>
       <c r="P27" s="4">
         <v>1005632.75</v>
@@ -3154,10 +3154,10 @@
         <v>4447809</v>
       </c>
       <c r="N28" s="7">
-        <v>1403286.125</v>
+        <v>598359.0625</v>
       </c>
       <c r="O28" s="4">
-        <v>22624244</v>
+        <v>9612350</v>
       </c>
       <c r="P28" s="4">
         <v>3424083.25</v>
@@ -3230,10 +3230,10 @@
         <v>213017</v>
       </c>
       <c r="N29" s="7">
-        <v>109226.578125</v>
+        <v>41400.6015625</v>
       </c>
       <c r="O29" s="4">
-        <v>1211299.5</v>
+        <v>571729.6875</v>
       </c>
       <c r="P29" s="4">
         <v>127803.0390625</v>
@@ -3306,10 +3306,10 @@
         <v>14806289</v>
       </c>
       <c r="N30" s="7">
-        <v>3403513</v>
+        <v>535863</v>
       </c>
       <c r="O30" s="4">
-        <v>94074592</v>
+        <v>11985708</v>
       </c>
       <c r="P30" s="4">
         <v>4536429</v>
@@ -3382,10 +3382,10 @@
         <v>9158277</v>
       </c>
       <c r="N31" s="7">
-        <v>756706.375</v>
+        <v>348774.46875</v>
       </c>
       <c r="O31" s="4">
-        <v>17225718</v>
+        <v>16165692</v>
       </c>
       <c r="P31" s="4">
         <v>19659280</v>
@@ -3460,10 +3460,10 @@
         <v>4892441</v>
       </c>
       <c r="N32" s="7">
-        <v>458862.125</v>
+        <v>477141.625</v>
       </c>
       <c r="O32" s="4">
-        <v>1379607.5</v>
+        <v>1461648.5</v>
       </c>
       <c r="P32" s="4">
         <v>13370.4580078125</v>
@@ -3536,10 +3536,10 @@
         <v>2660722</v>
       </c>
       <c r="N33" s="7">
-        <v>138895.4375</v>
+        <v>849609.6875</v>
       </c>
       <c r="O33" s="4">
-        <v>269837.4375</v>
+        <v>1106761.625</v>
       </c>
       <c r="P33" s="4">
         <v>1317.4794921875</v>
@@ -3612,10 +3612,10 @@
         <v>1469190</v>
       </c>
       <c r="N34" s="7">
-        <v>1072012</v>
+        <v>2087358.375</v>
       </c>
       <c r="O34" s="4">
-        <v>181782.234375</v>
+        <v>892087.375</v>
       </c>
       <c r="P34" s="4">
         <v>71154.7734375</v>
@@ -3690,10 +3690,10 @@
         <v>815887</v>
       </c>
       <c r="N35" s="7">
-        <v>1212885.625</v>
+        <v>1046169.625</v>
       </c>
       <c r="O35" s="4">
-        <v>5129448</v>
+        <v>4085814</v>
       </c>
       <c r="P35" s="4">
         <v>426861.625</v>
@@ -3766,10 +3766,10 @@
         <v>1489355</v>
       </c>
       <c r="N36" s="7">
-        <v>1167229</v>
+        <v>316648.625</v>
       </c>
       <c r="O36" s="4">
-        <v>10398204</v>
+        <v>3509938.75</v>
       </c>
       <c r="P36" s="4">
         <v>481453.71875</v>
@@ -3842,10 +3842,10 @@
         <v>47237</v>
       </c>
       <c r="N37" s="7">
-        <v>25351.376953125</v>
+        <v>1895.684814453125</v>
       </c>
       <c r="O37" s="4">
-        <v>369306.3125</v>
+        <v>32015.9296875</v>
       </c>
       <c r="P37" s="4">
         <v>5944.541015625</v>
@@ -3920,10 +3920,10 @@
         <v>1810256</v>
       </c>
       <c r="N38" s="7">
-        <v>1113093.375</v>
+        <v>1991606.75</v>
       </c>
       <c r="O38" s="4">
-        <v>2371589.75</v>
+        <v>4293359</v>
       </c>
       <c r="P38" s="4">
         <v>115050.046875</v>
@@ -3996,10 +3996,10 @@
         <v>1564398</v>
       </c>
       <c r="N39" s="7">
-        <v>1134308.25</v>
+        <v>1507391.625</v>
       </c>
       <c r="O39" s="4">
-        <v>2815210</v>
+        <v>5590507.5</v>
       </c>
       <c r="P39" s="4">
         <v>125767.8046875</v>
@@ -4072,10 +4072,10 @@
         <v>976668</v>
       </c>
       <c r="N40" s="7">
-        <v>470622.75</v>
+        <v>470367.78125</v>
       </c>
       <c r="O40" s="4">
-        <v>810040.4375</v>
+        <v>808264.8125</v>
       </c>
       <c r="P40" s="4">
         <v>14345.08984375</v>
@@ -4148,10 +4148,10 @@
         <v>10209213</v>
       </c>
       <c r="N41" s="7">
-        <v>4555014</v>
+        <v>4553638.5</v>
       </c>
       <c r="O41" s="4">
-        <v>2661407.25</v>
+        <v>2662302.5</v>
       </c>
       <c r="P41" s="4">
         <v>103001.4375</v>
@@ -4226,10 +4226,10 @@
         <v>2702215</v>
       </c>
       <c r="N42" s="7">
-        <v>2707386.75</v>
+        <v>2949582.5</v>
       </c>
       <c r="O42" s="4">
-        <v>24782352</v>
+        <v>98684912</v>
       </c>
       <c r="P42" s="4">
         <v>1008054.25</v>
@@ -4304,10 +4304,10 @@
         <v>167623546</v>
       </c>
       <c r="N43" s="7">
-        <v>41461040</v>
+        <v>13463441</v>
       </c>
       <c r="O43" s="4">
-        <v>1701438208</v>
+        <v>748494528</v>
       </c>
       <c r="P43" s="4">
         <v>515404096</v>
@@ -4382,10 +4382,10 @@
         <v>83243553</v>
       </c>
       <c r="N44" s="7">
-        <v>19066084</v>
+        <v>8984370</v>
       </c>
       <c r="O44" s="4">
-        <v>766468096</v>
+        <v>165728960</v>
       </c>
       <c r="P44" s="4">
         <v>57157904</v>
@@ -4468,9 +4468,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3655EE2C-431F-40A3-AE36-CDE9CDC9267E}">
   <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="A1:Z45"/>
+      <selection pane="bottomLeft" activeCell="O3" sqref="O3:O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4636,10 +4636,10 @@
         <v>0.23841784237405009</v>
       </c>
       <c r="N3" s="8">
-        <v>0.10018377006053925</v>
+        <v>0.10023535788059235</v>
       </c>
       <c r="O3" s="8">
-        <v>1.0634077712893486E-2</v>
+        <v>1.0670584626495838E-2</v>
       </c>
       <c r="P3" s="8">
         <v>3.2917608041316271E-3</v>
@@ -4700,10 +4700,10 @@
         <v>1.7044047404269353E-3</v>
       </c>
       <c r="N4" s="8">
-        <v>7.0710289292037487E-3</v>
+        <v>6.3763554207980633E-3</v>
       </c>
       <c r="O4" s="8">
-        <v>4.0673809126019478E-3</v>
+        <v>2.8152547311037779E-3</v>
       </c>
       <c r="P4" s="8">
         <v>2.6337374001741409E-3</v>
@@ -4764,10 +4764,10 @@
         <v>2.2883810404512293E-2</v>
       </c>
       <c r="N5" s="8">
-        <v>8.3317480981349945E-2</v>
+        <v>8.3401337265968323E-2</v>
       </c>
       <c r="O5" s="8">
-        <v>1.118012610822916E-2</v>
+        <v>1.1264108121395111E-2</v>
       </c>
       <c r="P5" s="8">
         <v>2.7646031230688095E-3</v>
@@ -4828,10 +4828,10 @@
         <v>1.1827877475689627E-2</v>
       </c>
       <c r="N6" s="8">
-        <v>1.3627634383738041E-2</v>
+        <v>1.3937370851635933E-2</v>
       </c>
       <c r="O6" s="8">
-        <v>7.5728683441411704E-5</v>
+        <v>7.6102413004264235E-5</v>
       </c>
       <c r="P6" s="8">
         <v>1.4633028768002987E-3</v>
@@ -4892,10 +4892,10 @@
         <v>8.1243148298694071E-2</v>
       </c>
       <c r="N7" s="8">
-        <v>0.20218677818775177</v>
+        <v>0.2059142142534256</v>
       </c>
       <c r="O7" s="8">
-        <v>0.139569953083992</v>
+        <v>0.13969054818153381</v>
       </c>
       <c r="P7" s="8">
         <v>7.8664980828762054E-3</v>
@@ -4958,10 +4958,10 @@
         <v>1.0289211263151309E-2</v>
       </c>
       <c r="N8" s="8">
-        <v>4.0867611765861511E-2</v>
+        <v>4.079015925526619E-2</v>
       </c>
       <c r="O8" s="8">
-        <v>1.9532533769961447E-4</v>
+        <v>1.9518418412189931E-4</v>
       </c>
       <c r="P8" s="8">
         <v>4.7552790492773056E-3</v>
@@ -5022,10 +5022,10 @@
         <v>4.0040271531509922E-2</v>
       </c>
       <c r="N9" s="8">
-        <v>8.1069149076938629E-2</v>
+        <v>8.1630222499370575E-2</v>
       </c>
       <c r="O9" s="8">
-        <v>4.301997646689415E-2</v>
+        <v>4.3056372553110123E-2</v>
       </c>
       <c r="P9" s="8">
         <v>2.0506260916590691E-2</v>
@@ -5086,10 +5086,10 @@
         <v>2.7407948574673921E-4</v>
       </c>
       <c r="N10" s="8">
-        <v>2.4093019310384989E-3</v>
+        <v>8.3104260265827179E-3</v>
       </c>
       <c r="O10" s="8">
-        <v>1.4062556147109717E-4</v>
+        <v>4.1359486058354378E-3</v>
       </c>
       <c r="P10" s="8">
         <v>4.6866308548487723E-4</v>
@@ -5152,10 +5152,10 @@
         <v>1.3108849436192695</v>
       </c>
       <c r="N11" s="8">
-        <v>1.3216983079910278</v>
+        <v>0.50098133087158203</v>
       </c>
       <c r="O11" s="8">
-        <v>0.79407095909118652</v>
+        <v>0.28273740410804749</v>
       </c>
       <c r="P11" s="8">
         <v>2.4879546165466309</v>
@@ -5280,10 +5280,10 @@
         <v>1.2787155675803213E-2</v>
       </c>
       <c r="N13" s="8">
-        <v>0.25824031233787537</v>
+        <v>0.25948825478553772</v>
       </c>
       <c r="O13" s="8">
-        <v>6.0740578919649124E-3</v>
+        <v>6.0850176960229874E-3</v>
       </c>
       <c r="P13" s="8">
         <v>4.3900934979319572E-3</v>
@@ -5344,10 +5344,10 @@
         <v>2.7819284295778826E-5</v>
       </c>
       <c r="N14" s="8">
-        <v>5.18509914400056E-5</v>
+        <v>4.4532920583151281E-5</v>
       </c>
       <c r="O14" s="8">
-        <v>1.1435079068178311E-4</v>
+        <v>1.03399315776187E-5</v>
       </c>
       <c r="P14" s="8">
         <v>2.6057483410113491E-5</v>
@@ -5408,10 +5408,10 @@
         <v>0.47686589898050896</v>
       </c>
       <c r="N15" s="8">
-        <v>0.47894120216369629</v>
+        <v>0.47894129157066345</v>
       </c>
       <c r="O15" s="8">
-        <v>0.12276762723922729</v>
+        <v>0.12276764214038849</v>
       </c>
       <c r="P15" s="8">
         <v>2.9186423867940903E-2</v>
@@ -5472,10 +5472,10 @@
         <v>6.6312283091325321</v>
       </c>
       <c r="N16" s="8">
-        <v>5.2852053642272949</v>
+        <v>2.8183510303497314</v>
       </c>
       <c r="O16" s="8">
-        <v>0.58691757917404175</v>
+        <v>0.35277122259140015</v>
       </c>
       <c r="P16" s="8">
         <v>1.2781774997711182</v>
@@ -5538,10 +5538,10 @@
         <v>0.19986963704772698</v>
       </c>
       <c r="N17" s="8">
-        <v>5.6214526295661926E-2</v>
+        <v>5.6428089737892151E-2</v>
       </c>
       <c r="O17" s="8">
-        <v>1.5221725217998028E-2</v>
+        <v>1.526431180536747E-2</v>
       </c>
       <c r="P17" s="8">
         <v>1.1534285731613636E-2</v>
@@ -5602,10 +5602,10 @@
         <v>3.3852659231327353E-4</v>
       </c>
       <c r="N18" s="8">
-        <v>7.2932831244543195E-5</v>
+        <v>7.8397628385573626E-5</v>
       </c>
       <c r="O18" s="8">
-        <v>5.8515129239822272E-6</v>
+        <v>6.1943078435433563E-6</v>
       </c>
       <c r="P18" s="8">
         <v>1.7190039898196119E-6</v>
@@ -5666,10 +5666,10 @@
         <v>6.7877835911473372E-3</v>
       </c>
       <c r="N19" s="8">
-        <v>2.6952652260661125E-3</v>
+        <v>2.619459992274642E-3</v>
       </c>
       <c r="O19" s="8">
-        <v>4.0838224813342094E-3</v>
+        <v>4.037048202008009E-3</v>
       </c>
       <c r="P19" s="8">
         <v>1.063524978235364E-3</v>
@@ -5732,10 +5732,10 @@
         <v>0.24147467566697298</v>
       </c>
       <c r="N20" s="8">
-        <v>0.11273039132356644</v>
+        <v>0.11334487050771713</v>
       </c>
       <c r="O20" s="8">
-        <v>2.6740888133645058E-2</v>
+        <v>2.7209524065256119E-2</v>
       </c>
       <c r="P20" s="8">
         <v>1.4474596828222275E-2</v>
@@ -5796,10 +5796,10 @@
         <v>2.3564232482817813</v>
       </c>
       <c r="N21" s="8">
-        <v>2.0056021213531494</v>
+        <v>1.5161265134811401</v>
       </c>
       <c r="O21" s="8">
-        <v>1.1680289506912231</v>
+        <v>0.93994605541229248</v>
       </c>
       <c r="P21" s="8">
         <v>0.2555103600025177</v>
@@ -5860,10 +5860,10 @@
         <v>0.37922113119538564</v>
       </c>
       <c r="N22" s="8">
-        <v>0.52454859018325806</v>
+        <v>0.51950204372406006</v>
       </c>
       <c r="O22" s="8">
-        <v>7.9551063477993011E-2</v>
+        <v>8.8060729205608368E-2</v>
       </c>
       <c r="P22" s="8">
         <v>1.5721388161182404E-2</v>
@@ -5926,10 +5926,10 @@
         <v>6.7254472863075253E-3</v>
       </c>
       <c r="N23" s="8">
-        <v>8.6782071739435196E-3</v>
+        <v>1.7819709610193968E-3</v>
       </c>
       <c r="O23" s="8">
-        <v>1.2817212380468845E-2</v>
+        <v>8.0782192526385188E-4</v>
       </c>
       <c r="P23" s="8">
         <v>1.1990473605692387E-2</v>
@@ -5990,10 +5990,10 @@
         <v>0.13517280639998505</v>
       </c>
       <c r="N24" s="8">
-        <v>0.47758743166923523</v>
+        <v>0.30364784598350525</v>
       </c>
       <c r="O24" s="8">
-        <v>0.21764585375785828</v>
+        <v>0.13499635457992554</v>
       </c>
       <c r="P24" s="8">
         <v>0.11259766668081284</v>
@@ -6054,10 +6054,10 @@
         <v>3.453360928068016E-2</v>
       </c>
       <c r="N25" s="8">
-        <v>2.5484288111329079E-2</v>
+        <v>6.3988771289587021E-3</v>
       </c>
       <c r="O25" s="8">
-        <v>1.0763748548924923E-2</v>
+        <v>3.6015666555613279E-3</v>
       </c>
       <c r="P25" s="8">
         <v>3.7981156259775162E-2</v>
@@ -6120,10 +6120,10 @@
         <v>0.10134501674284818</v>
       </c>
       <c r="N26" s="8">
-        <v>0.16499876976013184</v>
+        <v>7.5898386538028717E-2</v>
       </c>
       <c r="O26" s="8">
-        <v>5.6860122829675674E-2</v>
+        <v>2.4814944714307785E-2</v>
       </c>
       <c r="P26" s="8">
         <v>0.36944973468780518</v>
@@ -6184,10 +6184,10 @@
         <v>2.3309596998977063E-2</v>
       </c>
       <c r="N27" s="8">
-        <v>0.12689143419265747</v>
+        <v>0.12201787531375885</v>
       </c>
       <c r="O27" s="8">
-        <v>5.9234064072370529E-2</v>
+        <v>5.8833926916122437E-2</v>
       </c>
       <c r="P27" s="8">
         <v>5.7376496493816376E-2</v>
@@ -6248,10 +6248,10 @@
         <v>6.0182326393153553E-2</v>
       </c>
       <c r="N28" s="8">
-        <v>7.2435803711414337E-2</v>
+        <v>3.0886515974998474E-2</v>
       </c>
       <c r="O28" s="8">
-        <v>9.0128853917121887E-2</v>
+        <v>3.829299658536911E-2</v>
       </c>
       <c r="P28" s="8">
         <v>0.19536146521568298</v>
@@ -6312,10 +6312,10 @@
         <v>2.8822862270592984E-3</v>
       </c>
       <c r="N29" s="8">
-        <v>5.6381337344646454E-3</v>
+        <v>2.1370451431721449E-3</v>
       </c>
       <c r="O29" s="8">
-        <v>4.8254886642098427E-3</v>
+        <v>2.2776159457862377E-3</v>
       </c>
       <c r="P29" s="8">
         <v>7.2918171063065529E-3</v>
@@ -6376,10 +6376,10 @@
         <v>0.20034064350995268</v>
       </c>
       <c r="N30" s="8">
-        <v>0.17568489909172058</v>
+        <v>2.7660548686981201E-2</v>
       </c>
       <c r="O30" s="8">
-        <v>0.37476766109466553</v>
+        <v>4.7747809439897537E-2</v>
       </c>
       <c r="P30" s="8">
         <v>0.25882649421691895</v>
@@ -6440,10 +6440,10 @@
         <v>0.12391863400899436</v>
       </c>
       <c r="N31" s="8">
-        <v>3.9060194045305252E-2</v>
+        <v>1.8003283068537712E-2</v>
       </c>
       <c r="O31" s="8">
-        <v>6.8622589111328125E-2</v>
+        <v>6.4399734139442444E-2</v>
       </c>
       <c r="P31" s="8">
         <v>1.1216624975204468</v>
@@ -6506,10 +6506,10 @@
         <v>6.6198544299282305E-2</v>
       </c>
       <c r="N32" s="8">
-        <v>2.3685865104198456E-2</v>
+        <v>2.4629427120089531E-2</v>
       </c>
       <c r="O32" s="8">
-        <v>5.4959817789494991E-3</v>
+        <v>5.822810810059309E-3</v>
       </c>
       <c r="P32" s="8">
         <v>7.6285307295620441E-4</v>
@@ -6570,10 +6570,10 @@
         <v>3.6001644820055065E-2</v>
       </c>
       <c r="N33" s="8">
-        <v>7.1696015074849129E-3</v>
+        <v>4.385574534535408E-2</v>
       </c>
       <c r="O33" s="8">
-        <v>1.0749591747298837E-3</v>
+        <v>4.4090384617447853E-3</v>
       </c>
       <c r="P33" s="8">
         <v>7.5168944022152573E-5</v>
@@ -6634,10 +6634,10 @@
         <v>1.987928710822728E-2</v>
       </c>
       <c r="N34" s="8">
-        <v>5.5335864424705505E-2</v>
+        <v>0.10774672031402588</v>
       </c>
       <c r="O34" s="8">
-        <v>7.2417111368849874E-4</v>
+        <v>3.5538342781364918E-3</v>
       </c>
       <c r="P34" s="8">
         <v>4.0597440674901009E-3</v>
@@ -6700,10 +6700,10 @@
         <v>1.1039587746220863E-2</v>
       </c>
       <c r="N35" s="8">
-        <v>6.2607571482658386E-2</v>
+        <v>5.4001912474632263E-2</v>
       </c>
       <c r="O35" s="8">
-        <v>2.043432928621769E-2</v>
+        <v>1.6276774927973747E-2</v>
       </c>
       <c r="P35" s="8">
         <v>2.4354640394449234E-2</v>
@@ -6764,10 +6764,10 @@
         <v>2.0152135292966764E-2</v>
       </c>
       <c r="N36" s="8">
-        <v>6.0250837355852127E-2</v>
+        <v>1.6344988718628883E-2</v>
       </c>
       <c r="O36" s="8">
-        <v>4.1423626244068146E-2</v>
+        <v>1.3982644304633141E-2</v>
       </c>
       <c r="P36" s="8">
         <v>2.7469396591186523E-2</v>
@@ -6828,10 +6828,10 @@
         <v>6.3915346900763833E-4</v>
       </c>
       <c r="N37" s="8">
-        <v>1.3086049584671855E-3</v>
+        <v>9.7852775070350617E-5</v>
       </c>
       <c r="O37" s="8">
-        <v>1.4712162083014846E-3</v>
+        <v>1.2754277850035578E-4</v>
       </c>
       <c r="P37" s="8">
         <v>3.3916646498255432E-4</v>
@@ -6894,10 +6894,10 @@
         <v>2.4494176221857681E-2</v>
       </c>
       <c r="N38" s="8">
-        <v>5.7456426322460175E-2</v>
+        <v>0.10280414670705795</v>
       </c>
       <c r="O38" s="8">
-        <v>9.4477701932191849E-3</v>
+        <v>1.710357703268528E-2</v>
       </c>
       <c r="P38" s="8">
         <v>6.5641934052109718E-3</v>
@@ -6958,10 +6958,10 @@
         <v>2.1167525638982394E-2</v>
       </c>
       <c r="N39" s="8">
-        <v>5.8551512658596039E-2</v>
+        <v>7.7809594571590424E-2</v>
       </c>
       <c r="O39" s="8">
-        <v>1.1215033009648323E-2</v>
+        <v>2.2271066904067993E-2</v>
       </c>
       <c r="P39" s="8">
         <v>7.1756965480744839E-3</v>
@@ -7022,10 +7022,10 @@
         <v>1.3215080133555308E-2</v>
       </c>
       <c r="N40" s="8">
-        <v>2.4292932823300362E-2</v>
+        <v>2.4279771372675896E-2</v>
       </c>
       <c r="O40" s="8">
-        <v>3.2269814983010292E-3</v>
+        <v>3.2199076376855373E-3</v>
       </c>
       <c r="P40" s="8">
         <v>8.1846071407198906E-4</v>
@@ -7086,10 +7086,10 @@
         <v>0.13813861813383319</v>
       </c>
       <c r="N41" s="8">
-        <v>0.2351238876581192</v>
+        <v>0.23505286872386932</v>
       </c>
       <c r="O41" s="8">
-        <v>1.0602324269711971E-2</v>
+        <v>1.0605891235172749E-2</v>
       </c>
       <c r="P41" s="8">
         <v>5.8767590671777725E-3</v>
@@ -7152,10 +7152,10 @@
         <v>3.6563077487022359E-2</v>
       </c>
       <c r="N42" s="8">
-        <v>0.13975177705287933</v>
+        <v>0.15225359797477722</v>
       </c>
       <c r="O42" s="8">
-        <v>9.8726168274879456E-2</v>
+        <v>0.39313393831253052</v>
       </c>
       <c r="P42" s="8">
         <v>5.7514652609825134E-2</v>
@@ -7218,10 +7218,10 @@
         <v>2.268077373949688</v>
       </c>
       <c r="N43" s="8">
-        <v>2.140164852142334</v>
+        <v>0.69496530294418335</v>
       </c>
       <c r="O43" s="8">
-        <v>6.7780680656433105</v>
+        <v>2.9817991256713867</v>
       </c>
       <c r="P43" s="8">
         <v>29.406440734863281</v>
@@ -7284,10 +7284,10 @@
         <v>1.1263502269930603</v>
       </c>
       <c r="N44" s="8">
-        <v>0.98416638374328613</v>
+        <v>0.46376147866249084</v>
       </c>
       <c r="O44" s="8">
-        <v>3.053400993347168</v>
+        <v>0.66021925210952759</v>
       </c>
       <c r="P44" s="8">
         <v>3.2611508369445801</v>
@@ -7345,11 +7345,11 @@
       </c>
       <c r="N45" s="11">
         <f>SUM(N3:N44)</f>
-        <v>15.549033723989851</v>
+        <v>9.4185118405512185</v>
       </c>
       <c r="O45" s="11">
         <f t="shared" ref="O45:U45" si="1">SUM(O3:O44)</f>
-        <v>13.944829212165587</v>
+        <v>6.5604896964255204</v>
       </c>
       <c r="P45" s="11">
         <f t="shared" si="1"/>
@@ -7529,7 +7529,7 @@
       </c>
       <c r="I3" s="18">
         <f>SUM(Quantity!N3:S7)/1000000</f>
-        <v>73.396267622467036</v>
+        <v>73.209946483795164</v>
       </c>
       <c r="J3" s="18">
         <f>SUM(Quantity!T3:Z7)/1000000</f>
@@ -7566,7 +7566,7 @@
       </c>
       <c r="I4" s="18">
         <f>SUM(Quantity!N8:S10)/1000000</f>
-        <v>29.371353541015626</v>
+        <v>30.507055064453127</v>
       </c>
       <c r="J4" s="18">
         <f>SUM(Quantity!T8:Z10)/1000000</f>
@@ -7603,7 +7603,7 @@
       </c>
       <c r="I5" s="18">
         <f>SUM(Quantity!N11:S16)/1000000</f>
-        <v>754.62921096810533</v>
+        <v>503.80916389956286</v>
       </c>
       <c r="J5" s="18">
         <f>SUM(Quantity!T11:Z16)/1000000</f>
@@ -7640,7 +7640,7 @@
       </c>
       <c r="I6" s="18">
         <f>SUM(Quantity!N17:S19)/1000000</f>
-        <v>11.911234692064285</v>
+        <v>11.913044300706863</v>
       </c>
       <c r="J6" s="18">
         <f>SUM(Quantity!T17:Z19)/1000000</f>
@@ -7677,7 +7677,7 @@
       </c>
       <c r="I7" s="18">
         <f>SUM(Quantity!N20:S22)/1000000</f>
-        <v>484.3343790761719</v>
+        <v>419.7661380761719</v>
       </c>
       <c r="J7" s="18">
         <f>SUM(Quantity!T20:Z22)/1000000</f>
@@ -7714,7 +7714,7 @@
       </c>
       <c r="I8" s="18">
         <f>SUM(Quantity!N23:S25)/1000000</f>
-        <v>81.732210388671874</v>
+        <v>52.299930318359372</v>
       </c>
       <c r="J8" s="18">
         <f>SUM(Quantity!T23:Z25)/1000000</f>
@@ -7751,7 +7751,7 @@
       </c>
       <c r="I9" s="18">
         <f>SUM(Quantity!N26:S31)/1000000</f>
-        <v>229.62029107520627</v>
+        <v>118.70658231739378</v>
       </c>
       <c r="J9" s="18">
         <f>SUM(Quantity!T26:Z31)/1000000</f>
@@ -7788,7 +7788,7 @@
       </c>
       <c r="I10" s="18">
         <f>SUM(Quantity!N32:S34)/1000000</f>
-        <v>20.653143224668504</v>
+        <v>24.026753677793504</v>
       </c>
       <c r="J10" s="18">
         <f>SUM(Quantity!T32:Z34)/1000000</f>
@@ -7825,7 +7825,7 @@
       </c>
       <c r="I11" s="18">
         <f>SUM(Quantity!N35:S37)/1000000</f>
-        <v>26.579736837425234</v>
+        <v>17.269795137474059</v>
       </c>
       <c r="J11" s="18">
         <f>SUM(Quantity!T35:Z37)/1000000</f>
@@ -7862,7 +7862,7 @@
       </c>
       <c r="I12" s="18">
         <f>SUM(Quantity!N38:S41)/1000000</f>
-        <v>28.548675524414062</v>
+        <v>34.494828180664065</v>
       </c>
       <c r="J12" s="18">
         <f>SUM(Quantity!T38:Z41)/1000000</f>
@@ -7899,7 +7899,7 @@
       </c>
       <c r="I13" s="18">
         <f>SUM(Quantity!N42:S42)/1000000</f>
-        <v>57.417176328125002</v>
+        <v>131.56193207812501</v>
       </c>
       <c r="J13" s="18">
         <f>SUM(Quantity!T42:Z42)/1000000</f>
@@ -7936,7 +7936,7 @@
       </c>
       <c r="I14" s="18">
         <f>SUM(Quantity!N43:S43)/1000000</f>
-        <v>2558.3713604999998</v>
+        <v>1577.4300814999999</v>
       </c>
       <c r="J14" s="18">
         <f>SUM(Quantity!T43:Z43)/1000000</f>
@@ -7973,7 +7973,7 @@
       </c>
       <c r="I15" s="18">
         <f>SUM(Quantity!N44:S44)/1000000</f>
-        <v>1008.133992</v>
+        <v>397.31314200000003</v>
       </c>
       <c r="J15" s="18">
         <f>SUM(Quantity!T44:Z44)/1000000</f>
@@ -8008,7 +8008,7 @@
       </c>
       <c r="I17" s="21">
         <f>AVERAGE(Percentage!N45:S45)</f>
-        <v>22.398109508289945</v>
+        <v>20.145632608426826</v>
       </c>
       <c r="J17" s="21">
         <f>AVERAGE(Percentage!T45:Z45)</f>
@@ -8243,11 +8243,11 @@
       </c>
       <c r="O3" s="29">
         <f>SUM(Quantity!N3,Quantity!N17,Quantity!N20,Quantity!N32)/1000000</f>
-        <v>5.6726452500000004</v>
+        <v>5.7079656249999999</v>
       </c>
       <c r="P3" s="29">
         <f>SUM(Quantity!O3,Quantity!O17,Quantity!O20,Quantity!O32)/1000000</f>
-        <v>14.582486749999999</v>
+        <v>14.802020000000001</v>
       </c>
       <c r="Q3" s="29">
         <f>SUM(Quantity!P3,Quantity!P17,Quantity!P20,Quantity!P32)/1000000</f>
@@ -8348,11 +8348,11 @@
       </c>
       <c r="O4" s="29">
         <f>SUM(Quantity!N11)/1000000</f>
-        <v>25.605032000000001</v>
+        <v>9.7054240000000007</v>
       </c>
       <c r="P4" s="29">
         <f>SUM(Quantity!O11)/1000000</f>
-        <v>199.32856000000001</v>
+        <v>70.973056</v>
       </c>
       <c r="Q4" s="29">
         <f>SUM(Quantity!P11)/1000000</f>
@@ -8558,11 +8558,11 @@
       </c>
       <c r="O6" s="29">
         <f>SUM(Quantity!N26)/1000000</f>
-        <v>3.1964922499999999</v>
+        <v>1.4703662500000001</v>
       </c>
       <c r="P6" s="29">
         <f>SUM(Quantity!O26)/1000000</f>
-        <v>14.273091000000001</v>
+        <v>6.2290745000000003</v>
       </c>
       <c r="Q6" s="29">
         <f>SUM(Quantity!P26)/1000000</f>
@@ -8663,11 +8663,11 @@
       </c>
       <c r="O7" s="29">
         <f>SUM(Quantity!N8,Quantity!N23,Quantity!N35,Quantity!N42:N44,Quantity!N27,Quantity!N13)/1000000</f>
-        <v>72.868328828125001</v>
+        <v>34.659157562499999</v>
       </c>
       <c r="P7" s="29">
         <f>SUM(Quantity!O8,Quantity!O23,Quantity!O35,Quantity!O42:O44,Quantity!O27,Quantity!O13)/1000000</f>
-        <v>2517.4782432812499</v>
+        <v>1033.5420155859374</v>
       </c>
       <c r="Q7" s="29">
         <f>SUM(Quantity!P8,Quantity!P23,Quantity!P35,Quantity!P42:P44,Quantity!P27,Quantity!P13)/1000000</f>
@@ -8768,11 +8768,11 @@
       </c>
       <c r="O8" s="29">
         <f>SUM(Quantity!N16,Quantity!N25,Quantity!N22)/1000000</f>
-        <v>113.04505068749999</v>
+        <v>64.787611335937498</v>
       </c>
       <c r="P8" s="29">
         <f>SUM(Quantity!O16,Quantity!O25,Quantity!O22)/1000000</f>
-        <v>169.999628</v>
+        <v>111.56219525</v>
       </c>
       <c r="Q8" s="29">
         <f>SUM(Quantity!P16,Quantity!P25,Quantity!P22)/1000000</f>
@@ -8873,11 +8873,11 @@
       </c>
       <c r="O9" s="29">
         <f>SUM(Quantity!N18,Quantity!N33)/1000000</f>
-        <v>0.14030835253906249</v>
+        <v>0.85112847106933598</v>
       </c>
       <c r="P9" s="29">
         <f>SUM(Quantity!O18,Quantity!O33)/1000000</f>
-        <v>0.27130629077148438</v>
+        <v>1.108316526977539</v>
       </c>
       <c r="Q9" s="29">
         <f>SUM(Quantity!P18,Quantity!P33)/1000000</f>
@@ -8978,11 +8978,11 @@
       </c>
       <c r="O10" s="29">
         <f>SUM(Quantity!N4,Quantity!N9,Quantity!N38)/1000000</f>
-        <v>2.8206176875</v>
+        <v>3.6965427656249998</v>
       </c>
       <c r="P10" s="29">
         <f>SUM(Quantity!O4,Quantity!O9,Quantity!O38)/1000000</f>
-        <v>14.191510125000001</v>
+        <v>15.808105375</v>
       </c>
       <c r="Q10" s="29">
         <f>SUM(Quantity!P4,Quantity!P9,Quantity!P38)/1000000</f>
@@ -9083,11 +9083,11 @@
       </c>
       <c r="O11" s="29">
         <f>SUM(Quantity!N39,Quantity!N10)/1000000</f>
-        <v>1.180983234375</v>
+        <v>1.6683880468750001</v>
       </c>
       <c r="P11" s="29">
         <f>SUM(Quantity!O39,Quantity!O10)/1000000</f>
-        <v>2.8505099843749999</v>
+        <v>6.6287179375000003</v>
       </c>
       <c r="Q11" s="29">
         <f>SUM(Quantity!P39,Quantity!P10)/1000000</f>
@@ -9188,11 +9188,11 @@
       </c>
       <c r="O12" s="29">
         <f>SUM(Quantity!N28)/1000000</f>
-        <v>1.4032861249999999</v>
+        <v>0.59835906250000004</v>
       </c>
       <c r="P12" s="29">
         <f>SUM(Quantity!O28)/1000000</f>
-        <v>22.624244000000001</v>
+        <v>9.6123499999999993</v>
       </c>
       <c r="Q12" s="29">
         <f>SUM(Quantity!P28)/1000000</f>
@@ -9293,11 +9293,11 @@
       </c>
       <c r="O13" s="29">
         <f>SUM(Quantity!N24,Quantity!N29,Quantity!N36,Quantity!N14)/1000000</f>
-        <v>10.529678078308105</v>
+        <v>6.241428955078125</v>
       </c>
       <c r="P13" s="29">
         <f>SUM(Quantity!O24,Quantity!O29,Quantity!O36,Quantity!O14)/1000000</f>
-        <v>66.271911962890627</v>
+        <v>37.971195978515624</v>
       </c>
       <c r="Q13" s="29">
         <f>SUM(Quantity!P24,Quantity!P29,Quantity!P36,Quantity!P14)/1000000</f>
@@ -9398,11 +9398,11 @@
       </c>
       <c r="O14" s="29">
         <f>SUM(Quantity!N15)/1000000</f>
-        <v>9.2784440000000004</v>
+        <v>9.2784460000000006</v>
       </c>
       <c r="P14" s="29">
         <f>SUM(Quantity!O15)/1000000</f>
-        <v>30.817266</v>
+        <v>30.817267999999999</v>
       </c>
       <c r="Q14" s="29">
         <f>SUM(Quantity!P15)/1000000</f>
@@ -9503,11 +9503,11 @@
       </c>
       <c r="O15" s="29">
         <f>SUM(Quantity!N19,Quantity!N21)/1000000</f>
-        <v>38.906394902343749</v>
+        <v>29.422402343750001</v>
       </c>
       <c r="P15" s="29">
         <f>SUM(Quantity!O19,Quantity!O21)/1000000</f>
-        <v>294.22502962499999</v>
+        <v>236.95968837500001</v>
       </c>
       <c r="Q15" s="29">
         <f>SUM(Quantity!P19,Quantity!P21)/1000000</f>
@@ -9608,11 +9608,11 @@
       </c>
       <c r="O16" s="29">
         <f>SUM(Quantity!N5,Quantity!N40)/1000000</f>
-        <v>2.0847177499999998</v>
+        <v>2.0860872812500002</v>
       </c>
       <c r="P16" s="29">
         <f>SUM(Quantity!O5,Quantity!O40)/1000000</f>
-        <v>3.6164879375000001</v>
+        <v>3.6357935625</v>
       </c>
       <c r="Q16" s="29">
         <f>SUM(Quantity!P5,Quantity!P40)/1000000</f>
@@ -9713,11 +9713,11 @@
       </c>
       <c r="O17" s="29">
         <f>SUM(Quantity!N30,Quantity!N37)/1000000</f>
-        <v>3.4288643769531251</v>
+        <v>0.5377586848144531</v>
       </c>
       <c r="P17" s="29">
         <f>SUM(Quantity!O30,Quantity!O37)/1000000</f>
-        <v>94.443898312499996</v>
+        <v>12.0177239296875</v>
       </c>
       <c r="Q17" s="29">
         <f>SUM(Quantity!P30,Quantity!P37)/1000000</f>
@@ -9818,11 +9818,11 @@
       </c>
       <c r="O18" s="29">
         <f>SUM(Quantity!N6,Quantity!N34)/1000000</f>
-        <v>1.33601778125</v>
+        <v>2.3573646250000002</v>
       </c>
       <c r="P18" s="29">
         <f>SUM(Quantity!O6,Quantity!O34)/1000000</f>
-        <v>0.20079173242187501</v>
+        <v>0.91119068749999999</v>
       </c>
       <c r="Q18" s="29">
         <f>SUM(Quantity!P6,Quantity!P34)/1000000</f>
@@ -9923,11 +9923,11 @@
       </c>
       <c r="O19" s="29">
         <f>SUM(Quantity!N7,Quantity!N41)/1000000</f>
-        <v>8.4719429999999996</v>
+        <v>8.5427785000000007</v>
       </c>
       <c r="P19" s="29">
         <f>SUM(Quantity!O7,Quantity!O41)/1000000</f>
-        <v>37.696411249999997</v>
+        <v>37.7275785</v>
       </c>
       <c r="Q19" s="29">
         <f>SUM(Quantity!P7,Quantity!P41)/1000000</f>
@@ -10028,11 +10028,11 @@
       </c>
       <c r="O20" s="29">
         <f>SUM(Quantity!N31)/1000000</f>
-        <v>0.75670637500000004</v>
+        <v>0.34877446875000001</v>
       </c>
       <c r="P20" s="29">
         <f>SUM(Quantity!O31)/1000000</f>
-        <v>17.225718000000001</v>
+        <v>16.165692</v>
       </c>
       <c r="Q20" s="29">
         <f>SUM(Quantity!P31)/1000000</f>
@@ -10273,7 +10273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E942ED7D-3D70-4062-B69E-2AC81A6A5983}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
